--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="22995" windowHeight="10290" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="22995" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -966,7 +966,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,6 +1024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,7 +1907,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,13 +1938,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2245,7 +2253,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2269,19 +2277,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
-      <c r="K2" s="208" t="s">
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="213"/>
+      <c r="K2" s="211" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
@@ -2421,12 +2429,12 @@
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="60"/>
-      <c r="K9" s="208" t="s">
+      <c r="K9" s="211" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
@@ -2449,7 +2457,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="84">
-        <v>41653.106307870374</v>
+        <v>41653.135578703703</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="60"/>
@@ -2501,9 +2509,9 @@
       <c r="C14" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="81" t="e">
+      <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>_GBPYCSTD#0003</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
@@ -2522,8 +2530,8 @@
         <v>78</v>
       </c>
       <c r="D15" s="80" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v>qlPiecewiseYieldCurve - operToVectorImpl: error converting parameter 'RateHelpers' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : input value has type=error</v>
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <v/>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="60"/>
@@ -2626,26 +2634,26 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="64"/>
-      <c r="C23" s="68" t="e">
+      <c r="C23" s="68">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="67" t="e">
+        <v>41653</v>
+      </c>
+      <c r="D23" s="67">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#VALUE!</v>
+        <v>3.2828425899017369E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="64"/>
-      <c r="C24" s="66" t="e">
+      <c r="C24" s="66">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="65" t="e">
+        <v>63569</v>
+      </c>
+      <c r="D24" s="65">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#VALUE!</v>
+        <v>4.7999684386257728E-3</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="60"/>
@@ -2656,7 +2664,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="62" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
+        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
       <c r="E25" s="61"/>
@@ -2710,7 +2718,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2734,11 +2744,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
       <c r="E1" s="36" t="s">
         <v>76</v>
       </c>
@@ -2772,7 +2782,7 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>STD_Deposits!F3</f>
-        <v>GBP_YCSTDRH_OND#0000</v>
+        <v>GBP_YCSTDRH_OND#0003</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2812,7 +2822,7 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>STD_Deposits!F4</f>
-        <v>GBP_YCSTDRH_SWD#0000</v>
+        <v>GBP_YCSTDRH_SWD#0003</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2852,7 +2862,7 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>STD_Deposits!F5</f>
-        <v>GBP_YCSTDRH_2WD#0000</v>
+        <v>GBP_YCSTDRH_2WD#0003</v>
       </c>
       <c r="F4" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2892,7 +2902,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f>STD_Deposits!F6</f>
-        <v>GBP_YCSTDRH_3WD#0000</v>
+        <v>GBP_YCSTDRH_3WD#0003</v>
       </c>
       <c r="F5" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -2932,7 +2942,7 @@
       </c>
       <c r="E6" s="14" t="str">
         <f>STD_Deposits!F7</f>
-        <v>GBP_YCSTDRH_1MD#0000</v>
+        <v>GBP_YCSTDRH_1MD#0003</v>
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -2972,7 +2982,7 @@
       </c>
       <c r="E7" s="14" t="str">
         <f>STD_Deposits!F8</f>
-        <v>GBP_YCSTDRH_2MD#0000</v>
+        <v>GBP_YCSTDRH_2MD#0003</v>
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -3012,7 +3022,7 @@
       </c>
       <c r="E8" s="14" t="str">
         <f>STD_Deposits!F9</f>
-        <v>GBP_YCSTDRH_3MD#0000</v>
+        <v>GBP_YCSTDRH_3MD#0003</v>
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
@@ -3052,7 +3062,7 @@
       </c>
       <c r="E9" s="14" t="str">
         <f>STD_Deposits!F10</f>
-        <v>GBP_YCSTDRH_4MD#0000</v>
+        <v>GBP_YCSTDRH_4MD#0003</v>
       </c>
       <c r="F9" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3086,7 +3096,7 @@
       </c>
       <c r="E10" s="14" t="str">
         <f>STD_Deposits!F11</f>
-        <v>GBP_YCSTDRH_5MD#0000</v>
+        <v>GBP_YCSTDRH_5MD#0003</v>
       </c>
       <c r="F10" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3120,7 +3130,7 @@
       </c>
       <c r="E11" s="14" t="str">
         <f>STD_Deposits!F12</f>
-        <v>GBP_YCSTDRH_6MD#0000</v>
+        <v>GBP_YCSTDRH_6MD#0003</v>
       </c>
       <c r="F11" s="13">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
@@ -3144,9 +3154,9 @@
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
         <v>41834</v>
       </c>
-      <c r="Q11" s="31" t="e">
+      <c r="Q11" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,K2)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T11" s="96"/>
     </row>
@@ -3158,7 +3168,7 @@
       </c>
       <c r="E12" s="14" t="str">
         <f>STD_Deposits!F13</f>
-        <v>GBP_YCSTDRH_7MD#0000</v>
+        <v>GBP_YCSTDRH_7MD#0003</v>
       </c>
       <c r="F12" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
@@ -3193,7 +3203,7 @@
       </c>
       <c r="E13" s="14" t="str">
         <f>STD_Deposits!F14</f>
-        <v>GBP_YCSTDRH_8MD#0000</v>
+        <v>GBP_YCSTDRH_8MD#0003</v>
       </c>
       <c r="F13" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
@@ -3228,7 +3238,7 @@
       </c>
       <c r="E14" s="14" t="str">
         <f>STD_Deposits!F15</f>
-        <v>GBP_YCSTDRH_9MD#0000</v>
+        <v>GBP_YCSTDRH_9MD#0003</v>
       </c>
       <c r="F14" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
@@ -3252,13 +3262,13 @@
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
         <v>41926</v>
       </c>
-      <c r="O14" s="29" t="e">
+      <c r="O14" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L129,"act/365","simple","annual")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q14" s="31" t="e">
+        <v>5.166280337514962E-2</v>
+      </c>
+      <c r="Q14" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L129)</f>
-        <v>#VALUE!</v>
+        <v>0.40028479496546937</v>
       </c>
       <c r="T14" s="96"/>
     </row>
@@ -3270,7 +3280,7 @@
       </c>
       <c r="E15" s="14" t="str">
         <f>STD_Deposits!F16</f>
-        <v>GBP_YCSTDRH_10MD#0000</v>
+        <v>GBP_YCSTDRH_10MD#0003</v>
       </c>
       <c r="F15" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
@@ -3305,7 +3315,7 @@
       </c>
       <c r="E16" s="14" t="str">
         <f>STD_Deposits!F17</f>
-        <v>GBP_YCSTDRH_11MD#0000</v>
+        <v>GBP_YCSTDRH_11MD#0003</v>
       </c>
       <c r="F16" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
@@ -3340,7 +3350,7 @@
       </c>
       <c r="E17" s="7" t="str">
         <f>STD_Deposits!F18</f>
-        <v>GBP_YCSTDRH_1YD#0000</v>
+        <v>GBP_YCSTDRH_1YD#0003</v>
       </c>
       <c r="F17" s="6">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
@@ -3404,9 +3414,9 @@
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q18" s="31" t="e">
+      <c r="Q18" s="31">
         <f>1/Q14</f>
-        <v>#VALUE!</v>
+        <v>2.498221297879339</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -3492,13 +3502,13 @@
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q20" s="29" t="e">
+      <c r="Q20" s="29">
         <f>(Q18^(1/Q19))-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R20" s="29" t="e">
+        <v>3.2053827989094508E-2</v>
+      </c>
+      <c r="R20" s="29">
         <f>(Q18-1)/Q19</f>
-        <v>#VALUE!</v>
+        <v>5.1628660661438702E-2</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
@@ -4162,7 +4172,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>STD_Futures!I3</f>
-        <v>GBP_YCSTDRH_FUT3MF4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MF4#0003</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4188,6 +4198,13 @@
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
         <v>41744</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="e">
+        <f>_xll.qlRateHelperRate(E38)</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -4204,15 +4221,15 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>STD_Futures!I4</f>
-        <v>GBP_YCSTDRH_FUT3MG4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MG4#0003</v>
       </c>
       <c r="F39" s="28">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
         <v>99.484999999999999</v>
       </c>
-      <c r="G39" s="13" t="e">
+      <c r="G39" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
-        <v>#NUM!</v>
+        <v>8.9366675969727194E-7</v>
       </c>
       <c r="H39" s="12" t="b">
         <v>0</v>
@@ -4230,6 +4247,13 @@
       <c r="L39" s="10">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
         <v>41778</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="96">
+        <f>_xll.qlRateHelperRate(E39)</f>
+        <v>5.1491063332402909E-3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -4246,7 +4270,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>STD_Futures!I5</f>
-        <v>GBP_YCSTDRH_FUT3MH4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MH4#0003</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4272,6 +4296,13 @@
       <c r="L40" s="10">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
         <v>41809</v>
+      </c>
+      <c r="N40" s="1">
+        <v>3</v>
+      </c>
+      <c r="O40" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E40)</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -4288,7 +4319,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>STD_Futures!I6</f>
-        <v>GBP_YCSTDRH_FUT3MJ4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MJ4#0003</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4314,6 +4345,13 @@
       <c r="L41" s="10">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
         <v>41836</v>
+      </c>
+      <c r="N41" s="96">
+        <v>4</v>
+      </c>
+      <c r="O41" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E41)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P41" s="96"/>
     </row>
@@ -4331,15 +4369,15 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>STD_Futures!I7</f>
-        <v>GBP_YCSTDRH_FUT3MK4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MK4#0003</v>
       </c>
       <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
         <v>99.465000000000003</v>
       </c>
-      <c r="G42" s="13" t="e">
+      <c r="G42" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.5511097454801462E-6</v>
       </c>
       <c r="H42" s="12" t="b">
         <v>0</v>
@@ -4357,6 +4395,13 @@
       <c r="L42" s="10">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
         <v>41872</v>
+      </c>
+      <c r="N42" s="96">
+        <v>5</v>
+      </c>
+      <c r="O42" s="96">
+        <f>_xll.qlRateHelperRate(E42)</f>
+        <v>5.3454488902544856E-3</v>
       </c>
       <c r="P42" s="96"/>
     </row>
@@ -4374,7 +4419,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>STD_Futures!I8</f>
-        <v>GBP_YCSTDRH_FUT3MM4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MM4#0003</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4400,6 +4445,13 @@
       <c r="L43" s="10">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
         <v>41900</v>
+      </c>
+      <c r="N43" s="96">
+        <v>6</v>
+      </c>
+      <c r="O43" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E43)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P43" s="96"/>
     </row>
@@ -4417,7 +4469,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>STD_Futures!I9</f>
-        <v>GBP_YCSTDRH_FUT3MN4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MN4#0003</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4427,8 +4479,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H44" s="12" t="b">
-        <v>1</v>
+      <c r="H44" s="210" t="b">
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <v>60</v>
@@ -4443,6 +4495,13 @@
       <c r="L44" s="10">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
         <v>41928</v>
+      </c>
+      <c r="N44" s="96">
+        <v>7</v>
+      </c>
+      <c r="O44" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E44)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P44" s="96"/>
     </row>
@@ -4460,15 +4519,15 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>STD_Futures!I10</f>
-        <v>GBP_YCSTDRH_FUT3MQ4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MQ4#0003</v>
       </c>
       <c r="F45" s="28">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
         <v>99.460000000000008</v>
       </c>
-      <c r="G45" s="13" t="e">
+      <c r="G45" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.0028201943633485E-5</v>
       </c>
       <c r="H45" s="12" t="b">
         <v>1</v>
@@ -4486,6 +4545,13 @@
       <c r="L45" s="10">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
         <v>41963</v>
+      </c>
+      <c r="N45" s="96">
+        <v>8</v>
+      </c>
+      <c r="O45" s="96">
+        <f>_xll.qlRateHelperRate(E45)</f>
+        <v>5.3899717980563271E-3</v>
       </c>
       <c r="P45" s="96"/>
     </row>
@@ -4503,7 +4569,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>STD_Futures!I11</f>
-        <v>GBP_YCSTDRH_FUT3MU4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MU4#0003</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4513,8 +4579,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H46" s="12" t="b">
-        <v>1</v>
+      <c r="H46" s="210" t="b">
+        <v>0</v>
       </c>
       <c r="I46" s="12">
         <v>60</v>
@@ -4529,6 +4595,13 @@
       <c r="L46" s="10">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
         <v>41990</v>
+      </c>
+      <c r="N46" s="96">
+        <v>9</v>
+      </c>
+      <c r="O46" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E46)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P46" s="96"/>
     </row>
@@ -4546,7 +4619,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>STD_Futures!I12</f>
-        <v>GBP_YCSTDRH_FUT3MV4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MV4#0003</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4556,8 +4629,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H47" s="12" t="b">
-        <v>1</v>
+      <c r="H47" s="210" t="b">
+        <v>0</v>
       </c>
       <c r="I47" s="12">
         <v>60</v>
@@ -4572,6 +4645,13 @@
       <c r="L47" s="10">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
         <v>42019</v>
+      </c>
+      <c r="N47" s="96">
+        <v>10</v>
+      </c>
+      <c r="O47" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E47)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P47" s="96"/>
     </row>
@@ -4589,15 +4669,15 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>STD_Futures!I13</f>
-        <v>GBP_YCSTDRH_FUT3MX4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MX4#0003</v>
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
         <v>99.435000000000002</v>
       </c>
-      <c r="G48" s="13" t="e">
+      <c r="G48" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.7309250856406797E-5</v>
       </c>
       <c r="H48" s="12" t="b">
         <v>1</v>
@@ -4615,6 +4695,13 @@
       <c r="L48" s="10">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
         <v>42054</v>
+      </c>
+      <c r="N48" s="96">
+        <v>11</v>
+      </c>
+      <c r="O48" s="96">
+        <f>_xll.qlRateHelperRate(E48)</f>
+        <v>5.632690749143526E-3</v>
       </c>
       <c r="P48" s="96"/>
     </row>
@@ -4632,7 +4719,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>STD_Futures!I14</f>
-        <v>GBP_YCSTDRH_FUT3MZ4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MZ4#0003</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4642,8 +4729,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H49" s="12" t="b">
-        <v>1</v>
+      <c r="H49" s="210" t="b">
+        <v>0</v>
       </c>
       <c r="I49" s="12">
         <v>60</v>
@@ -4658,6 +4745,13 @@
       <c r="L49" s="10">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
         <v>42080</v>
+      </c>
+      <c r="N49" s="96">
+        <v>12</v>
+      </c>
+      <c r="O49" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E49)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P49" s="96"/>
     </row>
@@ -4673,17 +4767,17 @@
       <c r="D50" s="14" t="str">
         <v>F5</v>
       </c>
-      <c r="E50" s="14" t="e">
+      <c r="E50" s="14" t="str">
         <f>STD_Futures!I15</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F50" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MH5#0003</v>
+      </c>
+      <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="13" t="e">
+        <v>99.405000000000001</v>
+      </c>
+      <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>2.9484762016936334E-5</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>1</v>
@@ -4694,15 +4788,21 @@
       <c r="J50" s="12">
         <v>1</v>
       </c>
-      <c r="K50" s="11" t="e">
+      <c r="K50" s="11">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" s="10" t="e">
+        <v>42081</v>
+      </c>
+      <c r="L50" s="10">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O50" s="207"/>
+        <v>42173</v>
+      </c>
+      <c r="N50" s="96">
+        <v>13</v>
+      </c>
+      <c r="O50" s="96">
+        <f>_xll.qlRateHelperRate(E50)</f>
+        <v>5.9205152379830745E-3</v>
+      </c>
       <c r="P50" s="96"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -4717,17 +4817,17 @@
       <c r="D51" s="14" t="str">
         <v>G5</v>
       </c>
-      <c r="E51" s="14" t="e">
+      <c r="E51" s="14" t="str">
         <f>STD_Futures!I16</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F51" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MM5#0003</v>
+      </c>
+      <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" s="13" t="e">
+        <v>99.35499999999999</v>
+      </c>
+      <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>4.0777397257116945E-5</v>
       </c>
       <c r="H51" s="12" t="b">
         <v>1</v>
@@ -4738,15 +4838,21 @@
       <c r="J51" s="12">
         <v>1</v>
       </c>
-      <c r="K51" s="11" t="e">
+      <c r="K51" s="11">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" s="10" t="e">
+        <v>42172</v>
+      </c>
+      <c r="L51" s="10">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O51" s="207"/>
+        <v>42264</v>
+      </c>
+      <c r="N51" s="96">
+        <v>14</v>
+      </c>
+      <c r="O51" s="96">
+        <f>_xll.qlRateHelperRate(E51)</f>
+        <v>6.4092226027429502E-3</v>
+      </c>
       <c r="P51" s="96"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -4761,17 +4867,17 @@
       <c r="D52" s="14" t="str">
         <v>H5</v>
       </c>
-      <c r="E52" s="14" t="e">
+      <c r="E52" s="14" t="str">
         <f>STD_Futures!I17</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F52" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MU5#0003</v>
+      </c>
+      <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" s="13" t="e">
+        <v>99.305000000000007</v>
+      </c>
+      <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>5.3610802592238644E-5</v>
       </c>
       <c r="H52" s="12" t="b">
         <v>1</v>
@@ -4782,13 +4888,20 @@
       <c r="J52" s="12">
         <v>1</v>
       </c>
-      <c r="K52" s="11" t="e">
+      <c r="K52" s="11">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" s="10" t="e">
+        <v>42263</v>
+      </c>
+      <c r="L52" s="10">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42354</v>
+      </c>
+      <c r="N52" s="96">
+        <v>15</v>
+      </c>
+      <c r="O52" s="96">
+        <f>_xll.qlRateHelperRate(E52)</f>
+        <v>6.8963891974076624E-3</v>
       </c>
       <c r="P52" s="96"/>
     </row>
@@ -4804,17 +4917,17 @@
       <c r="D53" s="14" t="str">
         <v>J5</v>
       </c>
-      <c r="E53" s="14" t="e">
+      <c r="E53" s="14" t="str">
         <f>STD_Futures!I18</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F53" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MZ5#0003</v>
+      </c>
+      <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="13" t="e">
+        <v>99.234999999999999</v>
+      </c>
+      <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>6.8198371780715521E-5</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>1</v>
@@ -4825,13 +4938,20 @@
       <c r="J53" s="12">
         <v>1</v>
       </c>
-      <c r="K53" s="11" t="e">
+      <c r="K53" s="11">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" s="10" t="e">
+        <v>42354</v>
+      </c>
+      <c r="L53" s="10">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42445</v>
+      </c>
+      <c r="N53" s="96">
+        <v>16</v>
+      </c>
+      <c r="O53" s="96">
+        <f>_xll.qlRateHelperRate(E53)</f>
+        <v>7.5818016282193298E-3</v>
       </c>
       <c r="P53" s="96"/>
     </row>
@@ -4847,17 +4967,17 @@
       <c r="D54" s="14" t="str">
         <v>K5</v>
       </c>
-      <c r="E54" s="14" t="e">
+      <c r="E54" s="14" t="str">
         <f>STD_Futures!I19</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F54" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MH6#0003</v>
+      </c>
+      <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" s="13" t="e">
+        <v>99.164999999999992</v>
+      </c>
+      <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>8.4557340455810107E-5</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>1</v>
@@ -4868,13 +4988,20 @@
       <c r="J54" s="12">
         <v>1</v>
       </c>
-      <c r="K54" s="11" t="e">
+      <c r="K54" s="11">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" s="10" t="e">
+        <v>42445</v>
+      </c>
+      <c r="L54" s="10">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42537</v>
+      </c>
+      <c r="N54" s="96">
+        <v>17</v>
+      </c>
+      <c r="O54" s="96">
+        <f>_xll.qlRateHelperRate(E54)</f>
+        <v>8.2654426595442695E-3</v>
       </c>
       <c r="P54" s="96"/>
     </row>
@@ -4890,17 +5017,17 @@
       <c r="D55" s="14" t="str">
         <v>M5</v>
       </c>
-      <c r="E55" s="14" t="e">
+      <c r="E55" s="14" t="str">
         <f>STD_Futures!I20</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F55" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MM6#0003</v>
+      </c>
+      <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" s="13" t="e">
+        <v>99.074999999999989</v>
+      </c>
+      <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1.0233355146663395E-4</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>1</v>
@@ -4911,13 +5038,20 @@
       <c r="J55" s="12">
         <v>1</v>
       </c>
-      <c r="K55" s="11" t="e">
+      <c r="K55" s="11">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L55" s="10" t="e">
+        <v>42536</v>
+      </c>
+      <c r="L55" s="10">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42628</v>
+      </c>
+      <c r="N55" s="96">
+        <v>18</v>
+      </c>
+      <c r="O55" s="96">
+        <f>_xll.qlRateHelperRate(E55)</f>
+        <v>9.1476664485334574E-3</v>
       </c>
       <c r="P55" s="96"/>
     </row>
@@ -4933,17 +5067,17 @@
       <c r="D56" s="14" t="str">
         <v>N5</v>
       </c>
-      <c r="E56" s="14" t="e">
+      <c r="E56" s="14" t="str">
         <f>STD_Futures!I21</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F56" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MU6#0003</v>
+      </c>
+      <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" s="13" t="e">
+        <v>98.974999999999994</v>
+      </c>
+      <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1.2298009269079831E-4</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>1</v>
@@ -4954,13 +5088,20 @@
       <c r="J56" s="12">
         <v>1</v>
       </c>
-      <c r="K56" s="11" t="e">
+      <c r="K56" s="11">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" s="10" t="e">
+        <v>42634</v>
+      </c>
+      <c r="L56" s="10">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42725</v>
+      </c>
+      <c r="N56" s="96">
+        <v>19</v>
+      </c>
+      <c r="O56" s="96">
+        <f>_xll.qlRateHelperRate(E56)</f>
+        <v>1.0127019907309295E-2</v>
       </c>
       <c r="P56" s="96"/>
     </row>
@@ -4976,17 +5117,17 @@
       <c r="D57" s="14" t="str">
         <v>Q5</v>
       </c>
-      <c r="E57" s="14" t="e">
+      <c r="E57" s="14" t="str">
         <f>STD_Futures!I22</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F57" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MZ6#0003</v>
+      </c>
+      <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" s="13" t="e">
+        <v>98.865000000000009</v>
+      </c>
+      <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1.4365853870375688E-4</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>1</v>
@@ -4997,13 +5138,20 @@
       <c r="J57" s="12">
         <v>1</v>
       </c>
-      <c r="K57" s="11" t="e">
+      <c r="K57" s="11">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" s="10" t="e">
+        <v>42725</v>
+      </c>
+      <c r="L57" s="10">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42815</v>
+      </c>
+      <c r="N57" s="96">
+        <v>20</v>
+      </c>
+      <c r="O57" s="96">
+        <f>_xll.qlRateHelperRate(E57)</f>
+        <v>1.1206341461296104E-2</v>
       </c>
       <c r="P57" s="96"/>
     </row>
@@ -5019,17 +5167,17 @@
       <c r="D58" s="14" t="str">
         <v>U5</v>
       </c>
-      <c r="E58" s="14" t="e">
+      <c r="E58" s="14" t="str">
         <f>STD_Futures!I23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F58" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MH7#0003</v>
+      </c>
+      <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="13" t="e">
+        <v>98.754999999999995</v>
+      </c>
+      <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1.6472603077439979E-4</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>1</v>
@@ -5040,13 +5188,20 @@
       <c r="J58" s="12">
         <v>1</v>
       </c>
-      <c r="K58" s="11" t="e">
+      <c r="K58" s="11">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" s="10" t="e">
+        <v>42809</v>
+      </c>
+      <c r="L58" s="10">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42901</v>
+      </c>
+      <c r="N58" s="96">
+        <v>21</v>
+      </c>
+      <c r="O58" s="96">
+        <f>_xll.qlRateHelperRate(E58)</f>
+        <v>1.2285273969225673E-2</v>
       </c>
       <c r="P58" s="96"/>
     </row>
@@ -5062,17 +5217,17 @@
       <c r="D59" s="14" t="str">
         <v>V5</v>
       </c>
-      <c r="E59" s="14" t="e">
+      <c r="E59" s="14" t="str">
         <f>STD_Futures!I24</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F59" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MM7#0003</v>
+      </c>
+      <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="13" t="e">
+        <v>98.634999999999991</v>
+      </c>
+      <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>1.9031139310161588E-4</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>1</v>
@@ -5083,13 +5238,20 @@
       <c r="J59" s="12">
         <v>1</v>
       </c>
-      <c r="K59" s="11" t="e">
+      <c r="K59" s="11">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L59" s="10" t="e">
+        <v>42907</v>
+      </c>
+      <c r="L59" s="10">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42999</v>
+      </c>
+      <c r="N59" s="96">
+        <v>22</v>
+      </c>
+      <c r="O59" s="96">
+        <f>_xll.qlRateHelperRate(E59)</f>
+        <v>1.3459688606898435E-2</v>
       </c>
       <c r="P59" s="96"/>
     </row>
@@ -5105,17 +5267,17 @@
       <c r="D60" s="14" t="str">
         <v>X5</v>
       </c>
-      <c r="E60" s="14" t="e">
+      <c r="E60" s="14" t="str">
         <f>STD_Futures!I25</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F60" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MU7#0003</v>
+      </c>
+      <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="13" t="e">
+        <v>98.52000000000001</v>
+      </c>
+      <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>2.1524035239512188E-4</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>1</v>
@@ -5126,13 +5288,20 @@
       <c r="J60" s="12">
         <v>1</v>
       </c>
-      <c r="K60" s="11" t="e">
+      <c r="K60" s="11">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L60" s="10" t="e">
+        <v>42998</v>
+      </c>
+      <c r="L60" s="10">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43089</v>
+      </c>
+      <c r="N60" s="96">
+        <v>23</v>
+      </c>
+      <c r="O60" s="96">
+        <f>_xll.qlRateHelperRate(E60)</f>
+        <v>1.4584759647604802E-2</v>
       </c>
       <c r="P60" s="96"/>
     </row>
@@ -5148,17 +5317,17 @@
       <c r="D61" s="14" t="str">
         <v>Z5</v>
       </c>
-      <c r="E61" s="14" t="e">
+      <c r="E61" s="14" t="str">
         <f>STD_Futures!I26</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F61" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MZ7#0003</v>
+      </c>
+      <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="13" t="e">
+        <v>98.38</v>
+      </c>
+      <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>2.4151168956712443E-4</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>1</v>
@@ -5169,13 +5338,20 @@
       <c r="J61" s="12">
         <v>1</v>
       </c>
-      <c r="K61" s="11" t="e">
+      <c r="K61" s="11">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L61" s="10" t="e">
+        <v>43089</v>
+      </c>
+      <c r="L61" s="10">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43179</v>
+      </c>
+      <c r="N61" s="96">
+        <v>24</v>
+      </c>
+      <c r="O61" s="96">
+        <f>_xll.qlRateHelperRate(E61)</f>
+        <v>1.5958488310432867E-2</v>
       </c>
       <c r="P61" s="96"/>
     </row>
@@ -5191,17 +5367,17 @@
       <c r="D62" s="14" t="str">
         <v>F6</v>
       </c>
-      <c r="E62" s="14" t="e">
+      <c r="E62" s="14" t="str">
         <f>STD_Futures!I27</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F62" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MH8#0003</v>
+      </c>
+      <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" s="13" t="e">
+        <v>98.259999999999991</v>
+      </c>
+      <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>2.7001520002261118E-4</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>1</v>
@@ -5212,13 +5388,20 @@
       <c r="J62" s="12">
         <v>1</v>
       </c>
-      <c r="K62" s="11" t="e">
+      <c r="K62" s="11">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L62" s="10" t="e">
+        <v>43180</v>
+      </c>
+      <c r="L62" s="10">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43272</v>
+      </c>
+      <c r="N62" s="96">
+        <v>25</v>
+      </c>
+      <c r="O62" s="96">
+        <f>_xll.qlRateHelperRate(E62)</f>
+        <v>1.7129984799977471E-2</v>
       </c>
       <c r="P62" s="96"/>
     </row>
@@ -5234,17 +5417,17 @@
       <c r="D63" s="14" t="str">
         <v>G6</v>
       </c>
-      <c r="E63" s="14" t="e">
+      <c r="E63" s="14" t="str">
         <f>STD_Futures!I28</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F63" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MM8#0003</v>
+      </c>
+      <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" s="13" t="e">
+        <v>98.14</v>
+      </c>
+      <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>2.9922387628462461E-4</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>1</v>
@@ -5255,13 +5438,20 @@
       <c r="J63" s="12">
         <v>1</v>
       </c>
-      <c r="K63" s="11" t="e">
+      <c r="K63" s="11">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L63" s="10" t="e">
+        <v>43271</v>
+      </c>
+      <c r="L63" s="10">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43363</v>
+      </c>
+      <c r="N63" s="96">
+        <v>26</v>
+      </c>
+      <c r="O63" s="96">
+        <f>_xll.qlRateHelperRate(E63)</f>
+        <v>1.8300776123715324E-2</v>
       </c>
       <c r="P63" s="96"/>
     </row>
@@ -5277,17 +5467,17 @@
       <c r="D64" s="14" t="str">
         <v>H6</v>
       </c>
-      <c r="E64" s="14" t="e">
+      <c r="E64" s="14" t="str">
         <f>STD_Futures!I29</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU8#0003</v>
       </c>
       <c r="F64" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>1</v>
@@ -5298,13 +5488,20 @@
       <c r="J64" s="12">
         <v>1</v>
       </c>
-      <c r="K64" s="11" t="e">
+      <c r="K64" s="11">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L64" s="10" t="e">
+        <v>43362</v>
+      </c>
+      <c r="L64" s="10">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43453</v>
+      </c>
+      <c r="N64" s="96">
+        <v>27</v>
+      </c>
+      <c r="O64" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E64)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P64" s="96"/>
     </row>
@@ -5320,17 +5517,17 @@
       <c r="D65" s="14" t="str">
         <v>J6</v>
       </c>
-      <c r="E65" s="14" t="e">
+      <c r="E65" s="14" t="str">
         <f>STD_Futures!I30</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ8#0003</v>
       </c>
       <c r="F65" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>1</v>
@@ -5341,13 +5538,20 @@
       <c r="J65" s="12">
         <v>1</v>
       </c>
-      <c r="K65" s="11" t="e">
+      <c r="K65" s="11">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L65" s="10" t="e">
+        <v>43453</v>
+      </c>
+      <c r="L65" s="10">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43543</v>
+      </c>
+      <c r="N65" s="96">
+        <v>28</v>
+      </c>
+      <c r="O65" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E65)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P65" s="96"/>
     </row>
@@ -5363,17 +5567,17 @@
       <c r="D66" s="14" t="str">
         <v>K6</v>
       </c>
-      <c r="E66" s="14" t="e">
+      <c r="E66" s="14" t="str">
         <f>STD_Futures!I31</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH9#0003</v>
       </c>
       <c r="F66" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>1</v>
@@ -5384,13 +5588,20 @@
       <c r="J66" s="12">
         <v>1</v>
       </c>
-      <c r="K66" s="11" t="e">
+      <c r="K66" s="11">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L66" s="10" t="e">
+        <v>43544</v>
+      </c>
+      <c r="L66" s="10">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43636</v>
+      </c>
+      <c r="N66" s="96">
+        <v>29</v>
+      </c>
+      <c r="O66" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E66)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P66" s="96"/>
     </row>
@@ -5406,17 +5617,17 @@
       <c r="D67" s="14" t="str">
         <v>M6</v>
       </c>
-      <c r="E67" s="14" t="e">
+      <c r="E67" s="14" t="str">
         <f>STD_Futures!I32</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM9#0003</v>
       </c>
       <c r="F67" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G67" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>1</v>
@@ -5427,13 +5638,20 @@
       <c r="J67" s="12">
         <v>1</v>
       </c>
-      <c r="K67" s="11" t="e">
+      <c r="K67" s="11">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L67" s="10" t="e">
+        <v>43635</v>
+      </c>
+      <c r="L67" s="10">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43727</v>
+      </c>
+      <c r="N67" s="96">
+        <v>30</v>
+      </c>
+      <c r="O67" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E67)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P67" s="96"/>
     </row>
@@ -5449,17 +5667,17 @@
       <c r="D68" s="14" t="str">
         <v>N6</v>
       </c>
-      <c r="E68" s="14" t="e">
+      <c r="E68" s="14" t="str">
         <f>STD_Futures!I33</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU9#0003</v>
       </c>
       <c r="F68" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G68" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>1</v>
@@ -5470,13 +5688,20 @@
       <c r="J68" s="12">
         <v>1</v>
       </c>
-      <c r="K68" s="11" t="e">
+      <c r="K68" s="11">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L68" s="10" t="e">
+        <v>43726</v>
+      </c>
+      <c r="L68" s="10">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43817</v>
+      </c>
+      <c r="N68" s="96">
+        <v>31</v>
+      </c>
+      <c r="O68" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E68)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P68" s="96"/>
     </row>
@@ -5492,17 +5717,17 @@
       <c r="D69" s="14" t="str">
         <v>Q6</v>
       </c>
-      <c r="E69" s="14" t="e">
+      <c r="E69" s="14" t="str">
         <f>STD_Futures!I34</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ9#0003</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G69" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>1</v>
@@ -5513,13 +5738,20 @@
       <c r="J69" s="12">
         <v>1</v>
       </c>
-      <c r="K69" s="11" t="e">
+      <c r="K69" s="11">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L69" s="10" t="e">
+        <v>43817</v>
+      </c>
+      <c r="L69" s="10">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>43908</v>
+      </c>
+      <c r="N69" s="96">
+        <v>32</v>
+      </c>
+      <c r="O69" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E69)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P69" s="96"/>
     </row>
@@ -5535,17 +5767,17 @@
       <c r="D70" s="14" t="str">
         <v>U6</v>
       </c>
-      <c r="E70" s="14" t="e">
+      <c r="E70" s="14" t="str">
         <f>STD_Futures!I35</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH0#0003</v>
       </c>
       <c r="F70" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G70" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E70,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>1</v>
@@ -5556,13 +5788,20 @@
       <c r="J70" s="12">
         <v>1</v>
       </c>
-      <c r="K70" s="11" t="e">
+      <c r="K70" s="11">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" s="10" t="e">
+        <v>43908</v>
+      </c>
+      <c r="L70" s="10">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44000</v>
+      </c>
+      <c r="N70" s="96">
+        <v>33</v>
+      </c>
+      <c r="O70" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E70)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P70" s="96"/>
     </row>
@@ -5578,17 +5817,17 @@
       <c r="D71" s="14" t="str">
         <v>V6</v>
       </c>
-      <c r="E71" s="14" t="e">
+      <c r="E71" s="14" t="str">
         <f>STD_Futures!I36</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM0#0003</v>
       </c>
       <c r="F71" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E71,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>1</v>
@@ -5599,13 +5838,20 @@
       <c r="J71" s="12">
         <v>1</v>
       </c>
-      <c r="K71" s="11" t="e">
+      <c r="K71" s="11">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L71" s="10" t="e">
+        <v>43999</v>
+      </c>
+      <c r="L71" s="10">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44091</v>
+      </c>
+      <c r="N71" s="96">
+        <v>34</v>
+      </c>
+      <c r="O71" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E71)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P71" s="96"/>
     </row>
@@ -5621,17 +5867,17 @@
       <c r="D72" s="14" t="str">
         <v>X6</v>
       </c>
-      <c r="E72" s="14" t="e">
+      <c r="E72" s="14" t="str">
         <f>STD_Futures!I37</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU0#0003</v>
       </c>
       <c r="F72" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G72" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E72,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>1</v>
@@ -5642,13 +5888,20 @@
       <c r="J72" s="12">
         <v>1</v>
       </c>
-      <c r="K72" s="11" t="e">
+      <c r="K72" s="11">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L72" s="10" t="e">
+        <v>44090</v>
+      </c>
+      <c r="L72" s="10">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44181</v>
+      </c>
+      <c r="N72" s="96">
+        <v>35</v>
+      </c>
+      <c r="O72" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E72)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P72" s="96"/>
     </row>
@@ -5664,17 +5917,17 @@
       <c r="D73" s="14" t="str">
         <v>Z6</v>
       </c>
-      <c r="E73" s="14" t="e">
+      <c r="E73" s="14" t="str">
         <f>STD_Futures!I38</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ0#0003</v>
       </c>
       <c r="F73" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G73" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E73,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>1</v>
@@ -5685,13 +5938,20 @@
       <c r="J73" s="12">
         <v>1</v>
       </c>
-      <c r="K73" s="11" t="e">
+      <c r="K73" s="11">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L73" s="10" t="e">
+        <v>44181</v>
+      </c>
+      <c r="L73" s="10">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44271</v>
+      </c>
+      <c r="N73" s="96">
+        <v>36</v>
+      </c>
+      <c r="O73" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E73)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P73" s="96"/>
     </row>
@@ -5707,17 +5967,17 @@
       <c r="D74" s="14" t="str">
         <v>F7</v>
       </c>
-      <c r="E74" s="14" t="e">
+      <c r="E74" s="14" t="str">
         <f>STD_Futures!I39</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH1#0003</v>
       </c>
       <c r="F74" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G74" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E74,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>1</v>
@@ -5728,13 +5988,20 @@
       <c r="J74" s="12">
         <v>1</v>
       </c>
-      <c r="K74" s="11" t="e">
+      <c r="K74" s="11">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L74" s="10" t="e">
+        <v>44272</v>
+      </c>
+      <c r="L74" s="10">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44364</v>
+      </c>
+      <c r="N74" s="96">
+        <v>37</v>
+      </c>
+      <c r="O74" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E74)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P74" s="96"/>
     </row>
@@ -5750,17 +6017,17 @@
       <c r="D75" s="14" t="str">
         <v>G7</v>
       </c>
-      <c r="E75" s="14" t="e">
+      <c r="E75" s="14" t="str">
         <f>STD_Futures!I40</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM1#0003</v>
       </c>
       <c r="F75" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G75" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>1</v>
@@ -5771,13 +6038,20 @@
       <c r="J75" s="12">
         <v>1</v>
       </c>
-      <c r="K75" s="11" t="e">
+      <c r="K75" s="11">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L75" s="10" t="e">
+        <v>44363</v>
+      </c>
+      <c r="L75" s="10">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44455</v>
+      </c>
+      <c r="N75" s="96">
+        <v>38</v>
+      </c>
+      <c r="O75" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E75)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P75" s="96"/>
     </row>
@@ -5793,17 +6067,17 @@
       <c r="D76" s="14" t="str">
         <v>H7</v>
       </c>
-      <c r="E76" s="14" t="e">
+      <c r="E76" s="14" t="str">
         <f>STD_Futures!I41</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU1#0003</v>
       </c>
       <c r="F76" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E76,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>1</v>
@@ -5814,13 +6088,20 @@
       <c r="J76" s="12">
         <v>1</v>
       </c>
-      <c r="K76" s="11" t="e">
+      <c r="K76" s="11">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L76" s="10" t="e">
+        <v>44454</v>
+      </c>
+      <c r="L76" s="10">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44545</v>
+      </c>
+      <c r="N76" s="96">
+        <v>39</v>
+      </c>
+      <c r="O76" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E76)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P76" s="96"/>
     </row>
@@ -5836,17 +6117,17 @@
       <c r="D77" s="14" t="str">
         <v>J7</v>
       </c>
-      <c r="E77" s="14" t="e">
+      <c r="E77" s="14" t="str">
         <f>STD_Futures!I42</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ1#0003</v>
       </c>
       <c r="F77" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G77" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E77,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>1</v>
@@ -5857,13 +6138,20 @@
       <c r="J77" s="12">
         <v>1</v>
       </c>
-      <c r="K77" s="11" t="e">
+      <c r="K77" s="11">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L77" s="10" t="e">
+        <v>44545</v>
+      </c>
+      <c r="L77" s="10">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44635</v>
+      </c>
+      <c r="N77" s="96">
+        <v>40</v>
+      </c>
+      <c r="O77" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E77)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P77" s="96"/>
     </row>
@@ -5879,17 +6167,17 @@
       <c r="D78" s="14" t="str">
         <v>K7</v>
       </c>
-      <c r="E78" s="14" t="e">
+      <c r="E78" s="14" t="str">
         <f>STD_Futures!I43</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH2#0003</v>
       </c>
       <c r="F78" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G78" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E78,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>1</v>
@@ -5900,13 +6188,20 @@
       <c r="J78" s="12">
         <v>1</v>
       </c>
-      <c r="K78" s="11" t="e">
+      <c r="K78" s="11">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L78" s="10" t="e">
+        <v>44636</v>
+      </c>
+      <c r="L78" s="10">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44728</v>
+      </c>
+      <c r="N78" s="96">
+        <v>41</v>
+      </c>
+      <c r="O78" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E78)</f>
+        <v>#NUM!</v>
       </c>
       <c r="P78" s="96"/>
     </row>
@@ -5922,17 +6217,17 @@
       <c r="D79" s="7" t="str">
         <v>M7</v>
       </c>
-      <c r="E79" s="7" t="e">
+      <c r="E79" s="7" t="str">
         <f>STD_Futures!I44</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM2#0003</v>
       </c>
       <c r="F79" s="27" t="e">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="G79" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E79,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H79" s="5" t="b">
         <v>0</v>
@@ -5943,15 +6238,22 @@
       <c r="J79" s="12">
         <v>1</v>
       </c>
-      <c r="K79" s="4" t="e">
+      <c r="K79" s="4">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L79" s="3" t="e">
+        <v>44727</v>
+      </c>
+      <c r="L79" s="3">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>44819</v>
       </c>
       <c r="M79" s="26"/>
+      <c r="N79" s="96">
+        <v>42</v>
+      </c>
+      <c r="O79" s="96" t="e">
+        <f>_xll.qlRateHelperRate(E79)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="P79" s="96"/>
     </row>
     <row r="80" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6654,7 +6956,7 @@
       </c>
       <c r="E98" s="14" t="str">
         <f>STD_Swaps!L6</f>
-        <v>GBP_YCSTDRH_SB6L1Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L1Y#0003</v>
       </c>
       <c r="F98" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6700,7 +7002,7 @@
       </c>
       <c r="E99" s="14" t="str">
         <f>STD_Swaps!L7</f>
-        <v>GBP_YCSTDRH_SB6L15M#0000</v>
+        <v>GBP_YCSTDRH_SB6L15M#0003</v>
       </c>
       <c r="F99" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -6746,7 +7048,7 @@
       </c>
       <c r="E100" s="14" t="str">
         <f>STD_Swaps!L8</f>
-        <v>GBP_YCSTDRH_SB6L18M#0000</v>
+        <v>GBP_YCSTDRH_SB6L18M#0003</v>
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -6792,7 +7094,7 @@
       </c>
       <c r="E101" s="14" t="str">
         <f>STD_Swaps!L9</f>
-        <v>GBP_YCSTDRH_SB6L21M#0000</v>
+        <v>GBP_YCSTDRH_SB6L21M#0003</v>
       </c>
       <c r="F101" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -6838,7 +7140,7 @@
       </c>
       <c r="E102" s="14" t="str">
         <f>STD_Swaps!L10</f>
-        <v>GBP_YCSTDRH_SB6L2Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L2Y#0003</v>
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -6884,7 +7186,7 @@
       </c>
       <c r="E103" s="14" t="str">
         <f>STD_Swaps!L11</f>
-        <v>GBP_YCSTDRH_SB6L3Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L3Y#0003</v>
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -6930,7 +7232,7 @@
       </c>
       <c r="E104" s="14" t="str">
         <f>STD_Swaps!L12</f>
-        <v>GBP_YCSTDRH_SB6L4Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L4Y#0003</v>
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -6976,7 +7278,7 @@
       </c>
       <c r="E105" s="14" t="str">
         <f>STD_Swaps!L13</f>
-        <v>GBP_YCSTDRH_SB6L5Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L5Y#0003</v>
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -7022,7 +7324,7 @@
       </c>
       <c r="E106" s="14" t="str">
         <f>STD_Swaps!L14</f>
-        <v>GBP_YCSTDRH_SB6L6Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L6Y#0003</v>
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -7068,7 +7370,7 @@
       </c>
       <c r="E107" s="14" t="str">
         <f>STD_Swaps!L15</f>
-        <v>GBP_YCSTDRH_SB6L7Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L7Y#0003</v>
       </c>
       <c r="F107" s="13">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7114,7 +7416,7 @@
       </c>
       <c r="E108" s="14" t="str">
         <f>STD_Swaps!L16</f>
-        <v>GBP_YCSTDRH_SB6L8Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L8Y#0003</v>
       </c>
       <c r="F108" s="13">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7160,7 +7462,7 @@
       </c>
       <c r="E109" s="14" t="str">
         <f>STD_Swaps!L17</f>
-        <v>GBP_YCSTDRH_SB6L9Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L9Y#0003</v>
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7206,7 +7508,7 @@
       </c>
       <c r="E110" s="14" t="str">
         <f>STD_Swaps!L18</f>
-        <v>GBP_YCSTDRH_SB6L10Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L10Y#0003</v>
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7252,7 +7554,7 @@
       </c>
       <c r="E111" s="14" t="str">
         <f>STD_Swaps!L19</f>
-        <v>GBP_YCSTDRH_SB6L11Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L11Y#0003</v>
       </c>
       <c r="F111" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7298,7 +7600,7 @@
       </c>
       <c r="E112" s="14" t="str">
         <f>STD_Swaps!L20</f>
-        <v>GBP_YCSTDRH_SB6L12Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L12Y#0003</v>
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7344,7 +7646,7 @@
       </c>
       <c r="E113" s="14" t="str">
         <f>STD_Swaps!L21</f>
-        <v>GBP_YCSTDRH_SB6L13Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L13Y#0003</v>
       </c>
       <c r="F113" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7390,7 +7692,7 @@
       </c>
       <c r="E114" s="14" t="str">
         <f>STD_Swaps!L22</f>
-        <v>GBP_YCSTDRH_SB6L14Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L14Y#0003</v>
       </c>
       <c r="F114" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7436,7 +7738,7 @@
       </c>
       <c r="E115" s="14" t="str">
         <f>STD_Swaps!L23</f>
-        <v>GBP_YCSTDRH_SB6L15Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L15Y#0003</v>
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7482,7 +7784,7 @@
       </c>
       <c r="E116" s="14" t="str">
         <f>STD_Swaps!L24</f>
-        <v>GBP_YCSTDRH_SB6L16Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L16Y#0003</v>
       </c>
       <c r="F116" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7528,7 +7830,7 @@
       </c>
       <c r="E117" s="14" t="str">
         <f>STD_Swaps!L25</f>
-        <v>GBP_YCSTDRH_SB6L17Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L17Y#0003</v>
       </c>
       <c r="F117" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7574,7 +7876,7 @@
       </c>
       <c r="E118" s="14" t="str">
         <f>STD_Swaps!L26</f>
-        <v>GBP_YCSTDRH_SB6L18Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L18Y#0003</v>
       </c>
       <c r="F118" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7620,7 +7922,7 @@
       </c>
       <c r="E119" s="14" t="str">
         <f>STD_Swaps!L27</f>
-        <v>GBP_YCSTDRH_SB6L19Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L19Y#0003</v>
       </c>
       <c r="F119" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7666,7 +7968,7 @@
       </c>
       <c r="E120" s="14" t="str">
         <f>STD_Swaps!L28</f>
-        <v>GBP_YCSTDRH_SB6L20Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L20Y#0003</v>
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7712,7 +8014,7 @@
       </c>
       <c r="E121" s="14" t="str">
         <f>STD_Swaps!L29</f>
-        <v>GBP_YCSTDRH_SB6L21Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L21Y#0003</v>
       </c>
       <c r="F121" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -7758,7 +8060,7 @@
       </c>
       <c r="E122" s="14" t="str">
         <f>STD_Swaps!L30</f>
-        <v>GBP_YCSTDRH_SB6L22Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L22Y#0003</v>
       </c>
       <c r="F122" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7804,7 +8106,7 @@
       </c>
       <c r="E123" s="14" t="str">
         <f>STD_Swaps!L31</f>
-        <v>GBP_YCSTDRH_SB6L23Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L23Y#0003</v>
       </c>
       <c r="F123" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -7850,7 +8152,7 @@
       </c>
       <c r="E124" s="14" t="str">
         <f>STD_Swaps!L32</f>
-        <v>GBP_YCSTDRH_SB6L24Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L24Y#0003</v>
       </c>
       <c r="F124" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -7896,7 +8198,7 @@
       </c>
       <c r="E125" s="14" t="str">
         <f>STD_Swaps!L33</f>
-        <v>GBP_YCSTDRH_SB6L25Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L25Y#0003</v>
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7942,7 +8244,7 @@
       </c>
       <c r="E126" s="14" t="str">
         <f>STD_Swaps!L34</f>
-        <v>GBP_YCSTDRH_SB6L26Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L26Y#0003</v>
       </c>
       <c r="F126" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -7988,7 +8290,7 @@
       </c>
       <c r="E127" s="14" t="str">
         <f>STD_Swaps!L35</f>
-        <v>GBP_YCSTDRH_SB6L27Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L27Y#0003</v>
       </c>
       <c r="F127" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -8034,7 +8336,7 @@
       </c>
       <c r="E128" s="14" t="str">
         <f>STD_Swaps!L36</f>
-        <v>GBP_YCSTDRH_SB6L28Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L28Y#0003</v>
       </c>
       <c r="F128" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -8080,7 +8382,7 @@
       </c>
       <c r="E129" s="14" t="str">
         <f>STD_Swaps!L37</f>
-        <v>GBP_YCSTDRH_SB6L29Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L29Y#0003</v>
       </c>
       <c r="F129" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8126,7 +8428,7 @@
       </c>
       <c r="E130" s="14" t="str">
         <f>STD_Swaps!L38</f>
-        <v>GBP_YCSTDRH_SB6L30Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L30Y#0003</v>
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -8172,7 +8474,7 @@
       </c>
       <c r="E131" s="14" t="str">
         <f>STD_Swaps!L39</f>
-        <v>GBP_YCSTDRH_SB6L35Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L35Y#0003</v>
       </c>
       <c r="F131" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -8218,7 +8520,7 @@
       </c>
       <c r="E132" s="14" t="str">
         <f>STD_Swaps!L40</f>
-        <v>GBP_YCSTDRH_SB6L40Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L40Y#0003</v>
       </c>
       <c r="F132" s="13">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8264,7 +8566,7 @@
       </c>
       <c r="E133" s="14" t="str">
         <f>STD_Swaps!L41</f>
-        <v>GBP_YCSTDRH_SB6L50Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L50Y#0003</v>
       </c>
       <c r="F133" s="13">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8310,7 +8612,7 @@
       </c>
       <c r="E134" s="7" t="str">
         <f>STD_Swaps!L42</f>
-        <v>GBP_YCSTDRH_SB6L60Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L60Y#0003</v>
       </c>
       <c r="F134" s="6">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -9913,7 +10215,7 @@
   <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9933,10 +10235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="218"/>
       <c r="D1" s="56" t="s">
         <v>85</v>
       </c>
@@ -9950,9 +10252,9 @@
       <c r="H1" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="37" t="e">
+      <c r="I1" s="37">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#VALUE!</v>
+        <v>4.7999684386257728E-3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -9962,28 +10264,28 @@
       <c r="B2" s="52">
         <v>6</v>
       </c>
-      <c r="D2" s="45" t="e">
+      <c r="D2" s="45" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="44" t="e">
+        <v>GBP_YCSTDRH_OND</v>
+      </c>
+      <c r="E2" s="44">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>#VALUE!</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F2" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>--</v>
       </c>
-      <c r="G2" s="43" t="e">
+      <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H2" s="42">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>41654</v>
+      </c>
+      <c r="I2" s="37">
+        <v>4.7999684386257728E-3</v>
       </c>
       <c r="L2" s="96" t="s">
         <v>117</v>
@@ -9999,31 +10301,31 @@
       <c r="B3" s="51">
         <v>0</v>
       </c>
-      <c r="D3" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" s="44" t="e">
+      <c r="D3" s="45" t="str">
+        <v>GBP_YCSTDRH_SWD</v>
+      </c>
+      <c r="E3" s="44">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>#VALUE!</v>
+        <v>4.8687999999999995E-3</v>
       </c>
       <c r="F3" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>--</v>
       </c>
-      <c r="G3" s="43" t="e">
+      <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H3" s="42">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" s="1" t="e">
+        <v>41660</v>
+      </c>
+      <c r="I3" s="37">
+        <v>4.8685727038884508E-3</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" ref="J3:J36" si="0">H3-H2</f>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
       <c r="L3" s="96" t="s">
         <v>118</v>
@@ -10039,31 +10341,31 @@
       <c r="B4" s="51">
         <v>5</v>
       </c>
-      <c r="D4" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" s="44" t="e">
+      <c r="D4" s="45" t="str">
+        <v>GBP_YCSTDRH_1MD</v>
+      </c>
+      <c r="E4" s="44">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>#VALUE!</v>
+        <v>4.9249999999999997E-3</v>
       </c>
       <c r="F4" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>--</v>
       </c>
-      <c r="G4" s="43" t="e">
+      <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H4" s="42">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" s="1" t="e">
+        <v>41684</v>
+      </c>
+      <c r="I4" s="37">
+        <v>4.923970253753864E-3</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>24</v>
       </c>
       <c r="L4" s="96" t="s">
         <v>119</v>
@@ -10079,31 +10381,31 @@
       <c r="B5" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" s="44" t="e">
+      <c r="D5" s="45" t="str">
+        <v>GBP_YCSTDRH_2MD</v>
+      </c>
+      <c r="E5" s="44">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>#VALUE!</v>
+        <v>4.9838E-3</v>
       </c>
       <c r="F5" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>--</v>
       </c>
-      <c r="G5" s="43" t="e">
+      <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H5" s="42">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="1" t="e">
+        <v>41712</v>
+      </c>
+      <c r="I5" s="37">
+        <v>4.9817936016798049E-3</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>28</v>
       </c>
       <c r="L5" s="96" t="s">
         <v>120</v>
@@ -10117,34 +10419,34 @@
         <v>78</v>
       </c>
       <c r="B6" s="48" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!D2)</f>
-        <v>qlRateHelperSelection - operToVectorImpl: error converting parameter 'RateHelpers' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to typ</v>
-      </c>
-      <c r="D6" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="44" t="e">
+        <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="45" t="str">
+        <v>GBP_YCSTDRH_3MD</v>
+      </c>
+      <c r="E6" s="44">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>#VALUE!</v>
+        <v>5.0812999999999995E-3</v>
       </c>
       <c r="F6" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>--</v>
       </c>
-      <c r="G6" s="43" t="e">
+      <c r="G6" s="43">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H6" s="42">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="1" t="e">
+        <v>41743</v>
+      </c>
+      <c r="I6" s="37">
+        <v>5.0781194168563254E-3</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="L6" s="96" t="s">
         <v>121</v>
@@ -10154,39 +10456,39 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="e">
+      <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
-        <v>ohGroup - operToVectorImpl: error converting parameter 'ObjectIdList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class std:</v>
-      </c>
-      <c r="D7" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" s="44" t="e">
+        <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
+        <v/>
+      </c>
+      <c r="D7" s="45" t="str">
+        <v>GBP_YCSTDRH_6MD</v>
+      </c>
+      <c r="E7" s="44">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>#VALUE!</v>
+        <v>5.9175E-3</v>
       </c>
       <c r="F7" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>--</v>
       </c>
-      <c r="G7" s="43" t="e">
+      <c r="G7" s="43">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H7" s="42">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="1" t="e">
+        <v>41834</v>
+      </c>
+      <c r="I7" s="37">
+        <v>5.9088346983128736E-3</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>91</v>
       </c>
       <c r="L7" s="96" t="s">
         <v>122</v>
@@ -10196,31 +10498,31 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D8" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" s="44" t="e">
+      <c r="D8" s="45" t="str">
+        <v>GBP_YCSTDRH_1YD</v>
+      </c>
+      <c r="E8" s="44">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>#VALUE!</v>
+        <v>8.7938000000000009E-3</v>
       </c>
       <c r="F8" s="44" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>--</v>
       </c>
-      <c r="G8" s="43" t="e">
+      <c r="G8" s="43">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H8" s="42">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="1" t="e">
+        <v>42018</v>
+      </c>
+      <c r="I8" s="37">
+        <v>8.7553597337468054E-3</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>184</v>
       </c>
       <c r="L8" s="96" t="s">
         <v>123</v>
@@ -10230,31 +10532,31 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D9" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" s="44" t="e">
+      <c r="D9" s="45" t="str">
+        <v>GBP_YCSTDRH_FUT3MH5</v>
+      </c>
+      <c r="E9" s="44">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="44" t="str">
+        <v>5.9205152379830745E-3</v>
+      </c>
+      <c r="F9" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>--</v>
-      </c>
-      <c r="G9" s="43" t="e">
+        <v>2.9484762016936334E-5</v>
+      </c>
+      <c r="G9" s="43">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="42" t="e">
+        <v>42081</v>
+      </c>
+      <c r="H9" s="42">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="1" t="e">
+        <v>42173</v>
+      </c>
+      <c r="I9" s="37">
+        <v>8.0004970569207013E-3</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>155</v>
       </c>
       <c r="L9" s="96" t="s">
         <v>124</v>
@@ -10264,31 +10566,31 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" s="44" t="e">
+      <c r="D10" s="45" t="str">
+        <v>GBP_YCSTDRH_FUT3MM5</v>
+      </c>
+      <c r="E10" s="44">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="44" t="str">
+        <v>6.4092226027429502E-3</v>
+      </c>
+      <c r="F10" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>--</v>
-      </c>
-      <c r="G10" s="43" t="e">
+        <v>4.0777397257116945E-5</v>
+      </c>
+      <c r="G10" s="43">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="42" t="e">
+        <v>42172</v>
+      </c>
+      <c r="H10" s="42">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="1" t="e">
+        <v>42264</v>
+      </c>
+      <c r="I10" s="37">
+        <v>7.7642524639844682E-3</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>91</v>
       </c>
       <c r="L10" s="96" t="s">
         <v>125</v>
@@ -10298,31 +10600,31 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D11" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" s="44" t="e">
+      <c r="D11" s="45" t="str">
+        <v>GBP_YCSTDRH_FUT3MU5</v>
+      </c>
+      <c r="E11" s="44">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="44" t="str">
+        <v>6.8963891974076624E-3</v>
+      </c>
+      <c r="F11" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>--</v>
-      </c>
-      <c r="G11" s="43" t="e">
+        <v>5.3610802592238644E-5</v>
+      </c>
+      <c r="G11" s="43">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="42" t="e">
+        <v>42263</v>
+      </c>
+      <c r="H11" s="42">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="1" t="e">
+        <v>42354</v>
+      </c>
+      <c r="I11" s="37">
+        <v>7.6530815125663912E-3</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>90</v>
       </c>
       <c r="L11" s="96" t="s">
         <v>126</v>
@@ -10332,31 +10634,31 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D12" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" s="44" t="e">
+      <c r="D12" s="45" t="str">
+        <v>GBP_YCSTDRH_FUT3MZ5</v>
+      </c>
+      <c r="E12" s="44">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="44" t="str">
+        <v>7.5818016282193298E-3</v>
+      </c>
+      <c r="F12" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>--</v>
-      </c>
-      <c r="G12" s="43" t="e">
+        <v>6.8198371780715521E-5</v>
+      </c>
+      <c r="G12" s="43">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="42" t="e">
+        <v>42354</v>
+      </c>
+      <c r="H12" s="42">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="1" t="e">
+        <v>42445</v>
+      </c>
+      <c r="I12" s="37">
+        <v>7.6440692212495429E-3</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>91</v>
       </c>
       <c r="L12" s="96" t="s">
         <v>127</v>
@@ -10366,31 +10668,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D13" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" s="44" t="e">
+      <c r="D13" s="45" t="str">
+        <v>GBP_YCSTDRH_FUT3MH6</v>
+      </c>
+      <c r="E13" s="44">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="44" t="str">
+        <v>8.2654426595442695E-3</v>
+      </c>
+      <c r="F13" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>--</v>
-      </c>
-      <c r="G13" s="43" t="e">
+        <v>8.4557340455810107E-5</v>
+      </c>
+      <c r="G13" s="43">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="42" t="e">
+        <v>42445</v>
+      </c>
+      <c r="H13" s="42">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="1" t="e">
+        <v>42537</v>
+      </c>
+      <c r="I13" s="37">
+        <v>7.7078422368728862E-3</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>92</v>
       </c>
       <c r="L13" s="96" t="s">
         <v>128</v>
@@ -10400,31 +10702,31 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D14" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" s="44" t="e">
+      <c r="D14" s="45" t="str">
+        <v>GBP_YCSTDRH_FUT3MM6</v>
+      </c>
+      <c r="E14" s="44">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="44" t="str">
+        <v>9.1476664485334574E-3</v>
+      </c>
+      <c r="F14" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>--</v>
-      </c>
-      <c r="G14" s="43" t="e">
+        <v>1.0233355146663395E-4</v>
+      </c>
+      <c r="G14" s="43">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="42" t="e">
+        <v>42536</v>
+      </c>
+      <c r="H14" s="42">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="1" t="e">
+        <v>42628</v>
+      </c>
+      <c r="I14" s="37">
+        <v>7.8420812183307639E-3</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>91</v>
       </c>
       <c r="L14" s="96" t="s">
         <v>129</v>
@@ -10434,31 +10736,31 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D15" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="44" t="e">
+      <c r="D15" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L3Y</v>
+      </c>
+      <c r="E15" s="44">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="44" t="str">
+        <v>7.3250000000000008E-3</v>
+      </c>
+      <c r="F15" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>--</v>
-      </c>
-      <c r="G15" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H15" s="42">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="1" t="e">
+        <v>42751</v>
+      </c>
+      <c r="I15" s="37">
+        <v>7.3073525157978762E-3</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>123</v>
       </c>
       <c r="L15" s="96" t="s">
         <v>130</v>
@@ -10468,31 +10770,31 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" s="44" t="e">
+      <c r="D16" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L4Y</v>
+      </c>
+      <c r="E16" s="44">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="44" t="str">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="F16" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>--</v>
-      </c>
-      <c r="G16" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G16" s="43">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H16" s="42">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="1" t="e">
+        <v>43115</v>
+      </c>
+      <c r="I16" s="37">
+        <v>8.4431686743497887E-3</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>364</v>
       </c>
       <c r="L16" s="96" t="s">
         <v>131</v>
@@ -10502,31 +10804,31 @@
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" s="44" t="e">
+      <c r="D17" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L5Y</v>
+      </c>
+      <c r="E17" s="44">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="44" t="str">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="F17" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>--</v>
-      </c>
-      <c r="G17" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G17" s="43">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H17" s="42">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="1" t="e">
+        <v>43479</v>
+      </c>
+      <c r="I17" s="37">
+        <v>9.9663303373091258E-3</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>364</v>
       </c>
       <c r="L17" s="96" t="s">
         <v>132</v>
@@ -10536,31 +10838,31 @@
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D18" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" s="44" t="e">
+      <c r="D18" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L6Y</v>
+      </c>
+      <c r="E18" s="44">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="44" t="str">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="F18" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>--</v>
-      </c>
-      <c r="G18" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="1" t="e">
+        <v>43844</v>
+      </c>
+      <c r="I18" s="37">
+        <v>1.1707345403091788E-2</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>365</v>
       </c>
       <c r="L18" s="96" t="s">
         <v>133</v>
@@ -10570,31 +10872,31 @@
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" s="44" t="e">
+      <c r="D19" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L7Y</v>
+      </c>
+      <c r="E19" s="44">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="44" t="str">
+        <v>1.3474999999999999E-2</v>
+      </c>
+      <c r="F19" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>--</v>
-      </c>
-      <c r="G19" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G19" s="43">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="1" t="e">
+        <v>44210</v>
+      </c>
+      <c r="I19" s="37">
+        <v>1.3597222361814945E-2</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>366</v>
       </c>
       <c r="L19" s="96" t="s">
         <v>134</v>
@@ -10604,31 +10906,31 @@
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D20" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" s="44" t="e">
+      <c r="D20" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L8Y</v>
+      </c>
+      <c r="E20" s="44">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="44" t="str">
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="F20" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>--</v>
-      </c>
-      <c r="G20" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="1" t="e">
+        <v>44575</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1.5511926714916675E-2</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>365</v>
       </c>
       <c r="L20" s="96" t="s">
         <v>135</v>
@@ -10638,31 +10940,31 @@
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E21" s="44" t="e">
+      <c r="D21" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L9Y</v>
+      </c>
+      <c r="E21" s="44">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="44" t="str">
+        <v>1.7075E-2</v>
+      </c>
+      <c r="F21" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>--</v>
-      </c>
-      <c r="G21" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G21" s="43">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="1" t="e">
+        <v>44942</v>
+      </c>
+      <c r="I21" s="37">
+        <v>1.740149698415764E-2</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>367</v>
       </c>
       <c r="L21" s="96" t="s">
         <v>136</v>
@@ -10672,31 +10974,31 @@
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" s="44" t="e">
+      <c r="D22" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L10Y</v>
+      </c>
+      <c r="E22" s="44">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="44" t="str">
+        <v>1.8725000000000002E-2</v>
+      </c>
+      <c r="F22" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>--</v>
-      </c>
-      <c r="G22" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G22" s="43">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" s="1" t="e">
+        <v>45306</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1.9185582067272191E-2</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>364</v>
       </c>
       <c r="L22" s="96" t="s">
         <v>137</v>
@@ -10706,31 +11008,31 @@
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E23" s="44" t="e">
+      <c r="D23" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L12Y</v>
+      </c>
+      <c r="E23" s="44">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="44" t="str">
+        <v>2.1425E-2</v>
+      </c>
+      <c r="F23" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>--</v>
-      </c>
-      <c r="G23" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="1" t="e">
+        <v>46036</v>
+      </c>
+      <c r="I23" s="37">
+        <v>2.2166222813565773E-2</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>730</v>
       </c>
       <c r="L23" s="96" t="s">
         <v>138</v>
@@ -10740,31 +11042,31 @@
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D24" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" s="44" t="e">
+      <c r="D24" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L15Y</v>
+      </c>
+      <c r="E24" s="44">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="44" t="str">
+        <v>2.4324999999999999E-2</v>
+      </c>
+      <c r="F24" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>--</v>
-      </c>
-      <c r="G24" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" s="1" t="e">
+        <v>47133</v>
+      </c>
+      <c r="I24" s="37">
+        <v>2.547150669948026E-2</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1097</v>
       </c>
       <c r="L24" s="96" t="s">
         <v>139</v>
@@ -10774,31 +11076,31 @@
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" s="44" t="e">
+      <c r="D25" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L20Y</v>
+      </c>
+      <c r="E25" s="44">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="44" t="str">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F25" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>--</v>
-      </c>
-      <c r="G25" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" s="1" t="e">
+        <v>48960</v>
+      </c>
+      <c r="I25" s="37">
+        <v>2.901886346404418E-2</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1827</v>
       </c>
       <c r="L25" s="96" t="s">
         <v>140</v>
@@ -10808,31 +11110,31 @@
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E26" s="44" t="e">
+      <c r="D26" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L25Y</v>
+      </c>
+      <c r="E26" s="44">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="44" t="str">
+        <v>2.8875000000000001E-2</v>
+      </c>
+      <c r="F26" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>--</v>
-      </c>
-      <c r="G26" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="1" t="e">
+        <v>50784</v>
+      </c>
+      <c r="I26" s="37">
+        <v>3.0941389663065425E-2</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1824</v>
       </c>
       <c r="L26" s="96" t="s">
         <v>141</v>
@@ -10842,31 +11144,31 @@
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E27" s="44" t="e">
+      <c r="D27" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L30Y</v>
+      </c>
+      <c r="E27" s="44">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="44" t="str">
+        <v>2.9575000000000001E-2</v>
+      </c>
+      <c r="F27" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
-        <v>--</v>
-      </c>
-      <c r="G27" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G27" s="43">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" s="1" t="e">
+        <v>52610</v>
+      </c>
+      <c r="I27" s="37">
+        <v>3.1703079054492947E-2</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1826</v>
       </c>
       <c r="L27" s="96" t="s">
         <v>142</v>
@@ -10876,31 +11178,31 @@
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E28" s="44" t="e">
+      <c r="D28" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L40Y</v>
+      </c>
+      <c r="E28" s="44">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="44" t="str">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="F28" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
-        <v>--</v>
-      </c>
-      <c r="G28" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="1" t="e">
+        <v>56263</v>
+      </c>
+      <c r="I28" s="37">
+        <v>3.2590675755197078E-2</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>3653</v>
       </c>
       <c r="L28" s="96" t="s">
         <v>143</v>
@@ -10910,31 +11212,31 @@
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E29" s="44" t="e">
+      <c r="D29" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L50Y</v>
+      </c>
+      <c r="E29" s="44">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="44" t="str">
+        <v>3.0550000000000001E-2</v>
+      </c>
+      <c r="F29" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>--</v>
-      </c>
-      <c r="G29" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G29" s="43">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="1" t="e">
+        <v>59915</v>
+      </c>
+      <c r="I29" s="37">
+        <v>3.2494289972233997E-2</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>3652</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>144</v>
@@ -10944,31 +11246,31 @@
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D30" s="45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E30" s="44" t="e">
+      <c r="D30" s="45" t="str">
+        <v>GBP_YCSTDRH_SB6L60Y</v>
+      </c>
+      <c r="E30" s="44">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="44" t="str">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="F30" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>--</v>
-      </c>
-      <c r="G30" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="42" t="e">
+        <v>41653</v>
+      </c>
+      <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="1" t="e">
+        <v>63569</v>
+      </c>
+      <c r="I30" s="37">
+        <v>3.2828425899017369E-2</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>3654</v>
       </c>
       <c r="L30" s="96" t="s">
         <v>145</v>
@@ -10979,7 +11281,7 @@
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D31" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" s="44" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
@@ -10998,7 +11300,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11007,7 +11309,7 @@
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D32" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" s="44" t="e">
         <f>_xll.qlRateHelperRate($D32)</f>
@@ -11026,7 +11328,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J32" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11035,7 +11337,7 @@
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" s="44" t="e">
         <f>_xll.qlRateHelperRate($D33)</f>
@@ -11054,7 +11356,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11063,7 +11365,7 @@
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" s="44" t="e">
         <f>_xll.qlRateHelperRate($D34)</f>
@@ -11082,7 +11384,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11091,7 +11393,7 @@
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" s="44" t="e">
         <f>_xll.qlRateHelperRate($D35)</f>
@@ -11110,7 +11412,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11119,7 +11421,7 @@
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" s="44" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
@@ -11138,7 +11440,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J36" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11147,7 +11449,7 @@
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="44" t="e">
         <f>_xll.qlRateHelperRate($D37)</f>
@@ -11166,12 +11468,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E38" s="44" t="e">
         <f>_xll.qlRateHelperRate($D38)</f>
@@ -11190,12 +11492,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E39" s="44" t="e">
         <f>_xll.qlRateHelperRate($D39)</f>
@@ -11214,12 +11516,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" s="44" t="e">
         <f>_xll.qlRateHelperRate($D40)</f>
@@ -11238,12 +11540,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E41" s="44" t="e">
         <f>_xll.qlRateHelperRate($D41)</f>
@@ -11262,12 +11564,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E42" s="44" t="e">
         <f>_xll.qlRateHelperRate($D42)</f>
@@ -11286,12 +11588,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E43" s="44" t="e">
         <f>_xll.qlRateHelperRate($D43)</f>
@@ -11310,12 +11612,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E44" s="44" t="e">
         <f>_xll.qlRateHelperRate($D44)</f>
@@ -11334,12 +11636,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E45" s="44" t="e">
         <f>_xll.qlRateHelperRate($D45)</f>
@@ -11358,12 +11660,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" s="44" t="e">
         <f>_xll.qlRateHelperRate($D46)</f>
@@ -11382,12 +11684,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" s="44" t="e">
         <f>_xll.qlRateHelperRate($D47)</f>
@@ -11406,12 +11708,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" s="44" t="e">
         <f>_xll.qlRateHelperRate($D48)</f>
@@ -11430,12 +11732,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D49" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" s="44" t="e">
         <f>_xll.qlRateHelperRate($D49)</f>
@@ -11454,12 +11756,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D50" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E50" s="44" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
@@ -11478,12 +11780,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D51" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E51" s="44" t="e">
         <f>_xll.qlRateHelperRate($D51)</f>
@@ -11502,12 +11804,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D52" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" s="44" t="e">
         <f>_xll.qlRateHelperRate($D52)</f>
@@ -11526,12 +11828,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D53" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E53" s="44" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
@@ -11550,12 +11852,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D54" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E54" s="44" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
@@ -11574,12 +11876,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D55" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E55" s="44" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
@@ -11598,12 +11900,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D56" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E56" s="44" t="e">
         <f>_xll.qlRateHelperRate($D56)</f>
@@ -11622,12 +11924,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D57" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E57" s="44" t="e">
         <f>_xll.qlRateHelperRate($D57)</f>
@@ -11646,12 +11948,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D58" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E58" s="44" t="e">
         <f>_xll.qlRateHelperRate($D58)</f>
@@ -11670,12 +11972,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D59" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E59" s="44" t="e">
         <f>_xll.qlRateHelperRate($D59)</f>
@@ -11694,12 +11996,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D60" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E60" s="44" t="e">
         <f>_xll.qlRateHelperRate($D60)</f>
@@ -11718,12 +12020,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D61" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E61" s="44" t="e">
         <f>_xll.qlRateHelperRate($D61)</f>
@@ -11742,12 +12044,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D62" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E62" s="44" t="e">
         <f>_xll.qlRateHelperRate($D62)</f>
@@ -11766,12 +12068,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D63" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E63" s="44" t="e">
         <f>_xll.qlRateHelperRate($D63)</f>
@@ -11790,12 +12092,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D64" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E64" s="44" t="e">
         <f>_xll.qlRateHelperRate($D64)</f>
@@ -11814,12 +12116,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D65" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E65" s="44" t="e">
         <f>_xll.qlRateHelperRate($D65)</f>
@@ -11838,12 +12140,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D66" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E66" s="44" t="e">
         <f>_xll.qlRateHelperRate($D66)</f>
@@ -11862,12 +12164,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D67" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E67" s="44" t="e">
         <f>_xll.qlRateHelperRate($D67)</f>
@@ -11886,12 +12188,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D68" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E68" s="44" t="e">
         <f>_xll.qlRateHelperRate($D68)</f>
@@ -11910,12 +12212,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D69" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E69" s="44" t="e">
         <f>_xll.qlRateHelperRate($D69)</f>
@@ -11934,12 +12236,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D70" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E70" s="44" t="e">
         <f>_xll.qlRateHelperRate($D70)</f>
@@ -11958,12 +12260,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D71" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E71" s="44" t="e">
         <f>_xll.qlRateHelperRate($D71)</f>
@@ -11982,12 +12284,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D72" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E72" s="44" t="e">
         <f>_xll.qlRateHelperRate($D72)</f>
@@ -12006,12 +12308,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D73" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E73" s="44" t="e">
         <f>_xll.qlRateHelperRate($D73)</f>
@@ -12030,12 +12332,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D74" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E74" s="44" t="e">
         <f>_xll.qlRateHelperRate($D74)</f>
@@ -12054,12 +12356,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D75" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="44" t="e">
         <f>_xll.qlRateHelperRate($D75)</f>
@@ -12078,12 +12380,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D76" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E76" s="44" t="e">
         <f>_xll.qlRateHelperRate($D76)</f>
@@ -12102,12 +12404,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D77" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E77" s="44" t="e">
         <f>_xll.qlRateHelperRate($D77)</f>
@@ -12126,12 +12428,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D78" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E78" s="44" t="e">
         <f>_xll.qlRateHelperRate($D78)</f>
@@ -12150,12 +12452,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D79" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E79" s="44" t="e">
         <f>_xll.qlRateHelperRate($D79)</f>
@@ -12174,12 +12476,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D80" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E80" s="44" t="e">
         <f>_xll.qlRateHelperRate($D80)</f>
@@ -12198,12 +12500,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D81" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E81" s="44" t="e">
         <f>_xll.qlRateHelperRate($D81)</f>
@@ -12222,12 +12524,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D82" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E82" s="44" t="e">
         <f>_xll.qlRateHelperRate($D82)</f>
@@ -12246,12 +12548,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D83" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E83" s="44" t="e">
         <f>_xll.qlRateHelperRate($D83)</f>
@@ -12270,12 +12572,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D84" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E84" s="44" t="e">
         <f>_xll.qlRateHelperRate($D84)</f>
@@ -12294,12 +12596,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D85" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E85" s="44" t="e">
         <f>_xll.qlRateHelperRate($D85)</f>
@@ -12318,12 +12620,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D86" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E86" s="44" t="e">
         <f>_xll.qlRateHelperRate($D86)</f>
@@ -12342,12 +12644,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D87" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E87" s="44" t="e">
         <f>_xll.qlRateHelperRate($D87)</f>
@@ -12366,12 +12668,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D88" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E88" s="44" t="e">
         <f>_xll.qlRateHelperRate($D88)</f>
@@ -12390,12 +12692,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D89" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E89" s="44" t="e">
         <f>_xll.qlRateHelperRate($D89)</f>
@@ -12414,12 +12716,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D90" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E90" s="44" t="e">
         <f>_xll.qlRateHelperRate($D90)</f>
@@ -12438,12 +12740,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D91" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E91" s="44" t="e">
         <f>_xll.qlRateHelperRate($D91)</f>
@@ -12462,12 +12764,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D92" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E92" s="44" t="e">
         <f>_xll.qlRateHelperRate($D92)</f>
@@ -12486,12 +12788,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D93" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E93" s="44" t="e">
         <f>_xll.qlRateHelperRate($D93)</f>
@@ -12510,12 +12812,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D94" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E94" s="44" t="e">
         <f>_xll.qlRateHelperRate($D94)</f>
@@ -12534,12 +12836,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D95" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E95" s="44" t="e">
         <f>_xll.qlRateHelperRate($D95)</f>
@@ -12558,12 +12860,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D96" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E96" s="44" t="e">
         <f>_xll.qlRateHelperRate($D96)</f>
@@ -12582,12 +12884,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D97" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E97" s="44" t="e">
         <f>_xll.qlRateHelperRate($D97)</f>
@@ -12606,12 +12908,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D98" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E98" s="44" t="e">
         <f>_xll.qlRateHelperRate($D98)</f>
@@ -12630,12 +12932,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D99" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E99" s="44" t="e">
         <f>_xll.qlRateHelperRate($D99)</f>
@@ -12654,12 +12956,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D100" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E100" s="44" t="e">
         <f>_xll.qlRateHelperRate($D100)</f>
@@ -12678,12 +12980,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D101" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E101" s="44" t="e">
         <f>_xll.qlRateHelperRate($D101)</f>
@@ -12702,12 +13004,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D102" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E102" s="44" t="e">
         <f>_xll.qlRateHelperRate($D102)</f>
@@ -12726,12 +13028,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D103" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E103" s="44" t="e">
         <f>_xll.qlRateHelperRate($D103)</f>
@@ -12750,12 +13052,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D104" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E104" s="44" t="e">
         <f>_xll.qlRateHelperRate($D104)</f>
@@ -12774,12 +13076,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D105" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E105" s="44" t="e">
         <f>_xll.qlRateHelperRate($D105)</f>
@@ -12798,12 +13100,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D106" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E106" s="44" t="e">
         <f>_xll.qlRateHelperRate($D106)</f>
@@ -12822,12 +13124,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D107" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E107" s="44" t="e">
         <f>_xll.qlRateHelperRate($D107)</f>
@@ -12846,12 +13148,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D108" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E108" s="44" t="e">
         <f>_xll.qlRateHelperRate($D108)</f>
@@ -12870,12 +13172,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D109" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E109" s="44" t="e">
         <f>_xll.qlRateHelperRate($D109)</f>
@@ -12894,12 +13196,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D110" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E110" s="44" t="e">
         <f>_xll.qlRateHelperRate($D110)</f>
@@ -12918,12 +13220,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D111" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E111" s="44" t="e">
         <f>_xll.qlRateHelperRate($D111)</f>
@@ -12942,12 +13244,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D112" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E112" s="44" t="e">
         <f>_xll.qlRateHelperRate($D112)</f>
@@ -12966,12 +13268,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D113" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E113" s="44" t="e">
         <f>_xll.qlRateHelperRate($D113)</f>
@@ -12990,12 +13292,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D114" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E114" s="44" t="e">
         <f>_xll.qlRateHelperRate($D114)</f>
@@ -13014,12 +13316,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D115" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E115" s="44" t="e">
         <f>_xll.qlRateHelperRate($D115)</f>
@@ -13038,12 +13340,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D116" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E116" s="44" t="e">
         <f>_xll.qlRateHelperRate($D116)</f>
@@ -13062,12 +13364,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D117" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E117" s="44" t="e">
         <f>_xll.qlRateHelperRate($D117)</f>
@@ -13086,12 +13388,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D118" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E118" s="44" t="e">
         <f>_xll.qlRateHelperRate($D118)</f>
@@ -13110,12 +13412,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D119" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E119" s="44" t="e">
         <f>_xll.qlRateHelperRate($D119)</f>
@@ -13134,12 +13436,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D120" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E120" s="44" t="e">
         <f>_xll.qlRateHelperRate($D120)</f>
@@ -13158,12 +13460,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D121" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E121" s="44" t="e">
         <f>_xll.qlRateHelperRate($D121)</f>
@@ -13182,12 +13484,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D122" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E122" s="44" t="e">
         <f>_xll.qlRateHelperRate($D122)</f>
@@ -13206,12 +13508,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D123" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E123" s="44" t="e">
         <f>_xll.qlRateHelperRate($D123)</f>
@@ -13230,12 +13532,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D124" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E124" s="44" t="e">
         <f>_xll.qlRateHelperRate($D124)</f>
@@ -13254,12 +13556,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D125" s="45" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E125" s="44" t="e">
         <f>_xll.qlRateHelperRate($D125)</f>
@@ -13278,12 +13580,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D126" s="41" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="E126" s="40" t="e">
         <f>_xll.qlRateHelperRate($D126)</f>
@@ -13302,7 +13604,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -13402,7 +13704,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_OND#0000</v>
+        <v>GBP_YCSTDRH_OND#0003</v>
       </c>
       <c r="G3" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13433,7 +13735,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SWD#0000</v>
+        <v>GBP_YCSTDRH_SWD#0003</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13464,7 +13766,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_2WD#0000</v>
+        <v>GBP_YCSTDRH_2WD#0003</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13495,7 +13797,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_3WD#0000</v>
+        <v>GBP_YCSTDRH_3WD#0003</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13526,7 +13828,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_1MD#0000</v>
+        <v>GBP_YCSTDRH_1MD#0003</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13557,7 +13859,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_2MD#0000</v>
+        <v>GBP_YCSTDRH_2MD#0003</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13588,7 +13890,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_3MD#0000</v>
+        <v>GBP_YCSTDRH_3MD#0003</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13619,7 +13921,7 @@
       </c>
       <c r="F10" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_4MD#0000</v>
+        <v>GBP_YCSTDRH_4MD#0003</v>
       </c>
       <c r="G10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13650,7 +13952,7 @@
       </c>
       <c r="F11" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_5MD#0000</v>
+        <v>GBP_YCSTDRH_5MD#0003</v>
       </c>
       <c r="G11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13681,7 +13983,7 @@
       </c>
       <c r="F12" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_6MD#0000</v>
+        <v>GBP_YCSTDRH_6MD#0003</v>
       </c>
       <c r="G12" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13712,7 +14014,7 @@
       </c>
       <c r="F13" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_7MD#0000</v>
+        <v>GBP_YCSTDRH_7MD#0003</v>
       </c>
       <c r="G13" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13743,7 +14045,7 @@
       </c>
       <c r="F14" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_8MD#0000</v>
+        <v>GBP_YCSTDRH_8MD#0003</v>
       </c>
       <c r="G14" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13774,7 +14076,7 @@
       </c>
       <c r="F15" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_9MD#0000</v>
+        <v>GBP_YCSTDRH_9MD#0003</v>
       </c>
       <c r="G15" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13805,7 +14107,7 @@
       </c>
       <c r="F16" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_10MD#0000</v>
+        <v>GBP_YCSTDRH_10MD#0003</v>
       </c>
       <c r="G16" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13836,7 +14138,7 @@
       </c>
       <c r="F17" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_11MD#0000</v>
+        <v>GBP_YCSTDRH_11MD#0003</v>
       </c>
       <c r="G17" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -13867,7 +14169,7 @@
       </c>
       <c r="F18" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_1YD#0000</v>
+        <v>GBP_YCSTDRH_1YD#0003</v>
       </c>
       <c r="G18" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -13901,7 +14203,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13919,7 +14223,7 @@
     <col min="12" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
         <v>193</v>
       </c>
@@ -13939,7 +14243,7 @@
       <c r="J1" s="159"/>
       <c r="K1" s="140"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="158"/>
       <c r="B2" s="155" t="s">
         <v>177</v>
@@ -13963,17 +14267,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>GBP_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="153" t="e">
+      <c r="I2" s="153">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>42</v>
       </c>
       <c r="J2" s="152" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="K2" s="140"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="147"/>
       <c r="B3" s="151">
         <v>1</v>
@@ -13981,7 +14285,7 @@
       <c r="C3" s="144" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="217" t="str">
+      <c r="D3" s="208" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,C3:C44)</f>
         <v>F4</v>
       </c>
@@ -14003,7 +14307,7 @@
       </c>
       <c r="I3" s="150" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MF4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MF4#0003</v>
       </c>
       <c r="J3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -14011,8 +14315,16 @@
       </c>
       <c r="K3" s="140"/>
       <c r="L3" s="148"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O3" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="147"/>
       <c r="B4" s="146">
         <v>2</v>
@@ -14020,7 +14332,7 @@
       <c r="C4" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="218" t="str">
+      <c r="D4" s="209" t="str">
         <v>G4</v>
       </c>
       <c r="E4" s="144" t="str">
@@ -14041,7 +14353,7 @@
       </c>
       <c r="I4" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MG4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MG4#0003</v>
       </c>
       <c r="J4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -14049,8 +14361,24 @@
       </c>
       <c r="K4" s="140"/>
       <c r="L4" s="148"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I4)</f>
+        <v>99.484999999999999</v>
+      </c>
+      <c r="O4" s="95">
+        <f>_xll.qlRateHelperRate(I4)</f>
+        <v>5.1491063332402909E-3</v>
+      </c>
+      <c r="P4" s="95">
+        <f>_xll.qlQuoteValue(F4)</f>
+        <v>99.484999999999999</v>
+      </c>
+      <c r="Q4" s="95">
+        <f>_xll.qlQuoteValue(G4)</f>
+        <v>8.9366675969727194E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="147"/>
       <c r="B5" s="146">
         <v>3</v>
@@ -14058,7 +14386,7 @@
       <c r="C5" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="218" t="str">
+      <c r="D5" s="209" t="str">
         <v>H4</v>
       </c>
       <c r="E5" s="144" t="str">
@@ -14079,7 +14407,7 @@
       </c>
       <c r="I5" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MH4#0003</v>
       </c>
       <c r="J5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -14087,8 +14415,16 @@
       </c>
       <c r="K5" s="140"/>
       <c r="L5" s="148"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I5)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="147"/>
       <c r="B6" s="146">
         <v>4</v>
@@ -14096,7 +14432,7 @@
       <c r="C6" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="218" t="str">
+      <c r="D6" s="209" t="str">
         <v>J4</v>
       </c>
       <c r="E6" s="144" t="str">
@@ -14117,7 +14453,7 @@
       </c>
       <c r="I6" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MJ4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MJ4#0003</v>
       </c>
       <c r="J6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -14125,8 +14461,16 @@
       </c>
       <c r="K6" s="140"/>
       <c r="L6" s="148"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I6)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="147"/>
       <c r="B7" s="146">
         <v>5</v>
@@ -14134,7 +14478,7 @@
       <c r="C7" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="218" t="str">
+      <c r="D7" s="209" t="str">
         <v>K4</v>
       </c>
       <c r="E7" s="144" t="str">
@@ -14155,7 +14499,7 @@
       </c>
       <c r="I7" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MK4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MK4#0003</v>
       </c>
       <c r="J7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14163,8 +14507,16 @@
       </c>
       <c r="K7" s="140"/>
       <c r="L7" s="148"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I7)</f>
+        <v>99.465000000000003</v>
+      </c>
+      <c r="O7" s="95">
+        <f>_xll.qlRateHelperRate(I7)</f>
+        <v>5.3454488902544856E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="147"/>
       <c r="B8" s="146">
         <v>6</v>
@@ -14172,7 +14524,7 @@
       <c r="C8" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="218" t="str">
+      <c r="D8" s="209" t="str">
         <v>M4</v>
       </c>
       <c r="E8" s="144" t="str">
@@ -14193,7 +14545,7 @@
       </c>
       <c r="I8" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MM4#0003</v>
       </c>
       <c r="J8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14201,8 +14553,16 @@
       </c>
       <c r="K8" s="140"/>
       <c r="L8" s="148"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O8" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I8)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="147"/>
       <c r="B9" s="146">
         <v>7</v>
@@ -14210,7 +14570,7 @@
       <c r="C9" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="218" t="str">
+      <c r="D9" s="209" t="str">
         <v>N4</v>
       </c>
       <c r="E9" s="144" t="str">
@@ -14231,7 +14591,7 @@
       </c>
       <c r="I9" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MN4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MN4#0003</v>
       </c>
       <c r="J9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14239,8 +14599,16 @@
       </c>
       <c r="K9" s="140"/>
       <c r="L9" s="148"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O9" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I9)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="147"/>
       <c r="B10" s="146">
         <v>8</v>
@@ -14248,7 +14616,7 @@
       <c r="C10" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="218" t="str">
+      <c r="D10" s="209" t="str">
         <v>Q4</v>
       </c>
       <c r="E10" s="144" t="str">
@@ -14269,7 +14637,7 @@
       </c>
       <c r="I10" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MQ4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MQ4#0003</v>
       </c>
       <c r="J10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14277,8 +14645,16 @@
       </c>
       <c r="K10" s="140"/>
       <c r="L10" s="148"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I10)</f>
+        <v>99.460000000000008</v>
+      </c>
+      <c r="O10" s="95">
+        <f>_xll.qlRateHelperRate(I10)</f>
+        <v>5.3899717980563271E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="147"/>
       <c r="B11" s="146">
         <v>9</v>
@@ -14286,7 +14662,7 @@
       <c r="C11" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="218" t="str">
+      <c r="D11" s="209" t="str">
         <v>U4</v>
       </c>
       <c r="E11" s="144" t="str">
@@ -14307,7 +14683,7 @@
       </c>
       <c r="I11" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MU4#0003</v>
       </c>
       <c r="J11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14315,8 +14691,16 @@
       </c>
       <c r="K11" s="140"/>
       <c r="L11" s="148"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O11" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I11)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="147"/>
       <c r="B12" s="146">
         <v>10</v>
@@ -14324,7 +14708,7 @@
       <c r="C12" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="218" t="str">
+      <c r="D12" s="209" t="str">
         <v>V4</v>
       </c>
       <c r="E12" s="144" t="str">
@@ -14345,7 +14729,7 @@
       </c>
       <c r="I12" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MV4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MV4#0003</v>
       </c>
       <c r="J12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14353,8 +14737,16 @@
       </c>
       <c r="K12" s="140"/>
       <c r="L12" s="148"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O12" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I12)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="147"/>
       <c r="B13" s="146">
         <v>11</v>
@@ -14362,7 +14754,7 @@
       <c r="C13" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="218" t="str">
+      <c r="D13" s="209" t="str">
         <v>X4</v>
       </c>
       <c r="E13" s="144" t="str">
@@ -14383,7 +14775,7 @@
       </c>
       <c r="I13" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MX4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MX4#0003</v>
       </c>
       <c r="J13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14391,8 +14783,16 @@
       </c>
       <c r="K13" s="140"/>
       <c r="L13" s="148"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I13)</f>
+        <v>99.435000000000002</v>
+      </c>
+      <c r="O13" s="95">
+        <f>_xll.qlRateHelperRate(I13)</f>
+        <v>5.632690749143526E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="147"/>
       <c r="B14" s="146">
         <v>12</v>
@@ -14400,7 +14800,7 @@
       <c r="C14" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="218" t="str">
+      <c r="D14" s="209" t="str">
         <v>Z4</v>
       </c>
       <c r="E14" s="144" t="str">
@@ -14421,7 +14821,7 @@
       </c>
       <c r="I14" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ4#0002</v>
+        <v>GBP_YCSTDRH_FUT3MZ4#0003</v>
       </c>
       <c r="J14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14429,8 +14829,16 @@
       </c>
       <c r="K14" s="140"/>
       <c r="L14" s="148"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O14" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I14)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="147"/>
       <c r="B15" s="146">
         <v>13</v>
@@ -14438,7 +14846,7 @@
       <c r="C15" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="218" t="str">
+      <c r="D15" s="209" t="str">
         <v>H5</v>
       </c>
       <c r="E15" s="144" t="str">
@@ -14457,18 +14865,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MH5</v>
       </c>
-      <c r="I15" s="142" t="e">
+      <c r="I15" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH5#0003</v>
       </c>
       <c r="J15" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH5' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R15C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R17C9</v>
+        <f>_xll.ohRangeRetrieveError(I15)</f>
+        <v/>
       </c>
       <c r="K15" s="140"/>
       <c r="L15" s="148"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I15)</f>
+        <v>99.405000000000001</v>
+      </c>
+      <c r="O15" s="95">
+        <f>_xll.qlRateHelperRate(I15)</f>
+        <v>5.9205152379830745E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="147"/>
       <c r="B16" s="146">
         <v>14</v>
@@ -14476,7 +14892,7 @@
       <c r="C16" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="218" t="str">
+      <c r="D16" s="209" t="str">
         <v>M5</v>
       </c>
       <c r="E16" s="144" t="str">
@@ -14495,18 +14911,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MM5</v>
       </c>
-      <c r="I16" s="142" t="e">
+      <c r="I16" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM5#0003</v>
       </c>
       <c r="J16" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I16)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM5' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R16C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R20C9</v>
+        <f>_xll.ohRangeRetrieveError(I16)</f>
+        <v/>
       </c>
       <c r="K16" s="140"/>
       <c r="L16" s="148"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I16)</f>
+        <v>99.35499999999999</v>
+      </c>
+      <c r="O16" s="95">
+        <f>_xll.qlRateHelperRate(I16)</f>
+        <v>6.4092226027429502E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="147"/>
       <c r="B17" s="146">
         <v>15</v>
@@ -14514,7 +14938,7 @@
       <c r="C17" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="218" t="str">
+      <c r="D17" s="209" t="str">
         <v>U5</v>
       </c>
       <c r="E17" s="144" t="str">
@@ -14533,18 +14957,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MU5</v>
       </c>
-      <c r="I17" s="142" t="e">
+      <c r="I17" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU5#0003</v>
       </c>
       <c r="J17" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU5' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R17C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R23C9</v>
+        <f>_xll.ohRangeRetrieveError(I17)</f>
+        <v/>
       </c>
       <c r="K17" s="140"/>
       <c r="L17" s="148"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I17)</f>
+        <v>99.305000000000007</v>
+      </c>
+      <c r="O17" s="95">
+        <f>_xll.qlRateHelperRate(I17)</f>
+        <v>6.8963891974076624E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="147"/>
       <c r="B18" s="146">
         <v>16</v>
@@ -14552,7 +14984,7 @@
       <c r="C18" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="218" t="str">
+      <c r="D18" s="209" t="str">
         <v>Z5</v>
       </c>
       <c r="E18" s="144" t="str">
@@ -14571,18 +15003,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MZ5</v>
       </c>
-      <c r="I18" s="142" t="e">
+      <c r="I18" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ5#0003</v>
       </c>
       <c r="J18" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ5' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R18C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R26C9</v>
+        <f>_xll.ohRangeRetrieveError(I18)</f>
+        <v/>
       </c>
       <c r="K18" s="140"/>
       <c r="L18" s="148"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I18)</f>
+        <v>99.234999999999999</v>
+      </c>
+      <c r="O18" s="95">
+        <f>_xll.qlRateHelperRate(I18)</f>
+        <v>7.5818016282193298E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="147"/>
       <c r="B19" s="146">
         <v>17</v>
@@ -14590,7 +15030,7 @@
       <c r="C19" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="218" t="str">
+      <c r="D19" s="209" t="str">
         <v>H6</v>
       </c>
       <c r="E19" s="144" t="str">
@@ -14609,18 +15049,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MH6</v>
       </c>
-      <c r="I19" s="142" t="e">
+      <c r="I19" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH6#0003</v>
       </c>
       <c r="J19" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH6' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R19C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R29C9</v>
+        <f>_xll.ohRangeRetrieveError(I19)</f>
+        <v/>
       </c>
       <c r="K19" s="140"/>
       <c r="L19" s="148"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I19)</f>
+        <v>99.164999999999992</v>
+      </c>
+      <c r="O19" s="95">
+        <f>_xll.qlRateHelperRate(I19)</f>
+        <v>8.2654426595442695E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="147"/>
       <c r="B20" s="146">
         <v>18</v>
@@ -14628,7 +15076,7 @@
       <c r="C20" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="218" t="str">
+      <c r="D20" s="209" t="str">
         <v>M6</v>
       </c>
       <c r="E20" s="144" t="str">
@@ -14647,18 +15095,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MM6</v>
       </c>
-      <c r="I20" s="142" t="e">
+      <c r="I20" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM6#0003</v>
       </c>
       <c r="J20" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM6' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R20C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R32C9</v>
+        <f>_xll.ohRangeRetrieveError(I20)</f>
+        <v/>
       </c>
       <c r="K20" s="140"/>
       <c r="L20" s="148"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I20)</f>
+        <v>99.074999999999989</v>
+      </c>
+      <c r="O20" s="95">
+        <f>_xll.qlRateHelperRate(I20)</f>
+        <v>9.1476664485334574E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="147"/>
       <c r="B21" s="146">
         <v>19</v>
@@ -14666,7 +15122,7 @@
       <c r="C21" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="218" t="str">
+      <c r="D21" s="209" t="str">
         <v>U6</v>
       </c>
       <c r="E21" s="144" t="str">
@@ -14685,18 +15141,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MU6</v>
       </c>
-      <c r="I21" s="142" t="e">
+      <c r="I21" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU6#0003</v>
       </c>
       <c r="J21" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU6' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R21C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R35C9</v>
+        <f>_xll.ohRangeRetrieveError(I21)</f>
+        <v/>
       </c>
       <c r="K21" s="140"/>
       <c r="L21" s="148"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I21)</f>
+        <v>98.974999999999994</v>
+      </c>
+      <c r="O21" s="95">
+        <f>_xll.qlRateHelperRate(I21)</f>
+        <v>1.0127019907309295E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="147"/>
       <c r="B22" s="146">
         <v>20</v>
@@ -14704,7 +15168,7 @@
       <c r="C22" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="218" t="str">
+      <c r="D22" s="209" t="str">
         <v>Z6</v>
       </c>
       <c r="E22" s="144" t="str">
@@ -14723,18 +15187,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MZ6</v>
       </c>
-      <c r="I22" s="142" t="e">
+      <c r="I22" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ6#0003</v>
       </c>
       <c r="J22" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ6' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R22C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R38C9</v>
+        <f>_xll.ohRangeRetrieveError(I22)</f>
+        <v/>
       </c>
       <c r="K22" s="140"/>
       <c r="L22" s="148"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I22)</f>
+        <v>98.865000000000009</v>
+      </c>
+      <c r="O22" s="95">
+        <f>_xll.qlRateHelperRate(I22)</f>
+        <v>1.1206341461296104E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="147"/>
       <c r="B23" s="146">
         <v>21</v>
@@ -14742,7 +15214,7 @@
       <c r="C23" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="218" t="str">
+      <c r="D23" s="209" t="str">
         <v>H7</v>
       </c>
       <c r="E23" s="144" t="str">
@@ -14761,18 +15233,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MH7</v>
       </c>
-      <c r="I23" s="142" t="e">
+      <c r="I23" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH7#0003</v>
       </c>
       <c r="J23" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I23)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH7' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R23C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R41C9</v>
+        <f>_xll.ohRangeRetrieveError(I23)</f>
+        <v/>
       </c>
       <c r="K23" s="140"/>
       <c r="L23" s="148"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I23)</f>
+        <v>98.754999999999995</v>
+      </c>
+      <c r="O23" s="95">
+        <f>_xll.qlRateHelperRate(I23)</f>
+        <v>1.2285273969225673E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="147"/>
       <c r="B24" s="146">
         <v>22</v>
@@ -14780,7 +15260,7 @@
       <c r="C24" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="218" t="str">
+      <c r="D24" s="209" t="str">
         <v>M7</v>
       </c>
       <c r="E24" s="144" t="str">
@@ -14799,18 +15279,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MM7</v>
       </c>
-      <c r="I24" s="142" t="e">
+      <c r="I24" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM7#0003</v>
       </c>
       <c r="J24" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I24)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM7' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R24C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R44C9</v>
+        <f>_xll.ohRangeRetrieveError(I24)</f>
+        <v/>
       </c>
       <c r="K24" s="140"/>
       <c r="L24" s="148"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I24)</f>
+        <v>98.634999999999991</v>
+      </c>
+      <c r="O24" s="95">
+        <f>_xll.qlRateHelperRate(I24)</f>
+        <v>1.3459688606898435E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="147"/>
       <c r="B25" s="146">
         <v>23</v>
@@ -14818,7 +15306,7 @@
       <c r="C25" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="218" t="str">
+      <c r="D25" s="209" t="str">
         <v>U7</v>
       </c>
       <c r="E25" s="144" t="str">
@@ -14837,18 +15325,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MU7</v>
       </c>
-      <c r="I25" s="142" t="e">
+      <c r="I25" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU7#0003</v>
       </c>
       <c r="J25" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU7' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R25C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I25)</f>
+        <v/>
       </c>
       <c r="K25" s="140"/>
       <c r="L25" s="148"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I25)</f>
+        <v>98.52000000000001</v>
+      </c>
+      <c r="O25" s="95">
+        <f>_xll.qlRateHelperRate(I25)</f>
+        <v>1.4584759647604802E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="147"/>
       <c r="B26" s="146">
         <v>24</v>
@@ -14856,7 +15352,7 @@
       <c r="C26" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="218" t="str">
+      <c r="D26" s="209" t="str">
         <v>Z7</v>
       </c>
       <c r="E26" s="144" t="str">
@@ -14875,18 +15371,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MZ7</v>
       </c>
-      <c r="I26" s="142" t="e">
+      <c r="I26" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ7#0003</v>
       </c>
       <c r="J26" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I26)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ7' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R26C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I26)</f>
+        <v/>
       </c>
       <c r="K26" s="140"/>
       <c r="L26" s="148"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I26)</f>
+        <v>98.38</v>
+      </c>
+      <c r="O26" s="95">
+        <f>_xll.qlRateHelperRate(I26)</f>
+        <v>1.5958488310432867E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="147"/>
       <c r="B27" s="146">
         <v>25</v>
@@ -14894,7 +15398,7 @@
       <c r="C27" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="218" t="str">
+      <c r="D27" s="209" t="str">
         <v>H8</v>
       </c>
       <c r="E27" s="144" t="str">
@@ -14913,18 +15417,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MH8</v>
       </c>
-      <c r="I27" s="142" t="e">
+      <c r="I27" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH8#0003</v>
       </c>
       <c r="J27" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I27)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH8' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R27C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I27)</f>
+        <v/>
       </c>
       <c r="K27" s="140"/>
       <c r="L27" s="148"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I27)</f>
+        <v>98.259999999999991</v>
+      </c>
+      <c r="O27" s="95">
+        <f>_xll.qlRateHelperRate(I27)</f>
+        <v>1.7129984799977471E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="147"/>
       <c r="B28" s="146">
         <v>26</v>
@@ -14932,7 +15444,7 @@
       <c r="C28" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D28" s="218" t="str">
+      <c r="D28" s="209" t="str">
         <v>M8</v>
       </c>
       <c r="E28" s="144" t="str">
@@ -14951,18 +15463,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MM8</v>
       </c>
-      <c r="I28" s="142" t="e">
+      <c r="I28" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM8#0003</v>
       </c>
       <c r="J28" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM8' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R28C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I28)</f>
+        <v/>
       </c>
       <c r="K28" s="140"/>
       <c r="L28" s="148"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="95">
+        <f>_xll.qlRateHelperQuoteValue(I28)</f>
+        <v>98.14</v>
+      </c>
+      <c r="O28" s="95">
+        <f>_xll.qlRateHelperRate(I28)</f>
+        <v>1.8300776123715324E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="147"/>
       <c r="B29" s="146">
         <v>27</v>
@@ -14970,7 +15490,7 @@
       <c r="C29" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="218" t="str">
+      <c r="D29" s="209" t="str">
         <v>U8</v>
       </c>
       <c r="E29" s="144" t="str">
@@ -14989,18 +15509,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MU8</v>
       </c>
-      <c r="I29" s="142" t="e">
+      <c r="I29" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU8#0003</v>
       </c>
       <c r="J29" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I29)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU8' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R29C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I29)</f>
+        <v/>
       </c>
       <c r="K29" s="140"/>
       <c r="L29" s="148"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I29)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I29)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="147"/>
       <c r="B30" s="146">
         <v>28</v>
@@ -15008,7 +15536,7 @@
       <c r="C30" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="218" t="str">
+      <c r="D30" s="209" t="str">
         <v>Z8</v>
       </c>
       <c r="E30" s="144" t="str">
@@ -15027,18 +15555,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MZ8</v>
       </c>
-      <c r="I30" s="142" t="e">
+      <c r="I30" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ8#0003</v>
       </c>
       <c r="J30" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I30)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ8' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R30C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I30)</f>
+        <v/>
       </c>
       <c r="K30" s="140"/>
       <c r="L30" s="148"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I30)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I30)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="147"/>
       <c r="B31" s="146">
         <v>29</v>
@@ -15046,7 +15582,7 @@
       <c r="C31" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="218" t="str">
+      <c r="D31" s="209" t="str">
         <v>H9</v>
       </c>
       <c r="E31" s="144" t="str">
@@ -15065,18 +15601,26 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MH9</v>
       </c>
-      <c r="I31" s="142" t="e">
+      <c r="I31" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH9#0003</v>
       </c>
       <c r="J31" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH9' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R31C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I31)</f>
+        <v/>
       </c>
       <c r="K31" s="140"/>
       <c r="L31" s="148"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I31)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="147"/>
       <c r="B32" s="146">
         <v>30</v>
@@ -15084,7 +15628,7 @@
       <c r="C32" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="218" t="str">
+      <c r="D32" s="209" t="str">
         <v>M9</v>
       </c>
       <c r="E32" s="144" t="str">
@@ -15103,16 +15647,24 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MM9</v>
       </c>
-      <c r="I32" s="142" t="e">
+      <c r="I32" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM9#0003</v>
       </c>
       <c r="J32" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I32)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM9' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R32C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I32)</f>
+        <v/>
       </c>
       <c r="K32" s="140"/>
       <c r="L32" s="148"/>
+      <c r="M32" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O32" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I32)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="147"/>
@@ -15122,7 +15674,7 @@
       <c r="C33" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D33" s="218" t="str">
+      <c r="D33" s="209" t="str">
         <v>U9</v>
       </c>
       <c r="E33" s="144" t="str">
@@ -15141,16 +15693,24 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MU9</v>
       </c>
-      <c r="I33" s="142" t="e">
+      <c r="I33" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU9#0003</v>
       </c>
       <c r="J33" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I33)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU9' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R33C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I33)</f>
+        <v/>
       </c>
       <c r="K33" s="140"/>
       <c r="L33" s="148"/>
+      <c r="M33" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I33)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O33" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I33)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="147"/>
@@ -15160,7 +15720,7 @@
       <c r="C34" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D34" s="218" t="str">
+      <c r="D34" s="209" t="str">
         <v>Z9</v>
       </c>
       <c r="E34" s="144" t="str">
@@ -15179,16 +15739,24 @@
         <f t="shared" si="3"/>
         <v>GBP_YCSTDRH_FUT3MZ9</v>
       </c>
-      <c r="I34" s="142" t="e">
+      <c r="I34" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ9#0003</v>
       </c>
       <c r="J34" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I34)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ9' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R34C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I34)</f>
+        <v/>
       </c>
       <c r="K34" s="140"/>
       <c r="L34" s="148"/>
+      <c r="M34" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I34)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O34" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I34)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="147"/>
@@ -15198,7 +15766,7 @@
       <c r="C35" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D35" s="218" t="str">
+      <c r="D35" s="209" t="str">
         <v>H0</v>
       </c>
       <c r="E35" s="144" t="str">
@@ -15217,16 +15785,24 @@
         <f t="shared" ref="H35:H44" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
         <v>GBP_YCSTDRH_FUT3MH0</v>
       </c>
-      <c r="I35" s="142" t="e">
+      <c r="I35" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH0#0003</v>
       </c>
       <c r="J35" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I35)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH0' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R35C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I35)</f>
+        <v/>
       </c>
       <c r="K35" s="140"/>
       <c r="L35" s="148"/>
+      <c r="M35" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I35)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O35" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I35)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="147"/>
@@ -15236,7 +15812,7 @@
       <c r="C36" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D36" s="218" t="str">
+      <c r="D36" s="209" t="str">
         <v>M0</v>
       </c>
       <c r="E36" s="144" t="str">
@@ -15255,16 +15831,24 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MM0</v>
       </c>
-      <c r="I36" s="142" t="e">
+      <c r="I36" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM0#0003</v>
       </c>
       <c r="J36" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I36)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM0' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R36C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I36)</f>
+        <v/>
       </c>
       <c r="K36" s="140"/>
       <c r="L36" s="148"/>
+      <c r="M36" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I36)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O36" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I36)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="147"/>
@@ -15274,7 +15858,7 @@
       <c r="C37" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D37" s="218" t="str">
+      <c r="D37" s="209" t="str">
         <v>U0</v>
       </c>
       <c r="E37" s="144" t="str">
@@ -15293,16 +15877,24 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MU0</v>
       </c>
-      <c r="I37" s="142" t="e">
+      <c r="I37" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU0#0003</v>
       </c>
       <c r="J37" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I37)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU0' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R37C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I37)</f>
+        <v/>
       </c>
       <c r="K37" s="140"/>
       <c r="L37" s="148"/>
+      <c r="M37" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I37)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O37" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I37)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="147"/>
@@ -15312,7 +15904,7 @@
       <c r="C38" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="218" t="str">
+      <c r="D38" s="209" t="str">
         <v>Z0</v>
       </c>
       <c r="E38" s="144" t="str">
@@ -15331,16 +15923,24 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MZ0</v>
       </c>
-      <c r="I38" s="142" t="e">
+      <c r="I38" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ0#0003</v>
       </c>
       <c r="J38" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I38)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ0' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R38C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I38)</f>
+        <v/>
       </c>
       <c r="K38" s="140"/>
       <c r="L38" s="148"/>
+      <c r="M38" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O38" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I38)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="147"/>
@@ -15350,7 +15950,7 @@
       <c r="C39" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="218" t="str">
+      <c r="D39" s="209" t="str">
         <v>H1</v>
       </c>
       <c r="E39" s="144" t="str">
@@ -15369,16 +15969,24 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MH1</v>
       </c>
-      <c r="I39" s="142" t="e">
+      <c r="I39" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH1#0003</v>
       </c>
       <c r="J39" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I39)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH1' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R39C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I39)</f>
+        <v/>
       </c>
       <c r="K39" s="140"/>
       <c r="L39" s="148"/>
+      <c r="M39" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I39)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O39" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I39)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="147"/>
@@ -15388,7 +15996,7 @@
       <c r="C40" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D40" s="218" t="str">
+      <c r="D40" s="209" t="str">
         <v>M1</v>
       </c>
       <c r="E40" s="144" t="str">
@@ -15407,15 +16015,23 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MM1</v>
       </c>
-      <c r="I40" s="142" t="e">
+      <c r="I40" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM1#0003</v>
       </c>
       <c r="J40" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I40)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM1' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R40C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I40)</f>
+        <v/>
       </c>
       <c r="K40" s="140"/>
+      <c r="M40" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I40)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O40" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I40)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="147"/>
@@ -15425,7 +16041,7 @@
       <c r="C41" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D41" s="218" t="str">
+      <c r="D41" s="209" t="str">
         <v>U1</v>
       </c>
       <c r="E41" s="144" t="str">
@@ -15444,16 +16060,24 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MU1</v>
       </c>
-      <c r="I41" s="142" t="e">
+      <c r="I41" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MU1#0003</v>
       </c>
       <c r="J41" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I41)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MU1' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R41C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I41)</f>
+        <v/>
       </c>
       <c r="K41" s="140"/>
-      <c r="U41" s="216"/>
+      <c r="M41" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I41)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O41" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I41)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U41" s="207"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="147"/>
@@ -15463,7 +16087,7 @@
       <c r="C42" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D42" s="218" t="str">
+      <c r="D42" s="209" t="str">
         <v>Z1</v>
       </c>
       <c r="E42" s="144" t="str">
@@ -15482,15 +16106,23 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MZ1</v>
       </c>
-      <c r="I42" s="142" t="e">
+      <c r="I42" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MZ1#0003</v>
       </c>
       <c r="J42" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I42)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MZ1' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R42C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I42)</f>
+        <v/>
       </c>
       <c r="K42" s="140"/>
+      <c r="M42" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I42)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O42" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I42)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="147"/>
@@ -15500,7 +16132,7 @@
       <c r="C43" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D43" s="218" t="str">
+      <c r="D43" s="209" t="str">
         <v>H2</v>
       </c>
       <c r="E43" s="144" t="str">
@@ -15519,15 +16151,23 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MH2</v>
       </c>
-      <c r="I43" s="142" t="e">
+      <c r="I43" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MH2#0003</v>
       </c>
       <c r="J43" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I43)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MH2' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R43C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I43)</f>
+        <v/>
       </c>
       <c r="K43" s="140"/>
+      <c r="M43" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I43)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O43" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I43)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="147"/>
@@ -15537,7 +16177,7 @@
       <c r="C44" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D44" s="218" t="str">
+      <c r="D44" s="209" t="str">
         <v>M2</v>
       </c>
       <c r="E44" s="144" t="str">
@@ -15556,15 +16196,23 @@
         <f t="shared" si="7"/>
         <v>GBP_YCSTDRH_FUT3MM2</v>
       </c>
-      <c r="I44" s="142" t="e">
+      <c r="I44" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YCSTDRH_FUT3MM2#0003</v>
       </c>
       <c r="J44" s="141" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I44)</f>
-        <v>qlFuturesRateHelper - Cannot create object with ID 'GBP_YCSTDRH_FUT3MM2' in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!R44C9 because an object with that ID already resides in cell [GBP_YCSTDBootstrapping.xlsx]STD_Futures!</v>
+        <f>_xll.ohRangeRetrieveError(I44)</f>
+        <v/>
       </c>
       <c r="K44" s="140"/>
+      <c r="M44" s="95" t="e">
+        <f>_xll.qlRateHelperQuoteValue(I44)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O44" s="95" t="e">
+        <f>_xll.qlRateHelperRate(I44)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="45" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="139"/>
@@ -15714,7 +16362,7 @@
       </c>
       <c r="L4" s="191" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YCSTDRH_SB6L_Libor6M#0000</v>
+        <v>GBP_YCSTDRH_SB6L_Libor6M#0003</v>
       </c>
       <c r="M4" s="190" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15778,7 +16426,7 @@
       </c>
       <c r="L6" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L1Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L1Y#0003</v>
       </c>
       <c r="M6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15829,7 +16477,7 @@
       </c>
       <c r="L7" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L15M#0000</v>
+        <v>GBP_YCSTDRH_SB6L15M#0003</v>
       </c>
       <c r="M7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15884,7 +16532,7 @@
       </c>
       <c r="L8" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L18M#0000</v>
+        <v>GBP_YCSTDRH_SB6L18M#0003</v>
       </c>
       <c r="M8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15939,7 +16587,7 @@
       </c>
       <c r="L9" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L21M#0000</v>
+        <v>GBP_YCSTDRH_SB6L21M#0003</v>
       </c>
       <c r="M9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15990,7 +16638,7 @@
       </c>
       <c r="L10" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L2Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L2Y#0003</v>
       </c>
       <c r="M10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -16045,7 +16693,7 @@
       </c>
       <c r="L11" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L3Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L3Y#0003</v>
       </c>
       <c r="M11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -16091,7 +16739,7 @@
       </c>
       <c r="L12" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L4Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L4Y#0003</v>
       </c>
       <c r="M12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16137,7 +16785,7 @@
       </c>
       <c r="L13" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L5Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L5Y#0003</v>
       </c>
       <c r="M13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16183,7 +16831,7 @@
       </c>
       <c r="L14" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L6Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L6Y#0003</v>
       </c>
       <c r="M14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16229,7 +16877,7 @@
       </c>
       <c r="L15" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L7Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L7Y#0003</v>
       </c>
       <c r="M15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16275,7 +16923,7 @@
       </c>
       <c r="L16" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L8Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L8Y#0003</v>
       </c>
       <c r="M16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16321,7 +16969,7 @@
       </c>
       <c r="L17" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L9Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L9Y#0003</v>
       </c>
       <c r="M17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16367,7 +17015,7 @@
       </c>
       <c r="L18" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L10Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L10Y#0003</v>
       </c>
       <c r="M18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16413,7 +17061,7 @@
       </c>
       <c r="L19" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L11Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L11Y#0003</v>
       </c>
       <c r="M19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16459,7 +17107,7 @@
       </c>
       <c r="L20" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L12Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L12Y#0003</v>
       </c>
       <c r="M20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16505,7 +17153,7 @@
       </c>
       <c r="L21" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L13Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L13Y#0003</v>
       </c>
       <c r="M21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16551,7 +17199,7 @@
       </c>
       <c r="L22" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L14Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L14Y#0003</v>
       </c>
       <c r="M22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16597,7 +17245,7 @@
       </c>
       <c r="L23" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L15Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L15Y#0003</v>
       </c>
       <c r="M23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16643,7 +17291,7 @@
       </c>
       <c r="L24" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L16Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L16Y#0003</v>
       </c>
       <c r="M24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16689,7 +17337,7 @@
       </c>
       <c r="L25" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L17Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L17Y#0003</v>
       </c>
       <c r="M25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16735,7 +17383,7 @@
       </c>
       <c r="L26" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L18Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L18Y#0003</v>
       </c>
       <c r="M26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16781,7 +17429,7 @@
       </c>
       <c r="L27" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L19Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L19Y#0003</v>
       </c>
       <c r="M27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16827,7 +17475,7 @@
       </c>
       <c r="L28" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L20Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L20Y#0003</v>
       </c>
       <c r="M28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16873,7 +17521,7 @@
       </c>
       <c r="L29" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L21Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L21Y#0003</v>
       </c>
       <c r="M29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16919,7 +17567,7 @@
       </c>
       <c r="L30" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L22Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L22Y#0003</v>
       </c>
       <c r="M30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16965,7 +17613,7 @@
       </c>
       <c r="L31" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L23Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L23Y#0003</v>
       </c>
       <c r="M31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -17011,7 +17659,7 @@
       </c>
       <c r="L32" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L24Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L24Y#0003</v>
       </c>
       <c r="M32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -17057,7 +17705,7 @@
       </c>
       <c r="L33" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L25Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L25Y#0003</v>
       </c>
       <c r="M33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -17103,7 +17751,7 @@
       </c>
       <c r="L34" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L26Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L26Y#0003</v>
       </c>
       <c r="M34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17149,7 +17797,7 @@
       </c>
       <c r="L35" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L27Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L27Y#0003</v>
       </c>
       <c r="M35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17195,7 +17843,7 @@
       </c>
       <c r="L36" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L28Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L28Y#0003</v>
       </c>
       <c r="M36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17241,7 +17889,7 @@
       </c>
       <c r="L37" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L29Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L29Y#0003</v>
       </c>
       <c r="M37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17287,7 +17935,7 @@
       </c>
       <c r="L38" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L30Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L30Y#0003</v>
       </c>
       <c r="M38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17333,7 +17981,7 @@
       </c>
       <c r="L39" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L35Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L35Y#0003</v>
       </c>
       <c r="M39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17379,7 +18027,7 @@
       </c>
       <c r="L40" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L40Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L40Y#0003</v>
       </c>
       <c r="M40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17425,7 +18073,7 @@
       </c>
       <c r="L41" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L50Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L50Y#0003</v>
       </c>
       <c r="M41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17471,7 +18119,7 @@
       </c>
       <c r="L42" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L60Y#0000</v>
+        <v>GBP_YCSTDRH_SB6L60Y#0003</v>
       </c>
       <c r="M42" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -2457,7 +2457,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="84">
-        <v>41653.135578703703</v>
+        <v>41666.649537037039</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="60"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0003</v>
+        <v>_GBPYCSTD#0006</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
@@ -2636,11 +2636,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="68">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="D23" s="67">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>3.2828425899017369E-2</v>
+        <v>3.2829539655675546E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
@@ -2649,11 +2649,11 @@
       <c r="B24" s="64"/>
       <c r="C24" s="66">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63569</v>
+        <v>63571</v>
       </c>
       <c r="D24" s="65">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>4.7999684386257728E-3</v>
+        <v>4.7999053175556972E-3</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="60"/>
@@ -2719,7 +2719,7 @@
   <dimension ref="A1:T171"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>STD_Deposits!F3</f>
-        <v>GBP_YCSTDRH_OND#0003</v>
+        <v>GBP_YCSTDRH_OND#0000</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="M2" s="1">
         <v>10</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>STD_Deposits!F4</f>
-        <v>GBP_YCSTDRH_SWD#0003</v>
+        <v>GBP_YCSTDRH_SWD#0000</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="M3" s="1">
         <v>20</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>STD_Deposits!F5</f>
-        <v>GBP_YCSTDRH_2WD#0003</v>
+        <v>GBP_YCSTDRH_2WD#0000</v>
       </c>
       <c r="F4" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2880,11 +2880,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41667</v>
+        <v>41670</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E5" s="14" t="str">
         <f>STD_Deposits!F6</f>
-        <v>GBP_YCSTDRH_3WD#0003</v>
+        <v>GBP_YCSTDRH_3WD#0000</v>
       </c>
       <c r="F5" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41674</v>
+        <v>41677</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="E6" s="14" t="str">
         <f>STD_Deposits!F7</f>
-        <v>GBP_YCSTDRH_1MD#0003</v>
+        <v>GBP_YCSTDRH_1MD#0000</v>
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E7" s="14" t="str">
         <f>STD_Deposits!F8</f>
-        <v>GBP_YCSTDRH_2MD#0003</v>
+        <v>GBP_YCSTDRH_2MD#0000</v>
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E8" s="14" t="str">
         <f>STD_Deposits!F9</f>
-        <v>GBP_YCSTDRH_3MD#0003</v>
+        <v>GBP_YCSTDRH_3MD#0000</v>
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
@@ -3040,11 +3040,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41743</v>
+        <v>41746</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E9" s="14" t="str">
         <f>STD_Deposits!F10</f>
-        <v>GBP_YCSTDRH_4MD#0003</v>
+        <v>GBP_YCSTDRH_4MD#0000</v>
       </c>
       <c r="F9" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3080,11 +3080,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="T9" s="96"/>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E10" s="14" t="str">
         <f>STD_Deposits!F11</f>
-        <v>GBP_YCSTDRH_5MD#0003</v>
+        <v>GBP_YCSTDRH_5MD#0000</v>
       </c>
       <c r="F10" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="T10" s="96"/>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E11" s="14" t="str">
         <f>STD_Deposits!F12</f>
-        <v>GBP_YCSTDRH_6MD#0003</v>
+        <v>GBP_YCSTDRH_6MD#0000</v>
       </c>
       <c r="F11" s="13">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="Q11" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,K2)</f>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="E12" s="14" t="str">
         <f>STD_Deposits!F13</f>
-        <v>GBP_YCSTDRH_7MD#0003</v>
+        <v>GBP_YCSTDRH_7MD#0000</v>
       </c>
       <c r="F12" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
@@ -3186,11 +3186,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41865</v>
+        <v>41869</v>
       </c>
       <c r="Q12" s="31"/>
       <c r="T12" s="96"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E13" s="14" t="str">
         <f>STD_Deposits!F14</f>
-        <v>GBP_YCSTDRH_8MD#0003</v>
+        <v>GBP_YCSTDRH_8MD#0000</v>
       </c>
       <c r="F13" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41897</v>
+        <v>41899</v>
       </c>
       <c r="Q13" s="31"/>
       <c r="T13" s="96"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="E14" s="14" t="str">
         <f>STD_Deposits!F15</f>
-        <v>GBP_YCSTDRH_9MD#0003</v>
+        <v>GBP_YCSTDRH_9MD#0000</v>
       </c>
       <c r="F14" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
@@ -3256,19 +3256,19 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41926</v>
+        <v>41929</v>
       </c>
       <c r="O14" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L129,"act/365","simple","annual")</f>
-        <v>5.166280337514962E-2</v>
+        <v>5.1672498351251483E-2</v>
       </c>
       <c r="Q14" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L129)</f>
-        <v>0.40028479496546937</v>
+        <v>0.40019440016649793</v>
       </c>
       <c r="T14" s="96"/>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E15" s="14" t="str">
         <f>STD_Deposits!F16</f>
-        <v>GBP_YCSTDRH_10MD#0003</v>
+        <v>GBP_YCSTDRH_10MD#0000</v>
       </c>
       <c r="F15" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
@@ -3298,11 +3298,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
       <c r="Q15" s="31"/>
       <c r="T15" s="96"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="E16" s="14" t="str">
         <f>STD_Deposits!F17</f>
-        <v>GBP_YCSTDRH_11MD#0003</v>
+        <v>GBP_YCSTDRH_11MD#0000</v>
       </c>
       <c r="F16" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41988</v>
+        <v>41990</v>
       </c>
       <c r="Q16" s="31"/>
       <c r="T16" s="96"/>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E17" s="7" t="str">
         <f>STD_Deposits!F18</f>
-        <v>GBP_YCSTDRH_1YD#0003</v>
+        <v>GBP_YCSTDRH_1YD#0000</v>
       </c>
       <c r="F17" s="6">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="K17" s="4">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L17" s="3">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="Q17" s="31"/>
       <c r="T17" s="96"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="Q18" s="31">
         <f>1/Q14</f>
-        <v>2.498221297879339</v>
+        <v>2.49878558916356</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="Q19" s="30">
         <f>(L129-K2)/365</f>
-        <v>29.019178082191782</v>
+        <v>29.024657534246575</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
@@ -3504,11 +3504,11 @@
       </c>
       <c r="Q20" s="29">
         <f>(Q18^(1/Q19))-1</f>
-        <v>3.2053827989094508E-2</v>
+        <v>3.2055711506255191E-2</v>
       </c>
       <c r="R20" s="29">
         <f>(Q18-1)/Q19</f>
-        <v>5.1628660661438702E-2</v>
+        <v>5.163835567724178E-2</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
@@ -4168,22 +4168,22 @@
       </c>
       <c r="D38" s="14" t="str">
         <f t="array" ref="D38:D79">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A38:$A79)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f>STD_Futures!I3</f>
-        <v>GBP_YCSTDRH_FUT3MF4#0003</v>
-      </c>
-      <c r="F38" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MG4#0000</v>
+      </c>
+      <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G38" s="13" t="e">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="G38" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
-        <v>#NUM!</v>
+        <v>8.5878528058929724E-7</v>
       </c>
       <c r="H38" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="12">
         <v>60</v>
@@ -4193,18 +4193,18 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41654</v>
+        <v>41689</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41744</v>
+        <v>41778</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
-      <c r="O38" s="1" t="e">
+      <c r="O38" s="1">
         <f>_xll.qlRateHelperRate(E38)</f>
-        <v>#NUM!</v>
+        <v>5.1491412147193988E-3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -4217,19 +4217,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f>STD_Futures!I4</f>
-        <v>GBP_YCSTDRH_FUT3MG4#0003</v>
-      </c>
-      <c r="F39" s="28">
+        <v>GBP_YCSTDRH_FUT3MH4#0000</v>
+      </c>
+      <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>99.484999999999999</v>
-      </c>
-      <c r="G39" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
-        <v>8.9366675969727194E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="H39" s="12" t="b">
         <v>0</v>
@@ -4242,18 +4242,18 @@
       </c>
       <c r="K39" s="11">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="L39" s="10">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41778</v>
+        <v>41809</v>
       </c>
       <c r="N39" s="1">
         <v>2</v>
       </c>
-      <c r="O39" s="96">
+      <c r="O39" s="96" t="e">
         <f>_xll.qlRateHelperRate(E39)</f>
-        <v>5.1491063332402909E-3</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -4266,11 +4266,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f>STD_Futures!I5</f>
-        <v>GBP_YCSTDRH_FUT3MH4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MJ4#0000</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="K40" s="11">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="L40" s="10">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41809</v>
+        <v>41836</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
@@ -4315,22 +4315,22 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f>STD_Futures!I6</f>
-        <v>GBP_YCSTDRH_FUT3MJ4#0003</v>
-      </c>
-      <c r="F41" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MK4#0000</v>
+      </c>
+      <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G41" s="13" t="e">
+        <v>99.495000000000005</v>
+      </c>
+      <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.6787605181030874E-6</v>
       </c>
       <c r="H41" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="12">
         <v>60</v>
@@ -4340,18 +4340,18 @@
       </c>
       <c r="K41" s="11">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L41" s="10">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
       <c r="N41" s="96">
         <v>4</v>
       </c>
-      <c r="O41" s="96" t="e">
+      <c r="O41" s="96">
         <f>_xll.qlRateHelperRate(E41)</f>
-        <v>#NUM!</v>
+        <v>5.0453212394818954E-3</v>
       </c>
       <c r="P41" s="96"/>
     </row>
@@ -4365,19 +4365,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f>STD_Futures!I7</f>
-        <v>GBP_YCSTDRH_FUT3MK4#0003</v>
-      </c>
-      <c r="F42" s="28">
+        <v>GBP_YCSTDRH_FUT3MM4#0000</v>
+      </c>
+      <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.465000000000003</v>
-      </c>
-      <c r="G42" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
-        <v>4.5511097454801462E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="H42" s="12" t="b">
         <v>0</v>
@@ -4390,18 +4390,18 @@
       </c>
       <c r="K42" s="11">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L42" s="10">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="N42" s="96">
         <v>5</v>
       </c>
-      <c r="O42" s="96">
+      <c r="O42" s="96" t="e">
         <f>_xll.qlRateHelperRate(E42)</f>
-        <v>5.3454488902544856E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="P42" s="96"/>
     </row>
@@ -4415,11 +4415,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f>STD_Futures!I8</f>
-        <v>GBP_YCSTDRH_FUT3MM4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MN4#0000</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4440,11 +4440,11 @@
       </c>
       <c r="K43" s="11">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L43" s="10">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="N43" s="96">
         <v>6</v>
@@ -4465,22 +4465,22 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f>STD_Futures!I9</f>
-        <v>GBP_YCSTDRH_FUT3MN4#0003</v>
-      </c>
-      <c r="F44" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MQ4#0000</v>
+      </c>
+      <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G44" s="13" t="e">
+        <v>99.495000000000005</v>
+      </c>
+      <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H44" s="210" t="b">
-        <v>0</v>
+        <v>1.0436509577233406E-5</v>
+      </c>
+      <c r="H44" s="97" t="b">
+        <v>1</v>
       </c>
       <c r="I44" s="12">
         <v>60</v>
@@ -4490,18 +4490,18 @@
       </c>
       <c r="K44" s="11">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L44" s="10">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
       <c r="N44" s="96">
         <v>7</v>
       </c>
-      <c r="O44" s="96" t="e">
+      <c r="O44" s="96">
         <f>_xll.qlRateHelperRate(E44)</f>
-        <v>#NUM!</v>
+        <v>5.0395634904227653E-3</v>
       </c>
       <c r="P44" s="96"/>
     </row>
@@ -4515,22 +4515,22 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f>STD_Futures!I10</f>
-        <v>GBP_YCSTDRH_FUT3MQ4#0003</v>
-      </c>
-      <c r="F45" s="28">
+        <v>GBP_YCSTDRH_FUT3MU4#0000</v>
+      </c>
+      <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.460000000000008</v>
-      </c>
-      <c r="G45" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
-        <v>1.0028201943633485E-5</v>
-      </c>
-      <c r="H45" s="12" t="b">
-        <v>1</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" s="210" t="b">
+        <v>0</v>
       </c>
       <c r="I45" s="12">
         <v>60</v>
@@ -4540,18 +4540,18 @@
       </c>
       <c r="K45" s="11">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L45" s="10">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
       <c r="N45" s="96">
         <v>8</v>
       </c>
-      <c r="O45" s="96">
+      <c r="O45" s="96" t="e">
         <f>_xll.qlRateHelperRate(E45)</f>
-        <v>5.3899717980563271E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="P45" s="96"/>
     </row>
@@ -4565,11 +4565,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f>STD_Futures!I11</f>
-        <v>GBP_YCSTDRH_FUT3MU4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MV4#0000</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4590,11 +4590,11 @@
       </c>
       <c r="K46" s="11">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L46" s="10">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
       <c r="N46" s="96">
         <v>9</v>
@@ -4615,22 +4615,22 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E47" s="14" t="str">
         <f>STD_Futures!I12</f>
-        <v>GBP_YCSTDRH_FUT3MV4#0003</v>
-      </c>
-      <c r="F47" s="28" t="e">
+        <v>GBP_YCSTDRH_FUT3MX4#0000</v>
+      </c>
+      <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G47" s="13" t="e">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H47" s="210" t="b">
-        <v>0</v>
+        <v>1.8112529834231554E-5</v>
+      </c>
+      <c r="H47" s="97" t="b">
+        <v>1</v>
       </c>
       <c r="I47" s="12">
         <v>60</v>
@@ -4640,18 +4640,18 @@
       </c>
       <c r="K47" s="11">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L47" s="10">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
       <c r="N47" s="96">
         <v>10</v>
       </c>
-      <c r="O47" s="96" t="e">
+      <c r="O47" s="96">
         <f>_xll.qlRateHelperRate(E47)</f>
-        <v>#NUM!</v>
+        <v>5.1318874701657561E-3</v>
       </c>
       <c r="P47" s="96"/>
     </row>
@@ -4665,22 +4665,22 @@
         <v>FUT3M</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E48" s="14" t="str">
         <f>STD_Futures!I13</f>
-        <v>GBP_YCSTDRH_FUT3MX4#0003</v>
-      </c>
-      <c r="F48" s="28">
+        <v>GBP_YCSTDRH_FUT3MZ4#0000</v>
+      </c>
+      <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.435000000000002</v>
-      </c>
-      <c r="G48" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
-        <v>1.7309250856406797E-5</v>
-      </c>
-      <c r="H48" s="12" t="b">
-        <v>1</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" s="210" t="b">
+        <v>0</v>
       </c>
       <c r="I48" s="12">
         <v>60</v>
@@ -4690,18 +4690,18 @@
       </c>
       <c r="K48" s="11">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L48" s="10">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
       <c r="N48" s="96">
         <v>11</v>
       </c>
-      <c r="O48" s="96">
+      <c r="O48" s="96" t="e">
         <f>_xll.qlRateHelperRate(E48)</f>
-        <v>5.632690749143526E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="P48" s="96"/>
     </row>
@@ -4715,11 +4715,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E49" s="14" t="str">
         <f>STD_Futures!I14</f>
-        <v>GBP_YCSTDRH_FUT3MZ4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MF5#0000</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4740,11 +4740,11 @@
       </c>
       <c r="K49" s="11">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L49" s="10">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
       <c r="N49" s="96">
         <v>12</v>
@@ -4765,19 +4765,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E50" s="14" t="str">
         <f>STD_Futures!I15</f>
-        <v>GBP_YCSTDRH_FUT3MH5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH5#0000</v>
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.405000000000001</v>
+        <v>99.474999999999994</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
-        <v>2.9484762016936334E-5</v>
+        <v>3.0972526508578707E-5</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>1</v>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="O50" s="96">
         <f>_xll.qlRateHelperRate(E50)</f>
-        <v>5.9205152379830745E-3</v>
+        <v>5.2190274734915092E-3</v>
       </c>
       <c r="P50" s="96"/>
     </row>
@@ -4815,19 +4815,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E51" s="14" t="str">
         <f>STD_Futures!I16</f>
-        <v>GBP_YCSTDRH_FUT3MM5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM5#0000</v>
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.35499999999999</v>
+        <v>99.454999999999998</v>
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
-        <v>4.0777397257116945E-5</v>
+        <v>4.2912139646520461E-5</v>
       </c>
       <c r="H51" s="12" t="b">
         <v>1</v>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O51" s="96">
         <f>_xll.qlRateHelperRate(E51)</f>
-        <v>6.4092226027429502E-3</v>
+        <v>5.407087860353545E-3</v>
       </c>
       <c r="P51" s="96"/>
     </row>
@@ -4865,19 +4865,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D52" s="14" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E52" s="14" t="str">
         <f>STD_Futures!I17</f>
-        <v>GBP_YCSTDRH_FUT3MU5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU5#0000</v>
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>99.305000000000007</v>
+        <v>99.415000000000006</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
-        <v>5.3610802592238644E-5</v>
+        <v>5.6492296778776739E-5</v>
       </c>
       <c r="H52" s="12" t="b">
         <v>1</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="O52" s="96">
         <f>_xll.qlRateHelperRate(E52)</f>
-        <v>6.8963891974076624E-3</v>
+        <v>5.7935077032211339E-3</v>
       </c>
       <c r="P52" s="96"/>
     </row>
@@ -4915,19 +4915,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D53" s="14" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E53" s="14" t="str">
         <f>STD_Futures!I18</f>
-        <v>GBP_YCSTDRH_FUT3MZ5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ5#0000</v>
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>99.234999999999999</v>
+        <v>99.375</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
-        <v>6.8198371780715521E-5</v>
+        <v>7.1932857099468806E-5</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>1</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="O53" s="96">
         <f>_xll.qlRateHelperRate(E53)</f>
-        <v>7.5818016282193298E-3</v>
+        <v>6.1780671429005089E-3</v>
       </c>
       <c r="P53" s="96"/>
     </row>
@@ -4965,19 +4965,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D54" s="14" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E54" s="14" t="str">
         <f>STD_Futures!I19</f>
-        <v>GBP_YCSTDRH_FUT3MH6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH6#0000</v>
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>99.164999999999992</v>
+        <v>99.325000000000003</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
-        <v>8.4557340455810107E-5</v>
+        <v>8.925583082517931E-5</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>1</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O54" s="96">
         <f>_xll.qlRateHelperRate(E54)</f>
-        <v>8.2654426595442695E-3</v>
+        <v>6.6607441691747434E-3</v>
       </c>
       <c r="P54" s="96"/>
     </row>
@@ -5015,19 +5015,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D55" s="14" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E55" s="14" t="str">
         <f>STD_Futures!I20</f>
-        <v>GBP_YCSTDRH_FUT3MM6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM6#0000</v>
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>99.074999999999989</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
-        <v>1.0233355146663395E-4</v>
+        <v>1.0807965759465941E-4</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>1</v>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="O55" s="96">
         <f>_xll.qlRateHelperRate(E55)</f>
-        <v>9.1476664485334574E-3</v>
+        <v>7.1419203424053189E-3</v>
       </c>
       <c r="P55" s="96"/>
     </row>
@@ -5065,19 +5065,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D56" s="14" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E56" s="14" t="str">
         <f>STD_Futures!I21</f>
-        <v>GBP_YCSTDRH_FUT3MU6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU6#0000</v>
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.974999999999994</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
-        <v>1.2298009269079831E-4</v>
+        <v>1.2995099670922464E-4</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>1</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="O56" s="96">
         <f>_xll.qlRateHelperRate(E56)</f>
-        <v>1.0127019907309295E-2</v>
+        <v>7.8200490032907886E-3</v>
       </c>
       <c r="P56" s="96"/>
     </row>
@@ -5115,19 +5115,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D57" s="14" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E57" s="14" t="str">
         <f>STD_Futures!I22</f>
-        <v>GBP_YCSTDRH_FUT3MZ6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ6#0000</v>
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>98.865000000000009</v>
+        <v>99.135000000000005</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
-        <v>1.4365853870375688E-4</v>
+        <v>1.5185500402380714E-4</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>1</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O57" s="96">
         <f>_xll.qlRateHelperRate(E57)</f>
-        <v>1.1206341461296104E-2</v>
+        <v>8.4981449959761288E-3</v>
       </c>
       <c r="P57" s="96"/>
     </row>
@@ -5165,19 +5165,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D58" s="14" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="E58" s="14" t="str">
         <f>STD_Futures!I23</f>
-        <v>GBP_YCSTDRH_FUT3MH7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH7#0000</v>
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>98.754999999999995</v>
+        <v>99.04</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
-        <v>1.6472603077439979E-4</v>
+        <v>1.7417832146506281E-4</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>1</v>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="O58" s="96">
         <f>_xll.qlRateHelperRate(E58)</f>
-        <v>1.2285273969225673E-2</v>
+        <v>9.4258216785348785E-3</v>
       </c>
       <c r="P58" s="96"/>
     </row>
@@ -5215,19 +5215,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D59" s="14" t="str">
-        <v>V5</v>
+        <v>X5</v>
       </c>
       <c r="E59" s="14" t="str">
         <f>STD_Futures!I24</f>
-        <v>GBP_YCSTDRH_FUT3MM7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM7#0000</v>
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>98.634999999999991</v>
+        <v>98.95</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
-        <v>1.9031139310161588E-4</v>
+        <v>2.0128830426864962E-4</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>1</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="O59" s="96">
         <f>_xll.qlRateHelperRate(E59)</f>
-        <v>1.3459688606898435E-2</v>
+        <v>1.0298711695731304E-2</v>
       </c>
       <c r="P59" s="96"/>
     </row>
@@ -5265,19 +5265,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D60" s="14" t="str">
-        <v>X5</v>
+        <v>Z5</v>
       </c>
       <c r="E60" s="14" t="str">
         <f>STD_Futures!I25</f>
-        <v>GBP_YCSTDRH_FUT3MU7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU7#0000</v>
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>98.52000000000001</v>
+        <v>98.84</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
-        <v>2.1524035239512188E-4</v>
+        <v>2.2771890945455847E-4</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>1</v>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="O60" s="96">
         <f>_xll.qlRateHelperRate(E60)</f>
-        <v>1.4584759647604802E-2</v>
+        <v>1.1372281090545385E-2</v>
       </c>
       <c r="P60" s="96"/>
     </row>
@@ -5315,19 +5315,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D61" s="14" t="str">
-        <v>Z5</v>
+        <v>F6</v>
       </c>
       <c r="E61" s="14" t="str">
         <f>STD_Futures!I26</f>
-        <v>GBP_YCSTDRH_FUT3MZ7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ7#0000</v>
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>98.38</v>
+        <v>98.724999999999994</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
-        <v>2.4151168956712443E-4</v>
+        <v>2.5556372422727726E-4</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>1</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="O61" s="96">
         <f>_xll.qlRateHelperRate(E61)</f>
-        <v>1.5958488310432867E-2</v>
+        <v>1.2494436275772762E-2</v>
       </c>
       <c r="P61" s="96"/>
     </row>
@@ -5365,19 +5365,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D62" s="14" t="str">
-        <v>F6</v>
+        <v>G6</v>
       </c>
       <c r="E62" s="14" t="str">
         <f>STD_Futures!I27</f>
-        <v>GBP_YCSTDRH_FUT3MH8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH8#0000</v>
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>98.259999999999991</v>
+        <v>98.59</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
-        <v>2.7001520002261118E-4</v>
+        <v>2.8579615972647971E-4</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>1</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="O62" s="96">
         <f>_xll.qlRateHelperRate(E62)</f>
-        <v>1.7129984799977471E-2</v>
+        <v>1.3814203840273521E-2</v>
       </c>
       <c r="P62" s="96"/>
     </row>
@@ -5415,19 +5415,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D63" s="14" t="str">
-        <v>G6</v>
+        <v>H6</v>
       </c>
       <c r="E63" s="14" t="str">
         <f>STD_Futures!I28</f>
-        <v>GBP_YCSTDRH_FUT3MM8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM8#0000</v>
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>98.14</v>
+        <v>98.474999999999994</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
-        <v>2.9922387628462461E-4</v>
+        <v>3.1677104378907304E-4</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>1</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="O63" s="96">
         <f>_xll.qlRateHelperRate(E63)</f>
-        <v>1.8300776123715324E-2</v>
+        <v>1.4933228956211023E-2</v>
       </c>
       <c r="P63" s="96"/>
     </row>
@@ -5465,11 +5465,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D64" s="14" t="str">
-        <v>H6</v>
+        <v>J6</v>
       </c>
       <c r="E64" s="14" t="str">
         <f>STD_Futures!I29</f>
-        <v>GBP_YCSTDRH_FUT3MU8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU8#0000</v>
       </c>
       <c r="F64" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5515,11 +5515,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D65" s="14" t="str">
-        <v>J6</v>
+        <v>K6</v>
       </c>
       <c r="E65" s="14" t="str">
         <f>STD_Futures!I30</f>
-        <v>GBP_YCSTDRH_FUT3MZ8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ8#0000</v>
       </c>
       <c r="F65" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5565,11 +5565,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D66" s="14" t="str">
-        <v>K6</v>
+        <v>M6</v>
       </c>
       <c r="E66" s="14" t="str">
         <f>STD_Futures!I31</f>
-        <v>GBP_YCSTDRH_FUT3MH9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH9#0000</v>
       </c>
       <c r="F66" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5615,11 +5615,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D67" s="14" t="str">
-        <v>M6</v>
+        <v>N6</v>
       </c>
       <c r="E67" s="14" t="str">
         <f>STD_Futures!I32</f>
-        <v>GBP_YCSTDRH_FUT3MM9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM9#0000</v>
       </c>
       <c r="F67" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5665,11 +5665,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D68" s="14" t="str">
-        <v>N6</v>
+        <v>Q6</v>
       </c>
       <c r="E68" s="14" t="str">
         <f>STD_Futures!I33</f>
-        <v>GBP_YCSTDRH_FUT3MU9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU9#0000</v>
       </c>
       <c r="F68" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5715,11 +5715,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D69" s="14" t="str">
-        <v>Q6</v>
+        <v>U6</v>
       </c>
       <c r="E69" s="14" t="str">
         <f>STD_Futures!I34</f>
-        <v>GBP_YCSTDRH_FUT3MZ9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ9#0000</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5765,11 +5765,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D70" s="14" t="str">
-        <v>U6</v>
+        <v>V6</v>
       </c>
       <c r="E70" s="14" t="str">
         <f>STD_Futures!I35</f>
-        <v>GBP_YCSTDRH_FUT3MH0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH0#0000</v>
       </c>
       <c r="F70" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5815,11 +5815,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D71" s="14" t="str">
-        <v>V6</v>
+        <v>X6</v>
       </c>
       <c r="E71" s="14" t="str">
         <f>STD_Futures!I36</f>
-        <v>GBP_YCSTDRH_FUT3MM0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM0#0000</v>
       </c>
       <c r="F71" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5865,11 +5865,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D72" s="14" t="str">
-        <v>X6</v>
+        <v>Z6</v>
       </c>
       <c r="E72" s="14" t="str">
         <f>STD_Futures!I37</f>
-        <v>GBP_YCSTDRH_FUT3MU0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU0#0000</v>
       </c>
       <c r="F72" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5915,11 +5915,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D73" s="14" t="str">
-        <v>Z6</v>
+        <v>F7</v>
       </c>
       <c r="E73" s="14" t="str">
         <f>STD_Futures!I38</f>
-        <v>GBP_YCSTDRH_FUT3MZ0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ0#0000</v>
       </c>
       <c r="F73" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5965,11 +5965,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D74" s="14" t="str">
-        <v>F7</v>
+        <v>G7</v>
       </c>
       <c r="E74" s="14" t="str">
         <f>STD_Futures!I39</f>
-        <v>GBP_YCSTDRH_FUT3MH1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH1#0000</v>
       </c>
       <c r="F74" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -6015,11 +6015,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D75" s="14" t="str">
-        <v>G7</v>
+        <v>H7</v>
       </c>
       <c r="E75" s="14" t="str">
         <f>STD_Futures!I40</f>
-        <v>GBP_YCSTDRH_FUT3MM1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM1#0000</v>
       </c>
       <c r="F75" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -6065,11 +6065,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D76" s="14" t="str">
-        <v>H7</v>
+        <v>J7</v>
       </c>
       <c r="E76" s="14" t="str">
         <f>STD_Futures!I41</f>
-        <v>GBP_YCSTDRH_FUT3MU1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU1#0000</v>
       </c>
       <c r="F76" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -6115,11 +6115,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D77" s="14" t="str">
-        <v>J7</v>
+        <v>K7</v>
       </c>
       <c r="E77" s="14" t="str">
         <f>STD_Futures!I42</f>
-        <v>GBP_YCSTDRH_FUT3MZ1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ1#0000</v>
       </c>
       <c r="F77" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -6165,11 +6165,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D78" s="14" t="str">
-        <v>K7</v>
+        <v>M7</v>
       </c>
       <c r="E78" s="14" t="str">
         <f>STD_Futures!I43</f>
-        <v>GBP_YCSTDRH_FUT3MH2#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH2#0000</v>
       </c>
       <c r="F78" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
@@ -6215,11 +6215,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D79" s="7" t="str">
-        <v>M7</v>
+        <v>N7</v>
       </c>
       <c r="E79" s="7" t="str">
         <f>STD_Futures!I44</f>
-        <v>GBP_YCSTDRH_FUT3MM2#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM2#0000</v>
       </c>
       <c r="F79" s="27" t="e">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E98" s="14" t="str">
         <f>STD_Swaps!L6</f>
-        <v>GBP_YCSTDRH_SB6L1Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L1Y#0000</v>
       </c>
       <c r="F98" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6977,11 +6977,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" ref="N98:N134" si="8">IF(G98=G135,F98-F135,"--")</f>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="E99" s="14" t="str">
         <f>STD_Swaps!L7</f>
-        <v>GBP_YCSTDRH_SB6L15M#0003</v>
+        <v>GBP_YCSTDRH_SB6L15M#0000</v>
       </c>
       <c r="F99" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42108</v>
+        <v>42111</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="E100" s="14" t="str">
         <f>STD_Swaps!L8</f>
-        <v>GBP_YCSTDRH_SB6L18M#0003</v>
+        <v>GBP_YCSTDRH_SB6L18M#0000</v>
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -7069,11 +7069,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42199</v>
+        <v>42202</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="E101" s="14" t="str">
         <f>STD_Swaps!L9</f>
-        <v>GBP_YCSTDRH_SB6L21M#0003</v>
+        <v>GBP_YCSTDRH_SB6L21M#0000</v>
       </c>
       <c r="F101" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -7115,11 +7115,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42291</v>
+        <v>42296</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="E102" s="14" t="str">
         <f>STD_Swaps!L10</f>
-        <v>GBP_YCSTDRH_SB6L2Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L2Y#0000</v>
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -7161,11 +7161,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="E103" s="14" t="str">
         <f>STD_Swaps!L11</f>
-        <v>GBP_YCSTDRH_SB6L3Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L3Y#0000</v>
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -7207,11 +7207,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="E104" s="14" t="str">
         <f>STD_Swaps!L12</f>
-        <v>GBP_YCSTDRH_SB6L4Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L4Y#0000</v>
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -7253,11 +7253,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43115</v>
+        <v>43117</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="E105" s="14" t="str">
         <f>STD_Swaps!L13</f>
-        <v>GBP_YCSTDRH_SB6L5Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L5Y#0000</v>
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -7299,11 +7299,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E106" s="14" t="str">
         <f>STD_Swaps!L14</f>
-        <v>GBP_YCSTDRH_SB6L6Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L6Y#0000</v>
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -7345,11 +7345,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>43844</v>
+        <v>43847</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="E107" s="14" t="str">
         <f>STD_Swaps!L15</f>
-        <v>GBP_YCSTDRH_SB6L7Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L7Y#0000</v>
       </c>
       <c r="F107" s="13">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7391,11 +7391,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="E108" s="14" t="str">
         <f>STD_Swaps!L16</f>
-        <v>GBP_YCSTDRH_SB6L8Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L8Y#0000</v>
       </c>
       <c r="F108" s="13">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7437,11 +7437,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="E109" s="14" t="str">
         <f>STD_Swaps!L17</f>
-        <v>GBP_YCSTDRH_SB6L9Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L9Y#0000</v>
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7483,11 +7483,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="E110" s="14" t="str">
         <f>STD_Swaps!L18</f>
-        <v>GBP_YCSTDRH_SB6L10Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L10Y#0000</v>
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7529,11 +7529,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="E111" s="14" t="str">
         <f>STD_Swaps!L19</f>
-        <v>GBP_YCSTDRH_SB6L11Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L11Y#0000</v>
       </c>
       <c r="F111" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="E112" s="14" t="str">
         <f>STD_Swaps!L20</f>
-        <v>GBP_YCSTDRH_SB6L12Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L12Y#0000</v>
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7621,11 +7621,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="E113" s="14" t="str">
         <f>STD_Swaps!L21</f>
-        <v>GBP_YCSTDRH_SB6L13Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L13Y#0000</v>
       </c>
       <c r="F113" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7667,11 +7667,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>46401</v>
+        <v>46405</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="E114" s="14" t="str">
         <f>STD_Swaps!L22</f>
-        <v>GBP_YCSTDRH_SB6L14Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L14Y#0000</v>
       </c>
       <c r="F114" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7713,11 +7713,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>46766</v>
+        <v>46769</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="E115" s="14" t="str">
         <f>STD_Swaps!L23</f>
-        <v>GBP_YCSTDRH_SB6L15Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L15Y#0000</v>
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7759,11 +7759,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47133</v>
+        <v>47135</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="E116" s="14" t="str">
         <f>STD_Swaps!L24</f>
-        <v>GBP_YCSTDRH_SB6L16Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L16Y#0000</v>
       </c>
       <c r="F116" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7805,11 +7805,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>47497</v>
+        <v>47500</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="E117" s="14" t="str">
         <f>STD_Swaps!L25</f>
-        <v>GBP_YCSTDRH_SB6L17Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L17Y#0000</v>
       </c>
       <c r="F117" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7851,11 +7851,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>47862</v>
+        <v>47865</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="E118" s="14" t="str">
         <f>STD_Swaps!L26</f>
-        <v>GBP_YCSTDRH_SB6L18Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L18Y#0000</v>
       </c>
       <c r="F118" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7897,11 +7897,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48227</v>
+        <v>48232</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="E119" s="14" t="str">
         <f>STD_Swaps!L27</f>
-        <v>GBP_YCSTDRH_SB6L19Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L19Y#0000</v>
       </c>
       <c r="F119" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7943,11 +7943,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>48593</v>
+        <v>48596</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="E120" s="14" t="str">
         <f>STD_Swaps!L28</f>
-        <v>GBP_YCSTDRH_SB6L20Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L20Y#0000</v>
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7989,11 +7989,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>48960</v>
+        <v>48961</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="E121" s="14" t="str">
         <f>STD_Swaps!L29</f>
-        <v>GBP_YCSTDRH_SB6L21Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L21Y#0000</v>
       </c>
       <c r="F121" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -8035,11 +8035,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>49324</v>
+        <v>49326</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="E122" s="14" t="str">
         <f>STD_Swaps!L30</f>
-        <v>GBP_YCSTDRH_SB6L22Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L22Y#0000</v>
       </c>
       <c r="F122" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -8081,11 +8081,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>49688</v>
+        <v>49691</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E123" s="14" t="str">
         <f>STD_Swaps!L31</f>
-        <v>GBP_YCSTDRH_SB6L23Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L23Y#0000</v>
       </c>
       <c r="F123" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -8127,11 +8127,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50054</v>
+        <v>50059</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="E124" s="14" t="str">
         <f>STD_Swaps!L32</f>
-        <v>GBP_YCSTDRH_SB6L24Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L24Y#0000</v>
       </c>
       <c r="F124" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -8173,11 +8173,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>50419</v>
+        <v>50423</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="E125" s="14" t="str">
         <f>STD_Swaps!L33</f>
-        <v>GBP_YCSTDRH_SB6L25Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L25Y#0000</v>
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -8219,11 +8219,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="E126" s="14" t="str">
         <f>STD_Swaps!L34</f>
-        <v>GBP_YCSTDRH_SB6L26Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L26Y#0000</v>
       </c>
       <c r="F126" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -8265,11 +8265,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51151</v>
+        <v>51152</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="E127" s="14" t="str">
         <f>STD_Swaps!L35</f>
-        <v>GBP_YCSTDRH_SB6L27Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L27Y#0000</v>
       </c>
       <c r="F127" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -8311,11 +8311,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>51515</v>
+        <v>51518</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="E128" s="14" t="str">
         <f>STD_Swaps!L36</f>
-        <v>GBP_YCSTDRH_SB6L28Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L28Y#0000</v>
       </c>
       <c r="F128" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -8357,11 +8357,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>51880</v>
+        <v>51883</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="E129" s="14" t="str">
         <f>STD_Swaps!L37</f>
-        <v>GBP_YCSTDRH_SB6L29Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L29Y#0000</v>
       </c>
       <c r="F129" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8403,11 +8403,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>52245</v>
+        <v>52250</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="E130" s="14" t="str">
         <f>STD_Swaps!L38</f>
-        <v>GBP_YCSTDRH_SB6L30Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L30Y#0000</v>
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -8449,11 +8449,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>52610</v>
+        <v>52614</v>
       </c>
       <c r="N130" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="E131" s="14" t="str">
         <f>STD_Swaps!L39</f>
-        <v>GBP_YCSTDRH_SB6L35Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L35Y#0000</v>
       </c>
       <c r="F131" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -8495,11 +8495,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>54437</v>
+        <v>54441</v>
       </c>
       <c r="N131" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="E132" s="14" t="str">
         <f>STD_Swaps!L40</f>
-        <v>GBP_YCSTDRH_SB6L40Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L40Y#0000</v>
       </c>
       <c r="F132" s="13">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8541,11 +8541,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>56263</v>
+        <v>56268</v>
       </c>
       <c r="N132" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="E133" s="14" t="str">
         <f>STD_Swaps!L41</f>
-        <v>GBP_YCSTDRH_SB6L50Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L50Y#0000</v>
       </c>
       <c r="F133" s="13">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8587,11 +8587,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>59915</v>
+        <v>59918</v>
       </c>
       <c r="N133" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="E134" s="7" t="str">
         <f>STD_Swaps!L42</f>
-        <v>GBP_YCSTDRH_SB6L60Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L60Y#0000</v>
       </c>
       <c r="F134" s="6">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8633,11 +8633,11 @@
       </c>
       <c r="K134" s="4">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="L134" s="3">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>63569</v>
+        <v>63571</v>
       </c>
       <c r="N134" s="17" t="e">
         <f t="shared" si="8"/>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="I1" s="37">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.7999684386257728E-3</v>
+        <v>4.7999053175556972E-3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10278,14 +10278,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H2" s="42">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41654</v>
+        <v>41659</v>
       </c>
       <c r="I2" s="37">
-        <v>4.7999684386257728E-3</v>
+        <v>4.7999053175556972E-3</v>
       </c>
       <c r="L2" s="96" t="s">
         <v>117</v>
@@ -10314,18 +10314,18 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H3" s="42">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41660</v>
+        <v>41663</v>
       </c>
       <c r="I3" s="37">
-        <v>4.8685727038884508E-3</v>
+        <v>4.8685727038845633E-3</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J36" si="0">H3-H2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3" s="96" t="s">
         <v>118</v>
@@ -10354,14 +10354,14 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H4" s="42">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="I4" s="37">
-        <v>4.923970253753864E-3</v>
+        <v>4.9239702537528483E-3</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -10394,14 +10394,14 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H5" s="42">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="I5" s="37">
-        <v>4.9817936016798049E-3</v>
+        <v>4.9817936016808596E-3</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -10435,14 +10435,14 @@
       </c>
       <c r="G6" s="43">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41743</v>
+        <v>41746</v>
       </c>
       <c r="I6" s="37">
-        <v>5.0781194168563254E-3</v>
+        <v>5.078119416856805E-3</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -10458,7 +10458,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0003</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0006</v>
       </c>
       <c r="B7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10477,14 +10477,14 @@
       </c>
       <c r="G7" s="43">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H7" s="42">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="I7" s="37">
-        <v>5.9088346983128736E-3</v>
+        <v>5.9088346983129283E-3</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
@@ -10511,18 +10511,18 @@
       </c>
       <c r="G8" s="43">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H8" s="42">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="I8" s="37">
-        <v>8.7553597337468054E-3</v>
+        <v>8.7551503346799901E-3</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L8" s="96" t="s">
         <v>123</v>
@@ -10537,11 +10537,11 @@
       </c>
       <c r="E9" s="44">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>5.9205152379830745E-3</v>
+        <v>5.2190274734915092E-3</v>
       </c>
       <c r="F9" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>2.9484762016936334E-5</v>
+        <v>3.0972526508578707E-5</v>
       </c>
       <c r="G9" s="43">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
@@ -10552,11 +10552,11 @@
         <v>42173</v>
       </c>
       <c r="I9" s="37">
-        <v>8.0004970569207013E-3</v>
+        <v>7.8317887818617361E-3</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L9" s="96" t="s">
         <v>124</v>
@@ -10571,11 +10571,11 @@
       </c>
       <c r="E10" s="44">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.4092226027429502E-3</v>
+        <v>5.407087860353545E-3</v>
       </c>
       <c r="F10" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>4.0777397257116945E-5</v>
+        <v>4.2912139646520461E-5</v>
       </c>
       <c r="G10" s="43">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
@@ -10586,7 +10586,7 @@
         <v>42264</v>
       </c>
       <c r="I10" s="37">
-        <v>7.7642524639844682E-3</v>
+        <v>7.4695604961648662E-3</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
@@ -10605,11 +10605,11 @@
       </c>
       <c r="E11" s="44">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>6.8963891974076624E-3</v>
+        <v>5.7935077032211339E-3</v>
       </c>
       <c r="F11" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>5.3610802592238644E-5</v>
+        <v>5.6492296778776739E-5</v>
       </c>
       <c r="G11" s="43">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
@@ -10620,7 +10620,7 @@
         <v>42354</v>
       </c>
       <c r="I11" s="37">
-        <v>7.6530815125663912E-3</v>
+        <v>7.2539659279298764E-3</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
@@ -10639,11 +10639,11 @@
       </c>
       <c r="E12" s="44">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.5818016282193298E-3</v>
+        <v>6.1780671429005089E-3</v>
       </c>
       <c r="F12" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>6.8198371780715521E-5</v>
+        <v>7.1932857099468806E-5</v>
       </c>
       <c r="G12" s="43">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
@@ -10654,7 +10654,7 @@
         <v>42445</v>
       </c>
       <c r="I12" s="37">
-        <v>7.6440692212495429E-3</v>
+        <v>7.1293280032073544E-3</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
@@ -10673,11 +10673,11 @@
       </c>
       <c r="E13" s="44">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.2654426595442695E-3</v>
+        <v>6.6607441691747434E-3</v>
       </c>
       <c r="F13" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>8.4557340455810107E-5</v>
+        <v>8.925583082517931E-5</v>
       </c>
       <c r="G13" s="43">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
@@ -10688,7 +10688,7 @@
         <v>42537</v>
       </c>
       <c r="I13" s="37">
-        <v>7.7078422368728862E-3</v>
+        <v>7.0798120731180737E-3</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
@@ -10707,11 +10707,11 @@
       </c>
       <c r="E14" s="44">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>9.1476664485334574E-3</v>
+        <v>7.1419203424053189E-3</v>
       </c>
       <c r="F14" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>1.0233355146663395E-4</v>
+        <v>1.0807965759465941E-4</v>
       </c>
       <c r="G14" s="43">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
@@ -10722,7 +10722,7 @@
         <v>42628</v>
       </c>
       <c r="I14" s="37">
-        <v>7.8420812183307639E-3</v>
+        <v>7.0855701986590946E-3</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
@@ -10749,18 +10749,18 @@
       </c>
       <c r="G15" s="43">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H15" s="42">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="I15" s="37">
-        <v>7.3073525157978762E-3</v>
+        <v>7.3108612474053463E-3</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" s="96" t="s">
         <v>130</v>
@@ -10783,18 +10783,18 @@
       </c>
       <c r="G16" s="43">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H16" s="42">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43115</v>
+        <v>43117</v>
       </c>
       <c r="I16" s="37">
-        <v>8.4431686743497887E-3</v>
+        <v>8.4461824588743899E-3</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L16" s="96" t="s">
         <v>131</v>
@@ -10817,18 +10817,18 @@
       </c>
       <c r="G17" s="43">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H17" s="42">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="I17" s="37">
-        <v>9.9663303373091258E-3</v>
+        <v>9.9691371383871259E-3</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L17" s="96" t="s">
         <v>132</v>
@@ -10851,14 +10851,14 @@
       </c>
       <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43844</v>
+        <v>43847</v>
       </c>
       <c r="I18" s="37">
-        <v>1.1707345403091788E-2</v>
+        <v>1.1710107009052137E-2</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
@@ -10885,18 +10885,18 @@
       </c>
       <c r="G19" s="43">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="I19" s="37">
-        <v>1.3597222361814945E-2</v>
+        <v>1.3599924087613647E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L19" s="96" t="s">
         <v>134</v>
@@ -10919,18 +10919,18 @@
       </c>
       <c r="G20" s="43">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="I20" s="37">
-        <v>1.5511926714916675E-2</v>
+        <v>1.5514796465323841E-2</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L20" s="96" t="s">
         <v>135</v>
@@ -10953,18 +10953,18 @@
       </c>
       <c r="G21" s="43">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="I21" s="37">
-        <v>1.740149698415764E-2</v>
+        <v>1.7404638196344184E-2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L21" s="96" t="s">
         <v>136</v>
@@ -10987,18 +10987,18 @@
       </c>
       <c r="G22" s="43">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="I22" s="37">
-        <v>1.9185582067272191E-2</v>
+        <v>1.9188467809024719E-2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L22" s="96" t="s">
         <v>137</v>
@@ -11021,18 +11021,18 @@
       </c>
       <c r="G23" s="43">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="I23" s="37">
-        <v>2.2166222813565773E-2</v>
+        <v>2.2168475256587234E-2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="L23" s="96" t="s">
         <v>138</v>
@@ -11055,18 +11055,18 @@
       </c>
       <c r="G24" s="43">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47133</v>
+        <v>47135</v>
       </c>
       <c r="I24" s="37">
-        <v>2.547150669948026E-2</v>
+        <v>2.5474489703663783E-2</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="L24" s="96" t="s">
         <v>139</v>
@@ -11089,18 +11089,18 @@
       </c>
       <c r="G25" s="43">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48960</v>
+        <v>48961</v>
       </c>
       <c r="I25" s="37">
-        <v>2.901886346404418E-2</v>
+        <v>2.9021489425513563E-2</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="L25" s="96" t="s">
         <v>140</v>
@@ -11123,18 +11123,18 @@
       </c>
       <c r="G26" s="43">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
       <c r="I26" s="37">
-        <v>3.0941389663065425E-2</v>
+        <v>3.0943026261865438E-2</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="L26" s="96" t="s">
         <v>141</v>
@@ -11157,18 +11157,18 @@
       </c>
       <c r="G27" s="43">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52610</v>
+        <v>52614</v>
       </c>
       <c r="I27" s="37">
-        <v>3.1703079054492947E-2</v>
+        <v>3.1704326244959745E-2</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="L27" s="96" t="s">
         <v>142</v>
@@ -11191,18 +11191,18 @@
       </c>
       <c r="G28" s="43">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56263</v>
+        <v>56268</v>
       </c>
       <c r="I28" s="37">
-        <v>3.2590675755197078E-2</v>
+        <v>3.25916937436347E-2</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="L28" s="96" t="s">
         <v>143</v>
@@ -11225,18 +11225,18 @@
       </c>
       <c r="G29" s="43">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59915</v>
+        <v>59918</v>
       </c>
       <c r="I29" s="37">
-        <v>3.2494289972233997E-2</v>
+        <v>3.249546753489941E-2</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>144</v>
@@ -11259,18 +11259,18 @@
       </c>
       <c r="G30" s="43">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
       <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63569</v>
+        <v>63571</v>
       </c>
       <c r="I30" s="37">
-        <v>3.2828425899017369E-2</v>
+        <v>3.2829539655675546E-2</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="L30" s="96" t="s">
         <v>145</v>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_OND#0003</v>
+        <v>GBP_YCSTDRH_OND#0000</v>
       </c>
       <c r="G3" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13713,7 +13713,7 @@
       <c r="H3" s="101"/>
       <c r="J3" s="100">
         <f>_xll.qlRateHelperEarliestDate(F3)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="F4" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SWD#0003</v>
+        <v>GBP_YCSTDRH_SWD#0000</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13744,7 +13744,7 @@
       <c r="H4" s="101"/>
       <c r="J4" s="100">
         <f>_xll.qlRateHelperEarliestDate(F4)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="F5" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_2WD#0003</v>
+        <v>GBP_YCSTDRH_2WD#0000</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13775,7 +13775,7 @@
       <c r="H5" s="101"/>
       <c r="J5" s="100">
         <f>_xll.qlRateHelperEarliestDate(F5)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="F6" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_3WD#0003</v>
+        <v>GBP_YCSTDRH_3WD#0000</v>
       </c>
       <c r="G6" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13806,7 +13806,7 @@
       <c r="H6" s="101"/>
       <c r="J6" s="100">
         <f>_xll.qlRateHelperEarliestDate(F6)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="F7" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_1MD#0003</v>
+        <v>GBP_YCSTDRH_1MD#0000</v>
       </c>
       <c r="G7" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13837,7 +13837,7 @@
       <c r="H7" s="101"/>
       <c r="J7" s="100">
         <f>_xll.qlRateHelperEarliestDate(F7)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="F8" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_2MD#0003</v>
+        <v>GBP_YCSTDRH_2MD#0000</v>
       </c>
       <c r="G8" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13868,7 +13868,7 @@
       <c r="H8" s="101"/>
       <c r="J8" s="100">
         <f>_xll.qlRateHelperEarliestDate(F8)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="F9" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_3MD#0003</v>
+        <v>GBP_YCSTDRH_3MD#0000</v>
       </c>
       <c r="G9" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13899,7 +13899,7 @@
       <c r="H9" s="101"/>
       <c r="J9" s="100">
         <f>_xll.qlRateHelperEarliestDate(F9)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="F10" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_4MD#0003</v>
+        <v>GBP_YCSTDRH_4MD#0000</v>
       </c>
       <c r="G10" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13930,7 +13930,7 @@
       <c r="H10" s="101"/>
       <c r="J10" s="100">
         <f>_xll.qlRateHelperEarliestDate(F10)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="F11" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_5MD#0003</v>
+        <v>GBP_YCSTDRH_5MD#0000</v>
       </c>
       <c r="G11" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13961,7 +13961,7 @@
       <c r="H11" s="101"/>
       <c r="J11" s="100">
         <f>_xll.qlRateHelperEarliestDate(F11)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="F12" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_6MD#0003</v>
+        <v>GBP_YCSTDRH_6MD#0000</v>
       </c>
       <c r="G12" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13992,7 +13992,7 @@
       <c r="H12" s="101"/>
       <c r="J12" s="100">
         <f>_xll.qlRateHelperEarliestDate(F12)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="F13" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_7MD#0003</v>
+        <v>GBP_YCSTDRH_7MD#0000</v>
       </c>
       <c r="G13" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -14023,7 +14023,7 @@
       <c r="H13" s="101"/>
       <c r="J13" s="100">
         <f>_xll.qlRateHelperEarliestDate(F13)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F14" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_8MD#0003</v>
+        <v>GBP_YCSTDRH_8MD#0000</v>
       </c>
       <c r="G14" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -14054,7 +14054,7 @@
       <c r="H14" s="101"/>
       <c r="J14" s="100">
         <f>_xll.qlRateHelperEarliestDate(F14)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="F15" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_9MD#0003</v>
+        <v>GBP_YCSTDRH_9MD#0000</v>
       </c>
       <c r="G15" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -14085,7 +14085,7 @@
       <c r="H15" s="101"/>
       <c r="J15" s="100">
         <f>_xll.qlRateHelperEarliestDate(F15)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -14107,7 +14107,7 @@
       </c>
       <c r="F16" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_10MD#0003</v>
+        <v>GBP_YCSTDRH_10MD#0000</v>
       </c>
       <c r="G16" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -14116,7 +14116,7 @@
       <c r="H16" s="101"/>
       <c r="J16" s="100">
         <f>_xll.qlRateHelperEarliestDate(F16)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="F17" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_11MD#0003</v>
+        <v>GBP_YCSTDRH_11MD#0000</v>
       </c>
       <c r="G17" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -14147,7 +14147,7 @@
       <c r="H17" s="101"/>
       <c r="J17" s="100">
         <f>_xll.qlRateHelperEarliestDate(F17)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -14169,7 +14169,7 @@
       </c>
       <c r="F18" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_1YD#0003</v>
+        <v>GBP_YCSTDRH_1YD#0000</v>
       </c>
       <c r="G18" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14178,7 +14178,7 @@
       <c r="H18" s="101"/>
       <c r="J18" s="100">
         <f>_xll.qlRateHelperEarliestDate(F18)</f>
-        <v>41653</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -14204,7 +14204,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14223,7 +14223,7 @@
     <col min="12" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
         <v>193</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="J1" s="159"/>
       <c r="K1" s="140"/>
     </row>
-    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="158"/>
       <c r="B2" s="155" t="s">
         <v>177</v>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="K2" s="140"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="147"/>
       <c r="B3" s="151">
         <v>1</v>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="D3" s="208" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,C3:C44)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E3" s="144" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -14295,19 +14295,19 @@
       </c>
       <c r="F3" s="143" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF4_Quote</v>
+        <v>GBPFUT3MG4_Quote</v>
       </c>
       <c r="G3" s="143" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF4ConvAdj_Quote</v>
+        <v>GBPFUT3MG4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="143" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>GBP_YCSTDRH_FUT3MF4</v>
+        <v>GBP_YCSTDRH_FUT3MG4</v>
       </c>
       <c r="I3" s="150" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MF4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MG4#0000</v>
       </c>
       <c r="J3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -14315,16 +14315,20 @@
       </c>
       <c r="K3" s="140"/>
       <c r="L3" s="148"/>
-      <c r="M3" s="95" t="e">
+      <c r="M3" s="95">
         <f>_xll.qlRateHelperQuoteValue(I3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O3" s="95" t="e">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="O3" s="95">
         <f>_xll.qlRateHelperRate(I3)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5.1491412147193988E-3</v>
+      </c>
+      <c r="S3" s="95" t="str">
+        <f>_xll.ohObjectCallerAddress(F3)</f>
+        <v>[GBP_Market.xlsm]Futures3M!R7C6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="147"/>
       <c r="B4" s="146">
         <v>2</v>
@@ -14333,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="209" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E4" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14341,19 +14345,19 @@
       </c>
       <c r="F4" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MG4_Quote</v>
+        <v>GBPFUT3MH4_Quote</v>
       </c>
       <c r="G4" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MG4ConvAdj_Quote</v>
+        <v>GBPFUT3MH4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MG4</v>
+        <v>GBP_YCSTDRH_FUT3MH4</v>
       </c>
       <c r="I4" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MG4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH4#0000</v>
       </c>
       <c r="J4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -14361,24 +14365,24 @@
       </c>
       <c r="K4" s="140"/>
       <c r="L4" s="148"/>
-      <c r="M4" s="95">
+      <c r="M4" s="95" t="e">
         <f>_xll.qlRateHelperQuoteValue(I4)</f>
-        <v>99.484999999999999</v>
-      </c>
-      <c r="O4" s="95">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="95" t="e">
         <f>_xll.qlRateHelperRate(I4)</f>
-        <v>5.1491063332402909E-3</v>
-      </c>
-      <c r="P4" s="95">
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="95" t="e">
         <f>_xll.qlQuoteValue(F4)</f>
-        <v>99.484999999999999</v>
-      </c>
-      <c r="Q4" s="95">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q4" s="95" t="e">
         <f>_xll.qlQuoteValue(G4)</f>
-        <v>8.9366675969727194E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="147"/>
       <c r="B5" s="146">
         <v>3</v>
@@ -14387,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="209" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E5" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14395,19 +14399,19 @@
       </c>
       <c r="F5" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH4_Quote</v>
+        <v>GBPFUT3MJ4_Quote</v>
       </c>
       <c r="G5" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH4ConvAdj_Quote</v>
+        <v>GBPFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MH4</v>
+        <v>GBP_YCSTDRH_FUT3MJ4</v>
       </c>
       <c r="I5" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MJ4#0000</v>
       </c>
       <c r="J5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -14424,7 +14428,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="147"/>
       <c r="B6" s="146">
         <v>4</v>
@@ -14433,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="209" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E6" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14441,19 +14445,19 @@
       </c>
       <c r="F6" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MJ4_Quote</v>
+        <v>GBPFUT3MK4_Quote</v>
       </c>
       <c r="G6" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MJ4ConvAdj_Quote</v>
+        <v>GBPFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MJ4</v>
+        <v>GBP_YCSTDRH_FUT3MK4</v>
       </c>
       <c r="I6" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MJ4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MK4#0000</v>
       </c>
       <c r="J6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -14461,16 +14465,16 @@
       </c>
       <c r="K6" s="140"/>
       <c r="L6" s="148"/>
-      <c r="M6" s="95" t="e">
+      <c r="M6" s="95">
         <f>_xll.qlRateHelperQuoteValue(I6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O6" s="95" t="e">
+        <v>99.495000000000005</v>
+      </c>
+      <c r="O6" s="95">
         <f>_xll.qlRateHelperRate(I6)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5.0453212394818954E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="147"/>
       <c r="B7" s="146">
         <v>5</v>
@@ -14479,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="209" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E7" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14487,19 +14491,19 @@
       </c>
       <c r="F7" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MK4_Quote</v>
+        <v>GBPFUT3MM4_Quote</v>
       </c>
       <c r="G7" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MK4ConvAdj_Quote</v>
+        <v>GBPFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MK4</v>
+        <v>GBP_YCSTDRH_FUT3MM4</v>
       </c>
       <c r="I7" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MK4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM4#0000</v>
       </c>
       <c r="J7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14507,16 +14511,16 @@
       </c>
       <c r="K7" s="140"/>
       <c r="L7" s="148"/>
-      <c r="M7" s="95">
+      <c r="M7" s="95" t="e">
         <f>_xll.qlRateHelperQuoteValue(I7)</f>
-        <v>99.465000000000003</v>
-      </c>
-      <c r="O7" s="95">
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="95" t="e">
         <f>_xll.qlRateHelperRate(I7)</f>
-        <v>5.3454488902544856E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="147"/>
       <c r="B8" s="146">
         <v>6</v>
@@ -14525,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="209" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E8" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14533,19 +14537,19 @@
       </c>
       <c r="F8" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM4_Quote</v>
+        <v>GBPFUT3MN4_Quote</v>
       </c>
       <c r="G8" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM4ConvAdj_Quote</v>
+        <v>GBPFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MM4</v>
+        <v>GBP_YCSTDRH_FUT3MN4</v>
       </c>
       <c r="I8" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MN4#0000</v>
       </c>
       <c r="J8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14562,7 +14566,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="147"/>
       <c r="B9" s="146">
         <v>7</v>
@@ -14571,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="209" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E9" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14579,19 +14583,19 @@
       </c>
       <c r="F9" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MN4_Quote</v>
+        <v>GBPFUT3MQ4_Quote</v>
       </c>
       <c r="G9" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MN4ConvAdj_Quote</v>
+        <v>GBPFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MN4</v>
+        <v>GBP_YCSTDRH_FUT3MQ4</v>
       </c>
       <c r="I9" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MN4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MQ4#0000</v>
       </c>
       <c r="J9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14599,16 +14603,16 @@
       </c>
       <c r="K9" s="140"/>
       <c r="L9" s="148"/>
-      <c r="M9" s="95" t="e">
+      <c r="M9" s="95">
         <f>_xll.qlRateHelperQuoteValue(I9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O9" s="95" t="e">
+        <v>99.495000000000005</v>
+      </c>
+      <c r="O9" s="95">
         <f>_xll.qlRateHelperRate(I9)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5.0395634904227653E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="147"/>
       <c r="B10" s="146">
         <v>8</v>
@@ -14617,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="209" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E10" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14625,19 +14629,19 @@
       </c>
       <c r="F10" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MQ4_Quote</v>
+        <v>GBPFUT3MU4_Quote</v>
       </c>
       <c r="G10" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MQ4ConvAdj_Quote</v>
+        <v>GBPFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MQ4</v>
+        <v>GBP_YCSTDRH_FUT3MU4</v>
       </c>
       <c r="I10" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MQ4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU4#0000</v>
       </c>
       <c r="J10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14645,16 +14649,16 @@
       </c>
       <c r="K10" s="140"/>
       <c r="L10" s="148"/>
-      <c r="M10" s="95">
+      <c r="M10" s="95" t="e">
         <f>_xll.qlRateHelperQuoteValue(I10)</f>
-        <v>99.460000000000008</v>
-      </c>
-      <c r="O10" s="95">
+        <v>#NUM!</v>
+      </c>
+      <c r="O10" s="95" t="e">
         <f>_xll.qlRateHelperRate(I10)</f>
-        <v>5.3899717980563271E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="147"/>
       <c r="B11" s="146">
         <v>9</v>
@@ -14663,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="209" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E11" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14671,19 +14675,19 @@
       </c>
       <c r="F11" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU4_Quote</v>
+        <v>GBPFUT3MV4_Quote</v>
       </c>
       <c r="G11" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU4ConvAdj_Quote</v>
+        <v>GBPFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H11" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MU4</v>
+        <v>GBP_YCSTDRH_FUT3MV4</v>
       </c>
       <c r="I11" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MV4#0000</v>
       </c>
       <c r="J11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14700,7 +14704,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="147"/>
       <c r="B12" s="146">
         <v>10</v>
@@ -14709,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="209" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E12" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14717,19 +14721,19 @@
       </c>
       <c r="F12" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MV4_Quote</v>
+        <v>GBPFUT3MX4_Quote</v>
       </c>
       <c r="G12" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MV4ConvAdj_Quote</v>
+        <v>GBPFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H12" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MV4</v>
+        <v>GBP_YCSTDRH_FUT3MX4</v>
       </c>
       <c r="I12" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MV4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MX4#0000</v>
       </c>
       <c r="J12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14737,16 +14741,16 @@
       </c>
       <c r="K12" s="140"/>
       <c r="L12" s="148"/>
-      <c r="M12" s="95" t="e">
+      <c r="M12" s="95">
         <f>_xll.qlRateHelperQuoteValue(I12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O12" s="95" t="e">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="O12" s="95">
         <f>_xll.qlRateHelperRate(I12)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5.1318874701657561E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="147"/>
       <c r="B13" s="146">
         <v>11</v>
@@ -14755,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="209" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E13" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14763,19 +14767,19 @@
       </c>
       <c r="F13" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MX4_Quote</v>
+        <v>GBPFUT3MZ4_Quote</v>
       </c>
       <c r="G13" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MX4ConvAdj_Quote</v>
+        <v>GBPFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H13" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MX4</v>
+        <v>GBP_YCSTDRH_FUT3MZ4</v>
       </c>
       <c r="I13" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MX4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ4#0000</v>
       </c>
       <c r="J13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14783,16 +14787,16 @@
       </c>
       <c r="K13" s="140"/>
       <c r="L13" s="148"/>
-      <c r="M13" s="95">
+      <c r="M13" s="95" t="e">
         <f>_xll.qlRateHelperQuoteValue(I13)</f>
-        <v>99.435000000000002</v>
-      </c>
-      <c r="O13" s="95">
+        <v>#NUM!</v>
+      </c>
+      <c r="O13" s="95" t="e">
         <f>_xll.qlRateHelperRate(I13)</f>
-        <v>5.632690749143526E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="147"/>
       <c r="B14" s="146">
         <v>12</v>
@@ -14801,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="209" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E14" s="144" t="str">
         <f t="shared" si="0"/>
@@ -14809,19 +14813,19 @@
       </c>
       <c r="F14" s="143" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ4_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="G14" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ4ConvAdj_Quote</v>
+        <v>GBPFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="143" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YCSTDRH_FUT3MZ4</v>
+        <v>GBP_YCSTDRH_FUT3MF5</v>
       </c>
       <c r="I14" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ4#0003</v>
+        <v>GBP_YCSTDRH_FUT3MF5#0000</v>
       </c>
       <c r="J14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14838,7 +14842,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="147"/>
       <c r="B15" s="146">
         <v>13</v>
@@ -14867,7 +14871,7 @@
       </c>
       <c r="I15" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH5#0000</v>
       </c>
       <c r="J15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14877,14 +14881,14 @@
       <c r="L15" s="148"/>
       <c r="M15" s="95">
         <f>_xll.qlRateHelperQuoteValue(I15)</f>
-        <v>99.405000000000001</v>
+        <v>99.474999999999994</v>
       </c>
       <c r="O15" s="95">
         <f>_xll.qlRateHelperRate(I15)</f>
-        <v>5.9205152379830745E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5.2190274734915092E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="147"/>
       <c r="B16" s="146">
         <v>14</v>
@@ -14913,7 +14917,7 @@
       </c>
       <c r="I16" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM5#0000</v>
       </c>
       <c r="J16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14923,11 +14927,11 @@
       <c r="L16" s="148"/>
       <c r="M16" s="95">
         <f>_xll.qlRateHelperQuoteValue(I16)</f>
-        <v>99.35499999999999</v>
+        <v>99.454999999999998</v>
       </c>
       <c r="O16" s="95">
         <f>_xll.qlRateHelperRate(I16)</f>
-        <v>6.4092226027429502E-3</v>
+        <v>5.407087860353545E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -14959,7 +14963,7 @@
       </c>
       <c r="I17" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU5#0000</v>
       </c>
       <c r="J17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14969,11 +14973,11 @@
       <c r="L17" s="148"/>
       <c r="M17" s="95">
         <f>_xll.qlRateHelperQuoteValue(I17)</f>
-        <v>99.305000000000007</v>
+        <v>99.415000000000006</v>
       </c>
       <c r="O17" s="95">
         <f>_xll.qlRateHelperRate(I17)</f>
-        <v>6.8963891974076624E-3</v>
+        <v>5.7935077032211339E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -15005,7 +15009,7 @@
       </c>
       <c r="I18" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ5#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ5#0000</v>
       </c>
       <c r="J18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -15015,11 +15019,11 @@
       <c r="L18" s="148"/>
       <c r="M18" s="95">
         <f>_xll.qlRateHelperQuoteValue(I18)</f>
-        <v>99.234999999999999</v>
+        <v>99.375</v>
       </c>
       <c r="O18" s="95">
         <f>_xll.qlRateHelperRate(I18)</f>
-        <v>7.5818016282193298E-3</v>
+        <v>6.1780671429005089E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -15051,7 +15055,7 @@
       </c>
       <c r="I19" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH6#0000</v>
       </c>
       <c r="J19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -15061,11 +15065,11 @@
       <c r="L19" s="148"/>
       <c r="M19" s="95">
         <f>_xll.qlRateHelperQuoteValue(I19)</f>
-        <v>99.164999999999992</v>
+        <v>99.325000000000003</v>
       </c>
       <c r="O19" s="95">
         <f>_xll.qlRateHelperRate(I19)</f>
-        <v>8.2654426595442695E-3</v>
+        <v>6.6607441691747434E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -15097,7 +15101,7 @@
       </c>
       <c r="I20" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM6#0000</v>
       </c>
       <c r="J20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -15107,11 +15111,11 @@
       <c r="L20" s="148"/>
       <c r="M20" s="95">
         <f>_xll.qlRateHelperQuoteValue(I20)</f>
-        <v>99.074999999999989</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="O20" s="95">
         <f>_xll.qlRateHelperRate(I20)</f>
-        <v>9.1476664485334574E-3</v>
+        <v>7.1419203424053189E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -15143,7 +15147,7 @@
       </c>
       <c r="I21" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU6#0000</v>
       </c>
       <c r="J21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -15153,11 +15157,11 @@
       <c r="L21" s="148"/>
       <c r="M21" s="95">
         <f>_xll.qlRateHelperQuoteValue(I21)</f>
-        <v>98.974999999999994</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="O21" s="95">
         <f>_xll.qlRateHelperRate(I21)</f>
-        <v>1.0127019907309295E-2</v>
+        <v>7.8200490032907886E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -15189,7 +15193,7 @@
       </c>
       <c r="I22" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ6#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ6#0000</v>
       </c>
       <c r="J22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -15199,11 +15203,11 @@
       <c r="L22" s="148"/>
       <c r="M22" s="95">
         <f>_xll.qlRateHelperQuoteValue(I22)</f>
-        <v>98.865000000000009</v>
+        <v>99.135000000000005</v>
       </c>
       <c r="O22" s="95">
         <f>_xll.qlRateHelperRate(I22)</f>
-        <v>1.1206341461296104E-2</v>
+        <v>8.4981449959761288E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -15235,7 +15239,7 @@
       </c>
       <c r="I23" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH7#0000</v>
       </c>
       <c r="J23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -15245,11 +15249,11 @@
       <c r="L23" s="148"/>
       <c r="M23" s="95">
         <f>_xll.qlRateHelperQuoteValue(I23)</f>
-        <v>98.754999999999995</v>
+        <v>99.04</v>
       </c>
       <c r="O23" s="95">
         <f>_xll.qlRateHelperRate(I23)</f>
-        <v>1.2285273969225673E-2</v>
+        <v>9.4258216785348785E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -15281,7 +15285,7 @@
       </c>
       <c r="I24" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM7#0000</v>
       </c>
       <c r="J24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -15291,11 +15295,11 @@
       <c r="L24" s="148"/>
       <c r="M24" s="95">
         <f>_xll.qlRateHelperQuoteValue(I24)</f>
-        <v>98.634999999999991</v>
+        <v>98.95</v>
       </c>
       <c r="O24" s="95">
         <f>_xll.qlRateHelperRate(I24)</f>
-        <v>1.3459688606898435E-2</v>
+        <v>1.0298711695731304E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -15327,7 +15331,7 @@
       </c>
       <c r="I25" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU7#0000</v>
       </c>
       <c r="J25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -15337,11 +15341,11 @@
       <c r="L25" s="148"/>
       <c r="M25" s="95">
         <f>_xll.qlRateHelperQuoteValue(I25)</f>
-        <v>98.52000000000001</v>
+        <v>98.84</v>
       </c>
       <c r="O25" s="95">
         <f>_xll.qlRateHelperRate(I25)</f>
-        <v>1.4584759647604802E-2</v>
+        <v>1.1372281090545385E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -15373,7 +15377,7 @@
       </c>
       <c r="I26" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ7#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ7#0000</v>
       </c>
       <c r="J26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -15383,11 +15387,11 @@
       <c r="L26" s="148"/>
       <c r="M26" s="95">
         <f>_xll.qlRateHelperQuoteValue(I26)</f>
-        <v>98.38</v>
+        <v>98.724999999999994</v>
       </c>
       <c r="O26" s="95">
         <f>_xll.qlRateHelperRate(I26)</f>
-        <v>1.5958488310432867E-2</v>
+        <v>1.2494436275772762E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -15419,7 +15423,7 @@
       </c>
       <c r="I27" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH8#0000</v>
       </c>
       <c r="J27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -15429,11 +15433,11 @@
       <c r="L27" s="148"/>
       <c r="M27" s="95">
         <f>_xll.qlRateHelperQuoteValue(I27)</f>
-        <v>98.259999999999991</v>
+        <v>98.59</v>
       </c>
       <c r="O27" s="95">
         <f>_xll.qlRateHelperRate(I27)</f>
-        <v>1.7129984799977471E-2</v>
+        <v>1.3814203840273521E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -15465,7 +15469,7 @@
       </c>
       <c r="I28" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM8#0000</v>
       </c>
       <c r="J28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -15475,11 +15479,11 @@
       <c r="L28" s="148"/>
       <c r="M28" s="95">
         <f>_xll.qlRateHelperQuoteValue(I28)</f>
-        <v>98.14</v>
+        <v>98.474999999999994</v>
       </c>
       <c r="O28" s="95">
         <f>_xll.qlRateHelperRate(I28)</f>
-        <v>1.8300776123715324E-2</v>
+        <v>1.4933228956211023E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -15511,7 +15515,7 @@
       </c>
       <c r="I29" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU8#0000</v>
       </c>
       <c r="J29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -15557,7 +15561,7 @@
       </c>
       <c r="I30" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ8#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ8#0000</v>
       </c>
       <c r="J30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -15603,7 +15607,7 @@
       </c>
       <c r="I31" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH9#0000</v>
       </c>
       <c r="J31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -15649,7 +15653,7 @@
       </c>
       <c r="I32" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM9#0000</v>
       </c>
       <c r="J32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -15695,7 +15699,7 @@
       </c>
       <c r="I33" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU9#0000</v>
       </c>
       <c r="J33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -15741,7 +15745,7 @@
       </c>
       <c r="I34" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ9#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ9#0000</v>
       </c>
       <c r="J34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -15787,7 +15791,7 @@
       </c>
       <c r="I35" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH0#0000</v>
       </c>
       <c r="J35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -15833,7 +15837,7 @@
       </c>
       <c r="I36" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM0#0000</v>
       </c>
       <c r="J36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -15879,7 +15883,7 @@
       </c>
       <c r="I37" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU0#0000</v>
       </c>
       <c r="J37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -15925,7 +15929,7 @@
       </c>
       <c r="I38" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ0#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ0#0000</v>
       </c>
       <c r="J38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -15971,7 +15975,7 @@
       </c>
       <c r="I39" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH1#0000</v>
       </c>
       <c r="J39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -16017,7 +16021,7 @@
       </c>
       <c r="I40" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM1#0000</v>
       </c>
       <c r="J40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -16062,7 +16066,7 @@
       </c>
       <c r="I41" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MU1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MU1#0000</v>
       </c>
       <c r="J41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -16108,7 +16112,7 @@
       </c>
       <c r="I42" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MZ1#0003</v>
+        <v>GBP_YCSTDRH_FUT3MZ1#0000</v>
       </c>
       <c r="J42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -16153,7 +16157,7 @@
       </c>
       <c r="I43" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MH2#0003</v>
+        <v>GBP_YCSTDRH_FUT3MH2#0000</v>
       </c>
       <c r="J43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -16198,7 +16202,7 @@
       </c>
       <c r="I44" s="142" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_FUT3MM2#0003</v>
+        <v>GBP_YCSTDRH_FUT3MM2#0000</v>
       </c>
       <c r="J44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -16362,7 +16366,7 @@
       </c>
       <c r="L4" s="191" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YCSTDRH_SB6L_Libor6M#0003</v>
+        <v>GBP_YCSTDRH_SB6L_Libor6M#0000</v>
       </c>
       <c r="M4" s="190" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -16426,7 +16430,7 @@
       </c>
       <c r="L6" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L1Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L1Y#0000</v>
       </c>
       <c r="M6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -16477,7 +16481,7 @@
       </c>
       <c r="L7" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L15M#0003</v>
+        <v>GBP_YCSTDRH_SB6L15M#0000</v>
       </c>
       <c r="M7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -16532,7 +16536,7 @@
       </c>
       <c r="L8" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L18M#0003</v>
+        <v>GBP_YCSTDRH_SB6L18M#0000</v>
       </c>
       <c r="M8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -16587,7 +16591,7 @@
       </c>
       <c r="L9" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L21M#0003</v>
+        <v>GBP_YCSTDRH_SB6L21M#0000</v>
       </c>
       <c r="M9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -16638,7 +16642,7 @@
       </c>
       <c r="L10" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L2Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L2Y#0000</v>
       </c>
       <c r="M10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -16693,7 +16697,7 @@
       </c>
       <c r="L11" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L3Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L3Y#0000</v>
       </c>
       <c r="M11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -16739,7 +16743,7 @@
       </c>
       <c r="L12" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L4Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L4Y#0000</v>
       </c>
       <c r="M12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16785,7 +16789,7 @@
       </c>
       <c r="L13" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L5Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L5Y#0000</v>
       </c>
       <c r="M13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16831,7 +16835,7 @@
       </c>
       <c r="L14" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L6Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L6Y#0000</v>
       </c>
       <c r="M14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16877,7 +16881,7 @@
       </c>
       <c r="L15" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L7Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L7Y#0000</v>
       </c>
       <c r="M15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16923,7 +16927,7 @@
       </c>
       <c r="L16" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L8Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L8Y#0000</v>
       </c>
       <c r="M16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16969,7 +16973,7 @@
       </c>
       <c r="L17" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L9Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L9Y#0000</v>
       </c>
       <c r="M17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -17015,7 +17019,7 @@
       </c>
       <c r="L18" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L10Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L10Y#0000</v>
       </c>
       <c r="M18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -17061,7 +17065,7 @@
       </c>
       <c r="L19" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L11Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L11Y#0000</v>
       </c>
       <c r="M19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -17107,7 +17111,7 @@
       </c>
       <c r="L20" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L12Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L12Y#0000</v>
       </c>
       <c r="M20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -17153,7 +17157,7 @@
       </c>
       <c r="L21" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L13Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L13Y#0000</v>
       </c>
       <c r="M21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -17199,7 +17203,7 @@
       </c>
       <c r="L22" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L14Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L14Y#0000</v>
       </c>
       <c r="M22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -17245,7 +17249,7 @@
       </c>
       <c r="L23" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L15Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L15Y#0000</v>
       </c>
       <c r="M23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -17291,7 +17295,7 @@
       </c>
       <c r="L24" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L16Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L16Y#0000</v>
       </c>
       <c r="M24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -17337,7 +17341,7 @@
       </c>
       <c r="L25" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L17Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L17Y#0000</v>
       </c>
       <c r="M25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -17383,7 +17387,7 @@
       </c>
       <c r="L26" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L18Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L18Y#0000</v>
       </c>
       <c r="M26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -17429,7 +17433,7 @@
       </c>
       <c r="L27" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L19Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L19Y#0000</v>
       </c>
       <c r="M27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -17475,7 +17479,7 @@
       </c>
       <c r="L28" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L20Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L20Y#0000</v>
       </c>
       <c r="M28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -17521,7 +17525,7 @@
       </c>
       <c r="L29" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L21Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L21Y#0000</v>
       </c>
       <c r="M29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -17567,7 +17571,7 @@
       </c>
       <c r="L30" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L22Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L22Y#0000</v>
       </c>
       <c r="M30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -17613,7 +17617,7 @@
       </c>
       <c r="L31" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L23Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L23Y#0000</v>
       </c>
       <c r="M31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -17659,7 +17663,7 @@
       </c>
       <c r="L32" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L24Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L24Y#0000</v>
       </c>
       <c r="M32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -17705,7 +17709,7 @@
       </c>
       <c r="L33" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L25Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L25Y#0000</v>
       </c>
       <c r="M33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -17751,7 +17755,7 @@
       </c>
       <c r="L34" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L26Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L26Y#0000</v>
       </c>
       <c r="M34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17797,7 +17801,7 @@
       </c>
       <c r="L35" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L27Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L27Y#0000</v>
       </c>
       <c r="M35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17843,7 +17847,7 @@
       </c>
       <c r="L36" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L28Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L28Y#0000</v>
       </c>
       <c r="M36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17889,7 +17893,7 @@
       </c>
       <c r="L37" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L29Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L29Y#0000</v>
       </c>
       <c r="M37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17935,7 +17939,7 @@
       </c>
       <c r="L38" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L30Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L30Y#0000</v>
       </c>
       <c r="M38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17981,7 +17985,7 @@
       </c>
       <c r="L39" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L35Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L35Y#0000</v>
       </c>
       <c r="M39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -18027,7 +18031,7 @@
       </c>
       <c r="L40" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L40Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L40Y#0000</v>
       </c>
       <c r="M40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -18073,7 +18077,7 @@
       </c>
       <c r="L41" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L50Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L50Y#0000</v>
       </c>
       <c r="M41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -18119,7 +18123,7 @@
       </c>
       <c r="L42" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_SB6L60Y#0003</v>
+        <v>GBP_YCSTDRH_SB6L60Y#0000</v>
       </c>
       <c r="M42" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -966,7 +966,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1030,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,7 +1481,7 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1900,12 +1906,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,6 +1938,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2262,7 +2271,8 @@
     <col min="4" max="4" width="23.85546875" style="199" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="199" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="199" customWidth="1"/>
-    <col min="8" max="9" width="8" style="199"/>
+    <col min="8" max="8" width="4" style="199" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="199" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.7109375" style="199" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="199" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.7109375" style="199" bestFit="1" customWidth="1"/>
@@ -2273,23 +2283,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="199" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="K2" s="211" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="207"/>
+      <c r="K2" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="219"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
@@ -2312,10 +2322,10 @@
       </c>
       <c r="E4" s="61"/>
       <c r="F4" s="60"/>
-      <c r="H4" s="202" t="s">
+      <c r="H4" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="203"/>
+      <c r="I4" s="214"/>
       <c r="K4" s="133"/>
       <c r="L4" s="132" t="s">
         <v>172</v>
@@ -2335,10 +2345,10 @@
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="60"/>
-      <c r="H5" s="200" t="s">
+      <c r="H5" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="I5" s="216" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="133"/>
@@ -2347,7 +2357,7 @@
       </c>
       <c r="M5" s="134" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="131"/>
     </row>
@@ -2362,10 +2372,10 @@
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="60"/>
-      <c r="H6" s="200" t="s">
+      <c r="H6" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="201" t="s">
+      <c r="I6" s="216" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="133"/>
@@ -2387,10 +2397,10 @@
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="60"/>
-      <c r="H7" s="200" t="s">
+      <c r="H7" s="215" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="201"/>
+      <c r="I7" s="216"/>
       <c r="K7" s="130"/>
       <c r="L7" s="129"/>
       <c r="M7" s="129"/>
@@ -2407,16 +2417,16 @@
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="60"/>
-      <c r="H8" s="204" t="s">
+      <c r="H8" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="205" t="s">
+      <c r="I8" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
@@ -2429,12 +2439,12 @@
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="60"/>
-      <c r="K9" s="211" t="s">
+      <c r="K9" s="205" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="219"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
@@ -2457,7 +2467,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="84">
-        <v>41666.649537037039</v>
+        <v>41684.586273148147</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="60"/>
@@ -2511,7 +2521,7 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0006</v>
+        <v>_GBPYCSTD#0000</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="60"/>
@@ -2636,11 +2646,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="68">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="D23" s="67">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>3.2829539655675546E-2</v>
+        <v>3.2829532534557948E-2</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="60"/>
@@ -2649,7 +2659,7 @@
       <c r="B24" s="64"/>
       <c r="C24" s="66">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63571</v>
+        <v>63599</v>
       </c>
       <c r="D24" s="65">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
@@ -2744,11 +2754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
       <c r="E1" s="36" t="s">
         <v>76</v>
       </c>
@@ -2800,11 +2810,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="M2" s="1">
         <v>10</v>
@@ -2840,11 +2850,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41663</v>
+        <v>41691</v>
       </c>
       <c r="M3" s="1">
         <v>20</v>
@@ -2880,11 +2890,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2920,11 +2930,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41677</v>
+        <v>41705</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2960,11 +2970,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -3000,11 +3010,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3040,11 +3050,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41746</v>
+        <v>41773</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3080,11 +3090,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41778</v>
+        <v>41806</v>
       </c>
       <c r="T9" s="96"/>
     </row>
@@ -3114,11 +3124,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41807</v>
+        <v>41834</v>
       </c>
       <c r="T10" s="96"/>
     </row>
@@ -3148,11 +3158,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41837</v>
+        <v>41865</v>
       </c>
       <c r="Q11" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,K2)</f>
@@ -3186,11 +3196,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41869</v>
+        <v>41897</v>
       </c>
       <c r="Q12" s="31"/>
       <c r="T12" s="96"/>
@@ -3221,11 +3231,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41899</v>
+        <v>41926</v>
       </c>
       <c r="Q13" s="31"/>
       <c r="T13" s="96"/>
@@ -3256,19 +3266,19 @@
       </c>
       <c r="K14" s="11">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L14" s="10">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41929</v>
+        <v>41957</v>
       </c>
       <c r="O14" s="29">
         <f>_xll.qlYieldTSForwardRate(YieldCurve,K2,L129,"act/365","simple","annual")</f>
-        <v>5.1672498351251483E-2</v>
+        <v>5.1672466805822777E-2</v>
       </c>
       <c r="Q14" s="31">
         <f>_xll.qlYieldTSDiscount(YieldCurve,L129)</f>
-        <v>0.40019440016649793</v>
+        <v>0.40019454670733101</v>
       </c>
       <c r="T14" s="96"/>
     </row>
@@ -3298,11 +3308,11 @@
       </c>
       <c r="K15" s="11">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L15" s="10">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41960</v>
+        <v>41988</v>
       </c>
       <c r="Q15" s="31"/>
       <c r="T15" s="96"/>
@@ -3333,11 +3343,11 @@
       </c>
       <c r="K16" s="11">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L16" s="10">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41990</v>
+        <v>42018</v>
       </c>
       <c r="Q16" s="31"/>
       <c r="T16" s="96"/>
@@ -3368,11 +3378,11 @@
       </c>
       <c r="K17" s="4">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L17" s="3">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42023</v>
+        <v>42051</v>
       </c>
       <c r="Q17" s="31"/>
       <c r="T17" s="96"/>
@@ -3416,7 +3426,7 @@
       </c>
       <c r="Q18" s="31">
         <f>1/Q14</f>
-        <v>2.49878558916356</v>
+        <v>2.498784674173276</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -3504,11 +3514,11 @@
       </c>
       <c r="Q20" s="29">
         <f>(Q18^(1/Q19))-1</f>
-        <v>3.2055711506255191E-2</v>
+        <v>3.205569848587686E-2</v>
       </c>
       <c r="R20" s="29">
         <f>(Q18-1)/Q19</f>
-        <v>5.163835567724178E-2</v>
+        <v>5.1638324152656762E-2</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
@@ -4180,7 +4190,7 @@
       </c>
       <c r="G38" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
-        <v>8.5878528058929724E-7</v>
+        <v>1.1305847262365057E-7</v>
       </c>
       <c r="H38" s="12" t="b">
         <v>1</v>
@@ -4204,7 +4214,7 @@
       </c>
       <c r="O38" s="1">
         <f>_xll.qlRateHelperRate(E38)</f>
-        <v>5.1491412147193988E-3</v>
+        <v>5.1498869415273641E-3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -4327,7 +4337,7 @@
       </c>
       <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>4.6787605181030874E-6</v>
+        <v>3.2997943830362651E-6</v>
       </c>
       <c r="H41" s="12" t="b">
         <v>1</v>
@@ -4351,7 +4361,7 @@
       </c>
       <c r="O41" s="96">
         <f>_xll.qlRateHelperRate(E41)</f>
-        <v>5.0453212394818954E-3</v>
+        <v>5.046700205616963E-3</v>
       </c>
       <c r="P41" s="96"/>
     </row>
@@ -4477,7 +4487,7 @@
       </c>
       <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>1.0436509577233406E-5</v>
+        <v>8.4585941728767149E-6</v>
       </c>
       <c r="H44" s="97" t="b">
         <v>1</v>
@@ -4501,7 +4511,7 @@
       </c>
       <c r="O44" s="96">
         <f>_xll.qlRateHelperRate(E44)</f>
-        <v>5.0395634904227653E-3</v>
+        <v>5.041541405827122E-3</v>
       </c>
       <c r="P44" s="96"/>
     </row>
@@ -4529,7 +4539,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="210" t="b">
+      <c r="H45" s="204" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="12">
@@ -4579,7 +4589,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H46" s="210" t="b">
+      <c r="H46" s="204" t="b">
         <v>0</v>
       </c>
       <c r="I46" s="12">
@@ -4627,7 +4637,7 @@
       </c>
       <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>1.8112529834231554E-5</v>
+        <v>1.554911215463698E-5</v>
       </c>
       <c r="H47" s="97" t="b">
         <v>1</v>
@@ -4651,7 +4661,7 @@
       </c>
       <c r="O47" s="96">
         <f>_xll.qlRateHelperRate(E47)</f>
-        <v>5.1318874701657561E-3</v>
+        <v>5.1344508878453507E-3</v>
       </c>
       <c r="P47" s="96"/>
     </row>
@@ -4679,7 +4689,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H48" s="210" t="b">
+      <c r="H48" s="204" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="12">
@@ -4729,7 +4739,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H49" s="210" t="b">
+      <c r="H49" s="204" t="b">
         <v>0</v>
       </c>
       <c r="I49" s="12">
@@ -4777,7 +4787,7 @@
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
-        <v>3.0972526508578707E-5</v>
+        <v>2.7663432344633574E-5</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>1</v>
@@ -4801,7 +4811,7 @@
       </c>
       <c r="O50" s="96">
         <f>_xll.qlRateHelperRate(E50)</f>
-        <v>5.2190274734915092E-3</v>
+        <v>5.2223365676554541E-3</v>
       </c>
       <c r="P50" s="96"/>
     </row>
@@ -4827,7 +4837,7 @@
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
-        <v>4.2912139646520461E-5</v>
+        <v>3.9047677872889325E-5</v>
       </c>
       <c r="H51" s="12" t="b">
         <v>1</v>
@@ -4851,7 +4861,7 @@
       </c>
       <c r="O51" s="96">
         <f>_xll.qlRateHelperRate(E51)</f>
-        <v>5.407087860353545E-3</v>
+        <v>5.4109523221271766E-3</v>
       </c>
       <c r="P51" s="96"/>
     </row>
@@ -4877,7 +4887,7 @@
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
-        <v>5.6492296778776739E-5</v>
+        <v>5.2091086317702287E-5</v>
       </c>
       <c r="H52" s="12" t="b">
         <v>1</v>
@@ -4901,7 +4911,7 @@
       </c>
       <c r="O52" s="96">
         <f>_xll.qlRateHelperRate(E52)</f>
-        <v>5.7935077032211339E-3</v>
+        <v>5.7979089136822089E-3</v>
       </c>
       <c r="P52" s="96"/>
     </row>
@@ -4927,7 +4937,7 @@
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
-        <v>7.1932857099468806E-5</v>
+        <v>6.700107653191937E-5</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>1</v>
@@ -4951,7 +4961,7 @@
       </c>
       <c r="O53" s="96">
         <f>_xll.qlRateHelperRate(E53)</f>
-        <v>6.1780671429005089E-3</v>
+        <v>6.1829989234680584E-3</v>
       </c>
       <c r="P53" s="96"/>
     </row>
@@ -4977,7 +4987,7 @@
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
-        <v>8.925583082517931E-5</v>
+        <v>8.379960789348612E-5</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>1</v>
@@ -5001,7 +5011,7 @@
       </c>
       <c r="O54" s="96">
         <f>_xll.qlRateHelperRate(E54)</f>
-        <v>6.6607441691747434E-3</v>
+        <v>6.6662003921064365E-3</v>
       </c>
       <c r="P54" s="96"/>
     </row>
@@ -5027,7 +5037,7 @@
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
-        <v>1.0807965759465941E-4</v>
+        <v>1.0211700670251034E-4</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>1</v>
@@ -5051,7 +5061,7 @@
       </c>
       <c r="O55" s="96">
         <f>_xll.qlRateHelperRate(E55)</f>
-        <v>7.1419203424053189E-3</v>
+        <v>7.1478829932974681E-3</v>
       </c>
       <c r="P55" s="96"/>
     </row>
@@ -5077,7 +5087,7 @@
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
-        <v>1.2995099670922464E-4</v>
+        <v>1.2346160768210142E-4</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>1</v>
@@ -5101,7 +5111,7 @@
       </c>
       <c r="O56" s="96">
         <f>_xll.qlRateHelperRate(E56)</f>
-        <v>7.8200490032907886E-3</v>
+        <v>7.8265383923179117E-3</v>
       </c>
       <c r="P56" s="96"/>
     </row>
@@ -5127,7 +5137,7 @@
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
-        <v>1.5185500402380714E-4</v>
+        <v>1.4488861458733464E-4</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>1</v>
@@ -5151,7 +5161,7 @@
       </c>
       <c r="O57" s="96">
         <f>_xll.qlRateHelperRate(E57)</f>
-        <v>8.4981449959761288E-3</v>
+        <v>8.5051113854126004E-3</v>
       </c>
       <c r="P57" s="96"/>
     </row>
@@ -5177,7 +5187,7 @@
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
-        <v>1.7417832146506281E-4</v>
+        <v>1.6676456928142548E-4</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>1</v>
@@ -5201,7 +5211,7 @@
       </c>
       <c r="O58" s="96">
         <f>_xll.qlRateHelperRate(E58)</f>
-        <v>9.4258216785348785E-3</v>
+        <v>9.4332354307185163E-3</v>
       </c>
       <c r="P58" s="96"/>
     </row>
@@ -5227,7 +5237,7 @@
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
-        <v>2.0128830426864962E-4</v>
+        <v>1.9337816776571689E-4</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>1</v>
@@ -5251,7 +5261,7 @@
       </c>
       <c r="O59" s="96">
         <f>_xll.qlRateHelperRate(E59)</f>
-        <v>1.0298711695731304E-2</v>
+        <v>1.0306621832234237E-2</v>
       </c>
       <c r="P59" s="96"/>
     </row>
@@ -5277,7 +5287,7 @@
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
-        <v>2.2771890945455847E-4</v>
+        <v>2.1936405751329062E-4</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>1</v>
@@ -5301,7 +5311,7 @@
       </c>
       <c r="O60" s="96">
         <f>_xll.qlRateHelperRate(E60)</f>
-        <v>1.1372281090545385E-2</v>
+        <v>1.1380635942486653E-2</v>
       </c>
       <c r="P60" s="96"/>
     </row>
@@ -5327,7 +5337,7 @@
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
-        <v>2.5556372422727726E-4</v>
+        <v>2.467745607713469E-4</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>1</v>
@@ -5351,7 +5361,7 @@
       </c>
       <c r="O61" s="96">
         <f>_xll.qlRateHelperRate(E61)</f>
-        <v>1.2494436275772762E-2</v>
+        <v>1.2503225439228691E-2</v>
       </c>
       <c r="P61" s="96"/>
     </row>
@@ -5377,7 +5387,7 @@
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
-        <v>2.8579615972647971E-4</v>
+        <v>2.7656648916420535E-4</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>1</v>
@@ -5401,7 +5411,7 @@
       </c>
       <c r="O62" s="96">
         <f>_xll.qlRateHelperRate(E62)</f>
-        <v>1.3814203840273521E-2</v>
+        <v>1.3823433510835797E-2</v>
       </c>
       <c r="P62" s="96"/>
     </row>
@@ -5427,7 +5437,7 @@
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
-        <v>3.1677104378907304E-4</v>
+        <v>3.0712238262756186E-4</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>1</v>
@@ -5451,7 +5461,7 @@
       </c>
       <c r="O63" s="96">
         <f>_xll.qlRateHelperRate(E63)</f>
-        <v>1.4933228956211023E-2</v>
+        <v>1.4942877617372535E-2</v>
       </c>
       <c r="P63" s="96"/>
     </row>
@@ -6977,11 +6987,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42023</v>
+        <v>42051</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" ref="N98:N134" si="8">IF(G98=G135,F98-F135,"--")</f>
@@ -7023,11 +7033,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42111</v>
+        <v>42138</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7069,11 +7079,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42202</v>
+        <v>42230</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7115,11 +7125,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42296</v>
+        <v>42324</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7161,11 +7171,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>42387</v>
+        <v>42415</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7207,11 +7217,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>42752</v>
+        <v>42780</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7253,11 +7263,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43117</v>
+        <v>43145</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7299,11 +7309,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>43482</v>
+        <v>43510</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7345,11 +7355,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>43847</v>
+        <v>43875</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7391,11 +7401,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44214</v>
+        <v>44242</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7437,11 +7447,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7483,11 +7493,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>44943</v>
+        <v>44971</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7529,11 +7539,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7575,11 +7585,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>45674</v>
+        <v>45702</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7621,11 +7631,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46041</v>
+        <v>46069</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7667,11 +7677,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>46405</v>
+        <v>46433</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7713,11 +7723,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>46769</v>
+        <v>46797</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7759,11 +7769,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47135</v>
+        <v>47163</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7805,11 +7815,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>47500</v>
+        <v>47528</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7851,11 +7861,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>47865</v>
+        <v>47893</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7897,11 +7907,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48232</v>
+        <v>48260</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7943,11 +7953,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>48596</v>
+        <v>48624</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="8"/>
@@ -7989,11 +7999,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>48961</v>
+        <v>48989</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8035,11 +8045,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>49326</v>
+        <v>49354</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8081,11 +8091,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>49691</v>
+        <v>49719</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8127,11 +8137,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50059</v>
+        <v>50087</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8173,11 +8183,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>50423</v>
+        <v>50451</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8219,11 +8229,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8265,11 +8275,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51152</v>
+        <v>51180</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8311,11 +8321,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>51518</v>
+        <v>51546</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8357,11 +8367,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>51883</v>
+        <v>51911</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8403,11 +8413,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>52250</v>
+        <v>52278</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8449,11 +8459,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>52614</v>
+        <v>52642</v>
       </c>
       <c r="N130" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8495,11 +8505,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>54441</v>
+        <v>54469</v>
       </c>
       <c r="N131" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8541,11 +8551,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>56268</v>
+        <v>56296</v>
       </c>
       <c r="N132" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8587,11 +8597,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>59918</v>
+        <v>59946</v>
       </c>
       <c r="N133" s="17" t="e">
         <f t="shared" si="8"/>
@@ -8633,11 +8643,11 @@
       </c>
       <c r="K134" s="4">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="L134" s="3">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>63571</v>
+        <v>63599</v>
       </c>
       <c r="N134" s="17" t="e">
         <f t="shared" si="8"/>
@@ -10235,10 +10245,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="212"/>
       <c r="D1" s="56" t="s">
         <v>85</v>
       </c>
@@ -10278,11 +10288,11 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="42">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41659</v>
+        <v>41687</v>
       </c>
       <c r="I2" s="37">
         <v>4.7999053175556972E-3</v>
@@ -10314,11 +10324,11 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H3" s="42">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41663</v>
+        <v>41691</v>
       </c>
       <c r="I3" s="37">
         <v>4.8685727038845633E-3</v>
@@ -10354,18 +10364,18 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H4" s="42">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
       <c r="I4" s="37">
-        <v>4.9239702537528483E-3</v>
+        <v>4.9240698815228526E-3</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L4" s="96" t="s">
         <v>119</v>
@@ -10394,18 +10404,18 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H5" s="42">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
       <c r="I5" s="37">
-        <v>4.9817936016808596E-3</v>
+        <v>4.9817936014928217E-3</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L5" s="96" t="s">
         <v>120</v>
@@ -10435,18 +10445,18 @@
       </c>
       <c r="G6" s="43">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H6" s="42">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41746</v>
+        <v>41773</v>
       </c>
       <c r="I6" s="37">
-        <v>5.078119416856805E-3</v>
+        <v>5.0781547275088219E-3</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="96" t="s">
         <v>121</v>
@@ -10458,7 +10468,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0006</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10477,18 +10487,18 @@
       </c>
       <c r="G7" s="43">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H7" s="42">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41837</v>
+        <v>41865</v>
       </c>
       <c r="I7" s="37">
-        <v>5.9088346983129283E-3</v>
+        <v>5.9088346983228492E-3</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" s="96" t="s">
         <v>122</v>
@@ -10511,14 +10521,14 @@
       </c>
       <c r="G8" s="43">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H8" s="42">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42023</v>
+        <v>42051</v>
       </c>
       <c r="I8" s="37">
-        <v>8.7551503346799901E-3</v>
+        <v>8.7551503346799345E-3</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
@@ -10537,11 +10547,11 @@
       </c>
       <c r="E9" s="44">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>5.2190274734915092E-3</v>
+        <v>5.2223365676554541E-3</v>
       </c>
       <c r="F9" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>3.0972526508578707E-5</v>
+        <v>2.7663432344633574E-5</v>
       </c>
       <c r="G9" s="43">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
@@ -10552,11 +10562,11 @@
         <v>42173</v>
       </c>
       <c r="I9" s="37">
-        <v>7.8317887818617361E-3</v>
+        <v>7.9238936090750937E-3</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="L9" s="96" t="s">
         <v>124</v>
@@ -10571,11 +10581,11 @@
       </c>
       <c r="E10" s="44">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>5.407087860353545E-3</v>
+        <v>5.4109523221271766E-3</v>
       </c>
       <c r="F10" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>4.2912139646520461E-5</v>
+        <v>3.9047677872889325E-5</v>
       </c>
       <c r="G10" s="43">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
@@ -10586,7 +10596,7 @@
         <v>42264</v>
       </c>
       <c r="I10" s="37">
-        <v>7.4695604961648662E-3</v>
+        <v>7.5304371742081237E-3</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
@@ -10605,11 +10615,11 @@
       </c>
       <c r="E11" s="44">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.7935077032211339E-3</v>
+        <v>5.7979089136822089E-3</v>
       </c>
       <c r="F11" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>5.6492296778776739E-5</v>
+        <v>5.2091086317702287E-5</v>
       </c>
       <c r="G11" s="43">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
@@ -10620,7 +10630,7 @@
         <v>42354</v>
       </c>
       <c r="I11" s="37">
-        <v>7.2539659279298764E-3</v>
+        <v>7.2982914793848662E-3</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
@@ -10639,11 +10649,11 @@
       </c>
       <c r="E12" s="44">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>6.1780671429005089E-3</v>
+        <v>6.1829989234680584E-3</v>
       </c>
       <c r="F12" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>7.1932857099468806E-5</v>
+        <v>6.700107653191937E-5</v>
       </c>
       <c r="G12" s="43">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
@@ -10654,7 +10664,7 @@
         <v>42445</v>
       </c>
       <c r="I12" s="37">
-        <v>7.1293280032073544E-3</v>
+        <v>7.1643560703558689E-3</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
@@ -10673,11 +10683,11 @@
       </c>
       <c r="E13" s="44">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>6.6607441691747434E-3</v>
+        <v>6.6662003921064365E-3</v>
       </c>
       <c r="F13" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>8.925583082517931E-5</v>
+        <v>8.379960789348612E-5</v>
       </c>
       <c r="G13" s="43">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
@@ -10688,7 +10698,7 @@
         <v>42537</v>
       </c>
       <c r="I13" s="37">
-        <v>7.0798120731180737E-3</v>
+        <v>7.1100243168049724E-3</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
@@ -10707,11 +10717,11 @@
       </c>
       <c r="E14" s="44">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.1419203424053189E-3</v>
+        <v>7.1478829932974681E-3</v>
       </c>
       <c r="F14" s="44">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>1.0807965759465941E-4</v>
+        <v>1.0211700670251034E-4</v>
       </c>
       <c r="G14" s="43">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
@@ -10722,7 +10732,7 @@
         <v>42628</v>
       </c>
       <c r="I14" s="37">
-        <v>7.0855701986590946E-3</v>
+        <v>7.1136201621410863E-3</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
@@ -10749,18 +10759,18 @@
       </c>
       <c r="G15" s="43">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H15" s="42">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42752</v>
+        <v>42780</v>
       </c>
       <c r="I15" s="37">
-        <v>7.3108612474053463E-3</v>
+        <v>7.3108389659908377E-3</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="L15" s="96" t="s">
         <v>130</v>
@@ -10783,14 +10793,14 @@
       </c>
       <c r="G16" s="43">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H16" s="42">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43117</v>
+        <v>43145</v>
       </c>
       <c r="I16" s="37">
-        <v>8.4461824588743899E-3</v>
+        <v>8.4461631061208756E-3</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
@@ -10817,14 +10827,14 @@
       </c>
       <c r="G17" s="43">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H17" s="42">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43482</v>
+        <v>43510</v>
       </c>
       <c r="I17" s="37">
-        <v>9.9691371383871259E-3</v>
+        <v>9.9691187865148159E-3</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
@@ -10851,14 +10861,14 @@
       </c>
       <c r="G18" s="43">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43847</v>
+        <v>43875</v>
       </c>
       <c r="I18" s="37">
-        <v>1.1710107009052137E-2</v>
+        <v>1.1710088935418061E-2</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
@@ -10885,14 +10895,14 @@
       </c>
       <c r="G19" s="43">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H19" s="42">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44214</v>
+        <v>44242</v>
       </c>
       <c r="I19" s="37">
-        <v>1.3599924087613647E-2</v>
+        <v>1.3599905966388775E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
@@ -10919,14 +10929,14 @@
       </c>
       <c r="G20" s="43">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H20" s="42">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
       <c r="I20" s="37">
-        <v>1.5514796465323841E-2</v>
+        <v>1.5514778196456885E-2</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
@@ -10953,14 +10963,14 @@
       </c>
       <c r="G21" s="43">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H21" s="42">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44943</v>
+        <v>44971</v>
       </c>
       <c r="I21" s="37">
-        <v>1.7404638196344184E-2</v>
+        <v>1.7404619780316859E-2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
@@ -10987,14 +10997,14 @@
       </c>
       <c r="G22" s="43">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H22" s="42">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="I22" s="37">
-        <v>1.9188467809024719E-2</v>
+        <v>1.9188449319869027E-2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -11021,14 +11031,14 @@
       </c>
       <c r="G23" s="43">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H23" s="42">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46041</v>
+        <v>46069</v>
       </c>
       <c r="I23" s="37">
-        <v>2.2168475256587234E-2</v>
+        <v>2.2168457037838356E-2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
@@ -11055,14 +11065,14 @@
       </c>
       <c r="G24" s="43">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H24" s="42">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47135</v>
+        <v>47163</v>
       </c>
       <c r="I24" s="37">
-        <v>2.5474489703663783E-2</v>
+        <v>2.5474472353770115E-2</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -11089,14 +11099,14 @@
       </c>
       <c r="G25" s="43">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H25" s="42">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48961</v>
+        <v>48989</v>
       </c>
       <c r="I25" s="37">
-        <v>2.9021489425513563E-2</v>
+        <v>2.9021473788357569E-2</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
@@ -11123,14 +11133,14 @@
       </c>
       <c r="G26" s="43">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H26" s="42">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
       <c r="I26" s="37">
-        <v>3.0943026261865438E-2</v>
+        <v>3.0943012316688431E-2</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -11157,14 +11167,14 @@
       </c>
       <c r="G27" s="43">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H27" s="42">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52614</v>
+        <v>52642</v>
       </c>
       <c r="I27" s="37">
-        <v>3.1704326244959745E-2</v>
+        <v>3.1704313959708158E-2</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
@@ -11191,14 +11201,14 @@
       </c>
       <c r="G28" s="43">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H28" s="42">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56268</v>
+        <v>56296</v>
       </c>
       <c r="I28" s="37">
-        <v>3.25916937436347E-2</v>
+        <v>3.2591683781380616E-2</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
@@ -11225,14 +11235,14 @@
       </c>
       <c r="G29" s="43">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H29" s="42">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59918</v>
+        <v>59946</v>
       </c>
       <c r="I29" s="37">
-        <v>3.249546753489941E-2</v>
+        <v>3.2495459384017926E-2</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -11259,14 +11269,14 @@
       </c>
       <c r="G30" s="43">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
       <c r="H30" s="42">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63571</v>
+        <v>63599</v>
       </c>
       <c r="I30" s="37">
-        <v>3.2829539655675546E-2</v>
+        <v>3.2829532534557948E-2</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
@@ -13713,7 +13723,7 @@
       <c r="H3" s="101"/>
       <c r="J3" s="100">
         <f>_xll.qlRateHelperEarliestDate(F3)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -13744,7 +13754,7 @@
       <c r="H4" s="101"/>
       <c r="J4" s="100">
         <f>_xll.qlRateHelperEarliestDate(F4)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13775,7 +13785,7 @@
       <c r="H5" s="101"/>
       <c r="J5" s="100">
         <f>_xll.qlRateHelperEarliestDate(F5)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -13806,7 +13816,7 @@
       <c r="H6" s="101"/>
       <c r="J6" s="100">
         <f>_xll.qlRateHelperEarliestDate(F6)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -13837,7 +13847,7 @@
       <c r="H7" s="101"/>
       <c r="J7" s="100">
         <f>_xll.qlRateHelperEarliestDate(F7)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -13868,7 +13878,7 @@
       <c r="H8" s="101"/>
       <c r="J8" s="100">
         <f>_xll.qlRateHelperEarliestDate(F8)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -13899,7 +13909,7 @@
       <c r="H9" s="101"/>
       <c r="J9" s="100">
         <f>_xll.qlRateHelperEarliestDate(F9)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13930,7 +13940,7 @@
       <c r="H10" s="101"/>
       <c r="J10" s="100">
         <f>_xll.qlRateHelperEarliestDate(F10)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -13961,7 +13971,7 @@
       <c r="H11" s="101"/>
       <c r="J11" s="100">
         <f>_xll.qlRateHelperEarliestDate(F11)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13992,7 +14002,7 @@
       <c r="H12" s="101"/>
       <c r="J12" s="100">
         <f>_xll.qlRateHelperEarliestDate(F12)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -14023,7 +14033,7 @@
       <c r="H13" s="101"/>
       <c r="J13" s="100">
         <f>_xll.qlRateHelperEarliestDate(F13)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -14054,7 +14064,7 @@
       <c r="H14" s="101"/>
       <c r="J14" s="100">
         <f>_xll.qlRateHelperEarliestDate(F14)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -14085,7 +14095,7 @@
       <c r="H15" s="101"/>
       <c r="J15" s="100">
         <f>_xll.qlRateHelperEarliestDate(F15)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -14116,7 +14126,7 @@
       <c r="H16" s="101"/>
       <c r="J16" s="100">
         <f>_xll.qlRateHelperEarliestDate(F16)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -14147,7 +14157,7 @@
       <c r="H17" s="101"/>
       <c r="J17" s="100">
         <f>_xll.qlRateHelperEarliestDate(F17)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -14178,7 +14188,7 @@
       <c r="H18" s="101"/>
       <c r="J18" s="100">
         <f>_xll.qlRateHelperEarliestDate(F18)</f>
-        <v>41656</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -14285,7 +14295,7 @@
       <c r="C3" s="144" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="208" t="str">
+      <c r="D3" s="202" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,C3:C44)</f>
         <v>G4</v>
       </c>
@@ -14321,7 +14331,7 @@
       </c>
       <c r="O3" s="95">
         <f>_xll.qlRateHelperRate(I3)</f>
-        <v>5.1491412147193988E-3</v>
+        <v>5.1498869415273641E-3</v>
       </c>
       <c r="S3" s="95" t="str">
         <f>_xll.ohObjectCallerAddress(F3)</f>
@@ -14336,7 +14346,7 @@
       <c r="C4" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="209" t="str">
+      <c r="D4" s="203" t="str">
         <v>H4</v>
       </c>
       <c r="E4" s="144" t="str">
@@ -14390,7 +14400,7 @@
       <c r="C5" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="209" t="str">
+      <c r="D5" s="203" t="str">
         <v>J4</v>
       </c>
       <c r="E5" s="144" t="str">
@@ -14436,7 +14446,7 @@
       <c r="C6" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="209" t="str">
+      <c r="D6" s="203" t="str">
         <v>K4</v>
       </c>
       <c r="E6" s="144" t="str">
@@ -14471,7 +14481,7 @@
       </c>
       <c r="O6" s="95">
         <f>_xll.qlRateHelperRate(I6)</f>
-        <v>5.0453212394818954E-3</v>
+        <v>5.046700205616963E-3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -14482,7 +14492,7 @@
       <c r="C7" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="209" t="str">
+      <c r="D7" s="203" t="str">
         <v>M4</v>
       </c>
       <c r="E7" s="144" t="str">
@@ -14528,7 +14538,7 @@
       <c r="C8" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="209" t="str">
+      <c r="D8" s="203" t="str">
         <v>N4</v>
       </c>
       <c r="E8" s="144" t="str">
@@ -14574,7 +14584,7 @@
       <c r="C9" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="209" t="str">
+      <c r="D9" s="203" t="str">
         <v>Q4</v>
       </c>
       <c r="E9" s="144" t="str">
@@ -14609,7 +14619,7 @@
       </c>
       <c r="O9" s="95">
         <f>_xll.qlRateHelperRate(I9)</f>
-        <v>5.0395634904227653E-3</v>
+        <v>5.041541405827122E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -14620,7 +14630,7 @@
       <c r="C10" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="209" t="str">
+      <c r="D10" s="203" t="str">
         <v>U4</v>
       </c>
       <c r="E10" s="144" t="str">
@@ -14666,7 +14676,7 @@
       <c r="C11" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="209" t="str">
+      <c r="D11" s="203" t="str">
         <v>V4</v>
       </c>
       <c r="E11" s="144" t="str">
@@ -14712,7 +14722,7 @@
       <c r="C12" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="209" t="str">
+      <c r="D12" s="203" t="str">
         <v>X4</v>
       </c>
       <c r="E12" s="144" t="str">
@@ -14747,7 +14757,7 @@
       </c>
       <c r="O12" s="95">
         <f>_xll.qlRateHelperRate(I12)</f>
-        <v>5.1318874701657561E-3</v>
+        <v>5.1344508878453507E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -14758,7 +14768,7 @@
       <c r="C13" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="209" t="str">
+      <c r="D13" s="203" t="str">
         <v>Z4</v>
       </c>
       <c r="E13" s="144" t="str">
@@ -14804,7 +14814,7 @@
       <c r="C14" s="145" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="209" t="str">
+      <c r="D14" s="203" t="str">
         <v>F5</v>
       </c>
       <c r="E14" s="144" t="str">
@@ -14850,7 +14860,7 @@
       <c r="C15" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="209" t="str">
+      <c r="D15" s="203" t="str">
         <v>H5</v>
       </c>
       <c r="E15" s="144" t="str">
@@ -14885,7 +14895,7 @@
       </c>
       <c r="O15" s="95">
         <f>_xll.qlRateHelperRate(I15)</f>
-        <v>5.2190274734915092E-3</v>
+        <v>5.2223365676554541E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -14896,7 +14906,7 @@
       <c r="C16" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="209" t="str">
+      <c r="D16" s="203" t="str">
         <v>M5</v>
       </c>
       <c r="E16" s="144" t="str">
@@ -14931,7 +14941,7 @@
       </c>
       <c r="O16" s="95">
         <f>_xll.qlRateHelperRate(I16)</f>
-        <v>5.407087860353545E-3</v>
+        <v>5.4109523221271766E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -14942,7 +14952,7 @@
       <c r="C17" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="209" t="str">
+      <c r="D17" s="203" t="str">
         <v>U5</v>
       </c>
       <c r="E17" s="144" t="str">
@@ -14977,7 +14987,7 @@
       </c>
       <c r="O17" s="95">
         <f>_xll.qlRateHelperRate(I17)</f>
-        <v>5.7935077032211339E-3</v>
+        <v>5.7979089136822089E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -14988,7 +14998,7 @@
       <c r="C18" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="209" t="str">
+      <c r="D18" s="203" t="str">
         <v>Z5</v>
       </c>
       <c r="E18" s="144" t="str">
@@ -15023,7 +15033,7 @@
       </c>
       <c r="O18" s="95">
         <f>_xll.qlRateHelperRate(I18)</f>
-        <v>6.1780671429005089E-3</v>
+        <v>6.1829989234680584E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -15034,7 +15044,7 @@
       <c r="C19" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="209" t="str">
+      <c r="D19" s="203" t="str">
         <v>H6</v>
       </c>
       <c r="E19" s="144" t="str">
@@ -15069,7 +15079,7 @@
       </c>
       <c r="O19" s="95">
         <f>_xll.qlRateHelperRate(I19)</f>
-        <v>6.6607441691747434E-3</v>
+        <v>6.6662003921064365E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -15080,7 +15090,7 @@
       <c r="C20" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="209" t="str">
+      <c r="D20" s="203" t="str">
         <v>M6</v>
       </c>
       <c r="E20" s="144" t="str">
@@ -15115,7 +15125,7 @@
       </c>
       <c r="O20" s="95">
         <f>_xll.qlRateHelperRate(I20)</f>
-        <v>7.1419203424053189E-3</v>
+        <v>7.1478829932974681E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -15126,7 +15136,7 @@
       <c r="C21" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="209" t="str">
+      <c r="D21" s="203" t="str">
         <v>U6</v>
       </c>
       <c r="E21" s="144" t="str">
@@ -15161,7 +15171,7 @@
       </c>
       <c r="O21" s="95">
         <f>_xll.qlRateHelperRate(I21)</f>
-        <v>7.8200490032907886E-3</v>
+        <v>7.8265383923179117E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -15172,7 +15182,7 @@
       <c r="C22" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="209" t="str">
+      <c r="D22" s="203" t="str">
         <v>Z6</v>
       </c>
       <c r="E22" s="144" t="str">
@@ -15207,7 +15217,7 @@
       </c>
       <c r="O22" s="95">
         <f>_xll.qlRateHelperRate(I22)</f>
-        <v>8.4981449959761288E-3</v>
+        <v>8.5051113854126004E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -15218,7 +15228,7 @@
       <c r="C23" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="209" t="str">
+      <c r="D23" s="203" t="str">
         <v>H7</v>
       </c>
       <c r="E23" s="144" t="str">
@@ -15253,7 +15263,7 @@
       </c>
       <c r="O23" s="95">
         <f>_xll.qlRateHelperRate(I23)</f>
-        <v>9.4258216785348785E-3</v>
+        <v>9.4332354307185163E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -15264,7 +15274,7 @@
       <c r="C24" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="209" t="str">
+      <c r="D24" s="203" t="str">
         <v>M7</v>
       </c>
       <c r="E24" s="144" t="str">
@@ -15299,7 +15309,7 @@
       </c>
       <c r="O24" s="95">
         <f>_xll.qlRateHelperRate(I24)</f>
-        <v>1.0298711695731304E-2</v>
+        <v>1.0306621832234237E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -15310,7 +15320,7 @@
       <c r="C25" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="209" t="str">
+      <c r="D25" s="203" t="str">
         <v>U7</v>
       </c>
       <c r="E25" s="144" t="str">
@@ -15345,7 +15355,7 @@
       </c>
       <c r="O25" s="95">
         <f>_xll.qlRateHelperRate(I25)</f>
-        <v>1.1372281090545385E-2</v>
+        <v>1.1380635942486653E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -15356,7 +15366,7 @@
       <c r="C26" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="209" t="str">
+      <c r="D26" s="203" t="str">
         <v>Z7</v>
       </c>
       <c r="E26" s="144" t="str">
@@ -15391,7 +15401,7 @@
       </c>
       <c r="O26" s="95">
         <f>_xll.qlRateHelperRate(I26)</f>
-        <v>1.2494436275772762E-2</v>
+        <v>1.2503225439228691E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -15402,7 +15412,7 @@
       <c r="C27" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="209" t="str">
+      <c r="D27" s="203" t="str">
         <v>H8</v>
       </c>
       <c r="E27" s="144" t="str">
@@ -15437,7 +15447,7 @@
       </c>
       <c r="O27" s="95">
         <f>_xll.qlRateHelperRate(I27)</f>
-        <v>1.3814203840273521E-2</v>
+        <v>1.3823433510835797E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -15448,7 +15458,7 @@
       <c r="C28" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D28" s="209" t="str">
+      <c r="D28" s="203" t="str">
         <v>M8</v>
       </c>
       <c r="E28" s="144" t="str">
@@ -15483,7 +15493,7 @@
       </c>
       <c r="O28" s="95">
         <f>_xll.qlRateHelperRate(I28)</f>
-        <v>1.4933228956211023E-2</v>
+        <v>1.4942877617372535E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -15494,7 +15504,7 @@
       <c r="C29" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="209" t="str">
+      <c r="D29" s="203" t="str">
         <v>U8</v>
       </c>
       <c r="E29" s="144" t="str">
@@ -15540,7 +15550,7 @@
       <c r="C30" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="209" t="str">
+      <c r="D30" s="203" t="str">
         <v>Z8</v>
       </c>
       <c r="E30" s="144" t="str">
@@ -15586,7 +15596,7 @@
       <c r="C31" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="209" t="str">
+      <c r="D31" s="203" t="str">
         <v>H9</v>
       </c>
       <c r="E31" s="144" t="str">
@@ -15632,7 +15642,7 @@
       <c r="C32" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="209" t="str">
+      <c r="D32" s="203" t="str">
         <v>M9</v>
       </c>
       <c r="E32" s="144" t="str">
@@ -15678,7 +15688,7 @@
       <c r="C33" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D33" s="209" t="str">
+      <c r="D33" s="203" t="str">
         <v>U9</v>
       </c>
       <c r="E33" s="144" t="str">
@@ -15724,7 +15734,7 @@
       <c r="C34" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D34" s="209" t="str">
+      <c r="D34" s="203" t="str">
         <v>Z9</v>
       </c>
       <c r="E34" s="144" t="str">
@@ -15770,7 +15780,7 @@
       <c r="C35" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D35" s="209" t="str">
+      <c r="D35" s="203" t="str">
         <v>H0</v>
       </c>
       <c r="E35" s="144" t="str">
@@ -15816,7 +15826,7 @@
       <c r="C36" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D36" s="209" t="str">
+      <c r="D36" s="203" t="str">
         <v>M0</v>
       </c>
       <c r="E36" s="144" t="str">
@@ -15862,7 +15872,7 @@
       <c r="C37" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D37" s="209" t="str">
+      <c r="D37" s="203" t="str">
         <v>U0</v>
       </c>
       <c r="E37" s="144" t="str">
@@ -15908,7 +15918,7 @@
       <c r="C38" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="209" t="str">
+      <c r="D38" s="203" t="str">
         <v>Z0</v>
       </c>
       <c r="E38" s="144" t="str">
@@ -15954,7 +15964,7 @@
       <c r="C39" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="209" t="str">
+      <c r="D39" s="203" t="str">
         <v>H1</v>
       </c>
       <c r="E39" s="144" t="str">
@@ -16000,7 +16010,7 @@
       <c r="C40" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D40" s="209" t="str">
+      <c r="D40" s="203" t="str">
         <v>M1</v>
       </c>
       <c r="E40" s="144" t="str">
@@ -16045,7 +16055,7 @@
       <c r="C41" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D41" s="209" t="str">
+      <c r="D41" s="203" t="str">
         <v>U1</v>
       </c>
       <c r="E41" s="144" t="str">
@@ -16081,7 +16091,7 @@
         <f>_xll.qlRateHelperRate(I41)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U41" s="207"/>
+      <c r="U41" s="201"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="147"/>
@@ -16091,7 +16101,7 @@
       <c r="C42" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D42" s="209" t="str">
+      <c r="D42" s="203" t="str">
         <v>Z1</v>
       </c>
       <c r="E42" s="144" t="str">
@@ -16136,7 +16146,7 @@
       <c r="C43" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D43" s="209" t="str">
+      <c r="D43" s="203" t="str">
         <v>H2</v>
       </c>
       <c r="E43" s="144" t="str">
@@ -16181,7 +16191,7 @@
       <c r="C44" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="D44" s="209" t="str">
+      <c r="D44" s="203" t="str">
         <v>M2</v>
       </c>
       <c r="E44" s="144" t="str">

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -667,7 +667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -681,6 +681,7 @@
     <numFmt numFmtId="174" formatCode="General_)"/>
     <numFmt numFmtId="175" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1309,7 +1310,7 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1690,6 +1691,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="12" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1706,19 +1720,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="12" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2061,19 +2064,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="K2" s="178" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="K2" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="181"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="186"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
@@ -2210,12 +2213,12 @@
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="40"/>
-      <c r="K9" s="178" t="s">
+      <c r="K9" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="181"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="186"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
@@ -2290,7 +2293,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0044</v>
+        <v>_GBPYCSTD#0007</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2419,7 +2422,7 @@
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.9360550614404159E-2</v>
+        <v>2.9405344144962379E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2576,7 +2579,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00337#0031</v>
+        <v>obj_00357#0006</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2615,7 +2618,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0033a#0008</v>
+        <v>obj_0035b#0006</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2654,7 +2657,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_0064e#0007</v>
+        <v>obj_00348#0006</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2686,7 +2689,7 @@
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0033c#0005</v>
+        <v>obj_0035f#0006</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2718,7 +2721,7 @@
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00338#0005</v>
+        <v>obj_00361#0006</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2750,7 +2753,7 @@
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_0033d#0019</v>
+        <v>obj_00355#0006</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2782,7 +2785,7 @@
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_0062a#0017</v>
+        <v>obj_00351#0006</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2814,7 +2817,7 @@
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0062b#0017</v>
+        <v>obj_00353#0006</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2846,7 +2849,7 @@
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0064c#0003</v>
+        <v>obj_0035e#0006</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2878,7 +2881,7 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00339#0005</v>
+        <v>obj_0035d#0006</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2917,7 +2920,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0062d#0017</v>
+        <v>obj_0034f#0006</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2956,7 +2959,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00647#0003</v>
+        <v>obj_00360#0006</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -2995,7 +2998,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00648#0003</v>
+        <v>obj_00362#0006</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3034,7 +3037,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00649#0003</v>
+        <v>obj_00359#0006</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3066,7 +3069,7 @@
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0064a#0003</v>
+        <v>obj_0035a#0006</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3098,7 +3101,7 @@
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0064b#0003</v>
+        <v>obj_0035c#0006</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3130,7 +3133,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0062c#0017</v>
+        <v>obj_0034d#0006</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3172,7 +3175,7 @@
       </c>
       <c r="B19" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00340#0001</v>
+        <v>obj_00377#0006</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3210,7 +3213,7 @@
       </c>
       <c r="B20" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00391#0006</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3248,7 +3251,7 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_00389#0001</v>
+        <v>obj_0036e#0006</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3260,7 +3263,7 @@
       </c>
       <c r="E21" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
-        <v>0</v>
+        <v>4.7335137414518424E-6</v>
       </c>
       <c r="F21" s="74" t="b">
         <v>0</v>
@@ -3286,7 +3289,7 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_00344#0001</v>
+        <v>obj_003ae#0006</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3324,7 +3327,7 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_003ac#0006</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
@@ -3362,7 +3365,7 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_00389#0006</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3370,11 +3373,11 @@
       </c>
       <c r="D24" s="16">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
-        <v>99.155000000000001</v>
+        <v>99.164999999999992</v>
       </c>
       <c r="E24" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
-        <v>0</v>
+        <v>1.3420654014619364E-5</v>
       </c>
       <c r="F24" s="74" t="b">
         <v>0</v>
@@ -3400,7 +3403,7 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00394#0006</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
@@ -3438,7 +3441,7 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_00386#0001</v>
+        <v>obj_00383#0006</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
@@ -3476,7 +3479,7 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00393#0006</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
@@ -3484,11 +3487,11 @@
       </c>
       <c r="D27" s="16">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
-        <v>98.954999999999998</v>
+        <v>98.965000000000003</v>
       </c>
       <c r="E27" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
-        <v>0</v>
+        <v>2.5467539818158627E-5</v>
       </c>
       <c r="F27" s="74" t="b">
         <v>1</v>
@@ -3515,7 +3518,7 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0036b#0006</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
@@ -3554,7 +3557,7 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00376#0006</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
@@ -3594,7 +3597,7 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_0037f#0006</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="D30" s="16">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
-        <v>98.745000000000005</v>
+        <v>98.765000000000001</v>
       </c>
       <c r="E30" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
-        <v>0</v>
+        <v>4.0723022000383242E-5</v>
       </c>
       <c r="F30" s="74" t="b">
         <v>1</v>
@@ -3634,7 +3637,7 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_00346#0001</v>
+        <v>obj_00370#0006</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
@@ -3642,11 +3645,11 @@
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.534999999999997</v>
+        <v>98.545000000000002</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
-        <v>0</v>
+        <v>5.9382011539265042E-5</v>
       </c>
       <c r="F31" s="74" t="b">
         <v>1</v>
@@ -3675,7 +3678,7 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00368#0006</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.335000000000008</v>
+        <v>98.35499999999999</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
-        <v>0</v>
+        <v>8.1479903905399813E-5</v>
       </c>
       <c r="F32" s="74" t="b">
         <v>1</v>
@@ -3716,7 +3719,7 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0037a#0006</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
@@ -3724,11 +3727,11 @@
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.155000000000001</v>
+        <v>98.175000000000011</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
-        <v>0</v>
+        <v>1.065357404825213E-4</v>
       </c>
       <c r="F33" s="74" t="b">
         <v>1</v>
@@ -3757,7 +3760,7 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0037b#0006</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
@@ -3765,11 +3768,11 @@
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>97.974999999999994</v>
+        <v>97.995000000000005</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
-        <v>0</v>
+        <v>1.3665505490881717E-4</v>
       </c>
       <c r="F34" s="74" t="b">
         <v>1</v>
@@ -3798,7 +3801,7 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_00341#0001</v>
+        <v>obj_0039c#0006</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>97.824999999999989</v>
+        <v>97.844999999999999</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
-        <v>0</v>
+        <v>1.6764426115711069E-4</v>
       </c>
       <c r="F35" s="74" t="b">
         <v>1</v>
@@ -3839,7 +3842,7 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00387#0006</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
@@ -3847,11 +3850,11 @@
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>97.715000000000003</v>
+        <v>97.734999999999999</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
-        <v>0</v>
+        <v>1.9986049234161846E-4</v>
       </c>
       <c r="F36" s="74" t="b">
         <v>1</v>
@@ -3880,7 +3883,7 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00366#0006</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
@@ -3888,11 +3891,11 @@
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>97.615000000000009</v>
+        <v>97.634999999999991</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
-        <v>0</v>
+        <v>2.3973068683783518E-4</v>
       </c>
       <c r="F37" s="74" t="b">
         <v>1</v>
@@ -3921,7 +3924,7 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_0037d#0006</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>97.534999999999997</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
-        <v>0</v>
+        <v>2.7920539463169351E-4</v>
       </c>
       <c r="F38" s="74" t="b">
         <v>1</v>
@@ -3962,7 +3965,7 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0039e#0006</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
@@ -3970,11 +3973,11 @@
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.454999999999998</v>
+        <v>97.474999999999994</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
-        <v>0</v>
+        <v>3.2133859529653077E-4</v>
       </c>
       <c r="F39" s="74" t="b">
         <v>1</v>
@@ -4003,7 +4006,7 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00382#0001</v>
+        <v>obj_0036d#0006</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
@@ -4011,11 +4014,11 @@
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.4</v>
+        <v>97.414999999999992</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
-        <v>0</v>
+        <v>3.6758587335111937E-4</v>
       </c>
       <c r="F40" s="74" t="b">
         <v>1</v>
@@ -4044,7 +4047,7 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00372#0006</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.35</v>
+        <v>97.365000000000009</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
-        <v>0</v>
+        <v>4.1546506466755192E-4</v>
       </c>
       <c r="F41" s="74" t="b">
         <v>1</v>
@@ -4085,7 +4088,7 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_00348#0001</v>
+        <v>obj_00390#0006</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
@@ -4093,11 +4096,11 @@
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.31</v>
+        <v>97.324999999999989</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
-        <v>0</v>
+        <v>4.6528663456285401E-4</v>
       </c>
       <c r="F42" s="74" t="b">
         <v>1</v>
@@ -4126,7 +4129,7 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_00369#0001</v>
+        <v>obj_003a3#0006</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
@@ -4134,11 +4137,11 @@
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.254999999999995</v>
+        <v>97.275000000000006</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
-        <v>0</v>
+        <v>5.1752454253955809E-4</v>
       </c>
       <c r="F43" s="74" t="b">
         <v>1</v>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_0036c#0006</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
@@ -4175,11 +4178,11 @@
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.210000000000008</v>
+        <v>97.234999999999999</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
-        <v>0</v>
+        <v>5.7403347067243305E-4</v>
       </c>
       <c r="F44" s="74" t="b">
         <v>1</v>
@@ -4208,7 +4211,7 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00380#0006</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
@@ -4216,11 +4219,11 @@
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.14</v>
+        <v>97.210000000000008</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
-        <v>0</v>
+        <v>6.3164452373354351E-4</v>
       </c>
       <c r="F45" s="74" t="b">
         <v>1</v>
@@ -4249,7 +4252,7 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_00387#0001</v>
+        <v>obj_003aa#0006</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
@@ -4257,11 +4260,11 @@
       </c>
       <c r="D46" s="16">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.1</v>
+        <v>97.17</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
-        <v>0</v>
+        <v>6.9086013546234236E-4</v>
       </c>
       <c r="F46" s="74" t="b">
         <v>1</v>
@@ -4290,7 +4293,7 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_0039a#0006</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
@@ -4298,11 +4301,11 @@
       </c>
       <c r="D47" s="16">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.074999999999989</v>
+        <v>97.134999999999991</v>
       </c>
       <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
-        <v>0</v>
+        <v>7.5298225712401427E-4</v>
       </c>
       <c r="F47" s="74" t="b">
         <v>1</v>
@@ -4328,7 +4331,7 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_0038c#0006</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
@@ -4336,11 +4339,11 @@
       </c>
       <c r="D48" s="16">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.044999999999987</v>
+        <v>97.10499999999999</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
-        <v>0</v>
+        <v>8.1804915904803868E-4</v>
       </c>
       <c r="F48" s="74" t="b">
         <v>1</v>
@@ -4366,7 +4369,7 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0038a#0006</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00371#0006</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
@@ -4442,7 +4445,7 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_00368#0001</v>
+        <v>obj_003a8#0006</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
@@ -4480,7 +4483,7 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_003a2#0006</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
@@ -4518,7 +4521,7 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_00384#0001</v>
+        <v>obj_0037c#0006</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
@@ -4556,7 +4559,7 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_00377#0001</v>
+        <v>obj_003a1#0006</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4594,7 +4597,7 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_0038e#0006</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4632,7 +4635,7 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00397#0006</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4670,7 +4673,7 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_00364#0006</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4708,7 +4711,7 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00378#0006</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_00366#0001</v>
+        <v>obj_0038d#0006</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4784,7 +4787,7 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00398#0006</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4822,7 +4825,7 @@
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00343#0001</v>
+        <v>obj_003ab#0006</v>
       </c>
       <c r="C61" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4857,7 +4860,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_003af#0006</v>
       </c>
       <c r="C62" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4892,7 +4895,7 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00384#0006</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4900,7 +4903,7 @@
       </c>
       <c r="D63" s="6">
         <f>_xll.qlRateHelperQuoteValue($B63,Trigger)</f>
-        <v>1.0829999999999999E-2</v>
+        <v>1.073E-2</v>
       </c>
       <c r="E63" s="6">
         <f>_xll.qlSwapRateHelperSpread($B63,Trigger)</f>
@@ -4927,7 +4930,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00382#0006</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -4962,7 +4965,7 @@
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00369#0006</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -4970,7 +4973,7 @@
       </c>
       <c r="D65" s="6">
         <f>_xll.qlRateHelperQuoteValue($B65,Trigger)</f>
-        <v>1.274E-2</v>
+        <v>1.2619999999999999E-2</v>
       </c>
       <c r="E65" s="6">
         <f>_xll.qlSwapRateHelperSpread($B65,Trigger)</f>
@@ -4997,7 +5000,7 @@
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_0036f#0006</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5005,7 +5008,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.6150000000000001E-2</v>
+        <v>1.5990000000000001E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5032,7 +5035,7 @@
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00357#0001</v>
+        <v>obj_0039d#0006</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5040,7 +5043,7 @@
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.8589999999999999E-2</v>
+        <v>1.8429999999999998E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5067,7 +5070,7 @@
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_003a4#0006</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5075,7 +5078,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>2.0380000000000002E-2</v>
+        <v>2.0209999999999999E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5102,7 +5105,7 @@
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00349#0001</v>
+        <v>obj_003a0#0006</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5110,7 +5113,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>2.1749999999999999E-2</v>
+        <v>2.1610000000000001E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5137,7 +5140,7 @@
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00399#0006</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5145,7 +5148,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>2.2860000000000002E-2</v>
+        <v>2.2749999999999999E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5173,7 +5176,7 @@
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00359#0001</v>
+        <v>obj_003a9#0006</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5181,7 +5184,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.3799999999999998E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5209,7 +5212,7 @@
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00380#0001</v>
+        <v>obj_003ad#0006</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5217,7 +5220,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.4590000000000001E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5245,7 +5248,7 @@
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00385#0001</v>
+        <v>obj_0039f#0006</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.5270000000000001E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5281,7 +5284,7 @@
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00379#0006</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5289,7 +5292,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.588E-2</v>
+        <v>2.5819999999999999E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5317,7 +5320,7 @@
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00375#0001</v>
+        <v>obj_0039b#0006</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5325,7 +5328,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.6420000000000003E-2</v>
+        <v>2.6360000000000001E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5353,7 +5356,7 @@
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00388#0001</v>
+        <v>obj_003b2#0006</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5389,7 +5392,7 @@
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00374#0006</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5425,7 +5428,7 @@
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00375#0006</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5433,7 +5436,7 @@
       </c>
       <c r="D78" s="6">
         <f>_xll.qlRateHelperQuoteValue($B78,Trigger)</f>
-        <v>2.759E-2</v>
+        <v>2.7549999999999998E-2</v>
       </c>
       <c r="E78" s="6">
         <f>_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
@@ -5461,7 +5464,7 @@
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00381#0006</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5497,7 +5500,7 @@
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00396#0006</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5533,7 +5536,7 @@
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00367#0006</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5569,7 +5572,7 @@
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00379#0001</v>
+        <v>obj_00388#0006</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5605,7 +5608,7 @@
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_0038f#0006</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5613,7 +5616,7 @@
       </c>
       <c r="D83" s="6">
         <f>_xll.qlRateHelperQuoteValue($B83,Trigger)</f>
-        <v>2.8580000000000001E-2</v>
+        <v>2.8570000000000002E-2</v>
       </c>
       <c r="E83" s="6">
         <f>_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
@@ -5641,7 +5644,7 @@
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00365#0006</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5677,7 +5680,7 @@
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00381#0001</v>
+        <v>obj_003a7#0006</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5713,7 +5716,7 @@
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00385#0006</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5749,7 +5752,7 @@
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_0038b#0006</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5785,7 +5788,7 @@
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_003a5#0006</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5793,7 +5796,7 @@
       </c>
       <c r="D88" s="6">
         <f>_xll.qlRateHelperQuoteValue($B88,Trigger)</f>
-        <v>2.8810000000000002E-2</v>
+        <v>2.8830000000000001E-2</v>
       </c>
       <c r="E88" s="6">
         <f>_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
@@ -5821,7 +5824,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0036a#0006</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5857,7 +5860,7 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0037e#0006</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5893,7 +5896,7 @@
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00353#0001</v>
+        <v>obj_003b1#0006</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5929,7 +5932,7 @@
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00392#0006</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -5965,7 +5968,7 @@
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00395#0006</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -5973,7 +5976,7 @@
       </c>
       <c r="D93" s="6">
         <f>_xll.qlRateHelperQuoteValue($B93,Trigger)</f>
-        <v>2.8849999999999997E-2</v>
+        <v>2.8890000000000002E-2</v>
       </c>
       <c r="E93" s="6">
         <f>_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
@@ -6001,7 +6004,7 @@
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00372#0001</v>
+        <v>obj_003b0#0006</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6037,7 +6040,7 @@
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00373#0006</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6045,7 +6048,7 @@
       </c>
       <c r="D95" s="6">
         <f>_xll.qlRateHelperQuoteValue($B95,Trigger)</f>
-        <v>2.8670000000000001E-2</v>
+        <v>2.8730000000000002E-2</v>
       </c>
       <c r="E95" s="6">
         <f>_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
@@ -6073,7 +6076,7 @@
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00386#0006</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6081,7 +6084,7 @@
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.8660000000000001E-2</v>
+        <v>2.8730000000000002E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6109,7 +6112,7 @@
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_00371#0001</v>
+        <v>obj_003a6#0006</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6117,7 +6120,7 @@
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.879E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6164,10 +6167,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6181,14 +6184,16 @@
     <col min="8" max="9" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="188"/>
       <c r="D1" s="145" t="s">
         <v>59</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>4.7687688475639796E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>57</v>
       </c>
@@ -6219,7 +6224,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00337</v>
+        <v>obj_00357</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6244,8 +6249,12 @@
       <c r="J2" s="24">
         <v>4.7687688475639796E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="190"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>56</v>
       </c>
@@ -6253,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_0033a</v>
+        <v>obj_0035b</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6278,8 +6287,12 @@
       <c r="J3" s="24">
         <v>4.8024707911612213E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="190"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>55</v>
       </c>
@@ -6287,7 +6300,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_0064e</v>
+        <v>obj_00348</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6312,8 +6325,12 @@
       <c r="J4" s="24">
         <v>4.8135778099353743E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="190"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
@@ -6321,7 +6338,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_0033c</v>
+        <v>obj_0035f</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6346,8 +6363,12 @@
       <c r="J5" s="24">
         <v>4.891132470681246E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="190"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>52</v>
       </c>
@@ -6356,7 +6377,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_0033d</v>
+        <v>obj_00355</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6381,18 +6402,22 @@
       <c r="J6" s="24">
         <v>5.0682738102130658E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="190"/>
+    </row>
+    <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0044</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0007</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="25" t="str">
-        <v>obj_0062a</v>
+        <v>obj_00351</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6417,10 +6442,14 @@
       <c r="J7" s="24">
         <v>5.3251297388142733E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="190"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_0062b</v>
+        <v>obj_00353</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6445,10 +6474,14 @@
       <c r="J8" s="24">
         <v>5.6371625352661147E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="190"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_0064c</v>
+        <v>obj_0035e</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6473,10 +6506,14 @@
       <c r="J9" s="24">
         <v>6.1446284121358715E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="190"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_00339</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6501,10 +6538,14 @@
       <c r="J10" s="24">
         <v>6.6186157202768733E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="190"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_0062d</v>
+        <v>obj_0034f</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6529,10 +6570,14 @@
       <c r="J11" s="24">
         <v>7.1248984287600424E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="190"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_00647</v>
+        <v>obj_00360</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6557,10 +6602,14 @@
       <c r="J12" s="24">
         <v>7.6983789349629253E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="190"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_00648</v>
+        <v>obj_00362</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6585,10 +6634,14 @@
       <c r="J13" s="24">
         <v>8.2712422773627142E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="190"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14" s="25" t="str">
-        <v>obj_00649</v>
+        <v>obj_00359</v>
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -6613,10 +6666,14 @@
       <c r="J14" s="24">
         <v>8.8621758969245987E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="190"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_0038c</v>
+        <v>obj_00393</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6624,11 +6681,11 @@
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.045000000000007E-2</v>
+        <v>1.0324532460181812E-2</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>0</v>
+        <v>2.5467539818158627E-5</v>
       </c>
       <c r="H15" s="23">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
@@ -6639,12 +6696,16 @@
         <v>42264</v>
       </c>
       <c r="J15" s="24">
-        <v>9.1508497813930743E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.1186008426915217E-3</v>
+      </c>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="190"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_0037d</v>
+        <v>obj_0037f</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6652,11 +6713,11 @@
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.254999999999995E-2</v>
+        <v>1.2309276977999589E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>0</v>
+        <v>4.0723022000383242E-5</v>
       </c>
       <c r="H16" s="23">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
@@ -6667,12 +6728,16 @@
         <v>42354</v>
       </c>
       <c r="J16" s="24">
-        <v>9.836121097255188E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+        <v>9.7618882806031204E-3</v>
+      </c>
+      <c r="M16" s="189"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="190"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_00346</v>
+        <v>obj_00370</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6680,11 +6745,11 @@
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.4650000000000052E-2</v>
+        <v>1.4490617988460687E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>0</v>
+        <v>5.9382011539265042E-5</v>
       </c>
       <c r="H17" s="23">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
@@ -6695,12 +6760,16 @@
         <v>42445</v>
       </c>
       <c r="J17" s="24">
-        <v>1.0645850186103362E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.0557312386336169E-2</v>
+      </c>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="190"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_0035c</v>
+        <v>obj_00368</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6708,11 +6777,11 @@
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.6649999999999943E-2</v>
+        <v>1.6368520096094675E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>0</v>
+        <v>8.1479903905399813E-5</v>
       </c>
       <c r="H18" s="23">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
@@ -6723,12 +6792,16 @@
         <v>42537</v>
       </c>
       <c r="J18" s="24">
-        <v>1.1517558893348061E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.1401015760112768E-2</v>
+      </c>
+      <c r="M18" s="189"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="190"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_0035e</v>
+        <v>obj_0037a</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6736,11 +6809,11 @@
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.8449999999999966E-2</v>
+        <v>1.8143464259517357E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>0</v>
+        <v>1.065357404825213E-4</v>
       </c>
       <c r="H19" s="23">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
@@ -6751,12 +6824,16 @@
         <v>42628</v>
       </c>
       <c r="J19" s="24">
-        <v>1.2388419000357399E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.2248077826110296E-2</v>
+      </c>
+      <c r="M19" s="189"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="190"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_0036d</v>
+        <v>obj_0037b</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6764,11 +6841,11 @@
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.0250000000000101E-2</v>
+        <v>1.9913344945091085E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>0</v>
+        <v>1.3665505490881717E-4</v>
       </c>
       <c r="H20" s="23">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
@@ -6779,12 +6856,16 @@
         <v>42725</v>
       </c>
       <c r="J20" s="24">
-        <v>1.3307874821787255E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.314462131061391E-2</v>
+      </c>
+      <c r="M20" s="189"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="190"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_0033f</v>
+        <v>obj_0036f</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6792,7 +6873,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.6150000000000001E-2</v>
+        <v>1.5990000000000001E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6807,12 +6888,16 @@
         <v>43003</v>
       </c>
       <c r="J21" s="24">
-        <v>1.617043087833402E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.6009953980344015E-2</v>
+      </c>
+      <c r="M21" s="189"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="190"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_00357</v>
+        <v>obj_0039d</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -6820,7 +6905,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.8589999999999999E-2</v>
+        <v>1.8429999999999998E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6835,12 +6920,16 @@
         <v>43368</v>
       </c>
       <c r="J22" s="24">
-        <v>1.8648679222659791E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.8488106616672269E-2</v>
+      </c>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="190"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_0037f</v>
+        <v>obj_003a4</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -6848,7 +6937,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.0380000000000002E-2</v>
+        <v>2.0209999999999999E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -6863,12 +6952,16 @@
         <v>43733</v>
       </c>
       <c r="J23" s="24">
-        <v>2.0479958221461994E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.0308834008443223E-2</v>
+      </c>
+      <c r="M23" s="189"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="190"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_00349</v>
+        <v>obj_003a0</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -6876,7 +6969,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.1749999999999999E-2</v>
+        <v>2.1610000000000001E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -6891,12 +6984,16 @@
         <v>44099</v>
       </c>
       <c r="J24" s="24">
-        <v>2.1891640652376136E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.1752155175066092E-2</v>
+      </c>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="190"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_0036a</v>
+        <v>obj_00399</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -6904,7 +7001,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.2860000000000002E-2</v>
+        <v>2.2749999999999999E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -6919,12 +7016,16 @@
         <v>44466</v>
       </c>
       <c r="J25" s="24">
-        <v>2.3044606550897719E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.2937128972814427E-2</v>
+      </c>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="190"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_00359</v>
+        <v>obj_003a9</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -6932,7 +7033,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.3799999999999998E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -6947,12 +7048,16 @@
         <v>44830</v>
       </c>
       <c r="J26" s="24">
-        <v>2.4030546429328073E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.393361140079282E-2</v>
+      </c>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="190"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_00380</v>
+        <v>obj_003ad</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -6960,7 +7065,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4590000000000001E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -6975,12 +7080,16 @@
         <v>45194</v>
       </c>
       <c r="J27" s="24">
-        <v>2.4865952634494273E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.4790868167667672E-2</v>
+      </c>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="190"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_00385</v>
+        <v>obj_0039f</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -6988,7 +7097,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.5270000000000001E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7003,12 +7112,16 @@
         <v>45560</v>
       </c>
       <c r="J28" s="24">
-        <v>2.5591051807028926E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.552680710581276E-2</v>
+      </c>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="190"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_00375</v>
+        <v>obj_0039b</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7016,7 +7129,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.6420000000000003E-2</v>
+        <v>2.6360000000000001E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7031,12 +7144,16 @@
         <v>46290</v>
       </c>
       <c r="J29" s="24">
-        <v>2.6837805980087767E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.6784216483779804E-2</v>
+      </c>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="190"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_00374</v>
+        <v>obj_00375</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7044,7 +7161,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.759E-2</v>
+        <v>2.7549999999999998E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7059,12 +7176,16 @@
         <v>47386</v>
       </c>
       <c r="J30" s="24">
-        <v>2.812471079464705E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.809406059200812E-2</v>
+      </c>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="190"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_0038b</v>
+        <v>obj_0038f</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7072,7 +7193,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.8580000000000001E-2</v>
+        <v>2.8570000000000002E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7087,12 +7208,16 @@
         <v>49212</v>
       </c>
       <c r="J31" s="24">
-        <v>2.9207357456557028E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.921323122106028E-2</v>
+      </c>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="190"/>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_0034b</v>
+        <v>obj_003a5</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7100,7 +7225,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.8810000000000002E-2</v>
+        <v>2.8830000000000001E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7115,12 +7240,16 @@
         <v>51039</v>
       </c>
       <c r="J32" s="24">
-        <v>2.9360550614404159E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.9405344144962379E-2</v>
+      </c>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="190"/>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_0037e</v>
+        <v>obj_00395</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7128,7 +7257,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.8849999999999997E-2</v>
+        <v>2.8890000000000002E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7143,12 +7272,16 @@
         <v>52866</v>
       </c>
       <c r="J33" s="24">
-        <v>2.9294272642382307E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.9365177279646635E-2</v>
+      </c>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="190"/>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_00373</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7156,7 +7289,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.8670000000000001E-2</v>
+        <v>2.8730000000000002E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7171,12 +7304,16 @@
         <v>56517</v>
       </c>
       <c r="J34" s="24">
-        <v>2.8832419498203275E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.8927712675603266E-2</v>
+      </c>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="190"/>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00352</v>
+        <v>obj_00386</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7184,7 +7321,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.8660000000000001E-2</v>
+        <v>2.8730000000000002E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7199,12 +7336,16 @@
         <v>60170</v>
       </c>
       <c r="J35" s="24">
-        <v>2.873906531854814E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.8846475288294409E-2</v>
+      </c>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="190"/>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_00371</v>
+        <v>obj_003a6</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7212,7 +7353,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.879E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7227,10 +7368,14 @@
         <v>63822</v>
       </c>
       <c r="J36" s="24">
-        <v>2.8994624103543237E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+        <v>2.9096985069627438E-2</v>
+      </c>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="190"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D37" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7257,8 +7402,12 @@
       <c r="J37" s="24" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="190"/>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D38" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7285,8 +7434,12 @@
       <c r="J38" s="24" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="190"/>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D39" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7313,8 +7466,12 @@
       <c r="J39" s="24" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="190"/>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D40" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7342,7 +7499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D41" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7370,7 +7527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D42" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7398,7 +7555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D43" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7426,7 +7583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D44" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7454,7 +7611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D45" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7482,7 +7639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D46" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7510,7 +7667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D47" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -7538,7 +7695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D48" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -9771,9 +9928,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9860,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" ref="D3:D19" si="0">Calendar</f>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E3" s="84" t="s">
@@ -9872,16 +10027,16 @@
       <c r="G3" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="187" t="str">
+      <c r="I3" s="181" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>GBPOND_Quote</v>
       </c>
-      <c r="J3" s="188" t="str">
+      <c r="J3" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00337#0031</v>
+        <v>obj_00357#0006</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -9899,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E4" s="84" t="s">
@@ -9913,7 +10068,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00637#0008</v>
+        <v>obj_00349#0006</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -9921,7 +10076,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033a#0008</v>
+        <v>obj_0035b#0006</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -9939,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -9951,17 +10106,17 @@
       <c r="G5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="186" t="str">
+      <c r="H5" s="180" t="str">
         <f>Currency&amp;FamilyName&amp;B5</f>
         <v>GBPLiborSW</v>
       </c>
-      <c r="I5" s="187" t="str">
+      <c r="I5" s="181" t="str">
         <f>Currency&amp;$B5&amp;"D"&amp;QuoteSuffix</f>
         <v>GBPSWD_Quote</v>
       </c>
-      <c r="J5" s="188" t="str">
+      <c r="J5" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_0064e#0007</v>
+        <v>obj_00348#0006</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -9979,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -9993,7 +10148,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063b#0007</v>
+        <v>obj_0034e#0006</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10001,7 +10156,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033c#0005</v>
+        <v>obj_0035f#0006</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10019,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E7" s="84" t="s">
@@ -10033,7 +10188,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063d#0007</v>
+        <v>obj_00352#0006</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10041,7 +10196,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00338#0005</v>
+        <v>obj_00361#0006</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10059,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E8" s="84" t="s">
@@ -10071,17 +10226,17 @@
       <c r="G8" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="186" t="str">
+      <c r="H8" s="180" t="str">
         <f>Currency&amp;FamilyName&amp;B8</f>
         <v>GBPLibor1M</v>
       </c>
-      <c r="I8" s="187" t="str">
+      <c r="I8" s="181" t="str">
         <f>Currency&amp;$B8&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP1MD_Quote</v>
       </c>
-      <c r="J8" s="188" t="str">
+      <c r="J8" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_0033d#0019</v>
+        <v>obj_00355#0006</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10099,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E9" s="84" t="s">
@@ -10111,17 +10266,17 @@
       <c r="G9" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="186" t="str">
+      <c r="H9" s="180" t="str">
         <f>Currency&amp;FamilyName&amp;B9</f>
         <v>GBPLibor2M</v>
       </c>
-      <c r="I9" s="187" t="str">
+      <c r="I9" s="181" t="str">
         <f>Currency&amp;$B9&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP2MD_Quote</v>
       </c>
-      <c r="J9" s="188" t="str">
+      <c r="J9" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_0062a#0017</v>
+        <v>obj_00351#0006</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10139,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E10" s="84" t="s">
@@ -10151,17 +10306,17 @@
       <c r="G10" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="186" t="str">
+      <c r="H10" s="180" t="str">
         <f>Currency&amp;FamilyName&amp;B10</f>
         <v>GBPLibor3M</v>
       </c>
-      <c r="I10" s="187" t="str">
+      <c r="I10" s="181" t="str">
         <f>Currency&amp;$B10&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP3MD_Quote</v>
       </c>
-      <c r="J10" s="188" t="str">
+      <c r="J10" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_0062b#0017</v>
+        <v>obj_00353#0006</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10179,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E11" s="84" t="s">
@@ -10193,7 +10348,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00645#0007</v>
+        <v>obj_0034c#0006</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10201,7 +10356,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064c#0003</v>
+        <v>obj_0035e#0006</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10219,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E12" s="84" t="s">
@@ -10233,7 +10388,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00638#0007</v>
+        <v>obj_0034b#0006</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10241,7 +10396,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00339#0005</v>
+        <v>obj_0035d#0006</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10259,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -10271,17 +10426,17 @@
       <c r="G13" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="186" t="str">
+      <c r="H13" s="180" t="str">
         <f>Currency&amp;FamilyName&amp;B13</f>
         <v>GBPLibor6M</v>
       </c>
-      <c r="I13" s="187" t="str">
+      <c r="I13" s="181" t="str">
         <f>Currency&amp;$B13&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP6MD_Quote</v>
       </c>
-      <c r="J13" s="188" t="str">
+      <c r="J13" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_0062d#0017</v>
+        <v>obj_0034f#0006</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10299,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -10313,7 +10468,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063c#0007</v>
+        <v>obj_00350#0006</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10321,7 +10476,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00647#0003</v>
+        <v>obj_00360#0006</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10339,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E15" s="84" t="s">
@@ -10353,7 +10508,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0063e#0007</v>
+        <v>obj_00354#0006</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10361,7 +10516,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00648#0003</v>
+        <v>obj_00362#0006</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10379,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -10393,7 +10548,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00640#0007</v>
+        <v>obj_00356#0006</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10401,7 +10556,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00649#0003</v>
+        <v>obj_00359#0006</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10419,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E17" s="84" t="s">
@@ -10433,7 +10588,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00642#0007</v>
+        <v>obj_00358#0006</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10441,7 +10596,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064a#0003</v>
+        <v>obj_0035a#0006</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10459,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E18" s="84" t="s">
@@ -10473,7 +10628,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00644#0007</v>
+        <v>obj_0034a#0006</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10481,7 +10636,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0064b#0003</v>
+        <v>obj_0035c#0006</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10499,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="84" t="str">
-        <f>Calendar</f>
+        <f t="shared" si="0"/>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -10511,17 +10666,17 @@
       <c r="G19" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="186" t="str">
+      <c r="H19" s="180" t="str">
         <f>Currency&amp;FamilyName&amp;B19</f>
         <v>GBPLibor1Y</v>
       </c>
-      <c r="I19" s="187" t="str">
+      <c r="I19" s="181" t="str">
         <f>Currency&amp;$B19&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP1YD_Quote</v>
       </c>
-      <c r="J19" s="188" t="str">
+      <c r="J19" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_0062c#0017</v>
+        <v>obj_0034d#0006</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10531,18 +10686,18 @@
       <c r="N19" s="76"/>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="184"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="185"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="179"/>
       <c r="N20" s="76"/>
     </row>
     <row r="21" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10570,7 +10725,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10664,7 +10819,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00340#0001</v>
+        <v>obj_00377#0006</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -10698,7 +10853,7 @@
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00391#0006</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -10732,7 +10887,7 @@
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_0036e#0006</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -10766,7 +10921,7 @@
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00344#0001</v>
+        <v>obj_003ae#0006</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -10800,7 +10955,7 @@
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_003ac#0006</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -10834,7 +10989,7 @@
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_00389#0006</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -10868,7 +11023,7 @@
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00394#0006</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -10902,7 +11057,7 @@
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_00383#0006</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -10936,7 +11091,7 @@
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00393#0006</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -10970,7 +11125,7 @@
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0036b#0006</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11004,7 +11159,7 @@
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00376#0006</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11038,7 +11193,7 @@
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_0037f#0006</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11072,7 +11227,7 @@
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00346#0001</v>
+        <v>obj_00370#0006</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11106,7 +11261,7 @@
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00368#0006</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11140,7 +11295,7 @@
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0037a#0006</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11174,7 +11329,7 @@
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0037b#0006</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11208,7 +11363,7 @@
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00341#0001</v>
+        <v>obj_0039c#0006</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11242,7 +11397,7 @@
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00387#0006</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11276,7 +11431,7 @@
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00366#0006</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11310,7 +11465,7 @@
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_0037d#0006</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11344,7 +11499,7 @@
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0039e#0006</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11378,7 +11533,7 @@
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_0036d#0006</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11412,7 +11567,7 @@
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00372#0006</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11446,7 +11601,7 @@
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00348#0001</v>
+        <v>obj_00390#0006</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11480,7 +11635,7 @@
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_003a3#0006</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11514,7 +11669,7 @@
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_0036c#0006</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11548,7 +11703,7 @@
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00380#0006</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11582,7 +11737,7 @@
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_003aa#0006</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11616,7 +11771,7 @@
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_0039a#0006</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11650,7 +11805,7 @@
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_0038c#0006</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -11684,7 +11839,7 @@
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0038a#0006</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -11718,7 +11873,7 @@
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00371#0006</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -11752,7 +11907,7 @@
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_003a8#0006</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -11786,7 +11941,7 @@
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_003a2#0006</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -11820,7 +11975,7 @@
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_0037c#0006</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -11854,7 +12009,7 @@
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_003a1#0006</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -11888,7 +12043,7 @@
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_0038e#0006</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -11922,7 +12077,7 @@
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00397#0006</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -11956,7 +12111,7 @@
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0033e#0001</v>
+        <v>obj_00364#0006</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -11991,7 +12146,7 @@
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00347#0001</v>
+        <v>obj_00378#0006</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12025,7 +12180,7 @@
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_0038d#0006</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12059,7 +12214,7 @@
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00398#0006</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12199,7 +12354,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="159" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00336#0001</v>
+        <v>obj_00363#0006</v>
       </c>
       <c r="L4" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12258,7 +12413,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00343#0001</v>
+        <v>obj_003ab#0006</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12305,7 +12460,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_003af#0006</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12356,7 +12511,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00384#0006</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12407,7 +12562,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00382#0006</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12454,7 +12609,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00369#0006</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12505,7 +12660,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0033f#0001</v>
+        <v>obj_0036f#0006</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12547,7 +12702,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_0039d#0006</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12589,7 +12744,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_003a4#0006</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12631,7 +12786,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_003a0#0006</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12673,7 +12828,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00399#0006</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12715,7 +12870,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_003a9#0006</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -12757,7 +12912,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_003ad#0006</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -12799,7 +12954,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_0039f#0006</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -12841,7 +12996,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00379#0006</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -12883,7 +13038,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_0039b#0006</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -12925,7 +13080,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_003b2#0006</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -12967,7 +13122,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00374#0006</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13009,7 +13164,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00375#0006</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13051,7 +13206,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00381#0006</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13093,7 +13248,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00342#0001</v>
+        <v>obj_00396#0006</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13135,7 +13290,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00367#0006</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13177,7 +13332,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_00388#0006</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13219,7 +13374,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_0038f#0006</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13261,7 +13416,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00365#0006</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13303,7 +13458,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0001</v>
+        <v>obj_003a7#0006</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13345,7 +13500,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00385#0006</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13387,7 +13542,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_0038b#0006</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13429,7 +13584,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_003a5#0006</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13471,7 +13626,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0036a#0006</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13513,7 +13668,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0037e#0006</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13555,7 +13710,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_003b1#0006</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13597,7 +13752,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00392#0006</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13639,7 +13794,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00395#0006</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -13681,7 +13836,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_003b0#0006</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -13723,7 +13878,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00373#0006</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -13765,7 +13920,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00386#0006</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -13807,7 +13962,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_003a6#0006</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="45" windowWidth="15285" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="15225" yWindow="45" windowWidth="15285" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$21</definedName>
-    <definedName name="MinDistance">RateHelpers!$H$2:$H$97</definedName>
+    <definedName name="MinDistance">RateHelpers!$H$2:$H$98</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$M$14</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
@@ -40,9 +40,9 @@
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$B$2:$B$97</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$F$2:$F$97</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$G$2:$G$97</definedName>
+    <definedName name="RateHelpers">RateHelpers!$B$2:$B$98</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$F$2:$F$98</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$G$2:$G$98</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
     <definedName name="Serialize">'General Settings'!$M$4</definedName>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="148">
   <si>
     <t>60Y</t>
   </si>
@@ -667,7 +667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -681,7 +681,8 @@
     <numFmt numFmtId="174" formatCode="General_)"/>
     <numFmt numFmtId="175" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="0.00000%"/>
+    <numFmt numFmtId="177" formatCode="0.00000%"/>
+    <numFmt numFmtId="182" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1310,7 +1311,7 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1704,6 +1705,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,8 +1723,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1744,6 +1746,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>0.85816708799999997</v>
+        <stp/>
+        <stp>_x0012_GBP_STD_#20150617D_x0003_ask_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="J22" s="7"/>
+      </tp>
+      <tp>
+        <v>0.83816708799999995</v>
+        <stp/>
+        <stp>_x0012_GBP_STD_#20150617D_x0003_bid_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="J23" s="7"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2036,7 +2059,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2060,23 +2083,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="111" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Aug  6 2014 11:45:43</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="185" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="K2" s="183" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
+      <c r="K2" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="188"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
@@ -2213,12 +2236,12 @@
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="40"/>
-      <c r="K9" s="183" t="s">
+      <c r="K9" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="188"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
@@ -2293,7 +2316,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0007</v>
+        <v>_GBPYCSTD#0009</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2418,11 +2441,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.9405344144962379E-2</v>
+        <v>2.9066575056002363E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2431,11 +2454,11 @@
       <c r="B24" s="43"/>
       <c r="C24" s="45">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63822</v>
+        <v>63829</v>
       </c>
       <c r="D24" s="121">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.7687688475639796E-3</v>
+        <v>1.1890672526646562E-3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2522,18 +2545,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -2579,7 +2602,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00357#0006</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2587,7 +2610,7 @@
       </c>
       <c r="D2" s="6">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>4.7688000000000001E-3</v>
+        <v>4.7562999999999998E-3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="b">
@@ -2601,11 +2624,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2618,7 +2641,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0035b#0006</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2626,7 +2649,7 @@
       </c>
       <c r="D3" s="6">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>4.8138E-3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="74" t="b">
@@ -2640,11 +2663,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41911</v>
+        <v>41918</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2657,7 +2680,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00348#0006</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2665,7 +2688,7 @@
       </c>
       <c r="D4" s="6">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>4.8138E-3</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="74" t="b">
@@ -2679,17 +2702,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0035f#0006</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2697,7 +2720,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.8915913000000004E-3</v>
+        <v>4.8990250000000004E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2711,17 +2734,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41921</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00361#0006</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2729,7 +2752,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9693826099999998E-3</v>
+        <v>4.9730499999999997E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2743,17 +2766,17 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41928</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00355#0006</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2761,7 +2784,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0693999999999991E-3</v>
+        <v>5.0319000000000006E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2775,17 +2798,17 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41939</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00351#0006</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2793,7 +2816,7 @@
       </c>
       <c r="D8" s="6">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>5.3274999999999998E-3</v>
+        <v>5.3337999999999997E-3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="74" t="b">
@@ -2807,17 +2830,17 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41968</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00353#0006</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2825,7 +2848,7 @@
       </c>
       <c r="D9" s="6">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>5.6413000000000001E-3</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="74" t="b">
@@ -2839,17 +2862,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42002</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0035e#0006</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2857,7 +2880,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.1509945099999996E-3</v>
+        <v>6.1506824200000003E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2871,17 +2894,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42030</v>
+        <v>42037</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0035d#0006</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2889,7 +2912,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.6278054900000003E-3</v>
+        <v>6.6091439600000001E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2903,11 +2926,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42060</v>
+        <v>42065</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -2920,7 +2943,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0034f#0006</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2928,7 +2951,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>7.1374999999999997E-3</v>
+        <v>7.0955999999999997E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -2942,11 +2965,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42088</v>
+        <v>42096</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -2959,7 +2982,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00360#0006</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -2967,7 +2990,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.7157786900000002E-3</v>
+        <v>7.6839247300000005E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -2981,11 +3004,11 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42121</v>
+        <v>42129</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -2998,7 +3021,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00362#0006</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3006,7 +3029,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.294057379999999E-3</v>
+        <v>8.3107252699999995E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3020,11 +3043,11 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="K14" s="1">
         <v>60</v>
@@ -3037,7 +3060,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00359#0006</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3045,7 +3068,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.89161202E-3</v>
+        <v>8.8425560399999995E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3059,17 +3082,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42180</v>
+        <v>42187</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035a#0006</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3077,7 +3100,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.4698907099999997E-3</v>
+        <v>9.4313686799999998E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3091,17 +3114,17 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42212</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0035c#0006</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3109,7 +3132,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>1.0048169399999999E-2</v>
+        <v>1.0039175270000001E-2</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3123,17 +3146,17 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42241</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0034d#0006</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3141,7 +3164,7 @@
       </c>
       <c r="D18" s="6">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>1.0665000000000001E-2</v>
+        <v>1.04619E-2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="74" t="b">
@@ -3155,11 +3178,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42272</v>
+        <v>42279</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3169,80 +3192,74 @@
       </c>
       <c r="R18" s="73"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="150" t="str">
+    <row r="19" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="149" t="str">
+        <f>Deposits!J20</f>
+        <v>obj_0063f#0015</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>_xll.qlRateHelperQuoteName(B19)</f>
+        <v>stub</v>
+      </c>
+      <c r="D19" s="6">
+        <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
+        <v>8.5816708799999995E-3</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="74">
+        <v>10</v>
+      </c>
+      <c r="H19" s="74">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
+        <v>41914</v>
+      </c>
+      <c r="J19" s="3">
+        <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00377#0006</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f>_xll.qlRateHelperQuoteName(B19)</f>
+        <v>obj_00386#0001</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>_xll.qlRateHelperQuoteName(B20)</f>
         <v>GBPFUT3MV4_Quote</v>
       </c>
-      <c r="D19" s="147" t="e">
-        <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" s="13" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($B19,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>60</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41927</v>
-      </c>
-      <c r="J19" s="10">
-        <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
-        <v>42019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="149" t="str">
-        <f>Futures!H4</f>
-        <v>obj_00391#0006</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>_xll.qlRateHelperQuoteName(B20)</f>
-        <v>GBPFUT3MX4_Quote</v>
-      </c>
-      <c r="D20" s="16" t="e">
+      <c r="D20" s="147" t="e">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E20" s="6" t="e">
+      <c r="E20" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F20" s="74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
         <v>60</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
         <f>_xll.qlRateHelperEarliestDate($B20,Trigger)</f>
-        <v>41962</v>
-      </c>
-      <c r="J20" s="3">
+        <v>41927</v>
+      </c>
+      <c r="J20" s="10">
         <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
-        <v>42054</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -3250,20 +3267,20 @@
         <v>0</v>
       </c>
       <c r="B21" s="149" t="str">
-        <f>Futures!H5</f>
-        <v>obj_0036e#0006</v>
+        <f>Futures!H4</f>
+        <v>obj_00374#0001</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>GBPFUT3MZ4_Quote</v>
-      </c>
-      <c r="D21" s="16">
+        <v>GBPFUT3MX4_Quote</v>
+      </c>
+      <c r="D21" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>99.344999999999999</v>
-      </c>
-      <c r="E21" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E21" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
-        <v>4.7335137414518424E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="F21" s="74" t="b">
         <v>0</v>
@@ -3276,11 +3293,11 @@
       </c>
       <c r="I21" s="4">
         <f>_xll.qlRateHelperEarliestDate($B21,Trigger)</f>
-        <v>41990</v>
+        <v>41962</v>
       </c>
       <c r="J21" s="3">
         <f>_xll.qlRateHelperLatestDate($B21,Trigger)</f>
-        <v>42080</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3288,20 +3305,20 @@
         <v>0</v>
       </c>
       <c r="B22" s="149" t="str">
-        <f>Futures!H6</f>
-        <v>obj_003ae#0006</v>
+        <f>Futures!H5</f>
+        <v>obj_00391#0001</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>GBPFUT3MF5_Quote</v>
-      </c>
-      <c r="D22" s="16" t="e">
+        <v>GBPFUT3MZ4_Quote</v>
+      </c>
+      <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" s="6" t="e">
+        <v>99.35499999999999</v>
+      </c>
+      <c r="E22" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F22" s="74" t="b">
         <v>0</v>
@@ -3314,11 +3331,11 @@
       </c>
       <c r="I22" s="4">
         <f>_xll.qlRateHelperEarliestDate($B22,Trigger)</f>
-        <v>42025</v>
+        <v>41990</v>
       </c>
       <c r="J22" s="3">
         <f>_xll.qlRateHelperLatestDate($B22,Trigger)</f>
-        <v>42115</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -3326,12 +3343,12 @@
         <v>0</v>
       </c>
       <c r="B23" s="149" t="str">
-        <f>Futures!H7</f>
-        <v>obj_003ac#0006</v>
+        <f>Futures!H6</f>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>GBPFUT3MG5_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="D23" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
@@ -3352,11 +3369,11 @@
       </c>
       <c r="I23" s="4">
         <f>_xll.qlRateHelperEarliestDate($B23,Trigger)</f>
-        <v>42053</v>
+        <v>42025</v>
       </c>
       <c r="J23" s="3">
         <f>_xll.qlRateHelperLatestDate($B23,Trigger)</f>
-        <v>42142</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -3364,20 +3381,20 @@
         <v>0</v>
       </c>
       <c r="B24" s="149" t="str">
-        <f>Futures!H8</f>
-        <v>obj_00389#0006</v>
+        <f>Futures!H7</f>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>GBPFUT3MH5_Quote</v>
-      </c>
-      <c r="D24" s="16">
+        <v>GBPFUT3MG5_Quote</v>
+      </c>
+      <c r="D24" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
-        <v>99.164999999999992</v>
-      </c>
-      <c r="E24" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
-        <v>1.3420654014619364E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="F24" s="74" t="b">
         <v>0</v>
@@ -3390,11 +3407,11 @@
       </c>
       <c r="I24" s="4">
         <f>_xll.qlRateHelperEarliestDate($B24,Trigger)</f>
-        <v>42081</v>
+        <v>42053</v>
       </c>
       <c r="J24" s="3">
         <f>_xll.qlRateHelperLatestDate($B24,Trigger)</f>
-        <v>42173</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -3402,23 +3419,23 @@
         <v>0</v>
       </c>
       <c r="B25" s="149" t="str">
-        <f>Futures!H9</f>
-        <v>obj_00394#0006</v>
+        <f>Futures!H8</f>
+        <v>obj_00369#0001</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>GBPFUT3MJ5_Quote</v>
-      </c>
-      <c r="D25" s="16" t="e">
+        <v>GBPFUT3MH5_Quote</v>
+      </c>
+      <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" s="6" t="e">
+        <v>99.215000000000003</v>
+      </c>
+      <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F25" s="74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
         <v>60</v>
@@ -3428,11 +3445,11 @@
       </c>
       <c r="I25" s="4">
         <f>_xll.qlRateHelperEarliestDate($B25,Trigger)</f>
-        <v>42109</v>
+        <v>42081</v>
       </c>
       <c r="J25" s="3">
         <f>_xll.qlRateHelperLatestDate($B25,Trigger)</f>
-        <v>42200</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -3440,12 +3457,12 @@
         <v>0</v>
       </c>
       <c r="B26" s="149" t="str">
-        <f>Futures!H10</f>
-        <v>obj_00383#0006</v>
+        <f>Futures!H9</f>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>GBPFUT3MK5_Quote</v>
+        <v>GBPFUT3MJ5_Quote</v>
       </c>
       <c r="D26" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
@@ -3466,11 +3483,11 @@
       </c>
       <c r="I26" s="4">
         <f>_xll.qlRateHelperEarliestDate($B26,Trigger)</f>
-        <v>42144</v>
+        <v>42109</v>
       </c>
       <c r="J26" s="3">
         <f>_xll.qlRateHelperLatestDate($B26,Trigger)</f>
-        <v>42236</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -3478,20 +3495,20 @@
         <v>0</v>
       </c>
       <c r="B27" s="149" t="str">
-        <f>Futures!H11</f>
-        <v>obj_00393#0006</v>
+        <f>Futures!H10</f>
+        <v>obj_00372#0001</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>GBPFUT3MM5_Quote</v>
-      </c>
-      <c r="D27" s="16">
+        <v>GBPFUT3MK5_Quote</v>
+      </c>
+      <c r="D27" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
-        <v>98.965000000000003</v>
-      </c>
-      <c r="E27" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
-        <v>2.5467539818158627E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="F27" s="74" t="b">
         <v>1</v>
@@ -3504,33 +3521,32 @@
       </c>
       <c r="I27" s="4">
         <f>_xll.qlRateHelperEarliestDate($B27,Trigger)</f>
-        <v>42172</v>
+        <v>42144</v>
       </c>
       <c r="J27" s="3">
         <f>_xll.qlRateHelperLatestDate($B27,Trigger)</f>
-        <v>42264</v>
-      </c>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B28" s="149" t="str">
-        <f>Futures!H12</f>
-        <v>obj_0036b#0006</v>
+        <f>Futures!H11</f>
+        <v>obj_00398#0001</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>GBPFUT3MN5_Quote</v>
-      </c>
-      <c r="D28" s="16" t="e">
+        <v>GBPFUT3MM5_Quote</v>
+      </c>
+      <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E28" s="6" t="e">
+        <v>99.039199999999994</v>
+      </c>
+      <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F28" s="74" t="b">
         <v>1</v>
@@ -3543,25 +3559,25 @@
       </c>
       <c r="I28" s="4">
         <f>_xll.qlRateHelperEarliestDate($B28,Trigger)</f>
-        <v>42200</v>
+        <v>42172</v>
       </c>
       <c r="J28" s="3">
         <f>_xll.qlRateHelperLatestDate($B28,Trigger)</f>
-        <v>42292</v>
+        <v>42264</v>
       </c>
       <c r="L28" s="73"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B29" s="149" t="str">
-        <f>Futures!H13</f>
-        <v>obj_00376#0006</v>
+        <f>Futures!H12</f>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>GBPFUT3MQ5_Quote</v>
+        <v>GBPFUT3MN5_Quote</v>
       </c>
       <c r="D29" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
@@ -3582,34 +3598,33 @@
       </c>
       <c r="I29" s="4">
         <f>_xll.qlRateHelperEarliestDate($B29,Trigger)</f>
-        <v>42235</v>
+        <v>42200</v>
       </c>
       <c r="J29" s="3">
         <f>_xll.qlRateHelperLatestDate($B29,Trigger)</f>
-        <v>42327</v>
+        <v>42292</v>
       </c>
       <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B30" s="149" t="str">
-        <f>Futures!H14</f>
-        <v>obj_0037f#0006</v>
+        <f>Futures!H13</f>
+        <v>obj_00383#0001</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>GBPFUT3MU5_Quote</v>
-      </c>
-      <c r="D30" s="16">
+        <v>GBPFUT3MQ5_Quote</v>
+      </c>
+      <c r="D30" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
-        <v>98.765000000000001</v>
-      </c>
-      <c r="E30" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
-        <v>4.0723022000383242E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="F30" s="74" t="b">
         <v>1</v>
@@ -3622,34 +3637,34 @@
       </c>
       <c r="I30" s="4">
         <f>_xll.qlRateHelperEarliestDate($B30,Trigger)</f>
-        <v>42263</v>
+        <v>42235</v>
       </c>
       <c r="J30" s="3">
         <f>_xll.qlRateHelperLatestDate($B30,Trigger)</f>
-        <v>42354</v>
+        <v>42327</v>
       </c>
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="149" t="str">
-        <f>Futures!H15</f>
-        <v>obj_00370#0006</v>
+        <f>Futures!H14</f>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.545000000000002</v>
+        <v>98.861699999999985</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
-        <v>5.9382011539265042E-5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="74" t="b">
         <v>1</v>
@@ -3662,35 +3677,34 @@
       </c>
       <c r="I31" s="4">
         <f>_xll.qlRateHelperEarliestDate($B31,Trigger)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="J31" s="3">
         <f>_xll.qlRateHelperLatestDate($B31,Trigger)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B32" s="149" t="str">
-        <f>Futures!H16</f>
-        <v>obj_00368#0006</v>
+        <f>Futures!H15</f>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.35499999999999</v>
+        <v>98.674799999999991</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
-        <v>8.1479903905399813E-5</v>
+        <v>0</v>
       </c>
       <c r="F32" s="74" t="b">
         <v>1</v>
@@ -3703,11 +3717,11 @@
       </c>
       <c r="I32" s="4">
         <f>_xll.qlRateHelperEarliestDate($B32,Trigger)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="J32" s="3">
         <f>_xll.qlRateHelperLatestDate($B32,Trigger)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="L32" s="73"/>
       <c r="M32" s="73"/>
@@ -3718,20 +3732,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="149" t="str">
-        <f>Futures!H17</f>
-        <v>obj_0037a#0006</v>
+        <f>Futures!H16</f>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.175000000000011</v>
+        <v>98.498400000000004</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
-        <v>1.065357404825213E-4</v>
+        <v>0</v>
       </c>
       <c r="F33" s="74" t="b">
         <v>1</v>
@@ -3744,11 +3758,11 @@
       </c>
       <c r="I33" s="4">
         <f>_xll.qlRateHelperEarliestDate($B33,Trigger)</f>
-        <v>42536</v>
+        <v>42445</v>
       </c>
       <c r="J33" s="3">
         <f>_xll.qlRateHelperLatestDate($B33,Trigger)</f>
-        <v>42628</v>
+        <v>42537</v>
       </c>
       <c r="L33" s="73"/>
       <c r="M33" s="73"/>
@@ -3759,20 +3773,20 @@
         <v>1</v>
       </c>
       <c r="B34" s="149" t="str">
-        <f>Futures!H18</f>
-        <v>obj_0037b#0006</v>
+        <f>Futures!H17</f>
+        <v>obj_00367#0001</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
-        <v>GBPFUT3MU6_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>97.995000000000005</v>
+        <v>98.332599999999999</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
-        <v>1.3665505490881717E-4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="74" t="b">
         <v>1</v>
@@ -3785,11 +3799,11 @@
       </c>
       <c r="I34" s="4">
         <f>_xll.qlRateHelperEarliestDate($B34,Trigger)</f>
-        <v>42634</v>
+        <v>42536</v>
       </c>
       <c r="J34" s="3">
         <f>_xll.qlRateHelperLatestDate($B34,Trigger)</f>
-        <v>42725</v>
+        <v>42628</v>
       </c>
       <c r="L34" s="73"/>
       <c r="M34" s="73"/>
@@ -3800,20 +3814,20 @@
         <v>1</v>
       </c>
       <c r="B35" s="149" t="str">
-        <f>Futures!H19</f>
-        <v>obj_0039c#0006</v>
+        <f>Futures!H18</f>
+        <v>obj_00371#0001</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
-        <v>GBPFUT3MZ6_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>97.844999999999999</v>
+        <v>98.177499999999995</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
-        <v>1.6764426115711069E-4</v>
+        <v>0</v>
       </c>
       <c r="F35" s="74" t="b">
         <v>1</v>
@@ -3826,11 +3840,11 @@
       </c>
       <c r="I35" s="4">
         <f>_xll.qlRateHelperEarliestDate($B35,Trigger)</f>
-        <v>42725</v>
+        <v>42634</v>
       </c>
       <c r="J35" s="3">
         <f>_xll.qlRateHelperLatestDate($B35,Trigger)</f>
-        <v>42815</v>
+        <v>42725</v>
       </c>
       <c r="L35" s="73"/>
       <c r="M35" s="73"/>
@@ -3841,37 +3855,37 @@
         <v>1</v>
       </c>
       <c r="B36" s="149" t="str">
-        <f>Futures!H20</f>
-        <v>obj_00387#0006</v>
+        <f>Futures!H19</f>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
-        <v>GBPFUT3MH7_Quote</v>
+        <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>97.734999999999999</v>
+        <v>98.004999999999995</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
-        <v>1.9986049234161846E-4</v>
+        <v>0</v>
       </c>
       <c r="F36" s="74" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="I36" s="4">
         <f>_xll.qlRateHelperEarliestDate($B36,Trigger)</f>
-        <v>42809</v>
+        <v>42725</v>
       </c>
       <c r="J36" s="3">
         <f>_xll.qlRateHelperLatestDate($B36,Trigger)</f>
-        <v>42901</v>
+        <v>42815</v>
       </c>
       <c r="L36" s="73"/>
       <c r="M36" s="73"/>
@@ -3882,20 +3896,20 @@
         <v>1</v>
       </c>
       <c r="B37" s="149" t="str">
-        <f>Futures!H21</f>
-        <v>obj_00366#0006</v>
+        <f>Futures!H20</f>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
-        <v>GBPFUT3MM7_Quote</v>
+        <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>97.634999999999991</v>
+        <v>97.89500000000001</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
-        <v>2.3973068683783518E-4</v>
+        <v>0</v>
       </c>
       <c r="F37" s="74" t="b">
         <v>1</v>
@@ -3908,11 +3922,11 @@
       </c>
       <c r="I37" s="4">
         <f>_xll.qlRateHelperEarliestDate($B37,Trigger)</f>
-        <v>42907</v>
+        <v>42809</v>
       </c>
       <c r="J37" s="3">
         <f>_xll.qlRateHelperLatestDate($B37,Trigger)</f>
-        <v>42999</v>
+        <v>42901</v>
       </c>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
@@ -3923,20 +3937,20 @@
         <v>1</v>
       </c>
       <c r="B38" s="149" t="str">
-        <f>Futures!H22</f>
-        <v>obj_0037d#0006</v>
+        <f>Futures!H21</f>
+        <v>obj_00378#0001</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
-        <v>GBPFUT3MU7_Quote</v>
+        <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>97.555000000000007</v>
+        <v>97.784999999999997</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
-        <v>2.7920539463169351E-4</v>
+        <v>0</v>
       </c>
       <c r="F38" s="74" t="b">
         <v>1</v>
@@ -3949,11 +3963,11 @@
       </c>
       <c r="I38" s="4">
         <f>_xll.qlRateHelperEarliestDate($B38,Trigger)</f>
-        <v>42998</v>
+        <v>42907</v>
       </c>
       <c r="J38" s="3">
         <f>_xll.qlRateHelperLatestDate($B38,Trigger)</f>
-        <v>43089</v>
+        <v>42999</v>
       </c>
       <c r="L38" s="73"/>
       <c r="M38" s="73"/>
@@ -3964,20 +3978,20 @@
         <v>1</v>
       </c>
       <c r="B39" s="149" t="str">
-        <f>Futures!H23</f>
-        <v>obj_0039e#0006</v>
+        <f>Futures!H22</f>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
-        <v>GBPFUT3MZ7_Quote</v>
+        <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.474999999999994</v>
+        <v>97.704999999999998</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
-        <v>3.2133859529653077E-4</v>
+        <v>0</v>
       </c>
       <c r="F39" s="74" t="b">
         <v>1</v>
@@ -3990,11 +4004,11 @@
       </c>
       <c r="I39" s="4">
         <f>_xll.qlRateHelperEarliestDate($B39,Trigger)</f>
-        <v>43089</v>
+        <v>42998</v>
       </c>
       <c r="J39" s="3">
         <f>_xll.qlRateHelperLatestDate($B39,Trigger)</f>
-        <v>43179</v>
+        <v>43089</v>
       </c>
       <c r="L39" s="73"/>
       <c r="M39" s="73"/>
@@ -4005,20 +4019,20 @@
         <v>1</v>
       </c>
       <c r="B40" s="149" t="str">
-        <f>Futures!H24</f>
-        <v>obj_0036d#0006</v>
+        <f>Futures!H23</f>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
-        <v>GBPFUT3MH8_Quote</v>
+        <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.414999999999992</v>
+        <v>97.625</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
-        <v>3.6758587335111937E-4</v>
+        <v>0</v>
       </c>
       <c r="F40" s="74" t="b">
         <v>1</v>
@@ -4031,11 +4045,11 @@
       </c>
       <c r="I40" s="4">
         <f>_xll.qlRateHelperEarliestDate($B40,Trigger)</f>
-        <v>43180</v>
+        <v>43089</v>
       </c>
       <c r="J40" s="3">
         <f>_xll.qlRateHelperLatestDate($B40,Trigger)</f>
-        <v>43272</v>
+        <v>43179</v>
       </c>
       <c r="L40" s="73"/>
       <c r="M40" s="73"/>
@@ -4046,20 +4060,20 @@
         <v>1</v>
       </c>
       <c r="B41" s="149" t="str">
-        <f>Futures!H25</f>
-        <v>obj_00372#0006</v>
+        <f>Futures!H24</f>
+        <v>obj_00370#0001</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
-        <v>GBPFUT3MM8_Quote</v>
+        <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.365000000000009</v>
+        <v>97.56</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
-        <v>4.1546506466755192E-4</v>
+        <v>0</v>
       </c>
       <c r="F41" s="74" t="b">
         <v>1</v>
@@ -4072,11 +4086,11 @@
       </c>
       <c r="I41" s="4">
         <f>_xll.qlRateHelperEarliestDate($B41,Trigger)</f>
-        <v>43271</v>
+        <v>43180</v>
       </c>
       <c r="J41" s="3">
         <f>_xll.qlRateHelperLatestDate($B41,Trigger)</f>
-        <v>43363</v>
+        <v>43272</v>
       </c>
       <c r="L41" s="73"/>
       <c r="M41" s="73"/>
@@ -4087,20 +4101,20 @@
         <v>1</v>
       </c>
       <c r="B42" s="149" t="str">
-        <f>Futures!H26</f>
-        <v>obj_00390#0006</v>
+        <f>Futures!H25</f>
+        <v>obj_00389#0001</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
-        <v>GBPFUT3MU8_Quote</v>
+        <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.324999999999989</v>
+        <v>97.5</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
-        <v>4.6528663456285401E-4</v>
+        <v>0</v>
       </c>
       <c r="F42" s="74" t="b">
         <v>1</v>
@@ -4113,11 +4127,11 @@
       </c>
       <c r="I42" s="4">
         <f>_xll.qlRateHelperEarliestDate($B42,Trigger)</f>
-        <v>43362</v>
+        <v>43271</v>
       </c>
       <c r="J42" s="3">
         <f>_xll.qlRateHelperLatestDate($B42,Trigger)</f>
-        <v>43453</v>
+        <v>43363</v>
       </c>
       <c r="L42" s="73"/>
       <c r="M42" s="73"/>
@@ -4128,20 +4142,20 @@
         <v>1</v>
       </c>
       <c r="B43" s="149" t="str">
-        <f>Futures!H27</f>
-        <v>obj_003a3#0006</v>
+        <f>Futures!H26</f>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
-        <v>GBPFUT3MZ8_Quote</v>
+        <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.275000000000006</v>
+        <v>97.435000000000002</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
-        <v>5.1752454253955809E-4</v>
+        <v>0</v>
       </c>
       <c r="F43" s="74" t="b">
         <v>1</v>
@@ -4154,11 +4168,11 @@
       </c>
       <c r="I43" s="4">
         <f>_xll.qlRateHelperEarliestDate($B43,Trigger)</f>
-        <v>43453</v>
+        <v>43362</v>
       </c>
       <c r="J43" s="3">
         <f>_xll.qlRateHelperLatestDate($B43,Trigger)</f>
-        <v>43543</v>
+        <v>43453</v>
       </c>
       <c r="L43" s="73"/>
       <c r="M43" s="73"/>
@@ -4169,20 +4183,20 @@
         <v>1</v>
       </c>
       <c r="B44" s="149" t="str">
-        <f>Futures!H28</f>
-        <v>obj_0036c#0006</v>
+        <f>Futures!H27</f>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
-        <v>GBPFUT3MH9_Quote</v>
+        <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.234999999999999</v>
+        <v>97.385000000000005</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
-        <v>5.7403347067243305E-4</v>
+        <v>0</v>
       </c>
       <c r="F44" s="74" t="b">
         <v>1</v>
@@ -4195,11 +4209,11 @@
       </c>
       <c r="I44" s="4">
         <f>_xll.qlRateHelperEarliestDate($B44,Trigger)</f>
-        <v>43544</v>
+        <v>43453</v>
       </c>
       <c r="J44" s="3">
         <f>_xll.qlRateHelperLatestDate($B44,Trigger)</f>
-        <v>43636</v>
+        <v>43543</v>
       </c>
       <c r="L44" s="73"/>
       <c r="M44" s="73"/>
@@ -4210,20 +4224,20 @@
         <v>1</v>
       </c>
       <c r="B45" s="149" t="str">
-        <f>Futures!H29</f>
-        <v>obj_00380#0006</v>
+        <f>Futures!H28</f>
+        <v>obj_00365#0001</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
-        <v>GBPFUT3MM9_Quote</v>
+        <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.210000000000008</v>
+        <v>97.335000000000008</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
-        <v>6.3164452373354351E-4</v>
+        <v>0</v>
       </c>
       <c r="F45" s="74" t="b">
         <v>1</v>
@@ -4236,11 +4250,11 @@
       </c>
       <c r="I45" s="4">
         <f>_xll.qlRateHelperEarliestDate($B45,Trigger)</f>
-        <v>43635</v>
+        <v>43544</v>
       </c>
       <c r="J45" s="3">
         <f>_xll.qlRateHelperLatestDate($B45,Trigger)</f>
-        <v>43727</v>
+        <v>43636</v>
       </c>
       <c r="L45" s="73"/>
       <c r="M45" s="73"/>
@@ -4251,20 +4265,20 @@
         <v>1</v>
       </c>
       <c r="B46" s="149" t="str">
-        <f>Futures!H30</f>
-        <v>obj_003aa#0006</v>
+        <f>Futures!H29</f>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
-        <v>GBPFUT3MU9_Quote</v>
+        <v>GBPFUT3MM9_Quote</v>
       </c>
       <c r="D46" s="16">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.17</v>
+        <v>97.210000000000008</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
-        <v>6.9086013546234236E-4</v>
+        <v>0</v>
       </c>
       <c r="F46" s="74" t="b">
         <v>1</v>
@@ -4277,73 +4291,76 @@
       </c>
       <c r="I46" s="4">
         <f>_xll.qlRateHelperEarliestDate($B46,Trigger)</f>
-        <v>43726</v>
+        <v>43635</v>
       </c>
       <c r="J46" s="3">
         <f>_xll.qlRateHelperLatestDate($B46,Trigger)</f>
-        <v>43817</v>
+        <v>43727</v>
       </c>
       <c r="L46" s="73"/>
       <c r="M46" s="73"/>
       <c r="N46" s="73"/>
     </row>
-    <row r="47" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B47" s="149" t="str">
-        <f>Futures!H31</f>
-        <v>obj_0039a#0006</v>
+        <f>Futures!H30</f>
+        <v>obj_00382#0001</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
-        <v>GBPFUT3MZ9_Quote</v>
+        <v>GBPFUT3MU9_Quote</v>
       </c>
       <c r="D47" s="16">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.134999999999991</v>
+        <v>97.17</v>
       </c>
       <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
-        <v>7.5298225712401427E-4</v>
+        <v>0</v>
       </c>
       <c r="F47" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="G47" s="74">
+      <c r="G47" s="5">
         <v>30</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="5">
         <v>1</v>
       </c>
       <c r="I47" s="4">
         <f>_xll.qlRateHelperEarliestDate($B47,Trigger)</f>
-        <v>43817</v>
+        <v>43726</v>
       </c>
       <c r="J47" s="3">
         <f>_xll.qlRateHelperLatestDate($B47,Trigger)</f>
-        <v>43908</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B48" s="149" t="str">
-        <f>Futures!H32</f>
-        <v>obj_0038c#0006</v>
+        <f>Futures!H31</f>
+        <v>obj_00381#0001</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
-        <v>GBPFUT3MH0_Quote</v>
+        <v>GBPFUT3MZ9_Quote</v>
       </c>
       <c r="D48" s="16">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.10499999999999</v>
+        <v>97.134999999999991</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
-        <v>8.1804915904803868E-4</v>
+        <v>0</v>
       </c>
       <c r="F48" s="74" t="b">
         <v>1</v>
@@ -4356,11 +4373,11 @@
       </c>
       <c r="I48" s="4">
         <f>_xll.qlRateHelperEarliestDate($B48,Trigger)</f>
-        <v>43908</v>
+        <v>43817</v>
       </c>
       <c r="J48" s="3">
         <f>_xll.qlRateHelperLatestDate($B48,Trigger)</f>
-        <v>44000</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4368,20 +4385,20 @@
         <v>1</v>
       </c>
       <c r="B49" s="149" t="str">
-        <f>Futures!H33</f>
-        <v>obj_0038a#0006</v>
+        <f>Futures!H32</f>
+        <v>obj_00380#0001</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
-        <v>GBPFUT3MM0_Quote</v>
-      </c>
-      <c r="D49" s="16" t="e">
+        <v>GBPFUT3MH0_Quote</v>
+      </c>
+      <c r="D49" s="16">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E49" s="6" t="e">
+        <v>97.10499999999999</v>
+      </c>
+      <c r="E49" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F49" s="74" t="b">
         <v>1</v>
@@ -4394,11 +4411,11 @@
       </c>
       <c r="I49" s="4">
         <f>_xll.qlRateHelperEarliestDate($B49,Trigger)</f>
-        <v>43999</v>
+        <v>43908</v>
       </c>
       <c r="J49" s="3">
         <f>_xll.qlRateHelperLatestDate($B49,Trigger)</f>
-        <v>44091</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4406,12 +4423,12 @@
         <v>1</v>
       </c>
       <c r="B50" s="149" t="str">
-        <f>Futures!H34</f>
-        <v>obj_00371#0006</v>
+        <f>Futures!H33</f>
+        <v>obj_00373#0001</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
-        <v>GBPFUT3MU0_Quote</v>
+        <v>GBPFUT3MM0_Quote</v>
       </c>
       <c r="D50" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
@@ -4432,11 +4449,11 @@
       </c>
       <c r="I50" s="4">
         <f>_xll.qlRateHelperEarliestDate($B50,Trigger)</f>
-        <v>44090</v>
+        <v>43999</v>
       </c>
       <c r="J50" s="3">
         <f>_xll.qlRateHelperLatestDate($B50,Trigger)</f>
-        <v>44181</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4444,12 +4461,12 @@
         <v>1</v>
       </c>
       <c r="B51" s="149" t="str">
-        <f>Futures!H35</f>
-        <v>obj_003a8#0006</v>
+        <f>Futures!H34</f>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
-        <v>GBPFUT3MZ0_Quote</v>
+        <v>GBPFUT3MU0_Quote</v>
       </c>
       <c r="D51" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
@@ -4470,11 +4487,11 @@
       </c>
       <c r="I51" s="4">
         <f>_xll.qlRateHelperEarliestDate($B51,Trigger)</f>
-        <v>44181</v>
+        <v>44090</v>
       </c>
       <c r="J51" s="3">
         <f>_xll.qlRateHelperLatestDate($B51,Trigger)</f>
-        <v>44271</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4482,12 +4499,12 @@
         <v>1</v>
       </c>
       <c r="B52" s="149" t="str">
-        <f>Futures!H36</f>
-        <v>obj_003a2#0006</v>
+        <f>Futures!H35</f>
+        <v>obj_00390#0001</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
-        <v>GBPFUT3MH1_Quote</v>
+        <v>GBPFUT3MZ0_Quote</v>
       </c>
       <c r="D52" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
@@ -4508,11 +4525,11 @@
       </c>
       <c r="I52" s="4">
         <f>_xll.qlRateHelperEarliestDate($B52,Trigger)</f>
-        <v>44272</v>
+        <v>44181</v>
       </c>
       <c r="J52" s="3">
         <f>_xll.qlRateHelperLatestDate($B52,Trigger)</f>
-        <v>44364</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4520,12 +4537,12 @@
         <v>1</v>
       </c>
       <c r="B53" s="149" t="str">
-        <f>Futures!H37</f>
-        <v>obj_0037c#0006</v>
+        <f>Futures!H36</f>
+        <v>obj_00399#0001</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
-        <v>GBPFUT3MM1_Quote</v>
+        <v>GBPFUT3MH1_Quote</v>
       </c>
       <c r="D53" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
@@ -4546,11 +4563,11 @@
       </c>
       <c r="I53" s="4">
         <f>_xll.qlRateHelperEarliestDate($B53,Trigger)</f>
-        <v>44363</v>
+        <v>44272</v>
       </c>
       <c r="J53" s="3">
         <f>_xll.qlRateHelperLatestDate($B53,Trigger)</f>
-        <v>44455</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4558,12 +4575,12 @@
         <v>1</v>
       </c>
       <c r="B54" s="149" t="str">
-        <f>Futures!H38</f>
-        <v>obj_003a1#0006</v>
+        <f>Futures!H37</f>
+        <v>obj_00392#0001</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
-        <v>GBPFUT3MU1_Quote</v>
+        <v>GBPFUT3MM1_Quote</v>
       </c>
       <c r="D54" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
@@ -4584,11 +4601,11 @@
       </c>
       <c r="I54" s="4">
         <f>_xll.qlRateHelperEarliestDate($B54,Trigger)</f>
-        <v>44454</v>
+        <v>44363</v>
       </c>
       <c r="J54" s="3">
         <f>_xll.qlRateHelperLatestDate($B54,Trigger)</f>
-        <v>44545</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4596,12 +4613,12 @@
         <v>1</v>
       </c>
       <c r="B55" s="149" t="str">
-        <f>Futures!H39</f>
-        <v>obj_0038e#0006</v>
+        <f>Futures!H38</f>
+        <v>obj_00394#0001</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
-        <v>GBPFUT3MZ1_Quote</v>
+        <v>GBPFUT3MU1_Quote</v>
       </c>
       <c r="D55" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
@@ -4622,11 +4639,11 @@
       </c>
       <c r="I55" s="4">
         <f>_xll.qlRateHelperEarliestDate($B55,Trigger)</f>
-        <v>44545</v>
+        <v>44454</v>
       </c>
       <c r="J55" s="3">
         <f>_xll.qlRateHelperLatestDate($B55,Trigger)</f>
-        <v>44635</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4634,12 +4651,12 @@
         <v>1</v>
       </c>
       <c r="B56" s="149" t="str">
-        <f>Futures!H40</f>
-        <v>obj_00397#0006</v>
+        <f>Futures!H39</f>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
-        <v>GBPFUT3MH2_Quote</v>
+        <v>GBPFUT3MZ1_Quote</v>
       </c>
       <c r="D56" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
@@ -4660,11 +4677,11 @@
       </c>
       <c r="I56" s="4">
         <f>_xll.qlRateHelperEarliestDate($B56,Trigger)</f>
-        <v>44636</v>
+        <v>44545</v>
       </c>
       <c r="J56" s="3">
         <f>_xll.qlRateHelperLatestDate($B56,Trigger)</f>
-        <v>44728</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4672,12 +4689,12 @@
         <v>1</v>
       </c>
       <c r="B57" s="149" t="str">
-        <f>Futures!H41</f>
-        <v>obj_00364#0006</v>
+        <f>Futures!H40</f>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
-        <v>GBPFUT3MM2_Quote</v>
+        <v>GBPFUT3MH2_Quote</v>
       </c>
       <c r="D57" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
@@ -4698,11 +4715,11 @@
       </c>
       <c r="I57" s="4">
         <f>_xll.qlRateHelperEarliestDate($B57,Trigger)</f>
-        <v>44727</v>
+        <v>44636</v>
       </c>
       <c r="J57" s="3">
         <f>_xll.qlRateHelperLatestDate($B57,Trigger)</f>
-        <v>44819</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4710,12 +4727,12 @@
         <v>1</v>
       </c>
       <c r="B58" s="149" t="str">
-        <f>Futures!H42</f>
-        <v>obj_00378#0006</v>
+        <f>Futures!H41</f>
+        <v>obj_00364#0001</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
-        <v>GBPFUT3MU2_Quote</v>
+        <v>GBPFUT3MM2_Quote</v>
       </c>
       <c r="D58" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
@@ -4736,11 +4753,11 @@
       </c>
       <c r="I58" s="4">
         <f>_xll.qlRateHelperEarliestDate($B58,Trigger)</f>
-        <v>44825</v>
+        <v>44727</v>
       </c>
       <c r="J58" s="3">
         <f>_xll.qlRateHelperLatestDate($B58,Trigger)</f>
-        <v>44916</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4748,12 +4765,12 @@
         <v>1</v>
       </c>
       <c r="B59" s="149" t="str">
-        <f>Futures!H43</f>
-        <v>obj_0038d#0006</v>
+        <f>Futures!H42</f>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
-        <v>GBPFUT3MZ2_Quote</v>
+        <v>GBPFUT3MU2_Quote</v>
       </c>
       <c r="D59" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
@@ -4774,24 +4791,24 @@
       </c>
       <c r="I59" s="4">
         <f>_xll.qlRateHelperEarliestDate($B59,Trigger)</f>
-        <v>44916</v>
+        <v>44825</v>
       </c>
       <c r="J59" s="3">
         <f>_xll.qlRateHelperLatestDate($B59,Trigger)</f>
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="149" t="str">
-        <f>Futures!H44</f>
-        <v>obj_00398#0006</v>
+        <f>Futures!H43</f>
+        <v>obj_00387#0001</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
-        <v>GBPFUT3MH3_Quote</v>
+        <v>GBPFUT3MZ2_Quote</v>
       </c>
       <c r="D60" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
@@ -4812,98 +4829,101 @@
       </c>
       <c r="I60" s="4">
         <f>_xll.qlRateHelperEarliestDate($B60,Trigger)</f>
-        <v>45000</v>
+        <v>44916</v>
       </c>
       <c r="J60" s="3">
         <f>_xll.qlRateHelperLatestDate($B60,Trigger)</f>
-        <v>45092</v>
-      </c>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
+        <v>45006</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="150" t="str">
-        <f>Swaps!K6</f>
-        <v>obj_003ab#0006</v>
-      </c>
-      <c r="C61" s="14" t="str">
+      <c r="A61" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" s="149" t="str">
+        <f>Futures!H44</f>
+        <v>obj_00375#0001</v>
+      </c>
+      <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
-        <v>GBPSB6L1Y_Quote</v>
-      </c>
-      <c r="D61" s="13" t="e">
+        <v>GBPFUT3MH3_Quote</v>
+      </c>
+      <c r="D61" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E61" s="13">
-        <f>_xll.qlSwapRateHelperSpread($B61,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12">
-        <v>50</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="E61" s="6" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment($B61,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="74">
+        <v>30</v>
+      </c>
+      <c r="H61" s="74">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
         <f>_xll.qlRateHelperEarliestDate($B61,Trigger)</f>
-        <v>41907</v>
-      </c>
-      <c r="J61" s="10">
+        <v>45000</v>
+      </c>
+      <c r="J61" s="3">
         <f>_xll.qlRateHelperLatestDate($B61,Trigger)</f>
-        <v>42272</v>
-      </c>
+        <v>45092</v>
+      </c>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="149" t="str">
-        <f>Swaps!K7</f>
-        <v>obj_003af#0006</v>
-      </c>
-      <c r="C62" s="7" t="str">
+      <c r="B62" s="150" t="str">
+        <f>Swaps!K6</f>
+        <v>obj_00385#0001</v>
+      </c>
+      <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
-        <v>GBPSB6L15M_Quote</v>
-      </c>
-      <c r="D62" s="6" t="e">
+        <v>GBPSB6L1Y_Quote</v>
+      </c>
+      <c r="D62" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($B62,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="13">
         <f>_xll.qlSwapRateHelperSpread($B62,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F62" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
         <v>50</v>
       </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4">
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41907</v>
-      </c>
-      <c r="J62" s="3">
+        <v>41914</v>
+      </c>
+      <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42367</v>
+        <v>42279</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
-        <f>Swaps!K8</f>
-        <v>obj_00384#0006</v>
+        <f>Swaps!K7</f>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
-        <v>GBPSB6L18M_Quote</v>
-      </c>
-      <c r="D63" s="6">
+        <v>GBPSB6L15M_Quote</v>
+      </c>
+      <c r="D63" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B63,Trigger)</f>
-        <v>1.073E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E63" s="6">
         <f>_xll.qlSwapRateHelperSpread($B63,Trigger)</f>
@@ -4920,25 +4940,25 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42458</v>
+        <v>42373</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
-        <f>Swaps!K9</f>
-        <v>obj_00382#0006</v>
+        <f>Swaps!K8</f>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
-        <v>GBPSB6L21M_Quote</v>
-      </c>
-      <c r="D64" s="6" t="e">
+        <v>GBPSB6L18M_Quote</v>
+      </c>
+      <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -4955,25 +4975,25 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42548</v>
+        <v>42464</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
-        <f>Swaps!K10</f>
-        <v>obj_00369#0006</v>
+        <f>Swaps!K9</f>
+        <v>obj_00368#0001</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
-        <v>GBPSB6L2Y_Quote</v>
-      </c>
-      <c r="D65" s="6">
+        <v>GBPSB6L21M_Quote</v>
+      </c>
+      <c r="D65" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B65,Trigger)</f>
-        <v>1.2619999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E65" s="6">
         <f>_xll.qlSwapRateHelperSpread($B65,Trigger)</f>
@@ -4990,32 +5010,32 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42639</v>
+        <v>42555</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
-        <f>Swaps!K11</f>
-        <v>obj_0036f#0006</v>
+        <f>Swaps!K10</f>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
-        <v>GBPSB6L3Y_Quote</v>
+        <v>GBPSB6L2Y_Quote</v>
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.5990000000000001E-2</v>
+        <v>1.1939999999999999E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F66" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5">
         <v>50</v>
@@ -5025,25 +5045,25 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>43003</v>
+        <v>42646</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
-        <f>Swaps!K12</f>
-        <v>obj_0039d#0006</v>
+        <f>Swaps!K11</f>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
-        <v>GBPSB6L4Y_Quote</v>
+        <v>GBPSB6L3Y_Quote</v>
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.8429999999999998E-2</v>
+        <v>1.498E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5060,25 +5080,25 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43368</v>
+        <v>43010</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
-        <f>Swaps!K13</f>
-        <v>obj_003a4#0006</v>
+        <f>Swaps!K12</f>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
-        <v>GBPSB6L5Y_Quote</v>
+        <v>GBPSB6L4Y_Quote</v>
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>2.0209999999999999E-2</v>
+        <v>1.7319999999999999E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5095,25 +5115,25 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43733</v>
+        <v>43375</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
-        <f>Swaps!K14</f>
-        <v>obj_003a0#0006</v>
+        <f>Swaps!K13</f>
+        <v>obj_00388#0001</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
-        <v>GBPSB6L6Y_Quote</v>
+        <v>GBPSB6L5Y_Quote</v>
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>2.1610000000000001E-2</v>
+        <v>1.9100000000000002E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5130,25 +5150,25 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>44099</v>
+        <v>43740</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
-        <f>Swaps!K15</f>
-        <v>obj_00399#0006</v>
+        <f>Swaps!K14</f>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
-        <v>GBPSB6L7Y_Quote</v>
+        <v>GBPSB6L6Y_Quote</v>
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>2.2749999999999999E-2</v>
+        <v>2.052E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5165,26 +5185,25 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44466</v>
-      </c>
-      <c r="L70" s="9"/>
+        <v>44106</v>
+      </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
-        <f>Swaps!K16</f>
-        <v>obj_003a9#0006</v>
+        <f>Swaps!K15</f>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
-        <v>GBPSB6L8Y_Quote</v>
+        <v>GBPSB6L7Y_Quote</v>
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.1680000000000001E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5201,26 +5220,26 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44830</v>
+        <v>44473</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
-        <f>Swaps!K17</f>
-        <v>obj_003ad#0006</v>
+        <f>Swaps!K16</f>
+        <v>obj_00395#0001</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
-        <v>GBPSB6L9Y_Quote</v>
+        <v>GBPSB6L8Y_Quote</v>
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.4510000000000001E-2</v>
+        <v>2.2669999999999999E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5237,26 +5256,26 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>45194</v>
+        <v>44837</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
-        <f>Swaps!K18</f>
-        <v>obj_0039f#0006</v>
+        <f>Swaps!K17</f>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
-        <v>GBPSB6L10Y_Quote</v>
+        <v>GBPSB6L9Y_Quote</v>
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.52E-2</v>
+        <v>2.3529999999999999E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5273,33 +5292,33 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45560</v>
+        <v>45201</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
-        <f>Swaps!K19</f>
-        <v>obj_00379#0006</v>
+        <f>Swaps!K18</f>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
-        <v>GBPSB6L11Y_Quote</v>
+        <v>GBPSB6L10Y_Quote</v>
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.5819999999999999E-2</v>
+        <v>2.426E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F74" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="5">
         <v>50</v>
@@ -5309,33 +5328,33 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45925</v>
+        <v>45567</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
-        <f>Swaps!K20</f>
-        <v>obj_0039b#0006</v>
+        <f>Swaps!K19</f>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
-        <v>GBPSB6L12Y_Quote</v>
+        <v>GBPSB6L11Y_Quote</v>
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.6360000000000001E-2</v>
+        <v>2.4909999999999998E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F75" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="5">
         <v>50</v>
@@ -5345,33 +5364,33 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>46290</v>
+        <v>45932</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
-        <f>Swaps!K21</f>
-        <v>obj_003b2#0006</v>
+        <f>Swaps!K20</f>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
-        <v>GBPSB6L13Y_Quote</v>
-      </c>
-      <c r="D76" s="6" t="e">
+        <v>GBPSB6L12Y_Quote</v>
+      </c>
+      <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.5460000000000003E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F76" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="5">
         <v>50</v>
@@ -5381,22 +5400,22 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46657</v>
+        <v>46297</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
-        <f>Swaps!K22</f>
-        <v>obj_00374#0006</v>
+        <f>Swaps!K21</f>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
-        <v>GBPSB6L14Y_Quote</v>
+        <v>GBPSB6L13Y_Quote</v>
       </c>
       <c r="D77" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B77,Trigger)</f>
@@ -5417,33 +5436,33 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>47021</v>
+        <v>46664</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
-        <f>Swaps!K23</f>
-        <v>obj_00375#0006</v>
+        <f>Swaps!K22</f>
+        <v>obj_00366#0001</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
-        <v>GBPSB6L15Y_Quote</v>
-      </c>
-      <c r="D78" s="6">
+        <v>GBPSB6L14Y_Quote</v>
+      </c>
+      <c r="D78" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B78,Trigger)</f>
-        <v>2.7549999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E78" s="6">
         <f>_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F78" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="5">
         <v>50</v>
@@ -5453,33 +5472,33 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47386</v>
+        <v>47028</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
-        <f>Swaps!K24</f>
-        <v>obj_00381#0006</v>
+        <f>Swaps!K23</f>
+        <v>obj_00379#0001</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
-        <v>GBPSB6L16Y_Quote</v>
-      </c>
-      <c r="D79" s="6" t="e">
+        <v>GBPSB6L15Y_Quote</v>
+      </c>
+      <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.674E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="5">
         <v>50</v>
@@ -5489,22 +5508,22 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47751</v>
+        <v>47393</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
-        <f>Swaps!K25</f>
-        <v>obj_00396#0006</v>
+        <f>Swaps!K24</f>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
-        <v>GBPSB6L17Y_Quote</v>
+        <v>GBPSB6L16Y_Quote</v>
       </c>
       <c r="D80" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B80,Trigger)</f>
@@ -5525,22 +5544,22 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>48116</v>
+        <v>47758</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
-        <f>Swaps!K26</f>
-        <v>obj_00367#0006</v>
+        <f>Swaps!K25</f>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
-        <v>GBPSB6L18Y_Quote</v>
+        <v>GBPSB6L17Y_Quote</v>
       </c>
       <c r="D81" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B81,Trigger)</f>
@@ -5561,22 +5580,22 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48484</v>
+        <v>48123</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
-        <f>Swaps!K27</f>
-        <v>obj_00388#0006</v>
+        <f>Swaps!K26</f>
+        <v>obj_00396#0001</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
-        <v>GBPSB6L19Y_Quote</v>
+        <v>GBPSB6L18Y_Quote</v>
       </c>
       <c r="D82" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B82,Trigger)</f>
@@ -5597,33 +5616,33 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48848</v>
+        <v>48491</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
-        <f>Swaps!K28</f>
-        <v>obj_0038f#0006</v>
+        <f>Swaps!K27</f>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
-        <v>GBPSB6L20Y_Quote</v>
-      </c>
-      <c r="D83" s="6">
+        <v>GBPSB6L19Y_Quote</v>
+      </c>
+      <c r="D83" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B83,Trigger)</f>
-        <v>2.8570000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E83" s="6">
         <f>_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="5">
         <v>50</v>
@@ -5633,33 +5652,33 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>49212</v>
+        <v>48855</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
-        <f>Swaps!K29</f>
-        <v>obj_00365#0006</v>
+        <f>Swaps!K28</f>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
-        <v>GBPSB6L21Y_Quote</v>
-      </c>
-      <c r="D84" s="6" t="e">
+        <v>GBPSB6L20Y_Quote</v>
+      </c>
+      <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="5">
         <v>50</v>
@@ -5669,22 +5688,22 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49577</v>
+        <v>49219</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
-        <f>Swaps!K30</f>
-        <v>obj_003a7#0006</v>
+        <f>Swaps!K29</f>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
-        <v>GBPSB6L22Y_Quote</v>
+        <v>GBPSB6L21Y_Quote</v>
       </c>
       <c r="D85" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B85,Trigger)</f>
@@ -5705,22 +5724,22 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49943</v>
+        <v>49584</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
-        <f>Swaps!K31</f>
-        <v>obj_00385#0006</v>
+        <f>Swaps!K30</f>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
-        <v>GBPSB6L23Y_Quote</v>
+        <v>GBPSB6L22Y_Quote</v>
       </c>
       <c r="D86" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B86,Trigger)</f>
@@ -5741,22 +5760,22 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>50308</v>
+        <v>49950</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
-        <f>Swaps!K32</f>
-        <v>obj_0038b#0006</v>
+        <f>Swaps!K31</f>
+        <v>obj_00397#0001</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
-        <v>GBPSB6L24Y_Quote</v>
+        <v>GBPSB6L23Y_Quote</v>
       </c>
       <c r="D87" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B87,Trigger)</f>
@@ -5777,33 +5796,33 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50675</v>
+        <v>50315</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
-        <f>Swaps!K33</f>
-        <v>obj_003a5#0006</v>
+        <f>Swaps!K32</f>
+        <v>obj_00393#0001</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
-        <v>GBPSB6L25Y_Quote</v>
-      </c>
-      <c r="D88" s="6">
+        <v>GBPSB6L24Y_Quote</v>
+      </c>
+      <c r="D88" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B88,Trigger)</f>
-        <v>2.8830000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E88" s="6">
         <f>_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="5">
         <v>50</v>
@@ -5813,33 +5832,33 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>51039</v>
+        <v>50682</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
-        <f>Swaps!K34</f>
-        <v>obj_0036a#0006</v>
+        <f>Swaps!K33</f>
+        <v>obj_003af#0001</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
-        <v>GBPSB6L26Y_Quote</v>
-      </c>
-      <c r="D89" s="6" t="e">
+        <v>GBPSB6L25Y_Quote</v>
+      </c>
+      <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8289999999999996E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="5">
         <v>50</v>
@@ -5849,22 +5868,22 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>51404</v>
+        <v>51046</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
-        <f>Swaps!K35</f>
-        <v>obj_0037e#0006</v>
+        <f>Swaps!K34</f>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
-        <v>GBPSB6L27Y_Quote</v>
+        <v>GBPSB6L26Y_Quote</v>
       </c>
       <c r="D90" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B90,Trigger)</f>
@@ -5885,22 +5904,22 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51769</v>
+        <v>51411</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
-        <f>Swaps!K36</f>
-        <v>obj_003b1#0006</v>
+        <f>Swaps!K35</f>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
-        <v>GBPSB6L28Y_Quote</v>
+        <v>GBPSB6L27Y_Quote</v>
       </c>
       <c r="D91" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B91,Trigger)</f>
@@ -5921,22 +5940,22 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>52134</v>
+        <v>51776</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
-        <f>Swaps!K37</f>
-        <v>obj_00392#0006</v>
+        <f>Swaps!K36</f>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
-        <v>GBPSB6L29Y_Quote</v>
+        <v>GBPSB6L28Y_Quote</v>
       </c>
       <c r="D92" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B92,Trigger)</f>
@@ -5957,33 +5976,33 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52499</v>
+        <v>52141</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
-        <f>Swaps!K38</f>
-        <v>obj_00395#0006</v>
+        <f>Swaps!K37</f>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
-        <v>GBPSB6L30Y_Quote</v>
-      </c>
-      <c r="D93" s="6">
+        <v>GBPSB6L29Y_Quote</v>
+      </c>
+      <c r="D93" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B93,Trigger)</f>
-        <v>2.8890000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E93" s="6">
         <f>_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F93" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="5">
         <v>50</v>
@@ -5993,33 +6012,33 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52866</v>
+        <v>52506</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
-        <f>Swaps!K39</f>
-        <v>obj_003b0#0006</v>
+        <f>Swaps!K38</f>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
-        <v>GBPSB6L35Y_Quote</v>
-      </c>
-      <c r="D94" s="6" t="e">
+        <v>GBPSB6L30Y_Quote</v>
+      </c>
+      <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8459999999999999E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F94" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="5">
         <v>50</v>
@@ -6029,33 +6048,33 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>54693</v>
+        <v>52873</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
-        <f>Swaps!K40</f>
-        <v>obj_00373#0006</v>
+        <f>Swaps!K39</f>
+        <v>obj_00377#0001</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
-        <v>GBPSB6L40Y_Quote</v>
-      </c>
-      <c r="D95" s="6">
+        <v>GBPSB6L35Y_Quote</v>
+      </c>
+      <c r="D95" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B95,Trigger)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E95" s="6">
         <f>_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F95" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="5">
         <v>50</v>
@@ -6065,26 +6084,26 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>56517</v>
+        <v>54700</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
-        <f>Swaps!K41</f>
-        <v>obj_00386#0006</v>
+        <f>Swaps!K40</f>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
-        <v>GBPSB6L50Y_Quote</v>
+        <v>GBPSB6L40Y_Quote</v>
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>2.8340000000000001E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6101,60 +6120,96 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>60170</v>
+        <v>56524</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="151" t="str">
-        <f>Swaps!K42</f>
-        <v>obj_003a6#0006</v>
+      <c r="B97" s="149" t="str">
+        <f>Swaps!K41</f>
+        <v>obj_00384#0001</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
-        <v>GBPSB6L60Y_Quote</v>
+        <v>GBPSB6L50Y_Quote</v>
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.886E-2</v>
+        <v>2.836E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="F97" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" s="74">
+      <c r="F97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5">
         <v>50</v>
       </c>
-      <c r="H97" s="74">
+      <c r="H97" s="5">
         <v>1</v>
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>63822</v>
+        <v>60177</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="148"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="148"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="148"/>
-      <c r="J98" s="148"/>
+      <c r="B98" s="151" t="str">
+        <f>Swaps!K42</f>
+        <v>obj_003b2#0001</v>
+      </c>
+      <c r="C98" s="7" t="str">
+        <f>_xll.qlRateHelperQuoteName(B98)</f>
+        <v>GBPSB6L60Y_Quote</v>
+      </c>
+      <c r="D98" s="6">
+        <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
+        <v>2.8490000000000001E-2</v>
+      </c>
+      <c r="E98" s="6">
+        <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="74">
+        <v>50</v>
+      </c>
+      <c r="H98" s="74">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4">
+        <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
+        <v>41914</v>
+      </c>
+      <c r="J98" s="3">
+        <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
+        <v>63829</v>
+      </c>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="148"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="148"/>
+      <c r="H99" s="148"/>
+      <c r="I99" s="148"/>
+      <c r="J99" s="148"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6169,8 +6224,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6190,10 +6245,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="190"/>
       <c r="D1" s="145" t="s">
         <v>59</v>
       </c>
@@ -6212,7 +6267,7 @@
       </c>
       <c r="J1" s="24">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.7687688475639796E-3</v>
+        <v>4.7562690106835309E-3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6224,7 +6279,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00357</v>
+        <v>obj_00355</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6232,7 +6287,7 @@
       </c>
       <c r="F2" s="24">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.7688000000000001E-3</v>
+        <v>4.7562999999999998E-3</v>
       </c>
       <c r="G2" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6240,19 +6295,19 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="J2" s="24">
-        <v>4.7687688475639796E-3</v>
+        <v>4.7562690106835309E-3</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
       <c r="O2" s="73"/>
-      <c r="P2" s="190"/>
+      <c r="P2" s="184"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
@@ -6262,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_0035b</v>
+        <v>obj_0035f</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6270,7 +6325,7 @@
       </c>
       <c r="F3" s="24">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8138E-3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6278,19 +6333,19 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41911</v>
+        <v>41918</v>
       </c>
       <c r="J3" s="24">
-        <v>4.8024707911612213E-3</v>
+        <v>1.1890672526646562E-3</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
-      <c r="P3" s="190"/>
+      <c r="P3" s="184"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -6300,7 +6355,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_00348</v>
+        <v>obj_00353</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6308,7 +6363,7 @@
       </c>
       <c r="F4" s="24">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8138E-3</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="G4" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6316,19 +6371,19 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J4" s="24">
-        <v>4.8135778099353743E-3</v>
+        <v>4.818577348197536E-3</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
-      <c r="P4" s="190"/>
+      <c r="P4" s="184"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -6338,7 +6393,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_0035f</v>
+        <v>obj_0035c</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6346,7 +6401,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.8915913000000004E-3</v>
+        <v>4.8990250000000004E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6354,19 +6409,19 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41921</v>
+        <v>41928</v>
       </c>
       <c r="J5" s="24">
-        <v>4.891132470681246E-3</v>
+        <v>4.8985647751281641E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
       <c r="O5" s="73"/>
-      <c r="P5" s="190"/>
+      <c r="P5" s="184"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
@@ -6377,7 +6432,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_00355</v>
+        <v>obj_00350</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6385,7 +6440,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0693999999999991E-3</v>
+        <v>5.0319000000000006E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6393,31 +6448,31 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41939</v>
+        <v>41946</v>
       </c>
       <c r="J6" s="24">
-        <v>5.0682738102130658E-3</v>
+        <v>5.0307904077403929E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="190"/>
+      <c r="P6" s="184"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0007</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0009</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="25" t="str">
-        <v>obj_00351</v>
+        <v>obj_00349</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6425,7 +6480,7 @@
       </c>
       <c r="F7" s="24">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.3274999999999998E-3</v>
+        <v>5.3337999999999997E-3</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6433,23 +6488,23 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="J7" s="24">
-        <v>5.3251297388142733E-3</v>
+        <v>5.3314241312932154E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
-      <c r="P7" s="190"/>
+      <c r="P7" s="184"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_00353</v>
+        <v>obj_0034c</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6457,7 +6512,7 @@
       </c>
       <c r="F8" s="24">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.6413000000000001E-3</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="G8" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6465,23 +6520,23 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42002</v>
+        <v>42006</v>
       </c>
       <c r="J8" s="24">
-        <v>5.6371625352661147E-3</v>
+        <v>5.6235126391805234E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
-      <c r="P8" s="190"/>
+      <c r="P8" s="184"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_0035e</v>
+        <v>obj_00359</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6489,7 +6544,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1509945099999996E-3</v>
+        <v>6.1506824200000003E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6497,23 +6552,23 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42030</v>
+        <v>42037</v>
       </c>
       <c r="J9" s="24">
-        <v>6.1446284121358715E-3</v>
+        <v>6.1443169676823096E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
       <c r="O9" s="73"/>
-      <c r="P9" s="190"/>
+      <c r="P9" s="184"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_00362</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6521,7 +6576,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.6278054900000003E-3</v>
+        <v>6.6091439600000001E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6529,23 +6584,23 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42060</v>
+        <v>42065</v>
       </c>
       <c r="J10" s="24">
-        <v>6.6186157202768733E-3</v>
+        <v>6.6001250556532677E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
       <c r="O10" s="73"/>
-      <c r="P10" s="190"/>
+      <c r="P10" s="184"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_0034f</v>
+        <v>obj_00354</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6553,7 +6608,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.1374999999999997E-3</v>
+        <v>7.0955999999999997E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6561,19 +6616,19 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42088</v>
+        <v>42096</v>
       </c>
       <c r="J11" s="24">
-        <v>7.1248984287600424E-3</v>
+        <v>7.0830771290297141E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
       <c r="O11" s="73"/>
-      <c r="P11" s="190"/>
+      <c r="P11" s="184"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
@@ -6585,7 +6640,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.7157786900000002E-3</v>
+        <v>7.6839247300000005E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6593,23 +6648,23 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42121</v>
+        <v>42129</v>
       </c>
       <c r="J12" s="24">
-        <v>7.6983789349629253E-3</v>
+        <v>7.6665877353741425E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
       <c r="O12" s="73"/>
-      <c r="P12" s="190"/>
+      <c r="P12" s="184"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6617,7 +6672,7 @@
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.294057379999999E-3</v>
+        <v>8.3107252699999995E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6625,31 +6680,31 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="J13" s="24">
-        <v>8.2712422773627142E-3</v>
+        <v>8.2878185446012432E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
       <c r="O13" s="73"/>
-      <c r="P13" s="190"/>
+      <c r="P13" s="184"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14" s="25" t="str">
-        <v>obj_00359</v>
+        <v>obj_0063f</v>
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>GBP9MD_Mx_Quote</v>
+        <v>stub</v>
       </c>
       <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.89161202E-3</v>
+        <v>8.5816708799999995E-3</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6657,23 +6712,23 @@
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42180</v>
+        <v>42173</v>
       </c>
       <c r="J14" s="24">
-        <v>8.8621758969245987E-3</v>
+        <v>8.5556476025862149E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
-      <c r="P14" s="190"/>
+      <c r="P14" s="184"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_00393</v>
+        <v>obj_00398</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6681,11 +6736,11 @@
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0324532460181812E-2</v>
+        <v>9.6080000000000609E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>2.5467539818158627E-5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="23">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
@@ -6696,16 +6751,16 @@
         <v>42264</v>
       </c>
       <c r="J15" s="24">
-        <v>9.1186008426915217E-3</v>
+        <v>8.8168735148233691E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
-      <c r="P15" s="190"/>
+      <c r="P15" s="184"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_0037f</v>
+        <v>obj_003ab</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6713,11 +6768,11 @@
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.2309276977999589E-2</v>
+        <v>1.1383000000000143E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>4.0723022000383242E-5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="23">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
@@ -6728,16 +6783,16 @@
         <v>42354</v>
       </c>
       <c r="J16" s="24">
-        <v>9.7618882806031204E-3</v>
-      </c>
-      <c r="M16" s="189"/>
+        <v>9.3419839453719421E-3</v>
+      </c>
+      <c r="M16" s="183"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
-      <c r="P16" s="190"/>
+      <c r="P16" s="184"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_00370</v>
+        <v>obj_0039c</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6745,11 +6800,11 @@
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.4490617988460687E-2</v>
+        <v>1.3252000000000042E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>5.9382011539265042E-5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="23">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
@@ -6760,16 +6815,16 @@
         <v>42445</v>
       </c>
       <c r="J17" s="24">
-        <v>1.0557312386336169E-2</v>
+        <v>1.0008318568330898E-2</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
-      <c r="P17" s="190"/>
+      <c r="P17" s="184"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_00368</v>
+        <v>obj_0039b</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6777,11 +6832,11 @@
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.6368520096094675E-2</v>
+        <v>1.5015999999999918E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>8.1479903905399813E-5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="23">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
@@ -6792,16 +6847,16 @@
         <v>42537</v>
       </c>
       <c r="J18" s="24">
-        <v>1.1401015760112768E-2</v>
-      </c>
-      <c r="M18" s="189"/>
+        <v>1.0743629859086879E-2</v>
+      </c>
+      <c r="M18" s="183"/>
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
-      <c r="P18" s="190"/>
+      <c r="P18" s="184"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_0037a</v>
+        <v>obj_00367</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6809,11 +6864,11 @@
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.8143464259517357E-2</v>
+        <v>1.6673999999999967E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>1.065357404825213E-4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="23">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
@@ -6824,16 +6879,16 @@
         <v>42628</v>
       </c>
       <c r="J19" s="24">
-        <v>1.2248077826110296E-2</v>
-      </c>
-      <c r="M19" s="189"/>
+        <v>1.1496302376875224E-2</v>
+      </c>
+      <c r="M19" s="183"/>
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
-      <c r="P19" s="190"/>
+      <c r="P19" s="184"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_0037b</v>
+        <v>obj_00371</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6841,11 +6896,11 @@
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.9913344945091085E-2</v>
+        <v>1.8225000000000047E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>1.3665505490881717E-4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="23">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
@@ -6856,16 +6911,16 @@
         <v>42725</v>
       </c>
       <c r="J20" s="24">
-        <v>1.314462131061391E-2</v>
-      </c>
-      <c r="M20" s="189"/>
+        <v>1.2290279735064618E-2</v>
+      </c>
+      <c r="M20" s="183"/>
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
-      <c r="P20" s="190"/>
+      <c r="P20" s="184"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_0036f</v>
+        <v>obj_0037e</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6873,7 +6928,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.5990000000000001E-2</v>
+        <v>1.498E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6881,23 +6936,23 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43003</v>
+        <v>43010</v>
       </c>
       <c r="J21" s="24">
-        <v>1.6009953980344015E-2</v>
-      </c>
-      <c r="M21" s="189"/>
+        <v>1.499498892112017E-2</v>
+      </c>
+      <c r="M21" s="183"/>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
-      <c r="P21" s="190"/>
+      <c r="P21" s="184"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_0039d</v>
+        <v>obj_0038b</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -6905,7 +6960,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.8429999999999998E-2</v>
+        <v>1.7319999999999999E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6913,23 +6968,23 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43368</v>
+        <v>43375</v>
       </c>
       <c r="J22" s="24">
-        <v>1.8488106616672269E-2</v>
+        <v>1.7370105619366485E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
-      <c r="P22" s="190"/>
+      <c r="P22" s="184"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_003a4</v>
+        <v>obj_00388</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -6937,7 +6992,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.0209999999999999E-2</v>
+        <v>1.9100000000000002E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -6945,23 +7000,23 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43733</v>
+        <v>43740</v>
       </c>
       <c r="J23" s="24">
-        <v>2.0308834008443223E-2</v>
-      </c>
-      <c r="M23" s="189"/>
+        <v>1.9190354094061918E-2</v>
+      </c>
+      <c r="M23" s="183"/>
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
-      <c r="P23" s="190"/>
+      <c r="P23" s="184"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_003a0</v>
+        <v>obj_00376</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -6969,7 +7024,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.1610000000000001E-2</v>
+        <v>2.052E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -6977,23 +7032,23 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="J24" s="24">
-        <v>2.1752155175066092E-2</v>
+        <v>2.0654023178621514E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
-      <c r="P24" s="190"/>
+      <c r="P24" s="184"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_00399</v>
+        <v>obj_0037c</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7001,7 +7056,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.2749999999999999E-2</v>
+        <v>2.1680000000000001E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7009,23 +7064,23 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="J25" s="24">
-        <v>2.2937128972814427E-2</v>
+        <v>2.1859410759993966E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="P25" s="190"/>
+      <c r="P25" s="184"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_003a9</v>
+        <v>obj_00395</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7033,7 +7088,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.2669999999999999E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7041,23 +7096,23 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44830</v>
+        <v>44837</v>
       </c>
       <c r="J26" s="24">
-        <v>2.393361140079282E-2</v>
+        <v>2.2898216991668548E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
-      <c r="P26" s="190"/>
+      <c r="P26" s="184"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_003ad</v>
+        <v>obj_003a6</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7065,7 +7120,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4510000000000001E-2</v>
+        <v>2.3529999999999999E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7073,23 +7128,23 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="J27" s="24">
-        <v>2.4790868167667672E-2</v>
+        <v>2.3809357337783093E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
-      <c r="P27" s="190"/>
+      <c r="P27" s="184"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_0039f</v>
+        <v>obj_0036c</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7097,7 +7152,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.52E-2</v>
+        <v>2.426E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7105,23 +7160,23 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45560</v>
+        <v>45567</v>
       </c>
       <c r="J28" s="24">
-        <v>2.552680710581276E-2</v>
+        <v>2.4588643786314587E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
-      <c r="P28" s="190"/>
+      <c r="P28" s="184"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_0039b</v>
+        <v>obj_0039e</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7129,7 +7184,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.6360000000000001E-2</v>
+        <v>2.5460000000000003E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7137,23 +7192,23 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46290</v>
+        <v>46297</v>
       </c>
       <c r="J29" s="24">
-        <v>2.6784216483779804E-2</v>
+        <v>2.5888183071682436E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
-      <c r="P29" s="190"/>
+      <c r="P29" s="184"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_00375</v>
+        <v>obj_00379</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7161,7 +7216,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.7549999999999998E-2</v>
+        <v>2.674E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7169,23 +7224,23 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47386</v>
+        <v>47393</v>
       </c>
       <c r="J30" s="24">
-        <v>2.809406059200812E-2</v>
+        <v>2.7300847473381244E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
-      <c r="P30" s="190"/>
+      <c r="P30" s="184"/>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_0038f</v>
+        <v>obj_003b1</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7193,7 +7248,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.8570000000000002E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7201,23 +7256,23 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49212</v>
+        <v>49219</v>
       </c>
       <c r="J31" s="24">
-        <v>2.921323122106028E-2</v>
+        <v>2.8591069235758809E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
-      <c r="P31" s="190"/>
+      <c r="P31" s="184"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_003a5</v>
+        <v>obj_003af</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7225,7 +7280,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.8830000000000001E-2</v>
+        <v>2.8289999999999996E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7233,23 +7288,23 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>51039</v>
+        <v>51046</v>
       </c>
       <c r="J32" s="24">
-        <v>2.9405344144962379E-2</v>
+        <v>2.8954663643663905E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
-      <c r="P32" s="190"/>
+      <c r="P32" s="184"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_00395</v>
+        <v>obj_003a5</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7257,7 +7312,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.8890000000000002E-2</v>
+        <v>2.8459999999999999E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7265,23 +7320,23 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>52866</v>
+        <v>52873</v>
       </c>
       <c r="J33" s="24">
-        <v>2.9365177279646635E-2</v>
+        <v>2.9066575056002363E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
-      <c r="P33" s="190"/>
+      <c r="P33" s="184"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_00373</v>
+        <v>obj_003a7</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7289,7 +7344,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>2.8340000000000001E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7297,23 +7352,23 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56517</v>
+        <v>56524</v>
       </c>
       <c r="J34" s="24">
-        <v>2.8927712675603266E-2</v>
+        <v>2.8663904911351932E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
-      <c r="P34" s="190"/>
+      <c r="P34" s="184"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00386</v>
+        <v>obj_00384</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7321,7 +7376,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>2.836E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7329,23 +7384,23 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60170</v>
+        <v>60177</v>
       </c>
       <c r="J35" s="24">
-        <v>2.8846475288294409E-2</v>
+        <v>2.8597194839006301E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
-      <c r="P35" s="190"/>
+      <c r="P35" s="184"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_003a6</v>
+        <v>obj_003b2</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7353,7 +7408,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.886E-2</v>
+        <v>2.8490000000000001E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7361,19 +7416,19 @@
       </c>
       <c r="H36" s="23">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I36" s="22">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>63822</v>
+        <v>63829</v>
       </c>
       <c r="J36" s="24">
-        <v>2.9096985069627438E-2</v>
+        <v>2.8826847756835285E-2</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
       <c r="O36" s="73"/>
-      <c r="P36" s="190"/>
+      <c r="P36" s="184"/>
     </row>
     <row r="37" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D37" s="25" t="e">
@@ -7405,7 +7460,7 @@
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
       <c r="O37" s="73"/>
-      <c r="P37" s="190"/>
+      <c r="P37" s="184"/>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D38" s="25" t="e">
@@ -7437,7 +7492,7 @@
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
-      <c r="P38" s="190"/>
+      <c r="P38" s="184"/>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D39" s="25" t="e">
@@ -7469,7 +7524,7 @@
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
-      <c r="P39" s="190"/>
+      <c r="P39" s="184"/>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D40" s="25" t="e">
@@ -9926,9 +9981,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9938,8 +9995,7 @@
     <col min="4" max="4" width="24.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="72" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" style="72" customWidth="1"/>
@@ -10015,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="84" t="str">
-        <f t="shared" ref="D3:D19" si="0">Calendar</f>
+        <f t="shared" ref="D3:D20" si="0">Calendar</f>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E3" s="84" t="s">
@@ -10036,7 +10092,7 @@
       </c>
       <c r="J3" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00357#0006</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10068,7 +10124,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00349#0006</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10076,7 +10132,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0006</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10116,7 +10172,7 @@
       </c>
       <c r="J5" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_00348#0006</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10148,7 +10204,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0006</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10156,7 +10212,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0006</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10188,7 +10244,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0006</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10196,7 +10252,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0006</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10236,7 +10292,7 @@
       </c>
       <c r="J8" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_00355#0006</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10276,7 +10332,7 @@
       </c>
       <c r="J9" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_00351#0006</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10316,7 +10372,7 @@
       </c>
       <c r="J10" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_00353#0006</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10348,7 +10404,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0006</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10356,7 +10412,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0006</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10388,7 +10444,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0006</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10396,7 +10452,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0006</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10436,7 +10492,7 @@
       </c>
       <c r="J13" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_0034f#0006</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10468,7 +10524,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0006</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10476,7 +10532,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0006</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10508,7 +10564,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0006</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10516,7 +10572,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0006</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10548,7 +10604,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0006</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10556,7 +10612,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0006</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10588,7 +10644,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0006</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10596,7 +10652,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0006</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10628,7 +10684,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0006</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10636,7 +10692,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0006</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10676,7 +10732,7 @@
       </c>
       <c r="J19" s="182" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_0034d#0006</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10687,15 +10743,32 @@
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>UnitedKingdom::Exchange</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>124</v>
+      </c>
       <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
+      <c r="I20" s="72" t="str">
+        <f>_xll.qlSimpleQuote("stub",,,,Trigger)</f>
+        <v>stub#0020</v>
+      </c>
+      <c r="J20" s="178" t="str">
+        <f>_xll.qlDepositRateHelper2(,I20,G26&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
+        <v>obj_0063f#0015</v>
+      </c>
       <c r="K20" s="178"/>
       <c r="L20" s="179"/>
       <c r="N20" s="76"/>
@@ -10703,13 +10776,54 @@
     <row r="21" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N21" s="76"/>
     </row>
-    <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="191" t="e">
+        <f>_xll.qlSimpleQuoteSetValue(I20,J22)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="72">
+        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","ask")/100</f>
+        <v>8.5816708799999995E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="72">
+        <f>_xll.qlIMMNextDate(_xll.qlSettingsEvaluationDate(Trigger),TRUE)</f>
+        <v>41990</v>
+      </c>
+      <c r="J23" s="72">
+        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","bid")/100</f>
+        <v>8.381670879999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="72">
+        <f>_xll.qlIMMNextDate(G23)</f>
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="76">
+        <f>_xll.qlIMMNextDate(G24)</f>
+        <v>42172</v>
+      </c>
+      <c r="H25" s="76">
+        <f>_xll.qlRateHelperLatestDate(J20)</f>
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="72">
+        <f>_xll.qlCalendarBusinessDaysBetween(D20,_xll.qlSettingsEvaluationDate(Trigger),G25)</f>
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10819,7 +10933,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0006</v>
+        <v>obj_00386#0001</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -10853,7 +10967,7 @@
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0006</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -10887,7 +11001,7 @@
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0006</v>
+        <v>obj_00391#0001</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -10921,7 +11035,7 @@
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0006</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -10955,7 +11069,7 @@
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ac#0006</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -10989,7 +11103,7 @@
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0006</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11023,7 +11137,7 @@
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0006</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11057,7 +11171,7 @@
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0006</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11091,7 +11205,7 @@
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0006</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11125,7 +11239,7 @@
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0006</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11159,7 +11273,7 @@
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0006</v>
+        <v>obj_00383#0001</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11193,7 +11307,7 @@
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037f#0006</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11227,7 +11341,7 @@
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0006</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11261,7 +11375,7 @@
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0006</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11295,7 +11409,7 @@
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037a#0006</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11329,7 +11443,7 @@
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0006</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11363,7 +11477,7 @@
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039c#0006</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11397,7 +11511,7 @@
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0006</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11431,7 +11545,7 @@
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0006</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11465,7 +11579,7 @@
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037d#0006</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11499,7 +11613,7 @@
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0006</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11533,7 +11647,7 @@
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0006</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11567,7 +11681,7 @@
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0006</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11601,7 +11715,7 @@
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0006</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11635,7 +11749,7 @@
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a3#0006</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11669,7 +11783,7 @@
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0006</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11703,7 +11817,7 @@
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00380#0006</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11737,7 +11851,7 @@
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0006</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11771,7 +11885,7 @@
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0006</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11805,7 +11919,7 @@
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038c#0006</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -11839,7 +11953,7 @@
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0006</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -11873,7 +11987,7 @@
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0006</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -11907,7 +12021,7 @@
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0006</v>
+        <v>obj_00390#0001</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -11941,7 +12055,7 @@
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0006</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -11975,7 +12089,7 @@
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0006</v>
+        <v>obj_00392#0001</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12009,7 +12123,7 @@
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0006</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12043,7 +12157,7 @@
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038e#0006</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12077,7 +12191,7 @@
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00397#0006</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12111,7 +12225,7 @@
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0006</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12146,7 +12260,7 @@
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0006</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12180,7 +12294,7 @@
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038d#0006</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12214,7 +12328,7 @@
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0006</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12354,7 +12468,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="159" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00363#0006</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="L4" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12413,7 +12527,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ab#0006</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12460,7 +12574,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003af#0006</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12511,7 +12625,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00384#0006</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12562,7 +12676,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00382#0006</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12609,7 +12723,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0006</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12660,7 +12774,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0006</v>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12702,7 +12816,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039d#0006</v>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12744,7 +12858,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a4#0006</v>
+        <v>obj_00388#0001</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12786,7 +12900,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a0#0006</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12828,7 +12942,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00399#0006</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12870,7 +12984,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a9#0006</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -12912,7 +13026,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ad#0006</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -12954,7 +13068,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0006</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -12996,7 +13110,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00379#0006</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13038,7 +13152,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0006</v>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13080,7 +13194,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b2#0006</v>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13122,7 +13236,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0006</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13164,7 +13278,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0006</v>
+        <v>obj_00379#0001</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13206,7 +13320,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0006</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13248,7 +13362,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00396#0006</v>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13290,7 +13404,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00367#0006</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13332,7 +13446,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00388#0006</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13374,7 +13488,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038f#0006</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13416,7 +13530,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0006</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13458,7 +13572,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a7#0006</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13500,7 +13614,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0006</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13542,7 +13656,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038b#0006</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13584,7 +13698,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a5#0006</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13626,7 +13740,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0006</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13668,7 +13782,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037e#0006</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13710,7 +13824,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b1#0006</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13752,7 +13866,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00392#0006</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13794,7 +13908,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00395#0006</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -13836,7 +13950,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b0#0006</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -13878,7 +13992,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00373#0006</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -13920,7 +14034,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00386#0006</v>
+        <v>obj_00384#0001</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -13962,7 +14076,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a6#0006</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="45" windowWidth="15285" windowHeight="8355"/>
+    <workbookView xWindow="15225" yWindow="105" windowWidth="15285" windowHeight="8295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
+    <definedName name="QuoteLive" localSheetId="1">RateHelpers!$U$7:$U$48</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$B$2:$B$98</definedName>
@@ -682,7 +683,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00000%"/>
-    <numFmt numFmtId="182" formatCode="0.0000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -890,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1295,6 +1296,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1311,7 +1323,7 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1695,9 +1707,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1707,6 +1716,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1723,7 +1733,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1753,13 +1768,13 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.85816708799999997</v>
+        <v>0.850882692</v>
         <stp/>
         <stp>_x0012_GBP_STD_#20150617D_x0003_ask_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J22" s="7"/>
       </tp>
       <tp>
-        <v>0.83816708799999995</v>
+        <v>0.83088269199999998</v>
         <stp/>
         <stp>_x0012_GBP_STD_#20150617D_x0003_bid_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J23" s="7"/>
@@ -2059,7 +2074,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2316,7 +2331,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0009</v>
+        <v>_GBPYCSTD#0010</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2445,7 +2460,7 @@
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.9066575056002363E-2</v>
+        <v>2.9049082812273495E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2458,7 +2473,7 @@
       </c>
       <c r="D24" s="121">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.1890672526646562E-3</v>
+        <v>4.7562690106835309E-3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2547,15 +2562,15 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -2602,7 +2617,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00352#0003</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2641,7 +2656,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00360#0003</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2649,7 +2664,7 @@
       </c>
       <c r="D3" s="6">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>0</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="74" t="b">
@@ -2680,7 +2695,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00353#0001</v>
+        <v>obj_0034e#0003</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2712,7 +2727,7 @@
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00363#0003</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2720,7 +2735,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.8990250000000004E-3</v>
+        <v>4.88095417E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2744,7 +2759,7 @@
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035e#0003</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2752,7 +2767,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9730499999999997E-3</v>
+        <v>4.9431083300000003E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2776,7 +2791,7 @@
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00358#0003</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2808,7 +2823,7 @@
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00349#0003</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2840,7 +2855,7 @@
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0034f#0003</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2872,7 +2887,7 @@
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0035b#0003</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2880,7 +2895,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.1506824200000003E-3</v>
+        <v>6.1276219800000002E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2904,7 +2919,7 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035d#0003</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2912,7 +2927,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.6091439600000001E-3</v>
+        <v>6.5793450499999993E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2943,7 +2958,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00350#0003</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2982,7 +2997,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00362#0003</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -2990,7 +3005,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.6839247300000005E-3</v>
+        <v>7.63198846E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -3021,7 +3036,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0035c#0003</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3029,7 +3044,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.3107252699999995E-3</v>
+        <v>8.2423615399999997E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3060,7 +3075,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_00361#0003</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3068,7 +3083,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.8425560399999995E-3</v>
+        <v>8.76025385E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3092,7 +3107,7 @@
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035f#0003</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3100,7 +3115,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.4313686799999998E-3</v>
+        <v>9.3336346199999996E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3124,7 +3139,7 @@
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035a#0003</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3132,7 +3147,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>1.0039175270000001E-2</v>
+        <v>9.925511540000001E-3</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3156,7 +3171,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00355#0003</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3195,7 +3210,7 @@
     <row r="19" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="149" t="str">
         <f>Deposits!J20</f>
-        <v>obj_0063f#0015</v>
+        <v>obj_003b4#0010</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3203,7 +3218,7 @@
       </c>
       <c r="D19" s="6">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>8.5816708799999995E-3</v>
+        <v>8.5088269200000004E-3</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="74" t="b">
@@ -3221,7 +3236,7 @@
       </c>
       <c r="J19" s="3">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
-        <v>42173</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -3230,7 +3245,7 @@
       </c>
       <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00386#0001</v>
+        <v>obj_0039e#0003</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3261,6 +3276,7 @@
         <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
         <v>42019</v>
       </c>
+      <c r="M20" s="191"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="b">
@@ -3268,7 +3284,7 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00370#0003</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3299,6 +3315,7 @@
         <f>_xll.qlRateHelperLatestDate($B21,Trigger)</f>
         <v>42054</v>
       </c>
+      <c r="M21" s="191"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="b">
@@ -3306,7 +3323,7 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_00391#0001</v>
+        <v>obj_003b2#0003</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3337,6 +3354,7 @@
         <f>_xll.qlRateHelperLatestDate($B22,Trigger)</f>
         <v>42080</v>
       </c>
+      <c r="M22" s="191"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="b">
@@ -3344,7 +3362,7 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0038a#0003</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
@@ -3375,6 +3393,7 @@
         <f>_xll.qlRateHelperLatestDate($B23,Trigger)</f>
         <v>42115</v>
       </c>
+      <c r="M23" s="191"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="b">
@@ -3382,7 +3401,7 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00395#0003</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3413,6 +3432,7 @@
         <f>_xll.qlRateHelperLatestDate($B24,Trigger)</f>
         <v>42142</v>
       </c>
+      <c r="M24" s="191"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="b">
@@ -3420,7 +3440,7 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_00369#0001</v>
+        <v>obj_003aa#0003</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
@@ -3428,7 +3448,7 @@
       </c>
       <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.215000000000003</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3451,6 +3471,7 @@
         <f>_xll.qlRateHelperLatestDate($B25,Trigger)</f>
         <v>42173</v>
       </c>
+      <c r="M25" s="191"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="b">
@@ -3458,7 +3479,7 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003ac#0003</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
@@ -3489,6 +3510,7 @@
         <f>_xll.qlRateHelperLatestDate($B26,Trigger)</f>
         <v>42200</v>
       </c>
+      <c r="M26" s="191"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="b">
@@ -3496,7 +3518,7 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_00372#0001</v>
+        <v>obj_003b1#0003</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
@@ -3527,6 +3549,7 @@
         <f>_xll.qlRateHelperLatestDate($B27,Trigger)</f>
         <v>42236</v>
       </c>
+      <c r="M27" s="191"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="b">
@@ -3534,7 +3557,7 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_00398#0001</v>
+        <v>obj_0038f#0003</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
@@ -3542,7 +3565,7 @@
       </c>
       <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.039199999999994</v>
+        <v>99.029200000000003</v>
       </c>
       <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
@@ -3566,6 +3589,7 @@
         <v>42264</v>
       </c>
       <c r="L28" s="73"/>
+      <c r="M28" s="191"/>
     </row>
     <row r="29" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="b">
@@ -3573,7 +3597,7 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_0037b#0003</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
@@ -3605,6 +3629,7 @@
         <v>42292</v>
       </c>
       <c r="L29" s="73"/>
+      <c r="M29" s="191"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="b">
@@ -3612,7 +3637,7 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00369#0003</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
@@ -3644,7 +3669,7 @@
         <v>42327</v>
       </c>
       <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="M30" s="191"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="b">
@@ -3652,7 +3677,7 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_00388#0003</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
@@ -3660,7 +3685,7 @@
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.861699999999985</v>
+        <v>98.851699999999994</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3684,7 +3709,7 @@
         <v>42354</v>
       </c>
       <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
+      <c r="M31" s="191"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="b">
@@ -3692,7 +3717,7 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0039a#0003</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
@@ -3700,7 +3725,7 @@
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.674799999999991</v>
+        <v>98.6648</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3724,7 +3749,7 @@
         <v>42445</v>
       </c>
       <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
+      <c r="M32" s="191"/>
       <c r="N32" s="73"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -3733,7 +3758,7 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_0037c#0003</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
@@ -3741,7 +3766,7 @@
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.498400000000004</v>
+        <v>98.488399999999999</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3765,7 +3790,7 @@
         <v>42537</v>
       </c>
       <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
+      <c r="M33" s="191"/>
       <c r="N33" s="73"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3774,7 +3799,7 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0037e#0003</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
@@ -3806,7 +3831,7 @@
         <v>42628</v>
       </c>
       <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
+      <c r="M34" s="191"/>
       <c r="N34" s="73"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3815,7 +3840,7 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0038b#0003</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
@@ -3823,7 +3848,7 @@
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>98.177499999999995</v>
+        <v>98.167500000000004</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3847,7 +3872,7 @@
         <v>42725</v>
       </c>
       <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
+      <c r="M35" s="191"/>
       <c r="N35" s="73"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3856,7 +3881,7 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_00392#0003</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
@@ -3888,7 +3913,7 @@
         <v>42815</v>
       </c>
       <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
+      <c r="M36" s="191"/>
       <c r="N36" s="73"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3897,7 +3922,7 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0036d#0003</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
@@ -3929,7 +3954,7 @@
         <v>42901</v>
       </c>
       <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
+      <c r="M37" s="191"/>
       <c r="N37" s="73"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3938,7 +3963,7 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00389#0003</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
@@ -3970,7 +3995,7 @@
         <v>42999</v>
       </c>
       <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
+      <c r="M38" s="191"/>
       <c r="N38" s="73"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3979,7 +4004,7 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_00385#0003</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
@@ -4011,7 +4036,7 @@
         <v>43089</v>
       </c>
       <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
+      <c r="M39" s="191"/>
       <c r="N39" s="73"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -4020,7 +4045,7 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_00376#0003</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
@@ -4052,7 +4077,7 @@
         <v>43179</v>
       </c>
       <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
+      <c r="M40" s="191"/>
       <c r="N40" s="73"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -4061,7 +4086,7 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00384#0003</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
@@ -4093,7 +4118,7 @@
         <v>43272</v>
       </c>
       <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
+      <c r="M41" s="191"/>
       <c r="N41" s="73"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -4102,7 +4127,7 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003a8#0003</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
@@ -4134,7 +4159,7 @@
         <v>43363</v>
       </c>
       <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
+      <c r="M42" s="191"/>
       <c r="N42" s="73"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -4143,7 +4168,7 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_003ad#0003</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
@@ -4151,7 +4176,7 @@
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.435000000000002</v>
+        <v>97.43</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4175,7 +4200,7 @@
         <v>43453</v>
       </c>
       <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
+      <c r="M43" s="191"/>
       <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -4184,7 +4209,7 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_0037d#0003</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
@@ -4192,7 +4217,7 @@
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.385000000000005</v>
+        <v>97.375</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4216,7 +4241,7 @@
         <v>43543</v>
       </c>
       <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
+      <c r="M44" s="191"/>
       <c r="N44" s="73"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -4225,7 +4250,7 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00391#0003</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
@@ -4233,7 +4258,7 @@
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.335000000000008</v>
+        <v>97.33</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4257,7 +4282,7 @@
         <v>43636</v>
       </c>
       <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
+      <c r="M45" s="191"/>
       <c r="N45" s="73"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -4266,19 +4291,19 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003a0#0003</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
         <v>GBPFUT3MM9_Quote</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.210000000000008</v>
-      </c>
-      <c r="E46" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F46" s="74" t="b">
         <v>1</v>
@@ -4298,7 +4323,7 @@
         <v>43727</v>
       </c>
       <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
+      <c r="M46" s="191"/>
       <c r="N46" s="73"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -4307,19 +4332,19 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_00382#0001</v>
+        <v>obj_003a7#0003</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
         <v>GBPFUT3MU9_Quote</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.17</v>
-      </c>
-      <c r="E47" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F47" s="74" t="b">
         <v>1</v>
@@ -4339,7 +4364,7 @@
         <v>43817</v>
       </c>
       <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
+      <c r="M47" s="191"/>
       <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -4348,19 +4373,19 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_00381#0001</v>
+        <v>obj_003ae#0003</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
         <v>GBPFUT3MZ9_Quote</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.134999999999991</v>
-      </c>
-      <c r="E48" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F48" s="74" t="b">
         <v>1</v>
@@ -4379,6 +4404,7 @@
         <f>_xll.qlRateHelperLatestDate($B48,Trigger)</f>
         <v>43908</v>
       </c>
+      <c r="M48" s="191"/>
     </row>
     <row r="49" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="b">
@@ -4386,19 +4412,19 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_00380#0001</v>
+        <v>obj_003a1#0003</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
         <v>GBPFUT3MH0_Quote</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>97.10499999999999</v>
-      </c>
-      <c r="E49" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F49" s="74" t="b">
         <v>1</v>
@@ -4417,6 +4443,7 @@
         <f>_xll.qlRateHelperLatestDate($B49,Trigger)</f>
         <v>44000</v>
       </c>
+      <c r="M49" s="191"/>
     </row>
     <row r="50" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="b">
@@ -4424,7 +4451,7 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00367#0003</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
@@ -4455,6 +4482,7 @@
         <f>_xll.qlRateHelperLatestDate($B50,Trigger)</f>
         <v>44091</v>
       </c>
+      <c r="M50" s="191"/>
     </row>
     <row r="51" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="b">
@@ -4462,7 +4490,7 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_003a9#0003</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
@@ -4493,6 +4521,7 @@
         <f>_xll.qlRateHelperLatestDate($B51,Trigger)</f>
         <v>44181</v>
       </c>
+      <c r="M51" s="191"/>
     </row>
     <row r="52" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="b">
@@ -4500,7 +4529,7 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_00390#0001</v>
+        <v>obj_003af#0003</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
@@ -4531,6 +4560,7 @@
         <f>_xll.qlRateHelperLatestDate($B52,Trigger)</f>
         <v>44271</v>
       </c>
+      <c r="M52" s="191"/>
     </row>
     <row r="53" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="b">
@@ -4538,7 +4568,7 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_00399#0001</v>
+        <v>obj_0036c#0003</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
@@ -4569,6 +4599,7 @@
         <f>_xll.qlRateHelperLatestDate($B53,Trigger)</f>
         <v>44364</v>
       </c>
+      <c r="M53" s="191"/>
     </row>
     <row r="54" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="b">
@@ -4576,7 +4607,7 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_00392#0001</v>
+        <v>obj_0036b#0003</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4607,6 +4638,7 @@
         <f>_xll.qlRateHelperLatestDate($B54,Trigger)</f>
         <v>44455</v>
       </c>
+      <c r="M54" s="191"/>
     </row>
     <row r="55" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="b">
@@ -4614,7 +4646,7 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00394#0003</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4645,6 +4677,7 @@
         <f>_xll.qlRateHelperLatestDate($B55,Trigger)</f>
         <v>44545</v>
       </c>
+      <c r="M55" s="191"/>
     </row>
     <row r="56" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="b">
@@ -4652,7 +4685,7 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_00390#0003</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4683,6 +4716,7 @@
         <f>_xll.qlRateHelperLatestDate($B56,Trigger)</f>
         <v>44635</v>
       </c>
+      <c r="M56" s="191"/>
     </row>
     <row r="57" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="b">
@@ -4690,7 +4724,7 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_003a6#0003</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4721,6 +4755,7 @@
         <f>_xll.qlRateHelperLatestDate($B57,Trigger)</f>
         <v>44728</v>
       </c>
+      <c r="M57" s="191"/>
     </row>
     <row r="58" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="b">
@@ -4728,7 +4763,7 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00365#0003</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4759,6 +4794,7 @@
         <f>_xll.qlRateHelperLatestDate($B58,Trigger)</f>
         <v>44819</v>
       </c>
+      <c r="M58" s="191"/>
     </row>
     <row r="59" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="b">
@@ -4766,7 +4802,7 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_003a5#0003</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4797,6 +4833,7 @@
         <f>_xll.qlRateHelperLatestDate($B59,Trigger)</f>
         <v>44916</v>
       </c>
+      <c r="M59" s="191"/>
     </row>
     <row r="60" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="b">
@@ -4804,7 +4841,7 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_00387#0001</v>
+        <v>obj_003ab#0003</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4835,6 +4872,7 @@
         <f>_xll.qlRateHelperLatestDate($B60,Trigger)</f>
         <v>45006</v>
       </c>
+      <c r="M60" s="191"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="b">
@@ -4842,7 +4880,7 @@
       </c>
       <c r="B61" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00379#0003</v>
       </c>
       <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4874,13 +4912,13 @@
         <v>45092</v>
       </c>
       <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
+      <c r="M61" s="191"/>
       <c r="N61" s="73"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00380#0003</v>
       </c>
       <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4915,7 +4953,7 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00393#0003</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4950,7 +4988,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_0038e#0003</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -4958,7 +4996,7 @@
       </c>
       <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>1.0240000000000001E-2</v>
+        <v>1.0320000000000001E-2</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -4985,7 +5023,7 @@
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0039c#0003</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -5020,7 +5058,7 @@
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_0039b#0003</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5028,7 +5066,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.1939999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5055,7 +5093,7 @@
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00398#0003</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5063,7 +5101,7 @@
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.498E-2</v>
+        <v>1.5070000000000002E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5090,7 +5128,7 @@
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_00373#0003</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5098,7 +5136,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.7319999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5125,7 +5163,7 @@
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00388#0001</v>
+        <v>obj_0038c#0003</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5133,7 +5171,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.9100000000000002E-2</v>
+        <v>1.916E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5160,7 +5198,7 @@
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0037f#0003</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5168,7 +5206,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>2.052E-2</v>
+        <v>2.0569999999999998E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5195,7 +5233,7 @@
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00371#0003</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5203,7 +5241,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.1680000000000001E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5231,7 +5269,7 @@
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00381#0003</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5239,7 +5277,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.2669999999999999E-2</v>
+        <v>2.2720000000000004E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5267,7 +5305,7 @@
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003b0#0003</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5275,7 +5313,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.3529999999999999E-2</v>
+        <v>2.358E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5303,7 +5341,7 @@
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00366#0003</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5311,7 +5349,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.426E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5339,7 +5377,7 @@
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_00377#0003</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5347,7 +5385,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.4909999999999998E-2</v>
+        <v>2.4969999999999999E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5375,7 +5413,7 @@
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_0038d#0003</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5383,7 +5421,7 @@
       </c>
       <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>2.5460000000000003E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5411,7 +5449,7 @@
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_00375#0003</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5447,7 +5485,7 @@
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00378#0003</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5483,7 +5521,7 @@
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00379#0001</v>
+        <v>obj_003a3#0003</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5491,7 +5529,7 @@
       </c>
       <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>2.674E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5519,7 +5557,7 @@
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00399#0003</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5555,7 +5593,7 @@
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_00386#0003</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5591,7 +5629,7 @@
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00396#0001</v>
+        <v>obj_0039f#0003</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5627,7 +5665,7 @@
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_0036a#0003</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5663,7 +5701,7 @@
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00396#0003</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5671,7 +5709,7 @@
       </c>
       <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>2.7900000000000001E-2</v>
+        <v>2.793E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5699,7 +5737,7 @@
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00397#0003</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5735,7 +5773,7 @@
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0036f#0003</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5771,7 +5809,7 @@
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00397#0001</v>
+        <v>obj_003a4#0003</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5807,7 +5845,7 @@
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00374#0003</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5843,7 +5881,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0036e#0003</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5851,7 +5889,7 @@
       </c>
       <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>2.8289999999999996E-2</v>
+        <v>2.8309999999999998E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5879,7 +5917,7 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00382#0003</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5915,7 +5953,7 @@
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_00387#0003</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5951,7 +5989,7 @@
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_0037a#0003</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -5987,7 +6025,7 @@
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_00368#0003</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -6023,7 +6061,7 @@
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003a2#0003</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6059,7 +6097,7 @@
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00377#0001</v>
+        <v>obj_0039d#0003</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6095,7 +6133,7 @@
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003b3#0003</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6131,7 +6169,7 @@
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00372#0003</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6167,7 +6205,7 @@
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_00383#0003</v>
       </c>
       <c r="C98" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6224,8 +6262,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6279,7 +6317,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00355</v>
+        <v>obj_00352</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6307,7 +6345,7 @@
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
       <c r="O2" s="73"/>
-      <c r="P2" s="184"/>
+      <c r="P2" s="183"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
@@ -6317,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_0035f</v>
+        <v>obj_00360</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6325,7 +6363,7 @@
       </c>
       <c r="F3" s="24">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>0</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="G3" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6340,12 +6378,12 @@
         <v>41918</v>
       </c>
       <c r="J3" s="24">
-        <v>1.1890672526646562E-3</v>
+        <v>4.8030956834980492E-3</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
-      <c r="P3" s="184"/>
+      <c r="P3" s="183"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -6355,7 +6393,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_00353</v>
+        <v>obj_0034e</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6378,12 +6416,12 @@
         <v>41921</v>
       </c>
       <c r="J4" s="24">
-        <v>4.818577348197536E-3</v>
+        <v>4.8185773481022763E-3</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
-      <c r="P4" s="184"/>
+      <c r="P4" s="183"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -6393,7 +6431,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_0035c</v>
+        <v>obj_00363</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6401,7 +6439,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.8990250000000004E-3</v>
+        <v>4.88095417E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6416,12 +6454,12 @@
         <v>41928</v>
       </c>
       <c r="J5" s="24">
-        <v>4.8985647751281641E-3</v>
+        <v>4.8804973338848964E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
       <c r="O5" s="73"/>
-      <c r="P5" s="184"/>
+      <c r="P5" s="183"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
@@ -6432,7 +6470,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_00350</v>
+        <v>obj_00358</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6455,17 +6493,17 @@
         <v>41946</v>
       </c>
       <c r="J6" s="24">
-        <v>5.0307904077403929E-3</v>
+        <v>5.0307904075850805E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="184"/>
+      <c r="P6" s="183"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0009</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0010</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -6495,16 +6533,16 @@
         <v>41975</v>
       </c>
       <c r="J7" s="24">
-        <v>5.3314241312932154E-3</v>
+        <v>5.331424131293741E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
-      <c r="P7" s="184"/>
+      <c r="P7" s="183"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_0034c</v>
+        <v>obj_0034f</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6527,16 +6565,16 @@
         <v>42006</v>
       </c>
       <c r="J8" s="24">
-        <v>5.6235126391805234E-3</v>
+        <v>5.6235126391804479E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
-      <c r="P8" s="184"/>
+      <c r="P8" s="183"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_00359</v>
+        <v>obj_0035b</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6544,7 +6582,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1506824200000003E-3</v>
+        <v>6.1276219800000002E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6559,16 +6597,16 @@
         <v>42037</v>
       </c>
       <c r="J9" s="24">
-        <v>6.1443169676823096E-3</v>
+        <v>6.1213041368618727E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
       <c r="O9" s="73"/>
-      <c r="P9" s="184"/>
+      <c r="P9" s="183"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6576,7 +6614,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.6091439600000001E-3</v>
+        <v>6.5793450499999993E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6591,16 +6629,16 @@
         <v>42065</v>
       </c>
       <c r="J10" s="24">
-        <v>6.6001250556532677E-3</v>
+        <v>6.5704072167940657E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
       <c r="O10" s="73"/>
-      <c r="P10" s="184"/>
+      <c r="P10" s="183"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_00354</v>
+        <v>obj_00350</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6623,16 +6661,16 @@
         <v>42096</v>
       </c>
       <c r="J11" s="24">
-        <v>7.0830771290297141E-3</v>
+        <v>7.0830771290294834E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
       <c r="O11" s="73"/>
-      <c r="P11" s="184"/>
+      <c r="P11" s="183"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_00360</v>
+        <v>obj_00362</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6640,7 +6678,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.6839247300000005E-3</v>
+        <v>7.63198846E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6655,16 +6693,16 @@
         <v>42129</v>
       </c>
       <c r="J12" s="24">
-        <v>7.6665877353741425E-3</v>
+        <v>7.6148846901118398E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
       <c r="O12" s="73"/>
-      <c r="P12" s="184"/>
+      <c r="P12" s="183"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_0035c</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6672,7 +6710,7 @@
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.3107252699999995E-3</v>
+        <v>8.2423615399999997E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6687,16 +6725,16 @@
         <v>42157</v>
       </c>
       <c r="J13" s="24">
-        <v>8.2878185446012432E-3</v>
+        <v>8.2198294438512211E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
       <c r="O13" s="73"/>
-      <c r="P13" s="184"/>
+      <c r="P13" s="183"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14" s="25" t="str">
-        <v>obj_0063f</v>
+        <v>obj_003b4</v>
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -6704,7 +6742,7 @@
       </c>
       <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.5816708799999995E-3</v>
+        <v>8.5088269200000004E-3</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6716,19 +6754,19 @@
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42173</v>
+        <v>42172</v>
       </c>
       <c r="J14" s="24">
-        <v>8.5556476025862149E-3</v>
+        <v>8.4833410649101989E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
-      <c r="P14" s="184"/>
+      <c r="P14" s="183"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_00398</v>
+        <v>obj_0038f</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6736,7 +6774,7 @@
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.6080000000000609E-3</v>
+        <v>9.7079999999999389E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -6751,16 +6789,16 @@
         <v>42264</v>
       </c>
       <c r="J15" s="24">
-        <v>8.8168735148233691E-3</v>
+        <v>8.8021344155551923E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
-      <c r="P15" s="184"/>
+      <c r="P15" s="183"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_003ab</v>
+        <v>obj_00388</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6768,7 +6806,7 @@
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.1383000000000143E-2</v>
+        <v>1.1483000000000021E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -6783,16 +6821,16 @@
         <v>42354</v>
       </c>
       <c r="J16" s="24">
-        <v>9.3419839453719421E-3</v>
-      </c>
-      <c r="M16" s="183"/>
+        <v>9.3504446227695645E-3</v>
+      </c>
+      <c r="M16" s="182"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
-      <c r="P16" s="184"/>
+      <c r="P16" s="183"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_0039c</v>
+        <v>obj_0039a</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6800,7 +6838,7 @@
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.3252000000000042E-2</v>
+        <v>1.3352000000000031E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -6815,16 +6853,16 @@
         <v>42445</v>
       </c>
       <c r="J17" s="24">
-        <v>1.0008318568330898E-2</v>
+        <v>1.0032410128457958E-2</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
-      <c r="P17" s="184"/>
+      <c r="P17" s="183"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_0039b</v>
+        <v>obj_0037c</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6832,7 +6870,7 @@
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.5015999999999918E-2</v>
+        <v>1.5116000000000018E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -6847,16 +6885,16 @@
         <v>42537</v>
       </c>
       <c r="J18" s="24">
-        <v>1.0743629859086879E-2</v>
-      </c>
-      <c r="M18" s="183"/>
+        <v>1.0778875146395221E-2</v>
+      </c>
+      <c r="M18" s="182"/>
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
-      <c r="P18" s="184"/>
+      <c r="P18" s="183"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_00367</v>
+        <v>obj_0037e</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6879,16 +6917,16 @@
         <v>42628</v>
       </c>
       <c r="J19" s="24">
-        <v>1.1496302376875224E-2</v>
-      </c>
-      <c r="M19" s="183"/>
+        <v>1.1526900639921173E-2</v>
+      </c>
+      <c r="M19" s="182"/>
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
-      <c r="P19" s="184"/>
+      <c r="P19" s="183"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_00371</v>
+        <v>obj_0038b</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6896,7 +6934,7 @@
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.8225000000000047E-2</v>
+        <v>1.8324999999999925E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -6911,16 +6949,16 @@
         <v>42725</v>
       </c>
       <c r="J20" s="24">
-        <v>1.2290279735064618E-2</v>
-      </c>
-      <c r="M20" s="183"/>
+        <v>1.2329064012159826E-2</v>
+      </c>
+      <c r="M20" s="182"/>
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
-      <c r="P20" s="184"/>
+      <c r="P20" s="183"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_0037e</v>
+        <v>obj_00398</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6928,7 +6966,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.498E-2</v>
+        <v>1.5070000000000002E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6943,16 +6981,16 @@
         <v>43010</v>
       </c>
       <c r="J21" s="24">
-        <v>1.499498892112017E-2</v>
-      </c>
-      <c r="M21" s="183"/>
+        <v>1.5085861757074737E-2</v>
+      </c>
+      <c r="M21" s="182"/>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
-      <c r="P21" s="184"/>
+      <c r="P21" s="183"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_0038b</v>
+        <v>obj_00373</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -6960,7 +6998,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.7319999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6975,16 +7013,16 @@
         <v>43375</v>
       </c>
       <c r="J22" s="24">
-        <v>1.7370105619366485E-2</v>
+        <v>1.745069907014184E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
-      <c r="P22" s="184"/>
+      <c r="P22" s="183"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_00388</v>
+        <v>obj_0038c</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -6992,7 +7030,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.9100000000000002E-2</v>
+        <v>1.916E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7007,16 +7045,16 @@
         <v>43740</v>
       </c>
       <c r="J23" s="24">
-        <v>1.9190354094061918E-2</v>
-      </c>
-      <c r="M23" s="183"/>
+        <v>1.9250181768466178E-2</v>
+      </c>
+      <c r="M23" s="182"/>
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
-      <c r="P23" s="184"/>
+      <c r="P23" s="183"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_00376</v>
+        <v>obj_0037f</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -7024,7 +7062,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.052E-2</v>
+        <v>2.0569999999999998E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7039,16 +7077,16 @@
         <v>44106</v>
       </c>
       <c r="J24" s="24">
-        <v>2.0654023178621514E-2</v>
+        <v>2.0703402103377774E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
-      <c r="P24" s="184"/>
+      <c r="P24" s="183"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_0037c</v>
+        <v>obj_00371</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7056,7 +7094,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.1680000000000001E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7071,16 +7109,16 @@
         <v>44473</v>
       </c>
       <c r="J25" s="24">
-        <v>2.1859410759993966E-2</v>
+        <v>2.190892966438612E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="P25" s="184"/>
+      <c r="P25" s="183"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_00395</v>
+        <v>obj_00381</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7088,7 +7126,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.2669999999999999E-2</v>
+        <v>2.2720000000000004E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7103,16 +7141,16 @@
         <v>44837</v>
       </c>
       <c r="J26" s="24">
-        <v>2.2898216991668548E-2</v>
+        <v>2.2947869977657836E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
-      <c r="P26" s="184"/>
+      <c r="P26" s="183"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_003a6</v>
+        <v>obj_003b0</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7120,7 +7158,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.3529999999999999E-2</v>
+        <v>2.358E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7135,16 +7173,16 @@
         <v>45201</v>
       </c>
       <c r="J27" s="24">
-        <v>2.3809357337783093E-2</v>
+        <v>2.385913989298321E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
-      <c r="P27" s="184"/>
+      <c r="P27" s="183"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_0036c</v>
+        <v>obj_00366</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7152,7 +7190,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.426E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7167,16 +7205,16 @@
         <v>45567</v>
       </c>
       <c r="J28" s="24">
-        <v>2.4588643786314587E-2</v>
+        <v>2.4649837192040999E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
-      <c r="P28" s="184"/>
+      <c r="P28" s="183"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_0039e</v>
+        <v>obj_0038d</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7184,7 +7222,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.5460000000000003E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7199,16 +7237,16 @@
         <v>46297</v>
       </c>
       <c r="J29" s="24">
-        <v>2.5888183071682436E-2</v>
+        <v>2.5949505296929843E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
-      <c r="P29" s="184"/>
+      <c r="P29" s="183"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_00379</v>
+        <v>obj_003a3</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7216,7 +7254,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.674E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7231,16 +7269,16 @@
         <v>47393</v>
       </c>
       <c r="J30" s="24">
-        <v>2.7300847473381244E-2</v>
+        <v>2.7350287642957587E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
-      <c r="P30" s="184"/>
+      <c r="P30" s="183"/>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_003b1</v>
+        <v>obj_00396</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7248,7 +7286,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.7900000000000001E-2</v>
+        <v>2.793E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7263,16 +7301,16 @@
         <v>49219</v>
       </c>
       <c r="J31" s="24">
-        <v>2.8591069235758809E-2</v>
+        <v>2.8615280660427608E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
-      <c r="P31" s="184"/>
+      <c r="P31" s="183"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_003af</v>
+        <v>obj_0036e</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7280,7 +7318,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.8289999999999996E-2</v>
+        <v>2.8309999999999998E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7295,16 +7333,16 @@
         <v>51046</v>
       </c>
       <c r="J32" s="24">
-        <v>2.8954663643663905E-2</v>
+        <v>2.8966046788937903E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
-      <c r="P32" s="184"/>
+      <c r="P32" s="183"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_003a5</v>
+        <v>obj_003a2</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7327,16 +7365,16 @@
         <v>52873</v>
       </c>
       <c r="J33" s="24">
-        <v>2.9066575056002363E-2</v>
+        <v>2.9049082812273495E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
-      <c r="P33" s="184"/>
+      <c r="P33" s="183"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_003a7</v>
+        <v>obj_003b3</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7359,16 +7397,16 @@
         <v>56524</v>
       </c>
       <c r="J34" s="24">
-        <v>2.8663904911351932E-2</v>
+        <v>2.865098699447912E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
-      <c r="P34" s="184"/>
+      <c r="P34" s="183"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00384</v>
+        <v>obj_00372</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7391,16 +7429,16 @@
         <v>60177</v>
       </c>
       <c r="J35" s="24">
-        <v>2.8597194839006301E-2</v>
+        <v>2.8586858759194367E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
-      <c r="P35" s="184"/>
+      <c r="P35" s="183"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_003b2</v>
+        <v>obj_00383</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7423,12 +7461,12 @@
         <v>63829</v>
       </c>
       <c r="J36" s="24">
-        <v>2.8826847756835285E-2</v>
+        <v>2.8818055043591528E-2</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
       <c r="O36" s="73"/>
-      <c r="P36" s="184"/>
+      <c r="P36" s="183"/>
     </row>
     <row r="37" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D37" s="25" t="e">
@@ -7460,7 +7498,7 @@
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
       <c r="O37" s="73"/>
-      <c r="P37" s="184"/>
+      <c r="P37" s="183"/>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D38" s="25" t="e">
@@ -7492,7 +7530,7 @@
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
-      <c r="P38" s="184"/>
+      <c r="P38" s="183"/>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D39" s="25" t="e">
@@ -7524,7 +7562,7 @@
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
-      <c r="P39" s="184"/>
+      <c r="P39" s="183"/>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D40" s="25" t="e">
@@ -9981,16 +10019,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="4" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="72" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
@@ -10083,16 +10121,16 @@
       <c r="G3" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="181" t="str">
+      <c r="I3" s="180" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>GBPOND_Quote</v>
       </c>
-      <c r="J3" s="182" t="str">
+      <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00352#0003</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10124,7 +10162,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00354#0003</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10132,7 +10170,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00360#0003</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10162,17 +10200,17 @@
       <c r="G5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="180" t="str">
+      <c r="H5" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B5</f>
         <v>GBPLiborSW</v>
       </c>
-      <c r="I5" s="181" t="str">
+      <c r="I5" s="180" t="str">
         <f>Currency&amp;$B5&amp;"D"&amp;QuoteSuffix</f>
         <v>GBPSWD_Quote</v>
       </c>
-      <c r="J5" s="182" t="str">
+      <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_0034e#0003</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10204,7 +10242,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_0034a#0003</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10212,7 +10250,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00363#0003</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10244,7 +10282,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_0034b#0003</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10252,7 +10290,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035e#0003</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10282,17 +10320,17 @@
       <c r="G8" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="180" t="str">
+      <c r="H8" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B8</f>
         <v>GBPLibor1M</v>
       </c>
-      <c r="I8" s="181" t="str">
+      <c r="I8" s="180" t="str">
         <f>Currency&amp;$B8&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP1MD_Quote</v>
       </c>
-      <c r="J8" s="182" t="str">
+      <c r="J8" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00358#0003</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10322,17 +10360,17 @@
       <c r="G9" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="180" t="str">
+      <c r="H9" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B9</f>
         <v>GBPLibor2M</v>
       </c>
-      <c r="I9" s="181" t="str">
+      <c r="I9" s="180" t="str">
         <f>Currency&amp;$B9&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP2MD_Quote</v>
       </c>
-      <c r="J9" s="182" t="str">
+      <c r="J9" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00349#0003</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10362,17 +10400,17 @@
       <c r="G10" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="180" t="str">
+      <c r="H10" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B10</f>
         <v>GBPLibor3M</v>
       </c>
-      <c r="I10" s="181" t="str">
+      <c r="I10" s="180" t="str">
         <f>Currency&amp;$B10&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP3MD_Quote</v>
       </c>
-      <c r="J10" s="182" t="str">
+      <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0034f#0003</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10404,7 +10442,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00351#0003</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10412,7 +10450,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0035b#0003</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10444,7 +10482,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_0034d#0003</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10452,7 +10490,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035d#0003</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10482,17 +10520,17 @@
       <c r="G13" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="180" t="str">
+      <c r="H13" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B13</f>
         <v>GBPLibor6M</v>
       </c>
-      <c r="I13" s="181" t="str">
+      <c r="I13" s="180" t="str">
         <f>Currency&amp;$B13&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP6MD_Quote</v>
       </c>
-      <c r="J13" s="182" t="str">
+      <c r="J13" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00350#0003</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10524,7 +10562,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00356#0003</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10532,7 +10570,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00362#0003</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10564,7 +10602,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00353#0003</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10572,7 +10610,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0035c#0003</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10604,7 +10642,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_0034c#0003</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10612,7 +10650,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_00361#0003</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10644,7 +10682,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00359#0003</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10652,7 +10690,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035f#0003</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10684,7 +10722,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00348#0001</v>
+        <v>obj_00357#0003</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10692,7 +10730,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035a#0003</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10722,17 +10760,17 @@
       <c r="G19" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="180" t="str">
+      <c r="H19" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B19</f>
         <v>GBPLibor1Y</v>
       </c>
-      <c r="I19" s="181" t="str">
+      <c r="I19" s="180" t="str">
         <f>Currency&amp;$B19&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP1YD_Quote</v>
       </c>
-      <c r="J19" s="182" t="str">
+      <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00355#0003</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10741,9 +10779,12 @@
       <c r="L19" s="77"/>
       <c r="N19" s="76"/>
     </row>
-    <row r="20" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
-      <c r="B20" s="81"/>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="81">
+        <f>_xll.qlCalendarBusinessDaysBetween(D20,_xll.qlSettingsEvaluationDate(Trigger),G25)-1</f>
+        <v>177</v>
+      </c>
       <c r="C20" s="84">
         <v>0</v>
       </c>
@@ -10760,44 +10801,56 @@
       <c r="G20" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="178"/>
-      <c r="I20" s="72" t="str">
+      <c r="H20" s="179"/>
+      <c r="I20" s="180" t="str">
         <f>_xll.qlSimpleQuote("stub",,,,Trigger)</f>
-        <v>stub#0020</v>
-      </c>
-      <c r="J20" s="178" t="str">
-        <f>_xll.qlDepositRateHelper2(,I20,G26&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
-        <v>obj_0063f#0015</v>
-      </c>
-      <c r="K20" s="178"/>
-      <c r="L20" s="179"/>
+        <v>stub#0003</v>
+      </c>
+      <c r="J20" s="181" t="str">
+        <f>_xll.qlDepositRateHelper2(,I20,B20&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
+        <v>obj_003b4#0010</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="77"/>
       <c r="N20" s="76"/>
     </row>
-    <row r="21" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="75"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="71"/>
       <c r="N21" s="76"/>
     </row>
     <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="191" t="e">
+      <c r="I22" s="184" t="e">
         <f>_xll.qlSimpleQuoteSetValue(I20,J22)</f>
         <v>#N/A</v>
       </c>
       <c r="J22" s="72">
         <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","ask")/100</f>
-        <v>8.5816708799999995E-3</v>
+        <v>8.5088269200000004E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="72">
+      <c r="G23" s="76">
         <f>_xll.qlIMMNextDate(_xll.qlSettingsEvaluationDate(Trigger),TRUE)</f>
         <v>41990</v>
       </c>
       <c r="J23" s="72">
         <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","bid")/100</f>
-        <v>8.381670879999999E-3</v>
+        <v>8.3088269199999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="72">
+      <c r="G24" s="76">
         <f>_xll.qlIMMNextDate(G23)</f>
         <v>42081</v>
       </c>
@@ -10807,19 +10860,13 @@
         <f>_xll.qlIMMNextDate(G24)</f>
         <v>42172</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="194">
         <f>_xll.qlRateHelperLatestDate(J20)</f>
-        <v>42173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="72">
-        <f>_xll.qlCalendarBusinessDaysBetween(D20,_xll.qlSettingsEvaluationDate(Trigger),G25)</f>
-        <v>178</v>
+        <v>42172</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
@@ -10933,7 +10980,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_0039e#0003</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -10967,7 +11014,7 @@
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00370#0003</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11001,7 +11048,7 @@
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0001</v>
+        <v>obj_003b2#0003</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11035,7 +11082,7 @@
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0038a#0003</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11069,7 +11116,7 @@
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00395#0003</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11103,7 +11150,7 @@
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_003aa#0003</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11137,7 +11184,7 @@
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003ac#0003</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11171,7 +11218,7 @@
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_003b1#0003</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11205,7 +11252,7 @@
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_0038f#0003</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11239,7 +11286,7 @@
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_0037b#0003</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11273,7 +11320,7 @@
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00369#0003</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11307,7 +11354,7 @@
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_00388#0003</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11341,7 +11388,7 @@
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0039a#0003</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11375,7 +11422,7 @@
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_0037c#0003</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11409,7 +11456,7 @@
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0037e#0003</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11443,7 +11490,7 @@
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0038b#0003</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11477,7 +11524,7 @@
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_00392#0003</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11511,7 +11558,7 @@
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0036d#0003</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11545,7 +11592,7 @@
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00389#0003</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11579,7 +11626,7 @@
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_00385#0003</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11613,7 +11660,7 @@
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_00376#0003</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11647,7 +11694,7 @@
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00384#0003</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11681,7 +11728,7 @@
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003a8#0003</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11715,7 +11762,7 @@
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_003ad#0003</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11749,7 +11796,7 @@
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_0037d#0003</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11783,7 +11830,7 @@
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00391#0003</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11817,7 +11864,7 @@
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003a0#0003</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11851,7 +11898,7 @@
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_003a7#0003</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11885,7 +11932,7 @@
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00381#0001</v>
+        <v>obj_003ae#0003</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11919,7 +11966,7 @@
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_003a1#0003</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -11953,7 +12000,7 @@
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00367#0003</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -11987,7 +12034,7 @@
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_003a9#0003</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12021,7 +12068,7 @@
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0001</v>
+        <v>obj_003af#0003</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12055,7 +12102,7 @@
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00399#0001</v>
+        <v>obj_0036c#0003</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12089,7 +12136,7 @@
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0001</v>
+        <v>obj_0036b#0003</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12123,7 +12170,7 @@
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00394#0003</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12157,7 +12204,7 @@
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_00390#0003</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12191,7 +12238,7 @@
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_003a6#0003</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12225,7 +12272,7 @@
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00365#0003</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12260,7 +12307,7 @@
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_003a5#0003</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12294,7 +12341,7 @@
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_003ab#0003</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12328,7 +12375,7 @@
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00379#0003</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12468,7 +12515,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="159" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00364#0003</v>
       </c>
       <c r="L4" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12527,7 +12574,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00380#0003</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12574,7 +12621,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00393#0003</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12625,7 +12672,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_0038e#0003</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12676,7 +12723,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0039c#0003</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12723,7 +12770,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_0039b#0003</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12774,7 +12821,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00398#0003</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12816,7 +12863,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_00373#0003</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12858,7 +12905,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_0038c#0003</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12900,7 +12947,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0037f#0003</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12942,7 +12989,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00371#0003</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12984,7 +13031,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00381#0003</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13026,7 +13073,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003b0#0003</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13068,7 +13115,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00366#0003</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13110,7 +13157,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_00377#0003</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13152,7 +13199,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_0038d#0003</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13194,7 +13241,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_00375#0003</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13236,7 +13283,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00378#0003</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13278,7 +13325,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_003a3#0003</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13320,7 +13367,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00399#0003</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13362,7 +13409,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_00386#0003</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13404,7 +13451,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00396#0001</v>
+        <v>obj_0039f#0003</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13446,7 +13493,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_0036a#0003</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13488,7 +13535,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00396#0003</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13530,7 +13577,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00397#0003</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13572,7 +13619,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0036f#0003</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13614,7 +13661,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_003a4#0003</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13656,7 +13703,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00374#0003</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13698,7 +13745,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0036e#0003</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13740,7 +13787,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00382#0003</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13782,7 +13829,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_00387#0003</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13824,7 +13871,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_0037a#0003</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13866,7 +13913,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_00368#0003</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13908,7 +13955,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003a2#0003</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -13950,7 +13997,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_0039d#0003</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -13992,7 +14039,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003b3#0003</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14034,7 +14081,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00372#0003</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -14076,7 +14123,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_00383#0003</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="45" windowWidth="15285" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="15225" yWindow="105" windowWidth="15285" windowHeight="8295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$21</definedName>
-    <definedName name="MinDistance">RateHelpers!$H$2:$H$97</definedName>
+    <definedName name="MinDistance">RateHelpers!$H$2:$H$98</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$M$14</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
@@ -38,11 +38,12 @@
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
+    <definedName name="QuoteLive" localSheetId="1">RateHelpers!$U$7:$U$48</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$B$2:$B$97</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$F$2:$F$97</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$G$2:$G$97</definedName>
+    <definedName name="RateHelpers">RateHelpers!$B$2:$B$98</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$F$2:$F$98</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$G$2:$G$98</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
     <definedName name="Serialize">'General Settings'!$M$4</definedName>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="148">
   <si>
     <t>60Y</t>
   </si>
@@ -667,7 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -681,7 +682,8 @@
     <numFmt numFmtId="174" formatCode="General_)"/>
     <numFmt numFmtId="175" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="0.00000%"/>
+    <numFmt numFmtId="177" formatCode="0.00000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -889,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1294,6 +1296,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1310,7 +1323,7 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1694,9 +1707,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1704,6 +1714,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,8 +1739,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1744,6 +1761,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>0.84340821599999993</v>
+        <stp/>
+        <stp>_x0012_GBP_STD_#20150617D_x0003_ask_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="J22" s="7"/>
+      </tp>
+      <tp>
+        <v>0.82340821600000003</v>
+        <stp/>
+        <stp>_x0012_GBP_STD_#20150617D_x0003_bid_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="J23" s="7"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2060,23 +2098,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="111" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Aug  6 2014 11:45:43</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="K2" s="183" t="s">
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
+      <c r="K2" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="186"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="192"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
@@ -2213,12 +2251,12 @@
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="40"/>
-      <c r="K9" s="183" t="s">
+      <c r="K9" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="186"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="192"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
@@ -2293,7 +2331,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0007</v>
+        <v>_GBPYCSTD#0010</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2418,11 +2456,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.9405344144962379E-2</v>
+        <v>2.9049082812273495E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2431,11 +2469,11 @@
       <c r="B24" s="43"/>
       <c r="C24" s="45">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63822</v>
+        <v>63829</v>
       </c>
       <c r="D24" s="121">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.7687688475639796E-3</v>
+        <v>4.7562690106835309E-3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2522,7 +2560,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2533,7 +2571,7 @@
     <col min="1" max="1" width="6" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="15.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -2579,7 +2617,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00357#0006</v>
+        <v>obj_00352#0003</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2587,7 +2625,7 @@
       </c>
       <c r="D2" s="6">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>4.7688000000000001E-3</v>
+        <v>4.7562999999999998E-3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="b">
@@ -2601,11 +2639,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2618,7 +2656,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0035b#0006</v>
+        <v>obj_00360#0003</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2626,7 +2664,7 @@
       </c>
       <c r="D3" s="6">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>4.8138E-3</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="74" t="b">
@@ -2640,11 +2678,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41911</v>
+        <v>41918</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2657,7 +2695,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00348#0006</v>
+        <v>obj_0034e#0003</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2665,7 +2703,7 @@
       </c>
       <c r="D4" s="6">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>4.8138E-3</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="74" t="b">
@@ -2679,17 +2717,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0035f#0006</v>
+        <v>obj_00363#0003</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2697,7 +2735,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.8915913000000004E-3</v>
+        <v>4.88095417E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2711,17 +2749,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41921</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00361#0006</v>
+        <v>obj_0035e#0003</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2729,7 +2767,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9693826099999998E-3</v>
+        <v>4.9431083300000003E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2743,17 +2781,17 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41928</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00355#0006</v>
+        <v>obj_00358#0003</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2761,7 +2799,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0693999999999991E-3</v>
+        <v>5.0319000000000006E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2775,17 +2813,17 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41939</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00351#0006</v>
+        <v>obj_00349#0003</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2793,7 +2831,7 @@
       </c>
       <c r="D8" s="6">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>5.3274999999999998E-3</v>
+        <v>5.3337999999999997E-3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="74" t="b">
@@ -2807,17 +2845,17 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41968</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00353#0006</v>
+        <v>obj_0034f#0003</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2825,7 +2863,7 @@
       </c>
       <c r="D9" s="6">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>5.6413000000000001E-3</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="74" t="b">
@@ -2839,17 +2877,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42002</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0035e#0006</v>
+        <v>obj_0035b#0003</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2857,7 +2895,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.1509945099999996E-3</v>
+        <v>6.1276219800000002E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2871,17 +2909,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42030</v>
+        <v>42037</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0035d#0006</v>
+        <v>obj_0035d#0003</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2889,7 +2927,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.6278054900000003E-3</v>
+        <v>6.5793450499999993E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2903,11 +2941,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42060</v>
+        <v>42065</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -2920,7 +2958,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_0034f#0006</v>
+        <v>obj_00350#0003</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2928,7 +2966,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>7.1374999999999997E-3</v>
+        <v>7.0955999999999997E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -2942,11 +2980,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42088</v>
+        <v>42096</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -2959,7 +2997,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00360#0006</v>
+        <v>obj_00362#0003</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -2967,7 +3005,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.7157786900000002E-3</v>
+        <v>7.63198846E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -2981,11 +3019,11 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42121</v>
+        <v>42129</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -2998,7 +3036,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00362#0006</v>
+        <v>obj_0035c#0003</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3006,7 +3044,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.294057379999999E-3</v>
+        <v>8.2423615399999997E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3020,11 +3058,11 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="K14" s="1">
         <v>60</v>
@@ -3037,7 +3075,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00359#0006</v>
+        <v>obj_00361#0003</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3045,7 +3083,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.89161202E-3</v>
+        <v>8.76025385E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3059,17 +3097,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42180</v>
+        <v>42187</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035a#0006</v>
+        <v>obj_0035f#0003</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3077,7 +3115,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.4698907099999997E-3</v>
+        <v>9.3336346199999996E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3091,17 +3129,17 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42212</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0035c#0006</v>
+        <v>obj_0035a#0003</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3109,7 +3147,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>1.0048169399999999E-2</v>
+        <v>9.925511540000001E-3</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3123,17 +3161,17 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42241</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0034d#0006</v>
+        <v>obj_00355#0003</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3141,7 +3179,7 @@
       </c>
       <c r="D18" s="6">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>1.0665000000000001E-2</v>
+        <v>1.04619E-2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="74" t="b">
@@ -3155,11 +3193,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42272</v>
+        <v>42279</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3169,101 +3207,96 @@
       </c>
       <c r="R18" s="73"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="150" t="str">
+    <row r="19" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="149" t="str">
+        <f>Deposits!J20</f>
+        <v>obj_003b4#0010</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>_xll.qlRateHelperQuoteName(B19)</f>
+        <v>stub</v>
+      </c>
+      <c r="D19" s="6">
+        <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
+        <v>8.5088269200000004E-3</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="74">
+        <v>10</v>
+      </c>
+      <c r="H19" s="74">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
+        <v>41914</v>
+      </c>
+      <c r="J19" s="3">
+        <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00377#0006</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f>_xll.qlRateHelperQuoteName(B19)</f>
+        <v>obj_0039e#0003</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>_xll.qlRateHelperQuoteName(B20)</f>
         <v>GBPFUT3MV4_Quote</v>
       </c>
-      <c r="D19" s="147" t="e">
-        <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" s="13" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($B19,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>60</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41927</v>
-      </c>
-      <c r="J19" s="10">
-        <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
-        <v>42019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="149" t="str">
-        <f>Futures!H4</f>
-        <v>obj_00391#0006</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>_xll.qlRateHelperQuoteName(B20)</f>
-        <v>GBPFUT3MX4_Quote</v>
-      </c>
-      <c r="D20" s="16" t="e">
+      <c r="D20" s="147" t="e">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E20" s="6" t="e">
+      <c r="E20" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F20" s="74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
         <v>60</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
         <f>_xll.qlRateHelperEarliestDate($B20,Trigger)</f>
-        <v>41962</v>
-      </c>
-      <c r="J20" s="3">
+        <v>41927</v>
+      </c>
+      <c r="J20" s="10">
         <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
-        <v>42054</v>
-      </c>
+        <v>42019</v>
+      </c>
+      <c r="M20" s="185"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="149" t="str">
-        <f>Futures!H5</f>
-        <v>obj_0036e#0006</v>
+        <f>Futures!H4</f>
+        <v>obj_00370#0003</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>GBPFUT3MZ4_Quote</v>
-      </c>
-      <c r="D21" s="16">
+        <v>GBPFUT3MX4_Quote</v>
+      </c>
+      <c r="D21" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>99.344999999999999</v>
-      </c>
-      <c r="E21" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E21" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
-        <v>4.7335137414518424E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="F21" s="74" t="b">
         <v>0</v>
@@ -3276,32 +3309,33 @@
       </c>
       <c r="I21" s="4">
         <f>_xll.qlRateHelperEarliestDate($B21,Trigger)</f>
-        <v>41990</v>
+        <v>41962</v>
       </c>
       <c r="J21" s="3">
         <f>_xll.qlRateHelperLatestDate($B21,Trigger)</f>
-        <v>42080</v>
-      </c>
+        <v>42054</v>
+      </c>
+      <c r="M21" s="185"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="149" t="str">
-        <f>Futures!H6</f>
-        <v>obj_003ae#0006</v>
+        <f>Futures!H5</f>
+        <v>obj_003b2#0003</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>GBPFUT3MF5_Quote</v>
-      </c>
-      <c r="D22" s="16" t="e">
+        <v>GBPFUT3MZ4_Quote</v>
+      </c>
+      <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" s="6" t="e">
+        <v>99.35499999999999</v>
+      </c>
+      <c r="E22" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F22" s="74" t="b">
         <v>0</v>
@@ -3314,24 +3348,25 @@
       </c>
       <c r="I22" s="4">
         <f>_xll.qlRateHelperEarliestDate($B22,Trigger)</f>
-        <v>42025</v>
+        <v>41990</v>
       </c>
       <c r="J22" s="3">
         <f>_xll.qlRateHelperLatestDate($B22,Trigger)</f>
-        <v>42115</v>
-      </c>
+        <v>42080</v>
+      </c>
+      <c r="M22" s="185"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B23" s="149" t="str">
-        <f>Futures!H7</f>
-        <v>obj_003ac#0006</v>
+        <f>Futures!H6</f>
+        <v>obj_0038a#0003</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>GBPFUT3MG5_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="D23" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
@@ -3352,32 +3387,33 @@
       </c>
       <c r="I23" s="4">
         <f>_xll.qlRateHelperEarliestDate($B23,Trigger)</f>
-        <v>42053</v>
+        <v>42025</v>
       </c>
       <c r="J23" s="3">
         <f>_xll.qlRateHelperLatestDate($B23,Trigger)</f>
-        <v>42142</v>
-      </c>
+        <v>42115</v>
+      </c>
+      <c r="M23" s="185"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B24" s="149" t="str">
-        <f>Futures!H8</f>
-        <v>obj_00389#0006</v>
+        <f>Futures!H7</f>
+        <v>obj_00395#0003</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>GBPFUT3MH5_Quote</v>
-      </c>
-      <c r="D24" s="16">
+        <v>GBPFUT3MG5_Quote</v>
+      </c>
+      <c r="D24" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
-        <v>99.164999999999992</v>
-      </c>
-      <c r="E24" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
-        <v>1.3420654014619364E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="F24" s="74" t="b">
         <v>0</v>
@@ -3390,35 +3426,36 @@
       </c>
       <c r="I24" s="4">
         <f>_xll.qlRateHelperEarliestDate($B24,Trigger)</f>
-        <v>42081</v>
+        <v>42053</v>
       </c>
       <c r="J24" s="3">
         <f>_xll.qlRateHelperLatestDate($B24,Trigger)</f>
-        <v>42173</v>
-      </c>
+        <v>42142</v>
+      </c>
+      <c r="M24" s="185"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B25" s="149" t="str">
-        <f>Futures!H9</f>
-        <v>obj_00394#0006</v>
+        <f>Futures!H8</f>
+        <v>obj_003aa#0003</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>GBPFUT3MJ5_Quote</v>
-      </c>
-      <c r="D25" s="16" t="e">
+        <v>GBPFUT3MH5_Quote</v>
+      </c>
+      <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" s="6" t="e">
+        <v>99.204999999999998</v>
+      </c>
+      <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F25" s="74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
         <v>60</v>
@@ -3428,24 +3465,25 @@
       </c>
       <c r="I25" s="4">
         <f>_xll.qlRateHelperEarliestDate($B25,Trigger)</f>
-        <v>42109</v>
+        <v>42081</v>
       </c>
       <c r="J25" s="3">
         <f>_xll.qlRateHelperLatestDate($B25,Trigger)</f>
-        <v>42200</v>
-      </c>
+        <v>42173</v>
+      </c>
+      <c r="M25" s="185"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B26" s="149" t="str">
-        <f>Futures!H10</f>
-        <v>obj_00383#0006</v>
+        <f>Futures!H9</f>
+        <v>obj_003ac#0003</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>GBPFUT3MK5_Quote</v>
+        <v>GBPFUT3MJ5_Quote</v>
       </c>
       <c r="D26" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
@@ -3466,32 +3504,33 @@
       </c>
       <c r="I26" s="4">
         <f>_xll.qlRateHelperEarliestDate($B26,Trigger)</f>
-        <v>42144</v>
+        <v>42109</v>
       </c>
       <c r="J26" s="3">
         <f>_xll.qlRateHelperLatestDate($B26,Trigger)</f>
-        <v>42236</v>
-      </c>
+        <v>42200</v>
+      </c>
+      <c r="M26" s="185"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B27" s="149" t="str">
-        <f>Futures!H11</f>
-        <v>obj_00393#0006</v>
+        <f>Futures!H10</f>
+        <v>obj_003b1#0003</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>GBPFUT3MM5_Quote</v>
-      </c>
-      <c r="D27" s="16">
+        <v>GBPFUT3MK5_Quote</v>
+      </c>
+      <c r="D27" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
-        <v>98.965000000000003</v>
-      </c>
-      <c r="E27" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
-        <v>2.5467539818158627E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="F27" s="74" t="b">
         <v>1</v>
@@ -3504,33 +3543,33 @@
       </c>
       <c r="I27" s="4">
         <f>_xll.qlRateHelperEarliestDate($B27,Trigger)</f>
-        <v>42172</v>
+        <v>42144</v>
       </c>
       <c r="J27" s="3">
         <f>_xll.qlRateHelperLatestDate($B27,Trigger)</f>
-        <v>42264</v>
-      </c>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42236</v>
+      </c>
+      <c r="M27" s="185"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B28" s="149" t="str">
-        <f>Futures!H12</f>
-        <v>obj_0036b#0006</v>
+        <f>Futures!H11</f>
+        <v>obj_0038f#0003</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>GBPFUT3MN5_Quote</v>
-      </c>
-      <c r="D28" s="16" t="e">
+        <v>GBPFUT3MM5_Quote</v>
+      </c>
+      <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E28" s="6" t="e">
+        <v>99.029200000000003</v>
+      </c>
+      <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F28" s="74" t="b">
         <v>1</v>
@@ -3543,25 +3582,26 @@
       </c>
       <c r="I28" s="4">
         <f>_xll.qlRateHelperEarliestDate($B28,Trigger)</f>
-        <v>42200</v>
+        <v>42172</v>
       </c>
       <c r="J28" s="3">
         <f>_xll.qlRateHelperLatestDate($B28,Trigger)</f>
-        <v>42292</v>
+        <v>42264</v>
       </c>
       <c r="L28" s="73"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M28" s="185"/>
+    </row>
+    <row r="29" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B29" s="149" t="str">
-        <f>Futures!H13</f>
-        <v>obj_00376#0006</v>
+        <f>Futures!H12</f>
+        <v>obj_0037b#0003</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>GBPFUT3MQ5_Quote</v>
+        <v>GBPFUT3MN5_Quote</v>
       </c>
       <c r="D29" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
@@ -3582,34 +3622,34 @@
       </c>
       <c r="I29" s="4">
         <f>_xll.qlRateHelperEarliestDate($B29,Trigger)</f>
-        <v>42235</v>
+        <v>42200</v>
       </c>
       <c r="J29" s="3">
         <f>_xll.qlRateHelperLatestDate($B29,Trigger)</f>
-        <v>42327</v>
+        <v>42292</v>
       </c>
       <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
+      <c r="M29" s="185"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="B30" s="149" t="str">
-        <f>Futures!H14</f>
-        <v>obj_0037f#0006</v>
+        <f>Futures!H13</f>
+        <v>obj_00369#0003</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>GBPFUT3MU5_Quote</v>
-      </c>
-      <c r="D30" s="16">
+        <v>GBPFUT3MQ5_Quote</v>
+      </c>
+      <c r="D30" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
-        <v>98.765000000000001</v>
-      </c>
-      <c r="E30" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
-        <v>4.0723022000383242E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="F30" s="74" t="b">
         <v>1</v>
@@ -3622,34 +3662,34 @@
       </c>
       <c r="I30" s="4">
         <f>_xll.qlRateHelperEarliestDate($B30,Trigger)</f>
-        <v>42263</v>
+        <v>42235</v>
       </c>
       <c r="J30" s="3">
         <f>_xll.qlRateHelperLatestDate($B30,Trigger)</f>
-        <v>42354</v>
+        <v>42327</v>
       </c>
       <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="M30" s="185"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="149" t="str">
-        <f>Futures!H15</f>
-        <v>obj_00370#0006</v>
+        <f>Futures!H14</f>
+        <v>obj_00388#0003</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.545000000000002</v>
+        <v>98.851699999999994</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
-        <v>5.9382011539265042E-5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="74" t="b">
         <v>1</v>
@@ -3662,35 +3702,34 @@
       </c>
       <c r="I31" s="4">
         <f>_xll.qlRateHelperEarliestDate($B31,Trigger)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="J31" s="3">
         <f>_xll.qlRateHelperLatestDate($B31,Trigger)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
+      <c r="M31" s="185"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B32" s="149" t="str">
-        <f>Futures!H16</f>
-        <v>obj_00368#0006</v>
+        <f>Futures!H15</f>
+        <v>obj_0039a#0003</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.35499999999999</v>
+        <v>98.6648</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
-        <v>8.1479903905399813E-5</v>
+        <v>0</v>
       </c>
       <c r="F32" s="74" t="b">
         <v>1</v>
@@ -3703,14 +3742,14 @@
       </c>
       <c r="I32" s="4">
         <f>_xll.qlRateHelperEarliestDate($B32,Trigger)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="J32" s="3">
         <f>_xll.qlRateHelperLatestDate($B32,Trigger)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
+      <c r="M32" s="185"/>
       <c r="N32" s="73"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -3718,20 +3757,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="149" t="str">
-        <f>Futures!H17</f>
-        <v>obj_0037a#0006</v>
+        <f>Futures!H16</f>
+        <v>obj_0037c#0003</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.175000000000011</v>
+        <v>98.488399999999999</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
-        <v>1.065357404825213E-4</v>
+        <v>0</v>
       </c>
       <c r="F33" s="74" t="b">
         <v>1</v>
@@ -3744,14 +3783,14 @@
       </c>
       <c r="I33" s="4">
         <f>_xll.qlRateHelperEarliestDate($B33,Trigger)</f>
-        <v>42536</v>
+        <v>42445</v>
       </c>
       <c r="J33" s="3">
         <f>_xll.qlRateHelperLatestDate($B33,Trigger)</f>
-        <v>42628</v>
+        <v>42537</v>
       </c>
       <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
+      <c r="M33" s="185"/>
       <c r="N33" s="73"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3759,20 +3798,20 @@
         <v>1</v>
       </c>
       <c r="B34" s="149" t="str">
-        <f>Futures!H18</f>
-        <v>obj_0037b#0006</v>
+        <f>Futures!H17</f>
+        <v>obj_0037e#0003</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
-        <v>GBPFUT3MU6_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>97.995000000000005</v>
+        <v>98.332599999999999</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
-        <v>1.3665505490881717E-4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="74" t="b">
         <v>1</v>
@@ -3785,14 +3824,14 @@
       </c>
       <c r="I34" s="4">
         <f>_xll.qlRateHelperEarliestDate($B34,Trigger)</f>
-        <v>42634</v>
+        <v>42536</v>
       </c>
       <c r="J34" s="3">
         <f>_xll.qlRateHelperLatestDate($B34,Trigger)</f>
-        <v>42725</v>
+        <v>42628</v>
       </c>
       <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
+      <c r="M34" s="185"/>
       <c r="N34" s="73"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3800,20 +3839,20 @@
         <v>1</v>
       </c>
       <c r="B35" s="149" t="str">
-        <f>Futures!H19</f>
-        <v>obj_0039c#0006</v>
+        <f>Futures!H18</f>
+        <v>obj_0038b#0003</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
-        <v>GBPFUT3MZ6_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>97.844999999999999</v>
+        <v>98.167500000000004</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
-        <v>1.6764426115711069E-4</v>
+        <v>0</v>
       </c>
       <c r="F35" s="74" t="b">
         <v>1</v>
@@ -3826,14 +3865,14 @@
       </c>
       <c r="I35" s="4">
         <f>_xll.qlRateHelperEarliestDate($B35,Trigger)</f>
-        <v>42725</v>
+        <v>42634</v>
       </c>
       <c r="J35" s="3">
         <f>_xll.qlRateHelperLatestDate($B35,Trigger)</f>
-        <v>42815</v>
+        <v>42725</v>
       </c>
       <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
+      <c r="M35" s="185"/>
       <c r="N35" s="73"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3841,40 +3880,40 @@
         <v>1</v>
       </c>
       <c r="B36" s="149" t="str">
-        <f>Futures!H20</f>
-        <v>obj_00387#0006</v>
+        <f>Futures!H19</f>
+        <v>obj_00392#0003</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
-        <v>GBPFUT3MH7_Quote</v>
+        <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>97.734999999999999</v>
+        <v>98.004999999999995</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
-        <v>1.9986049234161846E-4</v>
+        <v>0</v>
       </c>
       <c r="F36" s="74" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="I36" s="4">
         <f>_xll.qlRateHelperEarliestDate($B36,Trigger)</f>
-        <v>42809</v>
+        <v>42725</v>
       </c>
       <c r="J36" s="3">
         <f>_xll.qlRateHelperLatestDate($B36,Trigger)</f>
-        <v>42901</v>
+        <v>42815</v>
       </c>
       <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
+      <c r="M36" s="185"/>
       <c r="N36" s="73"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3882,20 +3921,20 @@
         <v>1</v>
       </c>
       <c r="B37" s="149" t="str">
-        <f>Futures!H21</f>
-        <v>obj_00366#0006</v>
+        <f>Futures!H20</f>
+        <v>obj_0036d#0003</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
-        <v>GBPFUT3MM7_Quote</v>
+        <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>97.634999999999991</v>
+        <v>97.89500000000001</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
-        <v>2.3973068683783518E-4</v>
+        <v>0</v>
       </c>
       <c r="F37" s="74" t="b">
         <v>1</v>
@@ -3908,14 +3947,14 @@
       </c>
       <c r="I37" s="4">
         <f>_xll.qlRateHelperEarliestDate($B37,Trigger)</f>
-        <v>42907</v>
+        <v>42809</v>
       </c>
       <c r="J37" s="3">
         <f>_xll.qlRateHelperLatestDate($B37,Trigger)</f>
-        <v>42999</v>
+        <v>42901</v>
       </c>
       <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
+      <c r="M37" s="185"/>
       <c r="N37" s="73"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3923,20 +3962,20 @@
         <v>1</v>
       </c>
       <c r="B38" s="149" t="str">
-        <f>Futures!H22</f>
-        <v>obj_0037d#0006</v>
+        <f>Futures!H21</f>
+        <v>obj_00389#0003</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
-        <v>GBPFUT3MU7_Quote</v>
+        <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>97.555000000000007</v>
+        <v>97.784999999999997</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
-        <v>2.7920539463169351E-4</v>
+        <v>0</v>
       </c>
       <c r="F38" s="74" t="b">
         <v>1</v>
@@ -3949,14 +3988,14 @@
       </c>
       <c r="I38" s="4">
         <f>_xll.qlRateHelperEarliestDate($B38,Trigger)</f>
-        <v>42998</v>
+        <v>42907</v>
       </c>
       <c r="J38" s="3">
         <f>_xll.qlRateHelperLatestDate($B38,Trigger)</f>
-        <v>43089</v>
+        <v>42999</v>
       </c>
       <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
+      <c r="M38" s="185"/>
       <c r="N38" s="73"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3964,20 +4003,20 @@
         <v>1</v>
       </c>
       <c r="B39" s="149" t="str">
-        <f>Futures!H23</f>
-        <v>obj_0039e#0006</v>
+        <f>Futures!H22</f>
+        <v>obj_00385#0003</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
-        <v>GBPFUT3MZ7_Quote</v>
+        <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.474999999999994</v>
+        <v>97.704999999999998</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
-        <v>3.2133859529653077E-4</v>
+        <v>0</v>
       </c>
       <c r="F39" s="74" t="b">
         <v>1</v>
@@ -3990,14 +4029,14 @@
       </c>
       <c r="I39" s="4">
         <f>_xll.qlRateHelperEarliestDate($B39,Trigger)</f>
-        <v>43089</v>
+        <v>42998</v>
       </c>
       <c r="J39" s="3">
         <f>_xll.qlRateHelperLatestDate($B39,Trigger)</f>
-        <v>43179</v>
+        <v>43089</v>
       </c>
       <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="73"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -4005,20 +4044,20 @@
         <v>1</v>
       </c>
       <c r="B40" s="149" t="str">
-        <f>Futures!H24</f>
-        <v>obj_0036d#0006</v>
+        <f>Futures!H23</f>
+        <v>obj_00376#0003</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
-        <v>GBPFUT3MH8_Quote</v>
+        <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.414999999999992</v>
+        <v>97.625</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
-        <v>3.6758587335111937E-4</v>
+        <v>0</v>
       </c>
       <c r="F40" s="74" t="b">
         <v>1</v>
@@ -4031,14 +4070,14 @@
       </c>
       <c r="I40" s="4">
         <f>_xll.qlRateHelperEarliestDate($B40,Trigger)</f>
-        <v>43180</v>
+        <v>43089</v>
       </c>
       <c r="J40" s="3">
         <f>_xll.qlRateHelperLatestDate($B40,Trigger)</f>
-        <v>43272</v>
+        <v>43179</v>
       </c>
       <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
+      <c r="M40" s="185"/>
       <c r="N40" s="73"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -4046,20 +4085,20 @@
         <v>1</v>
       </c>
       <c r="B41" s="149" t="str">
-        <f>Futures!H25</f>
-        <v>obj_00372#0006</v>
+        <f>Futures!H24</f>
+        <v>obj_00384#0003</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
-        <v>GBPFUT3MM8_Quote</v>
+        <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.365000000000009</v>
+        <v>97.56</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
-        <v>4.1546506466755192E-4</v>
+        <v>0</v>
       </c>
       <c r="F41" s="74" t="b">
         <v>1</v>
@@ -4072,14 +4111,14 @@
       </c>
       <c r="I41" s="4">
         <f>_xll.qlRateHelperEarliestDate($B41,Trigger)</f>
-        <v>43271</v>
+        <v>43180</v>
       </c>
       <c r="J41" s="3">
         <f>_xll.qlRateHelperLatestDate($B41,Trigger)</f>
-        <v>43363</v>
+        <v>43272</v>
       </c>
       <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
+      <c r="M41" s="185"/>
       <c r="N41" s="73"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -4087,20 +4126,20 @@
         <v>1</v>
       </c>
       <c r="B42" s="149" t="str">
-        <f>Futures!H26</f>
-        <v>obj_00390#0006</v>
+        <f>Futures!H25</f>
+        <v>obj_003a8#0003</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
-        <v>GBPFUT3MU8_Quote</v>
+        <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.324999999999989</v>
+        <v>97.5</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
-        <v>4.6528663456285401E-4</v>
+        <v>0</v>
       </c>
       <c r="F42" s="74" t="b">
         <v>1</v>
@@ -4113,14 +4152,14 @@
       </c>
       <c r="I42" s="4">
         <f>_xll.qlRateHelperEarliestDate($B42,Trigger)</f>
-        <v>43362</v>
+        <v>43271</v>
       </c>
       <c r="J42" s="3">
         <f>_xll.qlRateHelperLatestDate($B42,Trigger)</f>
-        <v>43453</v>
+        <v>43363</v>
       </c>
       <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
+      <c r="M42" s="185"/>
       <c r="N42" s="73"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -4128,20 +4167,20 @@
         <v>1</v>
       </c>
       <c r="B43" s="149" t="str">
-        <f>Futures!H27</f>
-        <v>obj_003a3#0006</v>
+        <f>Futures!H26</f>
+        <v>obj_003ad#0003</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
-        <v>GBPFUT3MZ8_Quote</v>
+        <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.275000000000006</v>
+        <v>97.43</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
-        <v>5.1752454253955809E-4</v>
+        <v>0</v>
       </c>
       <c r="F43" s="74" t="b">
         <v>1</v>
@@ -4154,14 +4193,14 @@
       </c>
       <c r="I43" s="4">
         <f>_xll.qlRateHelperEarliestDate($B43,Trigger)</f>
-        <v>43453</v>
+        <v>43362</v>
       </c>
       <c r="J43" s="3">
         <f>_xll.qlRateHelperLatestDate($B43,Trigger)</f>
-        <v>43543</v>
+        <v>43453</v>
       </c>
       <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
+      <c r="M43" s="185"/>
       <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -4169,20 +4208,20 @@
         <v>1</v>
       </c>
       <c r="B44" s="149" t="str">
-        <f>Futures!H28</f>
-        <v>obj_0036c#0006</v>
+        <f>Futures!H27</f>
+        <v>obj_0037d#0003</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
-        <v>GBPFUT3MH9_Quote</v>
+        <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.234999999999999</v>
+        <v>97.375</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
-        <v>5.7403347067243305E-4</v>
+        <v>0</v>
       </c>
       <c r="F44" s="74" t="b">
         <v>1</v>
@@ -4195,14 +4234,14 @@
       </c>
       <c r="I44" s="4">
         <f>_xll.qlRateHelperEarliestDate($B44,Trigger)</f>
-        <v>43544</v>
+        <v>43453</v>
       </c>
       <c r="J44" s="3">
         <f>_xll.qlRateHelperLatestDate($B44,Trigger)</f>
-        <v>43636</v>
+        <v>43543</v>
       </c>
       <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
+      <c r="M44" s="185"/>
       <c r="N44" s="73"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -4210,20 +4249,20 @@
         <v>1</v>
       </c>
       <c r="B45" s="149" t="str">
-        <f>Futures!H29</f>
-        <v>obj_00380#0006</v>
+        <f>Futures!H28</f>
+        <v>obj_00391#0003</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
-        <v>GBPFUT3MM9_Quote</v>
+        <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.210000000000008</v>
+        <v>97.33</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
-        <v>6.3164452373354351E-4</v>
+        <v>0</v>
       </c>
       <c r="F45" s="74" t="b">
         <v>1</v>
@@ -4236,14 +4275,14 @@
       </c>
       <c r="I45" s="4">
         <f>_xll.qlRateHelperEarliestDate($B45,Trigger)</f>
-        <v>43635</v>
+        <v>43544</v>
       </c>
       <c r="J45" s="3">
         <f>_xll.qlRateHelperLatestDate($B45,Trigger)</f>
-        <v>43727</v>
+        <v>43636</v>
       </c>
       <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
+      <c r="M45" s="185"/>
       <c r="N45" s="73"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -4251,20 +4290,20 @@
         <v>1</v>
       </c>
       <c r="B46" s="149" t="str">
-        <f>Futures!H30</f>
-        <v>obj_003aa#0006</v>
+        <f>Futures!H29</f>
+        <v>obj_003a0#0003</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
-        <v>GBPFUT3MU9_Quote</v>
-      </c>
-      <c r="D46" s="16">
+        <v>GBPFUT3MM9_Quote</v>
+      </c>
+      <c r="D46" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.17</v>
-      </c>
-      <c r="E46" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
-        <v>6.9086013546234236E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="F46" s="74" t="b">
         <v>1</v>
@@ -4277,73 +4316,76 @@
       </c>
       <c r="I46" s="4">
         <f>_xll.qlRateHelperEarliestDate($B46,Trigger)</f>
-        <v>43726</v>
+        <v>43635</v>
       </c>
       <c r="J46" s="3">
         <f>_xll.qlRateHelperLatestDate($B46,Trigger)</f>
-        <v>43817</v>
+        <v>43727</v>
       </c>
       <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
+      <c r="M46" s="185"/>
       <c r="N46" s="73"/>
     </row>
-    <row r="47" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B47" s="149" t="str">
-        <f>Futures!H31</f>
-        <v>obj_0039a#0006</v>
+        <f>Futures!H30</f>
+        <v>obj_003a7#0003</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
-        <v>GBPFUT3MZ9_Quote</v>
-      </c>
-      <c r="D47" s="16">
+        <v>GBPFUT3MU9_Quote</v>
+      </c>
+      <c r="D47" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.134999999999991</v>
-      </c>
-      <c r="E47" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
-        <v>7.5298225712401427E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="F47" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="G47" s="74">
+      <c r="G47" s="5">
         <v>30</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="5">
         <v>1</v>
       </c>
       <c r="I47" s="4">
         <f>_xll.qlRateHelperEarliestDate($B47,Trigger)</f>
-        <v>43817</v>
+        <v>43726</v>
       </c>
       <c r="J47" s="3">
         <f>_xll.qlRateHelperLatestDate($B47,Trigger)</f>
-        <v>43908</v>
-      </c>
+        <v>43817</v>
+      </c>
+      <c r="L47" s="73"/>
+      <c r="M47" s="185"/>
+      <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B48" s="149" t="str">
-        <f>Futures!H32</f>
-        <v>obj_0038c#0006</v>
+        <f>Futures!H31</f>
+        <v>obj_003ae#0003</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
-        <v>GBPFUT3MH0_Quote</v>
-      </c>
-      <c r="D48" s="16">
+        <v>GBPFUT3MZ9_Quote</v>
+      </c>
+      <c r="D48" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.10499999999999</v>
-      </c>
-      <c r="E48" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" s="6" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
-        <v>8.1804915904803868E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="F48" s="74" t="b">
         <v>1</v>
@@ -4356,24 +4398,25 @@
       </c>
       <c r="I48" s="4">
         <f>_xll.qlRateHelperEarliestDate($B48,Trigger)</f>
-        <v>43908</v>
+        <v>43817</v>
       </c>
       <c r="J48" s="3">
         <f>_xll.qlRateHelperLatestDate($B48,Trigger)</f>
-        <v>44000</v>
-      </c>
+        <v>43908</v>
+      </c>
+      <c r="M48" s="185"/>
     </row>
     <row r="49" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B49" s="149" t="str">
-        <f>Futures!H33</f>
-        <v>obj_0038a#0006</v>
+        <f>Futures!H32</f>
+        <v>obj_003a1#0003</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
-        <v>GBPFUT3MM0_Quote</v>
+        <v>GBPFUT3MH0_Quote</v>
       </c>
       <c r="D49" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
@@ -4394,24 +4437,25 @@
       </c>
       <c r="I49" s="4">
         <f>_xll.qlRateHelperEarliestDate($B49,Trigger)</f>
-        <v>43999</v>
+        <v>43908</v>
       </c>
       <c r="J49" s="3">
         <f>_xll.qlRateHelperLatestDate($B49,Trigger)</f>
-        <v>44091</v>
-      </c>
+        <v>44000</v>
+      </c>
+      <c r="M49" s="185"/>
     </row>
     <row r="50" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B50" s="149" t="str">
-        <f>Futures!H34</f>
-        <v>obj_00371#0006</v>
+        <f>Futures!H33</f>
+        <v>obj_00367#0003</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
-        <v>GBPFUT3MU0_Quote</v>
+        <v>GBPFUT3MM0_Quote</v>
       </c>
       <c r="D50" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
@@ -4432,24 +4476,25 @@
       </c>
       <c r="I50" s="4">
         <f>_xll.qlRateHelperEarliestDate($B50,Trigger)</f>
-        <v>44090</v>
+        <v>43999</v>
       </c>
       <c r="J50" s="3">
         <f>_xll.qlRateHelperLatestDate($B50,Trigger)</f>
-        <v>44181</v>
-      </c>
+        <v>44091</v>
+      </c>
+      <c r="M50" s="185"/>
     </row>
     <row r="51" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B51" s="149" t="str">
-        <f>Futures!H35</f>
-        <v>obj_003a8#0006</v>
+        <f>Futures!H34</f>
+        <v>obj_003a9#0003</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
-        <v>GBPFUT3MZ0_Quote</v>
+        <v>GBPFUT3MU0_Quote</v>
       </c>
       <c r="D51" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
@@ -4470,24 +4515,25 @@
       </c>
       <c r="I51" s="4">
         <f>_xll.qlRateHelperEarliestDate($B51,Trigger)</f>
-        <v>44181</v>
+        <v>44090</v>
       </c>
       <c r="J51" s="3">
         <f>_xll.qlRateHelperLatestDate($B51,Trigger)</f>
-        <v>44271</v>
-      </c>
+        <v>44181</v>
+      </c>
+      <c r="M51" s="185"/>
     </row>
     <row r="52" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B52" s="149" t="str">
-        <f>Futures!H36</f>
-        <v>obj_003a2#0006</v>
+        <f>Futures!H35</f>
+        <v>obj_003af#0003</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
-        <v>GBPFUT3MH1_Quote</v>
+        <v>GBPFUT3MZ0_Quote</v>
       </c>
       <c r="D52" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
@@ -4508,24 +4554,25 @@
       </c>
       <c r="I52" s="4">
         <f>_xll.qlRateHelperEarliestDate($B52,Trigger)</f>
-        <v>44272</v>
+        <v>44181</v>
       </c>
       <c r="J52" s="3">
         <f>_xll.qlRateHelperLatestDate($B52,Trigger)</f>
-        <v>44364</v>
-      </c>
+        <v>44271</v>
+      </c>
+      <c r="M52" s="185"/>
     </row>
     <row r="53" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B53" s="149" t="str">
-        <f>Futures!H37</f>
-        <v>obj_0037c#0006</v>
+        <f>Futures!H36</f>
+        <v>obj_0036c#0003</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
-        <v>GBPFUT3MM1_Quote</v>
+        <v>GBPFUT3MH1_Quote</v>
       </c>
       <c r="D53" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
@@ -4546,24 +4593,25 @@
       </c>
       <c r="I53" s="4">
         <f>_xll.qlRateHelperEarliestDate($B53,Trigger)</f>
-        <v>44363</v>
+        <v>44272</v>
       </c>
       <c r="J53" s="3">
         <f>_xll.qlRateHelperLatestDate($B53,Trigger)</f>
-        <v>44455</v>
-      </c>
+        <v>44364</v>
+      </c>
+      <c r="M53" s="185"/>
     </row>
     <row r="54" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B54" s="149" t="str">
-        <f>Futures!H38</f>
-        <v>obj_003a1#0006</v>
+        <f>Futures!H37</f>
+        <v>obj_0036b#0003</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
-        <v>GBPFUT3MU1_Quote</v>
+        <v>GBPFUT3MM1_Quote</v>
       </c>
       <c r="D54" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
@@ -4584,24 +4632,25 @@
       </c>
       <c r="I54" s="4">
         <f>_xll.qlRateHelperEarliestDate($B54,Trigger)</f>
-        <v>44454</v>
+        <v>44363</v>
       </c>
       <c r="J54" s="3">
         <f>_xll.qlRateHelperLatestDate($B54,Trigger)</f>
-        <v>44545</v>
-      </c>
+        <v>44455</v>
+      </c>
+      <c r="M54" s="185"/>
     </row>
     <row r="55" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B55" s="149" t="str">
-        <f>Futures!H39</f>
-        <v>obj_0038e#0006</v>
+        <f>Futures!H38</f>
+        <v>obj_00394#0003</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
-        <v>GBPFUT3MZ1_Quote</v>
+        <v>GBPFUT3MU1_Quote</v>
       </c>
       <c r="D55" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
@@ -4622,24 +4671,25 @@
       </c>
       <c r="I55" s="4">
         <f>_xll.qlRateHelperEarliestDate($B55,Trigger)</f>
-        <v>44545</v>
+        <v>44454</v>
       </c>
       <c r="J55" s="3">
         <f>_xll.qlRateHelperLatestDate($B55,Trigger)</f>
-        <v>44635</v>
-      </c>
+        <v>44545</v>
+      </c>
+      <c r="M55" s="185"/>
     </row>
     <row r="56" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B56" s="149" t="str">
-        <f>Futures!H40</f>
-        <v>obj_00397#0006</v>
+        <f>Futures!H39</f>
+        <v>obj_00390#0003</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
-        <v>GBPFUT3MH2_Quote</v>
+        <v>GBPFUT3MZ1_Quote</v>
       </c>
       <c r="D56" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
@@ -4660,24 +4710,25 @@
       </c>
       <c r="I56" s="4">
         <f>_xll.qlRateHelperEarliestDate($B56,Trigger)</f>
-        <v>44636</v>
+        <v>44545</v>
       </c>
       <c r="J56" s="3">
         <f>_xll.qlRateHelperLatestDate($B56,Trigger)</f>
-        <v>44728</v>
-      </c>
+        <v>44635</v>
+      </c>
+      <c r="M56" s="185"/>
     </row>
     <row r="57" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B57" s="149" t="str">
-        <f>Futures!H41</f>
-        <v>obj_00364#0006</v>
+        <f>Futures!H40</f>
+        <v>obj_003a6#0003</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
-        <v>GBPFUT3MM2_Quote</v>
+        <v>GBPFUT3MH2_Quote</v>
       </c>
       <c r="D57" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
@@ -4698,24 +4749,25 @@
       </c>
       <c r="I57" s="4">
         <f>_xll.qlRateHelperEarliestDate($B57,Trigger)</f>
-        <v>44727</v>
+        <v>44636</v>
       </c>
       <c r="J57" s="3">
         <f>_xll.qlRateHelperLatestDate($B57,Trigger)</f>
-        <v>44819</v>
-      </c>
+        <v>44728</v>
+      </c>
+      <c r="M57" s="185"/>
     </row>
     <row r="58" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B58" s="149" t="str">
-        <f>Futures!H42</f>
-        <v>obj_00378#0006</v>
+        <f>Futures!H41</f>
+        <v>obj_00365#0003</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
-        <v>GBPFUT3MU2_Quote</v>
+        <v>GBPFUT3MM2_Quote</v>
       </c>
       <c r="D58" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
@@ -4736,24 +4788,25 @@
       </c>
       <c r="I58" s="4">
         <f>_xll.qlRateHelperEarliestDate($B58,Trigger)</f>
-        <v>44825</v>
+        <v>44727</v>
       </c>
       <c r="J58" s="3">
         <f>_xll.qlRateHelperLatestDate($B58,Trigger)</f>
-        <v>44916</v>
-      </c>
+        <v>44819</v>
+      </c>
+      <c r="M58" s="185"/>
     </row>
     <row r="59" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="149" t="str">
-        <f>Futures!H43</f>
-        <v>obj_0038d#0006</v>
+        <f>Futures!H42</f>
+        <v>obj_003a5#0003</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
-        <v>GBPFUT3MZ2_Quote</v>
+        <v>GBPFUT3MU2_Quote</v>
       </c>
       <c r="D59" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
@@ -4774,24 +4827,25 @@
       </c>
       <c r="I59" s="4">
         <f>_xll.qlRateHelperEarliestDate($B59,Trigger)</f>
-        <v>44916</v>
+        <v>44825</v>
       </c>
       <c r="J59" s="3">
         <f>_xll.qlRateHelperLatestDate($B59,Trigger)</f>
-        <v>45006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44916</v>
+      </c>
+      <c r="M59" s="185"/>
+    </row>
+    <row r="60" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="149" t="str">
-        <f>Futures!H44</f>
-        <v>obj_00398#0006</v>
+        <f>Futures!H43</f>
+        <v>obj_003ab#0003</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
-        <v>GBPFUT3MH3_Quote</v>
+        <v>GBPFUT3MZ2_Quote</v>
       </c>
       <c r="D60" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
@@ -4812,98 +4866,102 @@
       </c>
       <c r="I60" s="4">
         <f>_xll.qlRateHelperEarliestDate($B60,Trigger)</f>
-        <v>45000</v>
+        <v>44916</v>
       </c>
       <c r="J60" s="3">
         <f>_xll.qlRateHelperLatestDate($B60,Trigger)</f>
-        <v>45092</v>
-      </c>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
+        <v>45006</v>
+      </c>
+      <c r="M60" s="185"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="150" t="str">
-        <f>Swaps!K6</f>
-        <v>obj_003ab#0006</v>
-      </c>
-      <c r="C61" s="14" t="str">
+      <c r="A61" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" s="149" t="str">
+        <f>Futures!H44</f>
+        <v>obj_00379#0003</v>
+      </c>
+      <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
-        <v>GBPSB6L1Y_Quote</v>
-      </c>
-      <c r="D61" s="13" t="e">
+        <v>GBPFUT3MH3_Quote</v>
+      </c>
+      <c r="D61" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E61" s="13">
-        <f>_xll.qlSwapRateHelperSpread($B61,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12">
-        <v>50</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="E61" s="6" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment($B61,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="74">
+        <v>30</v>
+      </c>
+      <c r="H61" s="74">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
         <f>_xll.qlRateHelperEarliestDate($B61,Trigger)</f>
-        <v>41907</v>
-      </c>
-      <c r="J61" s="10">
+        <v>45000</v>
+      </c>
+      <c r="J61" s="3">
         <f>_xll.qlRateHelperLatestDate($B61,Trigger)</f>
-        <v>42272</v>
-      </c>
+        <v>45092</v>
+      </c>
+      <c r="L61" s="73"/>
+      <c r="M61" s="185"/>
+      <c r="N61" s="73"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="149" t="str">
-        <f>Swaps!K7</f>
-        <v>obj_003af#0006</v>
-      </c>
-      <c r="C62" s="7" t="str">
+      <c r="B62" s="150" t="str">
+        <f>Swaps!K6</f>
+        <v>obj_00380#0003</v>
+      </c>
+      <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
-        <v>GBPSB6L15M_Quote</v>
-      </c>
-      <c r="D62" s="6" t="e">
+        <v>GBPSB6L1Y_Quote</v>
+      </c>
+      <c r="D62" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($B62,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="13">
         <f>_xll.qlSwapRateHelperSpread($B62,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F62" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
         <v>50</v>
       </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4">
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41907</v>
-      </c>
-      <c r="J62" s="3">
+        <v>41914</v>
+      </c>
+      <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42367</v>
+        <v>42279</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
-        <f>Swaps!K8</f>
-        <v>obj_00384#0006</v>
+        <f>Swaps!K7</f>
+        <v>obj_00393#0003</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
-        <v>GBPSB6L18M_Quote</v>
-      </c>
-      <c r="D63" s="6">
+        <v>GBPSB6L15M_Quote</v>
+      </c>
+      <c r="D63" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B63,Trigger)</f>
-        <v>1.073E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E63" s="6">
         <f>_xll.qlSwapRateHelperSpread($B63,Trigger)</f>
@@ -4920,25 +4978,25 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42458</v>
+        <v>42373</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
-        <f>Swaps!K9</f>
-        <v>obj_00382#0006</v>
+        <f>Swaps!K8</f>
+        <v>obj_0038e#0003</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
-        <v>GBPSB6L21M_Quote</v>
-      </c>
-      <c r="D64" s="6" t="e">
+        <v>GBPSB6L18M_Quote</v>
+      </c>
+      <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.0320000000000001E-2</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -4955,25 +5013,25 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42548</v>
+        <v>42464</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
-        <f>Swaps!K10</f>
-        <v>obj_00369#0006</v>
+        <f>Swaps!K9</f>
+        <v>obj_0039c#0003</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
-        <v>GBPSB6L2Y_Quote</v>
-      </c>
-      <c r="D65" s="6">
+        <v>GBPSB6L21M_Quote</v>
+      </c>
+      <c r="D65" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B65,Trigger)</f>
-        <v>1.2619999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E65" s="6">
         <f>_xll.qlSwapRateHelperSpread($B65,Trigger)</f>
@@ -4990,32 +5048,32 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42639</v>
+        <v>42555</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
-        <f>Swaps!K11</f>
-        <v>obj_0036f#0006</v>
+        <f>Swaps!K10</f>
+        <v>obj_0039b#0003</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
-        <v>GBPSB6L3Y_Quote</v>
+        <v>GBPSB6L2Y_Quote</v>
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.5990000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F66" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5">
         <v>50</v>
@@ -5025,25 +5083,25 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>43003</v>
+        <v>42646</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
-        <f>Swaps!K12</f>
-        <v>obj_0039d#0006</v>
+        <f>Swaps!K11</f>
+        <v>obj_00398#0003</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
-        <v>GBPSB6L4Y_Quote</v>
+        <v>GBPSB6L3Y_Quote</v>
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.8429999999999998E-2</v>
+        <v>1.5070000000000002E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5060,25 +5118,25 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43368</v>
+        <v>43010</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
-        <f>Swaps!K13</f>
-        <v>obj_003a4#0006</v>
+        <f>Swaps!K12</f>
+        <v>obj_00373#0003</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
-        <v>GBPSB6L5Y_Quote</v>
+        <v>GBPSB6L4Y_Quote</v>
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>2.0209999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5095,25 +5153,25 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43733</v>
+        <v>43375</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
-        <f>Swaps!K14</f>
-        <v>obj_003a0#0006</v>
+        <f>Swaps!K13</f>
+        <v>obj_0038c#0003</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
-        <v>GBPSB6L6Y_Quote</v>
+        <v>GBPSB6L5Y_Quote</v>
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>2.1610000000000001E-2</v>
+        <v>1.916E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5130,25 +5188,25 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>44099</v>
+        <v>43740</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
-        <f>Swaps!K15</f>
-        <v>obj_00399#0006</v>
+        <f>Swaps!K14</f>
+        <v>obj_0037f#0003</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
-        <v>GBPSB6L7Y_Quote</v>
+        <v>GBPSB6L6Y_Quote</v>
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>2.2749999999999999E-2</v>
+        <v>2.0569999999999998E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5165,26 +5223,25 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44466</v>
-      </c>
-      <c r="L70" s="9"/>
+        <v>44106</v>
+      </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
-        <f>Swaps!K16</f>
-        <v>obj_003a9#0006</v>
+        <f>Swaps!K15</f>
+        <v>obj_00371#0003</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
-        <v>GBPSB6L8Y_Quote</v>
+        <v>GBPSB6L7Y_Quote</v>
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5201,26 +5258,26 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44830</v>
+        <v>44473</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
-        <f>Swaps!K17</f>
-        <v>obj_003ad#0006</v>
+        <f>Swaps!K16</f>
+        <v>obj_00381#0003</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
-        <v>GBPSB6L9Y_Quote</v>
+        <v>GBPSB6L8Y_Quote</v>
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.4510000000000001E-2</v>
+        <v>2.2720000000000004E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5237,26 +5294,26 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>45194</v>
+        <v>44837</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
-        <f>Swaps!K18</f>
-        <v>obj_0039f#0006</v>
+        <f>Swaps!K17</f>
+        <v>obj_003b0#0003</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
-        <v>GBPSB6L10Y_Quote</v>
+        <v>GBPSB6L9Y_Quote</v>
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.52E-2</v>
+        <v>2.358E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5273,33 +5330,33 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45560</v>
+        <v>45201</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
-        <f>Swaps!K19</f>
-        <v>obj_00379#0006</v>
+        <f>Swaps!K18</f>
+        <v>obj_00366#0003</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
-        <v>GBPSB6L11Y_Quote</v>
+        <v>GBPSB6L10Y_Quote</v>
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.5819999999999999E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F74" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="5">
         <v>50</v>
@@ -5309,33 +5366,33 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45925</v>
+        <v>45567</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
-        <f>Swaps!K20</f>
-        <v>obj_0039b#0006</v>
+        <f>Swaps!K19</f>
+        <v>obj_00377#0003</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
-        <v>GBPSB6L12Y_Quote</v>
+        <v>GBPSB6L11Y_Quote</v>
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.6360000000000001E-2</v>
+        <v>2.4969999999999999E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F75" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="5">
         <v>50</v>
@@ -5345,33 +5402,33 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>46290</v>
+        <v>45932</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
-        <f>Swaps!K21</f>
-        <v>obj_003b2#0006</v>
+        <f>Swaps!K20</f>
+        <v>obj_0038d#0003</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
-        <v>GBPSB6L13Y_Quote</v>
-      </c>
-      <c r="D76" s="6" t="e">
+        <v>GBPSB6L12Y_Quote</v>
+      </c>
+      <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F76" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="5">
         <v>50</v>
@@ -5381,22 +5438,22 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46657</v>
+        <v>46297</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
-        <f>Swaps!K22</f>
-        <v>obj_00374#0006</v>
+        <f>Swaps!K21</f>
+        <v>obj_00375#0003</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
-        <v>GBPSB6L14Y_Quote</v>
+        <v>GBPSB6L13Y_Quote</v>
       </c>
       <c r="D77" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B77,Trigger)</f>
@@ -5417,33 +5474,33 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>47021</v>
+        <v>46664</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
-        <f>Swaps!K23</f>
-        <v>obj_00375#0006</v>
+        <f>Swaps!K22</f>
+        <v>obj_00378#0003</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
-        <v>GBPSB6L15Y_Quote</v>
-      </c>
-      <c r="D78" s="6">
+        <v>GBPSB6L14Y_Quote</v>
+      </c>
+      <c r="D78" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B78,Trigger)</f>
-        <v>2.7549999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E78" s="6">
         <f>_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F78" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="5">
         <v>50</v>
@@ -5453,33 +5510,33 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47386</v>
+        <v>47028</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
-        <f>Swaps!K24</f>
-        <v>obj_00381#0006</v>
+        <f>Swaps!K23</f>
+        <v>obj_003a3#0003</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
-        <v>GBPSB6L16Y_Quote</v>
-      </c>
-      <c r="D79" s="6" t="e">
+        <v>GBPSB6L15Y_Quote</v>
+      </c>
+      <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="5">
         <v>50</v>
@@ -5489,22 +5546,22 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47751</v>
+        <v>47393</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
-        <f>Swaps!K25</f>
-        <v>obj_00396#0006</v>
+        <f>Swaps!K24</f>
+        <v>obj_00399#0003</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
-        <v>GBPSB6L17Y_Quote</v>
+        <v>GBPSB6L16Y_Quote</v>
       </c>
       <c r="D80" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B80,Trigger)</f>
@@ -5525,22 +5582,22 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>48116</v>
+        <v>47758</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
-        <f>Swaps!K26</f>
-        <v>obj_00367#0006</v>
+        <f>Swaps!K25</f>
+        <v>obj_00386#0003</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
-        <v>GBPSB6L18Y_Quote</v>
+        <v>GBPSB6L17Y_Quote</v>
       </c>
       <c r="D81" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B81,Trigger)</f>
@@ -5561,22 +5618,22 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48484</v>
+        <v>48123</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
-        <f>Swaps!K27</f>
-        <v>obj_00388#0006</v>
+        <f>Swaps!K26</f>
+        <v>obj_0039f#0003</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
-        <v>GBPSB6L19Y_Quote</v>
+        <v>GBPSB6L18Y_Quote</v>
       </c>
       <c r="D82" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B82,Trigger)</f>
@@ -5597,33 +5654,33 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48848</v>
+        <v>48491</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
-        <f>Swaps!K28</f>
-        <v>obj_0038f#0006</v>
+        <f>Swaps!K27</f>
+        <v>obj_0036a#0003</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
-        <v>GBPSB6L20Y_Quote</v>
-      </c>
-      <c r="D83" s="6">
+        <v>GBPSB6L19Y_Quote</v>
+      </c>
+      <c r="D83" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B83,Trigger)</f>
-        <v>2.8570000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E83" s="6">
         <f>_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F83" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="5">
         <v>50</v>
@@ -5633,33 +5690,33 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>49212</v>
+        <v>48855</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
-        <f>Swaps!K29</f>
-        <v>obj_00365#0006</v>
+        <f>Swaps!K28</f>
+        <v>obj_00396#0003</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
-        <v>GBPSB6L21Y_Quote</v>
-      </c>
-      <c r="D84" s="6" t="e">
+        <v>GBPSB6L20Y_Quote</v>
+      </c>
+      <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.793E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="5">
         <v>50</v>
@@ -5669,22 +5726,22 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49577</v>
+        <v>49219</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
-        <f>Swaps!K30</f>
-        <v>obj_003a7#0006</v>
+        <f>Swaps!K29</f>
+        <v>obj_00397#0003</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
-        <v>GBPSB6L22Y_Quote</v>
+        <v>GBPSB6L21Y_Quote</v>
       </c>
       <c r="D85" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B85,Trigger)</f>
@@ -5705,22 +5762,22 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49943</v>
+        <v>49584</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
-        <f>Swaps!K31</f>
-        <v>obj_00385#0006</v>
+        <f>Swaps!K30</f>
+        <v>obj_0036f#0003</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
-        <v>GBPSB6L23Y_Quote</v>
+        <v>GBPSB6L22Y_Quote</v>
       </c>
       <c r="D86" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B86,Trigger)</f>
@@ -5741,22 +5798,22 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>50308</v>
+        <v>49950</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
-        <f>Swaps!K32</f>
-        <v>obj_0038b#0006</v>
+        <f>Swaps!K31</f>
+        <v>obj_003a4#0003</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
-        <v>GBPSB6L24Y_Quote</v>
+        <v>GBPSB6L23Y_Quote</v>
       </c>
       <c r="D87" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B87,Trigger)</f>
@@ -5777,33 +5834,33 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50675</v>
+        <v>50315</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
-        <f>Swaps!K33</f>
-        <v>obj_003a5#0006</v>
+        <f>Swaps!K32</f>
+        <v>obj_00374#0003</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
-        <v>GBPSB6L25Y_Quote</v>
-      </c>
-      <c r="D88" s="6">
+        <v>GBPSB6L24Y_Quote</v>
+      </c>
+      <c r="D88" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B88,Trigger)</f>
-        <v>2.8830000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E88" s="6">
         <f>_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="5">
         <v>50</v>
@@ -5813,33 +5870,33 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>51039</v>
+        <v>50682</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
-        <f>Swaps!K34</f>
-        <v>obj_0036a#0006</v>
+        <f>Swaps!K33</f>
+        <v>obj_0036e#0003</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
-        <v>GBPSB6L26Y_Quote</v>
-      </c>
-      <c r="D89" s="6" t="e">
+        <v>GBPSB6L25Y_Quote</v>
+      </c>
+      <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8309999999999998E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="5">
         <v>50</v>
@@ -5849,22 +5906,22 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>51404</v>
+        <v>51046</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
-        <f>Swaps!K35</f>
-        <v>obj_0037e#0006</v>
+        <f>Swaps!K34</f>
+        <v>obj_00382#0003</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
-        <v>GBPSB6L27Y_Quote</v>
+        <v>GBPSB6L26Y_Quote</v>
       </c>
       <c r="D90" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B90,Trigger)</f>
@@ -5885,22 +5942,22 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51769</v>
+        <v>51411</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
-        <f>Swaps!K36</f>
-        <v>obj_003b1#0006</v>
+        <f>Swaps!K35</f>
+        <v>obj_00387#0003</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
-        <v>GBPSB6L28Y_Quote</v>
+        <v>GBPSB6L27Y_Quote</v>
       </c>
       <c r="D91" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B91,Trigger)</f>
@@ -5921,22 +5978,22 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>52134</v>
+        <v>51776</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
-        <f>Swaps!K37</f>
-        <v>obj_00392#0006</v>
+        <f>Swaps!K36</f>
+        <v>obj_0037a#0003</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
-        <v>GBPSB6L29Y_Quote</v>
+        <v>GBPSB6L28Y_Quote</v>
       </c>
       <c r="D92" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B92,Trigger)</f>
@@ -5957,33 +6014,33 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52499</v>
+        <v>52141</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
-        <f>Swaps!K38</f>
-        <v>obj_00395#0006</v>
+        <f>Swaps!K37</f>
+        <v>obj_00368#0003</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
-        <v>GBPSB6L30Y_Quote</v>
-      </c>
-      <c r="D93" s="6">
+        <v>GBPSB6L29Y_Quote</v>
+      </c>
+      <c r="D93" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B93,Trigger)</f>
-        <v>2.8890000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E93" s="6">
         <f>_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F93" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="5">
         <v>50</v>
@@ -5993,33 +6050,33 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52866</v>
+        <v>52506</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
-        <f>Swaps!K39</f>
-        <v>obj_003b0#0006</v>
+        <f>Swaps!K38</f>
+        <v>obj_003a2#0003</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
-        <v>GBPSB6L35Y_Quote</v>
-      </c>
-      <c r="D94" s="6" t="e">
+        <v>GBPSB6L30Y_Quote</v>
+      </c>
+      <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8459999999999999E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F94" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="5">
         <v>50</v>
@@ -6029,33 +6086,33 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>54693</v>
+        <v>52873</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
-        <f>Swaps!K40</f>
-        <v>obj_00373#0006</v>
+        <f>Swaps!K39</f>
+        <v>obj_0039d#0003</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
-        <v>GBPSB6L40Y_Quote</v>
-      </c>
-      <c r="D95" s="6">
+        <v>GBPSB6L35Y_Quote</v>
+      </c>
+      <c r="D95" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B95,Trigger)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E95" s="6">
         <f>_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
         <v>0</v>
       </c>
       <c r="F95" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="5">
         <v>50</v>
@@ -6065,26 +6122,26 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>56517</v>
+        <v>54700</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
-        <f>Swaps!K41</f>
-        <v>obj_00386#0006</v>
+        <f>Swaps!K40</f>
+        <v>obj_003b3#0003</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
-        <v>GBPSB6L50Y_Quote</v>
+        <v>GBPSB6L40Y_Quote</v>
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>2.8340000000000001E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6101,60 +6158,96 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>60170</v>
+        <v>56524</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="151" t="str">
-        <f>Swaps!K42</f>
-        <v>obj_003a6#0006</v>
+      <c r="B97" s="149" t="str">
+        <f>Swaps!K41</f>
+        <v>obj_00372#0003</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
-        <v>GBPSB6L60Y_Quote</v>
+        <v>GBPSB6L50Y_Quote</v>
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.886E-2</v>
+        <v>2.836E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="F97" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" s="74">
+      <c r="F97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5">
         <v>50</v>
       </c>
-      <c r="H97" s="74">
+      <c r="H97" s="5">
         <v>1</v>
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>63822</v>
+        <v>60177</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="148"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="148"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="148"/>
-      <c r="J98" s="148"/>
+      <c r="B98" s="151" t="str">
+        <f>Swaps!K42</f>
+        <v>obj_00383#0003</v>
+      </c>
+      <c r="C98" s="7" t="str">
+        <f>_xll.qlRateHelperQuoteName(B98)</f>
+        <v>GBPSB6L60Y_Quote</v>
+      </c>
+      <c r="D98" s="6">
+        <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
+        <v>2.8490000000000001E-2</v>
+      </c>
+      <c r="E98" s="6">
+        <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="74">
+        <v>50</v>
+      </c>
+      <c r="H98" s="74">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4">
+        <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
+        <v>41914</v>
+      </c>
+      <c r="J98" s="3">
+        <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
+        <v>63829</v>
+      </c>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="148"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="148"/>
+      <c r="H99" s="148"/>
+      <c r="I99" s="148"/>
+      <c r="J99" s="148"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6170,7 +6263,7 @@
   <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6190,10 +6283,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="194"/>
       <c r="D1" s="145" t="s">
         <v>59</v>
       </c>
@@ -6212,7 +6305,7 @@
       </c>
       <c r="J1" s="24">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.7687688475639796E-3</v>
+        <v>4.7562690106835309E-3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6224,7 +6317,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00357</v>
+        <v>obj_00352</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6232,7 +6325,7 @@
       </c>
       <c r="F2" s="24">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.7688000000000001E-3</v>
+        <v>4.7562999999999998E-3</v>
       </c>
       <c r="G2" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6240,19 +6333,19 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="J2" s="24">
-        <v>4.7687688475639796E-3</v>
+        <v>4.7562690106835309E-3</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
       <c r="O2" s="73"/>
-      <c r="P2" s="190"/>
+      <c r="P2" s="183"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
@@ -6262,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_0035b</v>
+        <v>obj_00360</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6270,7 +6363,7 @@
       </c>
       <c r="F3" s="24">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8138E-3</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="G3" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6278,19 +6371,19 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41908</v>
+        <v>41915</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41911</v>
+        <v>41918</v>
       </c>
       <c r="J3" s="24">
-        <v>4.8024707911612213E-3</v>
+        <v>4.8030956834980492E-3</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
-      <c r="P3" s="190"/>
+      <c r="P3" s="183"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -6300,7 +6393,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_00348</v>
+        <v>obj_0034e</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6308,7 +6401,7 @@
       </c>
       <c r="F4" s="24">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8138E-3</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="G4" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6316,19 +6409,19 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J4" s="24">
-        <v>4.8135778099353743E-3</v>
+        <v>4.8185773481022763E-3</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
-      <c r="P4" s="190"/>
+      <c r="P4" s="183"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -6338,7 +6431,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_0035f</v>
+        <v>obj_00363</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6346,7 +6439,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.8915913000000004E-3</v>
+        <v>4.88095417E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6354,19 +6447,19 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41921</v>
+        <v>41928</v>
       </c>
       <c r="J5" s="24">
-        <v>4.891132470681246E-3</v>
+        <v>4.8804973338848964E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
       <c r="O5" s="73"/>
-      <c r="P5" s="190"/>
+      <c r="P5" s="183"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
@@ -6377,7 +6470,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_00355</v>
+        <v>obj_00358</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6385,7 +6478,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0693999999999991E-3</v>
+        <v>5.0319000000000006E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6393,31 +6486,31 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41939</v>
+        <v>41946</v>
       </c>
       <c r="J6" s="24">
-        <v>5.0682738102130658E-3</v>
+        <v>5.0307904075850805E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="190"/>
+      <c r="P6" s="183"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0007</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0010</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="25" t="str">
-        <v>obj_00351</v>
+        <v>obj_00349</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6425,7 +6518,7 @@
       </c>
       <c r="F7" s="24">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.3274999999999998E-3</v>
+        <v>5.3337999999999997E-3</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6433,23 +6526,23 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="J7" s="24">
-        <v>5.3251297388142733E-3</v>
+        <v>5.331424131293741E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
-      <c r="P7" s="190"/>
+      <c r="P7" s="183"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_00353</v>
+        <v>obj_0034f</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6457,7 +6550,7 @@
       </c>
       <c r="F8" s="24">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.6413000000000001E-3</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="G8" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6465,23 +6558,23 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42002</v>
+        <v>42006</v>
       </c>
       <c r="J8" s="24">
-        <v>5.6371625352661147E-3</v>
+        <v>5.6235126391804479E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
-      <c r="P8" s="190"/>
+      <c r="P8" s="183"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_0035e</v>
+        <v>obj_0035b</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6489,7 +6582,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1509945099999996E-3</v>
+        <v>6.1276219800000002E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6497,19 +6590,19 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42030</v>
+        <v>42037</v>
       </c>
       <c r="J9" s="24">
-        <v>6.1446284121358715E-3</v>
+        <v>6.1213041368618727E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
       <c r="O9" s="73"/>
-      <c r="P9" s="190"/>
+      <c r="P9" s="183"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
@@ -6521,7 +6614,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.6278054900000003E-3</v>
+        <v>6.5793450499999993E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6529,23 +6622,23 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42060</v>
+        <v>42065</v>
       </c>
       <c r="J10" s="24">
-        <v>6.6186157202768733E-3</v>
+        <v>6.5704072167940657E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
       <c r="O10" s="73"/>
-      <c r="P10" s="190"/>
+      <c r="P10" s="183"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_0034f</v>
+        <v>obj_00350</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6553,7 +6646,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.1374999999999997E-3</v>
+        <v>7.0955999999999997E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6561,23 +6654,23 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42088</v>
+        <v>42096</v>
       </c>
       <c r="J11" s="24">
-        <v>7.1248984287600424E-3</v>
+        <v>7.0830771290294834E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
       <c r="O11" s="73"/>
-      <c r="P11" s="190"/>
+      <c r="P11" s="183"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_00360</v>
+        <v>obj_00362</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6585,7 +6678,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.7157786900000002E-3</v>
+        <v>7.63198846E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6593,23 +6686,23 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42121</v>
+        <v>42129</v>
       </c>
       <c r="J12" s="24">
-        <v>7.6983789349629253E-3</v>
+        <v>7.6148846901118398E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
       <c r="O12" s="73"/>
-      <c r="P12" s="190"/>
+      <c r="P12" s="183"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_0035c</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6617,7 +6710,7 @@
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.294057379999999E-3</v>
+        <v>8.2423615399999997E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6625,31 +6718,31 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="J13" s="24">
-        <v>8.2712422773627142E-3</v>
+        <v>8.2198294438512211E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
       <c r="O13" s="73"/>
-      <c r="P13" s="190"/>
+      <c r="P13" s="183"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14" s="25" t="str">
-        <v>obj_00359</v>
+        <v>obj_003b4</v>
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>GBP9MD_Mx_Quote</v>
+        <v>stub</v>
       </c>
       <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.89161202E-3</v>
+        <v>8.5088269200000004E-3</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6657,23 +6750,23 @@
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42180</v>
+        <v>42172</v>
       </c>
       <c r="J14" s="24">
-        <v>8.8621758969245987E-3</v>
+        <v>8.4833410649101989E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
-      <c r="P14" s="190"/>
+      <c r="P14" s="183"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_00393</v>
+        <v>obj_0038f</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6681,11 +6774,11 @@
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0324532460181812E-2</v>
+        <v>9.7079999999999389E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>2.5467539818158627E-5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="23">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
@@ -6696,16 +6789,16 @@
         <v>42264</v>
       </c>
       <c r="J15" s="24">
-        <v>9.1186008426915217E-3</v>
+        <v>8.8021344155551923E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
-      <c r="P15" s="190"/>
+      <c r="P15" s="183"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_0037f</v>
+        <v>obj_00388</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6713,11 +6806,11 @@
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.2309276977999589E-2</v>
+        <v>1.1483000000000021E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>4.0723022000383242E-5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="23">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
@@ -6728,16 +6821,16 @@
         <v>42354</v>
       </c>
       <c r="J16" s="24">
-        <v>9.7618882806031204E-3</v>
-      </c>
-      <c r="M16" s="189"/>
+        <v>9.3504446227695645E-3</v>
+      </c>
+      <c r="M16" s="182"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
-      <c r="P16" s="190"/>
+      <c r="P16" s="183"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_00370</v>
+        <v>obj_0039a</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6745,11 +6838,11 @@
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.4490617988460687E-2</v>
+        <v>1.3352000000000031E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>5.9382011539265042E-5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="23">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
@@ -6760,16 +6853,16 @@
         <v>42445</v>
       </c>
       <c r="J17" s="24">
-        <v>1.0557312386336169E-2</v>
+        <v>1.0032410128457958E-2</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
-      <c r="P17" s="190"/>
+      <c r="P17" s="183"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_00368</v>
+        <v>obj_0037c</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6777,11 +6870,11 @@
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.6368520096094675E-2</v>
+        <v>1.5116000000000018E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>8.1479903905399813E-5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="23">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
@@ -6792,16 +6885,16 @@
         <v>42537</v>
       </c>
       <c r="J18" s="24">
-        <v>1.1401015760112768E-2</v>
-      </c>
-      <c r="M18" s="189"/>
+        <v>1.0778875146395221E-2</v>
+      </c>
+      <c r="M18" s="182"/>
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
-      <c r="P18" s="190"/>
+      <c r="P18" s="183"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_0037a</v>
+        <v>obj_0037e</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6809,11 +6902,11 @@
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.8143464259517357E-2</v>
+        <v>1.6673999999999967E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>1.065357404825213E-4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="23">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
@@ -6824,16 +6917,16 @@
         <v>42628</v>
       </c>
       <c r="J19" s="24">
-        <v>1.2248077826110296E-2</v>
-      </c>
-      <c r="M19" s="189"/>
+        <v>1.1526900639921173E-2</v>
+      </c>
+      <c r="M19" s="182"/>
       <c r="N19" s="73"/>
       <c r="O19" s="73"/>
-      <c r="P19" s="190"/>
+      <c r="P19" s="183"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_0037b</v>
+        <v>obj_0038b</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6841,11 +6934,11 @@
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.9913344945091085E-2</v>
+        <v>1.8324999999999925E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>1.3665505490881717E-4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="23">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
@@ -6856,16 +6949,16 @@
         <v>42725</v>
       </c>
       <c r="J20" s="24">
-        <v>1.314462131061391E-2</v>
-      </c>
-      <c r="M20" s="189"/>
+        <v>1.2329064012159826E-2</v>
+      </c>
+      <c r="M20" s="182"/>
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
-      <c r="P20" s="190"/>
+      <c r="P20" s="183"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_0036f</v>
+        <v>obj_00398</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6873,7 +6966,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.5990000000000001E-2</v>
+        <v>1.5070000000000002E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6881,23 +6974,23 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43003</v>
+        <v>43010</v>
       </c>
       <c r="J21" s="24">
-        <v>1.6009953980344015E-2</v>
-      </c>
-      <c r="M21" s="189"/>
+        <v>1.5085861757074737E-2</v>
+      </c>
+      <c r="M21" s="182"/>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
-      <c r="P21" s="190"/>
+      <c r="P21" s="183"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_0039d</v>
+        <v>obj_00373</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -6905,7 +6998,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.8429999999999998E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6913,23 +7006,23 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43368</v>
+        <v>43375</v>
       </c>
       <c r="J22" s="24">
-        <v>1.8488106616672269E-2</v>
+        <v>1.745069907014184E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
-      <c r="P22" s="190"/>
+      <c r="P22" s="183"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_003a4</v>
+        <v>obj_0038c</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -6937,7 +7030,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.0209999999999999E-2</v>
+        <v>1.916E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -6945,23 +7038,23 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43733</v>
+        <v>43740</v>
       </c>
       <c r="J23" s="24">
-        <v>2.0308834008443223E-2</v>
-      </c>
-      <c r="M23" s="189"/>
+        <v>1.9250181768466178E-2</v>
+      </c>
+      <c r="M23" s="182"/>
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
-      <c r="P23" s="190"/>
+      <c r="P23" s="183"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_003a0</v>
+        <v>obj_0037f</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -6969,7 +7062,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.1610000000000001E-2</v>
+        <v>2.0569999999999998E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -6977,23 +7070,23 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="J24" s="24">
-        <v>2.1752155175066092E-2</v>
+        <v>2.0703402103377774E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
-      <c r="P24" s="190"/>
+      <c r="P24" s="183"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_00399</v>
+        <v>obj_00371</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7001,7 +7094,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.2749999999999999E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7009,23 +7102,23 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="J25" s="24">
-        <v>2.2937128972814427E-2</v>
+        <v>2.190892966438612E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="P25" s="190"/>
+      <c r="P25" s="183"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_003a9</v>
+        <v>obj_00381</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7033,7 +7126,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.2720000000000004E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7041,23 +7134,23 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44830</v>
+        <v>44837</v>
       </c>
       <c r="J26" s="24">
-        <v>2.393361140079282E-2</v>
+        <v>2.2947869977657836E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
-      <c r="P26" s="190"/>
+      <c r="P26" s="183"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_003ad</v>
+        <v>obj_003b0</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7065,7 +7158,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.4510000000000001E-2</v>
+        <v>2.358E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7073,23 +7166,23 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="J27" s="24">
-        <v>2.4790868167667672E-2</v>
+        <v>2.385913989298321E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
-      <c r="P27" s="190"/>
+      <c r="P27" s="183"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_0039f</v>
+        <v>obj_00366</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7097,7 +7190,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.52E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7105,23 +7198,23 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45560</v>
+        <v>45567</v>
       </c>
       <c r="J28" s="24">
-        <v>2.552680710581276E-2</v>
+        <v>2.4649837192040999E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
-      <c r="P28" s="190"/>
+      <c r="P28" s="183"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_0039b</v>
+        <v>obj_0038d</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7129,7 +7222,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.6360000000000001E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7137,23 +7230,23 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46290</v>
+        <v>46297</v>
       </c>
       <c r="J29" s="24">
-        <v>2.6784216483779804E-2</v>
+        <v>2.5949505296929843E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
-      <c r="P29" s="190"/>
+      <c r="P29" s="183"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_00375</v>
+        <v>obj_003a3</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7161,7 +7254,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.7549999999999998E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7169,23 +7262,23 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47386</v>
+        <v>47393</v>
       </c>
       <c r="J30" s="24">
-        <v>2.809406059200812E-2</v>
+        <v>2.7350287642957587E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
-      <c r="P30" s="190"/>
+      <c r="P30" s="183"/>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_0038f</v>
+        <v>obj_00396</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7193,7 +7286,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.8570000000000002E-2</v>
+        <v>2.793E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7201,23 +7294,23 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49212</v>
+        <v>49219</v>
       </c>
       <c r="J31" s="24">
-        <v>2.921323122106028E-2</v>
+        <v>2.8615280660427608E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
-      <c r="P31" s="190"/>
+      <c r="P31" s="183"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_003a5</v>
+        <v>obj_0036e</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7225,7 +7318,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.8830000000000001E-2</v>
+        <v>2.8309999999999998E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7233,23 +7326,23 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>51039</v>
+        <v>51046</v>
       </c>
       <c r="J32" s="24">
-        <v>2.9405344144962379E-2</v>
+        <v>2.8966046788937903E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
-      <c r="P32" s="190"/>
+      <c r="P32" s="183"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_00395</v>
+        <v>obj_003a2</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7257,7 +7350,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.8890000000000002E-2</v>
+        <v>2.8459999999999999E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7265,23 +7358,23 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>52866</v>
+        <v>52873</v>
       </c>
       <c r="J33" s="24">
-        <v>2.9365177279646635E-2</v>
+        <v>2.9049082812273495E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
-      <c r="P33" s="190"/>
+      <c r="P33" s="183"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_00373</v>
+        <v>obj_003b3</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7289,7 +7382,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>2.8340000000000001E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7297,23 +7390,23 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56517</v>
+        <v>56524</v>
       </c>
       <c r="J34" s="24">
-        <v>2.8927712675603266E-2</v>
+        <v>2.865098699447912E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
-      <c r="P34" s="190"/>
+      <c r="P34" s="183"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00386</v>
+        <v>obj_00372</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7321,7 +7414,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.8730000000000002E-2</v>
+        <v>2.836E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7329,23 +7422,23 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60170</v>
+        <v>60177</v>
       </c>
       <c r="J35" s="24">
-        <v>2.8846475288294409E-2</v>
+        <v>2.8586858759194367E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
       <c r="O35" s="73"/>
-      <c r="P35" s="190"/>
+      <c r="P35" s="183"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_003a6</v>
+        <v>obj_00383</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7353,7 +7446,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.886E-2</v>
+        <v>2.8490000000000001E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7361,19 +7454,19 @@
       </c>
       <c r="H36" s="23">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41907</v>
+        <v>41914</v>
       </c>
       <c r="I36" s="22">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>63822</v>
+        <v>63829</v>
       </c>
       <c r="J36" s="24">
-        <v>2.9096985069627438E-2</v>
+        <v>2.8818055043591528E-2</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
       <c r="O36" s="73"/>
-      <c r="P36" s="190"/>
+      <c r="P36" s="183"/>
     </row>
     <row r="37" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D37" s="25" t="e">
@@ -7405,7 +7498,7 @@
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
       <c r="O37" s="73"/>
-      <c r="P37" s="190"/>
+      <c r="P37" s="183"/>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D38" s="25" t="e">
@@ -7437,7 +7530,7 @@
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
-      <c r="P38" s="190"/>
+      <c r="P38" s="183"/>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D39" s="25" t="e">
@@ -7469,7 +7562,7 @@
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
       <c r="O39" s="73"/>
-      <c r="P39" s="190"/>
+      <c r="P39" s="183"/>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D40" s="25" t="e">
@@ -9926,20 +10019,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="4" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="72" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="72" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" style="72" customWidth="1"/>
@@ -10015,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="84" t="str">
-        <f t="shared" ref="D3:D19" si="0">Calendar</f>
+        <f t="shared" ref="D3:D20" si="0">Calendar</f>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E3" s="84" t="s">
@@ -10027,16 +10121,16 @@
       <c r="G3" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="181" t="str">
+      <c r="I3" s="180" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
         <v>GBPOND_Quote</v>
       </c>
-      <c r="J3" s="182" t="str">
+      <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00357#0006</v>
+        <v>obj_00352#0003</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10068,7 +10162,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00349#0006</v>
+        <v>obj_00354#0003</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10076,7 +10170,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0006</v>
+        <v>obj_00360#0003</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10106,17 +10200,17 @@
       <c r="G5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="180" t="str">
+      <c r="H5" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B5</f>
         <v>GBPLiborSW</v>
       </c>
-      <c r="I5" s="181" t="str">
+      <c r="I5" s="180" t="str">
         <f>Currency&amp;$B5&amp;"D"&amp;QuoteSuffix</f>
         <v>GBPSWD_Quote</v>
       </c>
-      <c r="J5" s="182" t="str">
+      <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_00348#0006</v>
+        <v>obj_0034e#0003</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10148,7 +10242,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0006</v>
+        <v>obj_0034a#0003</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10156,7 +10250,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0006</v>
+        <v>obj_00363#0003</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10188,7 +10282,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0006</v>
+        <v>obj_0034b#0003</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10196,7 +10290,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0006</v>
+        <v>obj_0035e#0003</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10226,17 +10320,17 @@
       <c r="G8" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="180" t="str">
+      <c r="H8" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B8</f>
         <v>GBPLibor1M</v>
       </c>
-      <c r="I8" s="181" t="str">
+      <c r="I8" s="180" t="str">
         <f>Currency&amp;$B8&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP1MD_Quote</v>
       </c>
-      <c r="J8" s="182" t="str">
+      <c r="J8" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_00355#0006</v>
+        <v>obj_00358#0003</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10266,17 +10360,17 @@
       <c r="G9" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="180" t="str">
+      <c r="H9" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B9</f>
         <v>GBPLibor2M</v>
       </c>
-      <c r="I9" s="181" t="str">
+      <c r="I9" s="180" t="str">
         <f>Currency&amp;$B9&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP2MD_Quote</v>
       </c>
-      <c r="J9" s="182" t="str">
+      <c r="J9" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_00351#0006</v>
+        <v>obj_00349#0003</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10306,17 +10400,17 @@
       <c r="G10" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="180" t="str">
+      <c r="H10" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B10</f>
         <v>GBPLibor3M</v>
       </c>
-      <c r="I10" s="181" t="str">
+      <c r="I10" s="180" t="str">
         <f>Currency&amp;$B10&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP3MD_Quote</v>
       </c>
-      <c r="J10" s="182" t="str">
+      <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_00353#0006</v>
+        <v>obj_0034f#0003</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10348,7 +10442,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0006</v>
+        <v>obj_00351#0003</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10356,7 +10450,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0006</v>
+        <v>obj_0035b#0003</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10388,7 +10482,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0006</v>
+        <v>obj_0034d#0003</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10396,7 +10490,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0006</v>
+        <v>obj_0035d#0003</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10426,17 +10520,17 @@
       <c r="G13" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="180" t="str">
+      <c r="H13" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B13</f>
         <v>GBPLibor6M</v>
       </c>
-      <c r="I13" s="181" t="str">
+      <c r="I13" s="180" t="str">
         <f>Currency&amp;$B13&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP6MD_Quote</v>
       </c>
-      <c r="J13" s="182" t="str">
+      <c r="J13" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_0034f#0006</v>
+        <v>obj_00350#0003</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10468,7 +10562,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0006</v>
+        <v>obj_00356#0003</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10476,7 +10570,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0006</v>
+        <v>obj_00362#0003</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10508,7 +10602,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0006</v>
+        <v>obj_00353#0003</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10516,7 +10610,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0006</v>
+        <v>obj_0035c#0003</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10548,7 +10642,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0006</v>
+        <v>obj_0034c#0003</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10556,7 +10650,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0006</v>
+        <v>obj_00361#0003</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10588,7 +10682,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0006</v>
+        <v>obj_00359#0003</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10596,7 +10690,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0006</v>
+        <v>obj_0035f#0003</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10628,7 +10722,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0006</v>
+        <v>obj_00357#0003</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10636,7 +10730,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0006</v>
+        <v>obj_0035a#0003</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10666,17 +10760,17 @@
       <c r="G19" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="180" t="str">
+      <c r="H19" s="179" t="str">
         <f>Currency&amp;FamilyName&amp;B19</f>
         <v>GBPLibor1Y</v>
       </c>
-      <c r="I19" s="181" t="str">
+      <c r="I19" s="180" t="str">
         <f>Currency&amp;$B19&amp;"D"&amp;QuoteSuffix</f>
         <v>GBP1YD_Quote</v>
       </c>
-      <c r="J19" s="182" t="str">
+      <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_0034d#0006</v>
+        <v>obj_00355#0003</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10685,31 +10779,102 @@
       <c r="L19" s="77"/>
       <c r="N19" s="76"/>
     </row>
-    <row r="20" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="179"/>
+    <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="81">
+        <f>_xll.qlCalendarBusinessDaysBetween(D20,_xll.qlSettingsEvaluationDate(Trigger),G25)-1</f>
+        <v>177</v>
+      </c>
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>UnitedKingdom::Exchange</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180" t="str">
+        <f>_xll.qlSimpleQuote("stub",,,,Trigger)</f>
+        <v>stub#0003</v>
+      </c>
+      <c r="J20" s="181" t="str">
+        <f>_xll.qlDepositRateHelper2(,I20,B20&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
+        <v>obj_003b4#0010</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="77"/>
       <c r="N20" s="76"/>
     </row>
-    <row r="21" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="75"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="71"/>
       <c r="N21" s="76"/>
     </row>
-    <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="184" t="e">
+        <f ca="1">qlSimpleQuoteSetValue(I20,J24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="72">
+        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","ask")/100</f>
+        <v>8.4340821600000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="76">
+        <f>_xll.qlIMMNextDate(_xll.qlSettingsEvaluationDate(Trigger),TRUE)</f>
+        <v>41990</v>
+      </c>
+      <c r="J23" s="72">
+        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","bid")/100</f>
+        <v>8.2340821599999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="76">
+        <f>_xll.qlIMMNextDate(G23)</f>
+        <v>42081</v>
+      </c>
+      <c r="J24" s="72">
+        <f>AVERAGE(J22:J23)</f>
+        <v>8.334082159999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="76">
+        <f>_xll.qlIMMNextDate(G24)</f>
+        <v>42172</v>
+      </c>
+      <c r="H25" s="188">
+        <f>_xll.qlRateHelperLatestDate(J20)</f>
+        <v>42172</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10819,7 +10984,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0006</v>
+        <v>obj_0039e#0003</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -10853,7 +11018,7 @@
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0006</v>
+        <v>obj_00370#0003</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -10887,7 +11052,7 @@
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0006</v>
+        <v>obj_003b2#0003</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -10921,7 +11086,7 @@
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0006</v>
+        <v>obj_0038a#0003</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -10955,7 +11120,7 @@
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ac#0006</v>
+        <v>obj_00395#0003</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -10989,7 +11154,7 @@
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0006</v>
+        <v>obj_003aa#0003</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11023,7 +11188,7 @@
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0006</v>
+        <v>obj_003ac#0003</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11057,7 +11222,7 @@
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0006</v>
+        <v>obj_003b1#0003</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11091,7 +11256,7 @@
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0006</v>
+        <v>obj_0038f#0003</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11125,7 +11290,7 @@
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0006</v>
+        <v>obj_0037b#0003</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11159,7 +11324,7 @@
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0006</v>
+        <v>obj_00369#0003</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11193,7 +11358,7 @@
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037f#0006</v>
+        <v>obj_00388#0003</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11227,7 +11392,7 @@
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0006</v>
+        <v>obj_0039a#0003</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11261,7 +11426,7 @@
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0006</v>
+        <v>obj_0037c#0003</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11295,7 +11460,7 @@
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037a#0006</v>
+        <v>obj_0037e#0003</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11329,7 +11494,7 @@
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0006</v>
+        <v>obj_0038b#0003</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11363,7 +11528,7 @@
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039c#0006</v>
+        <v>obj_00392#0003</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11397,7 +11562,7 @@
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0006</v>
+        <v>obj_0036d#0003</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11431,7 +11596,7 @@
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0006</v>
+        <v>obj_00389#0003</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11465,7 +11630,7 @@
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037d#0006</v>
+        <v>obj_00385#0003</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11499,7 +11664,7 @@
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0006</v>
+        <v>obj_00376#0003</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11533,7 +11698,7 @@
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0006</v>
+        <v>obj_00384#0003</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11567,7 +11732,7 @@
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0006</v>
+        <v>obj_003a8#0003</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11601,7 +11766,7 @@
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0006</v>
+        <v>obj_003ad#0003</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11635,7 +11800,7 @@
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a3#0006</v>
+        <v>obj_0037d#0003</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11669,7 +11834,7 @@
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0006</v>
+        <v>obj_00391#0003</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11703,7 +11868,7 @@
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00380#0006</v>
+        <v>obj_003a0#0003</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11737,7 +11902,7 @@
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0006</v>
+        <v>obj_003a7#0003</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11771,7 +11936,7 @@
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0006</v>
+        <v>obj_003ae#0003</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11805,7 +11970,7 @@
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038c#0006</v>
+        <v>obj_003a1#0003</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -11839,7 +12004,7 @@
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0006</v>
+        <v>obj_00367#0003</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -11873,7 +12038,7 @@
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0006</v>
+        <v>obj_003a9#0003</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -11907,7 +12072,7 @@
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0006</v>
+        <v>obj_003af#0003</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -11941,7 +12106,7 @@
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0006</v>
+        <v>obj_0036c#0003</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -11975,7 +12140,7 @@
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0006</v>
+        <v>obj_0036b#0003</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12009,7 +12174,7 @@
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0006</v>
+        <v>obj_00394#0003</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12043,7 +12208,7 @@
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038e#0006</v>
+        <v>obj_00390#0003</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12077,7 +12242,7 @@
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00397#0006</v>
+        <v>obj_003a6#0003</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12111,7 +12276,7 @@
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0006</v>
+        <v>obj_00365#0003</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12146,7 +12311,7 @@
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0006</v>
+        <v>obj_003a5#0003</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12180,7 +12345,7 @@
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038d#0006</v>
+        <v>obj_003ab#0003</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12214,7 +12379,7 @@
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0006</v>
+        <v>obj_00379#0003</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12354,7 +12519,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="159" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00363#0006</v>
+        <v>obj_00364#0003</v>
       </c>
       <c r="L4" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12413,7 +12578,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ab#0006</v>
+        <v>obj_00380#0003</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12460,7 +12625,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003af#0006</v>
+        <v>obj_00393#0003</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12511,7 +12676,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00384#0006</v>
+        <v>obj_0038e#0003</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12562,7 +12727,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00382#0006</v>
+        <v>obj_0039c#0003</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12609,7 +12774,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0006</v>
+        <v>obj_0039b#0003</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12660,7 +12825,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0006</v>
+        <v>obj_00398#0003</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12702,7 +12867,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039d#0006</v>
+        <v>obj_00373#0003</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12744,7 +12909,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a4#0006</v>
+        <v>obj_0038c#0003</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12786,7 +12951,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a0#0006</v>
+        <v>obj_0037f#0003</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12828,7 +12993,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00399#0006</v>
+        <v>obj_00371#0003</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -12870,7 +13035,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a9#0006</v>
+        <v>obj_00381#0003</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -12912,7 +13077,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ad#0006</v>
+        <v>obj_003b0#0003</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -12954,7 +13119,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0006</v>
+        <v>obj_00366#0003</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -12996,7 +13161,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00379#0006</v>
+        <v>obj_00377#0003</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13038,7 +13203,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0006</v>
+        <v>obj_0038d#0003</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13080,7 +13245,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b2#0006</v>
+        <v>obj_00375#0003</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13122,7 +13287,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0006</v>
+        <v>obj_00378#0003</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13164,7 +13329,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0006</v>
+        <v>obj_003a3#0003</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13206,7 +13371,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0006</v>
+        <v>obj_00399#0003</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13248,7 +13413,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00396#0006</v>
+        <v>obj_00386#0003</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13290,7 +13455,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00367#0006</v>
+        <v>obj_0039f#0003</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13332,7 +13497,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00388#0006</v>
+        <v>obj_0036a#0003</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13374,7 +13539,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038f#0006</v>
+        <v>obj_00396#0003</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13416,7 +13581,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0006</v>
+        <v>obj_00397#0003</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13458,7 +13623,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a7#0006</v>
+        <v>obj_0036f#0003</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13500,7 +13665,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0006</v>
+        <v>obj_003a4#0003</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13542,7 +13707,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038b#0006</v>
+        <v>obj_00374#0003</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13584,7 +13749,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a5#0006</v>
+        <v>obj_0036e#0003</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13626,7 +13791,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0006</v>
+        <v>obj_00382#0003</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13668,7 +13833,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037e#0006</v>
+        <v>obj_00387#0003</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13710,7 +13875,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b1#0006</v>
+        <v>obj_0037a#0003</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13752,7 +13917,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00392#0006</v>
+        <v>obj_00368#0003</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13794,7 +13959,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00395#0006</v>
+        <v>obj_003a2#0003</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -13836,7 +14001,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b0#0006</v>
+        <v>obj_0039d#0003</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -13878,7 +14043,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00373#0006</v>
+        <v>obj_003b3#0003</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -13920,7 +14085,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00386#0006</v>
+        <v>obj_00372#0003</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -13962,7 +14127,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a6#0006</v>
+        <v>obj_00383#0003</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="105" windowWidth="15285" windowHeight="8295" activeTab="2"/>
+    <workbookView xWindow="19215" yWindow="-15" windowWidth="19260" windowHeight="11700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="159">
   <si>
     <t>60Y</t>
   </si>
@@ -662,13 +662,46 @@
   </si>
   <si>
     <t>dc</t>
+  </si>
+  <si>
+    <t>IMM Code</t>
+  </si>
+  <si>
+    <t>Mx Convexity</t>
+  </si>
+  <si>
+    <t>Imm Code</t>
+  </si>
+  <si>
+    <t>First used Imm Fut start Date</t>
+  </si>
+  <si>
+    <t>Stub End Date</t>
+  </si>
+  <si>
+    <t>Stub Name</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Set Quote</t>
+  </si>
+  <si>
+    <t>GBP_STD_#20150617D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -684,6 +717,7 @@
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00000%"/>
     <numFmt numFmtId="178" formatCode="0.0000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1323,7 +1357,7 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1722,7 +1756,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1738,6 +1771,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="12" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="12" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1767,17 +1825,17 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.84340821599999993</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0012_GBP_STD_#20150617D_x0003_ask_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="J22" s="7"/>
+        <tr r="S3" s="7"/>
       </tp>
-      <tp>
-        <v>0.82340821600000003</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0012_GBP_STD_#20150617D_x0003_bid_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="J23" s="7"/>
+        <tr r="R3" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2102,19 +2160,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
-      <c r="K2" s="189" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
+      <c r="K2" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="192"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="191"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
@@ -2251,12 +2309,12 @@
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="40"/>
-      <c r="K9" s="189" t="s">
+      <c r="K9" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="192"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="191"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
@@ -2456,11 +2514,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41914</v>
-      </c>
-      <c r="D23" s="120">
+        <v>41921</v>
+      </c>
+      <c r="D23" s="120" t="e">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.9049082812273495E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2469,11 +2527,11 @@
       <c r="B24" s="43"/>
       <c r="C24" s="45">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63829</v>
-      </c>
-      <c r="D24" s="121">
+        <v>63836</v>
+      </c>
+      <c r="D24" s="121" t="e">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.7562690106835309E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2484,8 +2542,8 @@
         <v>52</v>
       </c>
       <c r="D25" s="122" t="str">
-        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <v>qlPiecewiseYieldCurveData - 13th instrument (maturity: June 17th, 2015) has an invalid quote</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="40"/>
@@ -2617,7 +2675,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00352#0003</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2625,7 +2683,7 @@
       </c>
       <c r="D2" s="6">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>4.7562999999999998E-3</v>
+        <v>4.7438000000000003E-3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="b">
@@ -2639,11 +2697,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41915</v>
+        <v>41922</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2656,7 +2714,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00360#0003</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2678,11 +2736,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41915</v>
+        <v>41922</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41918</v>
+        <v>41925</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2695,7 +2753,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_0034e#0003</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2703,7 +2761,7 @@
       </c>
       <c r="D4" s="6">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>4.8187999999999998E-3</v>
+        <v>4.8313000000000002E-3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="74" t="b">
@@ -2717,17 +2775,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41921</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_00363#0003</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2749,17 +2807,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41928</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0035e#0003</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2781,17 +2839,17 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41935</v>
+        <v>41942</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00358#0003</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2799,7 +2857,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0319000000000006E-3</v>
+        <v>5.0506000000000006E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2813,17 +2871,17 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41946</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00349#0003</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2831,7 +2889,7 @@
       </c>
       <c r="D8" s="6">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>5.3337999999999997E-3</v>
+        <v>5.2650000000000006E-3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="74" t="b">
@@ -2845,17 +2903,17 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41975</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0034f#0003</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2863,7 +2921,7 @@
       </c>
       <c r="D9" s="6">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>5.6274999999999997E-3</v>
+        <v>5.5988000000000001E-3</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="74" t="b">
@@ -2877,17 +2935,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42006</v>
+        <v>42013</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0035b#0003</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2909,17 +2967,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42037</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0035d#0003</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2941,11 +2999,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42065</v>
+        <v>42072</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -2958,7 +3016,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00350#0003</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2966,7 +3024,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>7.0955999999999997E-3</v>
+        <v>6.9638000000000009E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -2980,11 +3038,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42096</v>
+        <v>42103</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -2997,7 +3055,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00362#0003</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -3019,11 +3077,11 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42129</v>
+        <v>42135</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -3036,7 +3094,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_0035c#0003</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3058,11 +3116,11 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="K14" s="1">
         <v>60</v>
@@ -3075,7 +3133,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00361#0003</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3097,17 +3155,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42187</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035f#0003</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3129,17 +3187,17 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42219</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0035a#0003</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3161,17 +3219,17 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42249</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00355#0003</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3179,7 +3237,7 @@
       </c>
       <c r="D18" s="6">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>1.04619E-2</v>
+        <v>1.01431E-2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="74" t="b">
@@ -3193,11 +3251,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42279</v>
+        <v>42286</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3210,15 +3268,15 @@
     <row r="19" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="149" t="str">
         <f>Deposits!J20</f>
-        <v>obj_003b4#0010</v>
+        <v>obj_003b4#0003</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
-        <v>stub</v>
-      </c>
-      <c r="D19" s="6">
+        <v>GBP_Stub</v>
+      </c>
+      <c r="D19" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>8.5088269200000004E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="74" t="b">
@@ -3232,7 +3290,7 @@
       </c>
       <c r="I19" s="4">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J19" s="3">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
@@ -3245,7 +3303,7 @@
       </c>
       <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_0039e#0003</v>
+        <v>obj_00387#0004</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3255,9 +3313,9 @@
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E20" s="13" t="e">
+      <c r="E20" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B20,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F20" s="12" t="b">
         <v>0</v>
@@ -3284,7 +3342,7 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_00370#0003</v>
+        <v>obj_0039d#0004</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3294,9 +3352,9 @@
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E21" s="6" t="e">
+      <c r="E21" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F21" s="74" t="b">
         <v>0</v>
@@ -3323,7 +3381,7 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_003b2#0003</v>
+        <v>obj_0037e#0004</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3331,7 +3389,7 @@
       </c>
       <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>99.35499999999999</v>
+        <v>99.384999999999991</v>
       </c>
       <c r="E22" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
@@ -3362,7 +3420,7 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_0038a#0003</v>
+        <v>obj_0038e#0004</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
@@ -3372,9 +3430,9 @@
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E23" s="6" t="e">
+      <c r="E23" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B23,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F23" s="74" t="b">
         <v>0</v>
@@ -3401,7 +3459,7 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_00395#0003</v>
+        <v>obj_0039a#0004</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3411,9 +3469,9 @@
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E24" s="6" t="e">
+      <c r="E24" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F24" s="74" t="b">
         <v>0</v>
@@ -3440,7 +3498,7 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_003aa#0003</v>
+        <v>obj_00396#0004</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
@@ -3448,7 +3506,7 @@
       </c>
       <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.204999999999998</v>
+        <v>99.245000000000005</v>
       </c>
       <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3479,7 +3537,7 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_003ac#0003</v>
+        <v>obj_00388#0004</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
@@ -3489,9 +3547,9 @@
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E26" s="6" t="e">
+      <c r="E26" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B26,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F26" s="74" t="b">
         <v>1</v>
@@ -3518,7 +3576,7 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_003b1#0003</v>
+        <v>obj_00377#0004</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
@@ -3528,9 +3586,9 @@
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E27" s="6" t="e">
+      <c r="E27" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F27" s="74" t="b">
         <v>1</v>
@@ -3557,7 +3615,7 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_0038f#0003</v>
+        <v>obj_00386#0004</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
@@ -3565,11 +3623,11 @@
       </c>
       <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.029200000000003</v>
+        <v>99.085000000000008</v>
       </c>
       <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F28" s="74" t="b">
         <v>1</v>
@@ -3597,7 +3655,7 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_0037b#0003</v>
+        <v>obj_003b1#0004</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
@@ -3607,9 +3665,9 @@
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E29" s="6" t="e">
+      <c r="E29" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B29,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F29" s="74" t="b">
         <v>1</v>
@@ -3637,7 +3695,7 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_00369#0003</v>
+        <v>obj_00384#0004</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
@@ -3647,9 +3705,9 @@
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E30" s="6" t="e">
+      <c r="E30" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F30" s="74" t="b">
         <v>1</v>
@@ -3677,7 +3735,7 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_00388#0003</v>
+        <v>obj_0039e#0004</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
@@ -3685,11 +3743,11 @@
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.851699999999994</v>
+        <v>98.925000000000011</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
-        <v>0</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="F31" s="74" t="b">
         <v>1</v>
@@ -3717,7 +3775,7 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_0039a#0003</v>
+        <v>obj_0036c#0004</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
@@ -3725,11 +3783,11 @@
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.6648</v>
+        <v>98.754999999999995</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
-        <v>0</v>
+        <v>9.5999999999999989E-5</v>
       </c>
       <c r="F32" s="74" t="b">
         <v>1</v>
@@ -3758,7 +3816,7 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_0037c#0003</v>
+        <v>obj_00368#0004</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
@@ -3766,11 +3824,11 @@
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.488399999999999</v>
+        <v>98.594999999999999</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
-        <v>0</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="F33" s="74" t="b">
         <v>1</v>
@@ -3799,7 +3857,7 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_0037e#0003</v>
+        <v>obj_0037a#0004</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
@@ -3807,11 +3865,11 @@
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>98.332599999999999</v>
+        <v>98.444999999999993</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
-        <v>0</v>
+        <v>1.73E-4</v>
       </c>
       <c r="F34" s="74" t="b">
         <v>1</v>
@@ -3840,7 +3898,7 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_0038b#0003</v>
+        <v>obj_0036a#0004</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
@@ -3848,11 +3906,11 @@
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>98.167500000000004</v>
+        <v>98.284999999999997</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
-        <v>0</v>
+        <v>2.23E-4</v>
       </c>
       <c r="F35" s="74" t="b">
         <v>1</v>
@@ -3881,7 +3939,7 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_00392#0003</v>
+        <v>obj_003b2#0004</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
@@ -3889,7 +3947,7 @@
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>98.004999999999995</v>
+        <v>98.155000000000001</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3922,7 +3980,7 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_0036d#0003</v>
+        <v>obj_00366#0004</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
@@ -3930,7 +3988,7 @@
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>97.89500000000001</v>
+        <v>98.045000000000002</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3963,7 +4021,7 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_00389#0003</v>
+        <v>obj_0038a#0004</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
@@ -3971,7 +4029,7 @@
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>97.784999999999997</v>
+        <v>97.944999999999993</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -4004,7 +4062,7 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_00385#0003</v>
+        <v>obj_00373#0004</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
@@ -4012,7 +4070,7 @@
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.704999999999998</v>
+        <v>97.865000000000009</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4045,7 +4103,7 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_00376#0003</v>
+        <v>obj_00379#0004</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
@@ -4053,7 +4111,7 @@
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.625</v>
+        <v>97.789999999999992</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4086,7 +4144,7 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00384#0003</v>
+        <v>obj_00369#0004</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
@@ -4094,7 +4152,7 @@
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.56</v>
+        <v>97.72</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4127,7 +4185,7 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_003a8#0003</v>
+        <v>obj_0036e#0004</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
@@ -4135,7 +4193,7 @@
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.5</v>
+        <v>97.65</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4168,7 +4226,7 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_003ad#0003</v>
+        <v>obj_003a4#0004</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
@@ -4176,7 +4234,7 @@
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.43</v>
+        <v>97.585000000000008</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4209,7 +4267,7 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_0037d#0003</v>
+        <v>obj_00372#0004</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
@@ -4217,7 +4275,7 @@
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.375</v>
+        <v>97.53</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4250,7 +4308,7 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_00391#0003</v>
+        <v>obj_003a7#0004</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
@@ -4258,7 +4316,7 @@
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.33</v>
+        <v>97.485000000000014</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4291,7 +4349,7 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_003a0#0003</v>
+        <v>obj_003b0#0004</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
@@ -4301,9 +4359,9 @@
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E46" s="6" t="e">
+      <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F46" s="74" t="b">
         <v>1</v>
@@ -4332,7 +4390,7 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_003a7#0003</v>
+        <v>obj_003b3#0004</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
@@ -4342,9 +4400,9 @@
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E47" s="6" t="e">
+      <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F47" s="74" t="b">
         <v>1</v>
@@ -4373,7 +4431,7 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_003ae#0003</v>
+        <v>obj_00390#0004</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
@@ -4383,9 +4441,9 @@
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E48" s="6" t="e">
+      <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F48" s="74" t="b">
         <v>1</v>
@@ -4412,7 +4470,7 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_003a1#0003</v>
+        <v>obj_0036d#0004</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
@@ -4422,9 +4480,9 @@
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E49" s="6" t="e">
+      <c r="E49" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F49" s="74" t="b">
         <v>1</v>
@@ -4451,7 +4509,7 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00367#0003</v>
+        <v>obj_00378#0004</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
@@ -4461,9 +4519,9 @@
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E50" s="6" t="e">
+      <c r="E50" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B50,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F50" s="74" t="b">
         <v>1</v>
@@ -4490,7 +4548,7 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_003a9#0003</v>
+        <v>obj_00376#0004</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
@@ -4500,9 +4558,9 @@
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E51" s="6" t="e">
+      <c r="E51" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B51,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F51" s="74" t="b">
         <v>1</v>
@@ -4529,7 +4587,7 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_003af#0003</v>
+        <v>obj_00392#0004</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
@@ -4539,9 +4597,9 @@
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E52" s="6" t="e">
+      <c r="E52" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B52,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F52" s="74" t="b">
         <v>1</v>
@@ -4568,7 +4626,7 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_0036c#0003</v>
+        <v>obj_003a9#0004</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
@@ -4578,9 +4636,9 @@
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E53" s="6" t="e">
+      <c r="E53" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B53,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F53" s="74" t="b">
         <v>1</v>
@@ -4607,7 +4665,7 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_0036b#0003</v>
+        <v>obj_003a5#0004</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4617,9 +4675,9 @@
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E54" s="6" t="e">
+      <c r="E54" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B54,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F54" s="74" t="b">
         <v>1</v>
@@ -4646,7 +4704,7 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_00394#0003</v>
+        <v>obj_0037c#0004</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4656,9 +4714,9 @@
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E55" s="6" t="e">
+      <c r="E55" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B55,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F55" s="74" t="b">
         <v>1</v>
@@ -4685,7 +4743,7 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_00390#0003</v>
+        <v>obj_0038b#0004</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4695,9 +4753,9 @@
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E56" s="6" t="e">
+      <c r="E56" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B56,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F56" s="74" t="b">
         <v>1</v>
@@ -4724,7 +4782,7 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_003a6#0003</v>
+        <v>obj_003a8#0004</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4734,9 +4792,9 @@
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E57" s="6" t="e">
+      <c r="E57" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B57,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F57" s="74" t="b">
         <v>1</v>
@@ -4763,7 +4821,7 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_00365#0003</v>
+        <v>obj_00365#0004</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4773,9 +4831,9 @@
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E58" s="6" t="e">
+      <c r="E58" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B58,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F58" s="74" t="b">
         <v>1</v>
@@ -4802,7 +4860,7 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_003a5#0003</v>
+        <v>obj_0038c#0004</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4812,9 +4870,9 @@
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E59" s="6" t="e">
+      <c r="E59" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B59,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F59" s="74" t="b">
         <v>1</v>
@@ -4841,7 +4899,7 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_003ab#0003</v>
+        <v>obj_00383#0004</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4851,9 +4909,9 @@
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E60" s="6" t="e">
+      <c r="E60" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B60,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F60" s="74" t="b">
         <v>1</v>
@@ -4880,7 +4938,7 @@
       </c>
       <c r="B61" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_00379#0003</v>
+        <v>obj_003ad#0004</v>
       </c>
       <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4890,9 +4948,9 @@
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E61" s="6" t="e">
+      <c r="E61" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B61,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="F61" s="74" t="b">
         <v>1</v>
@@ -4918,7 +4976,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00380#0003</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4943,17 +5001,17 @@
       </c>
       <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42279</v>
+        <v>42286</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00393#0003</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4978,17 +5036,17 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42373</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0038e#0003</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -4996,7 +5054,7 @@
       </c>
       <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>1.0320000000000001E-2</v>
+        <v>9.8700000000000003E-3</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -5013,17 +5071,17 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42464</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0039c#0003</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -5048,17 +5106,17 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42555</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_0039b#0003</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5066,7 +5124,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.2E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5083,17 +5141,17 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42646</v>
+        <v>42653</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00398#0003</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5101,7 +5159,7 @@
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.5070000000000002E-2</v>
+        <v>1.4180000000000002E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5118,17 +5176,17 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43010</v>
+        <v>43017</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00373#0003</v>
+        <v>obj_00391#0001</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5136,7 +5194,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.6350000000000003E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5153,17 +5211,17 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43375</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_0038c#0003</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5171,7 +5229,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.916E-2</v>
+        <v>1.806E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5188,17 +5246,17 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>43740</v>
+        <v>43747</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_0037f#0003</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5206,7 +5264,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>2.0569999999999998E-2</v>
+        <v>1.9480000000000001E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5223,17 +5281,17 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44106</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00371#0003</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5241,7 +5299,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.1729999999999999E-2</v>
+        <v>2.068E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5258,18 +5316,18 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00381#0003</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5277,7 +5335,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.2720000000000004E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5294,18 +5352,18 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>44837</v>
+        <v>44844</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_003b0#0003</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5313,7 +5371,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.358E-2</v>
+        <v>2.265E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5330,18 +5388,18 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00366#0003</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5349,7 +5407,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.3450000000000002E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5366,18 +5424,18 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45567</v>
+        <v>45574</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00377#0003</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5385,7 +5443,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.4969999999999999E-2</v>
+        <v>2.4130000000000002E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5402,18 +5460,18 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0038d#0003</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5421,7 +5479,7 @@
       </c>
       <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>2.5520000000000001E-2</v>
+        <v>2.4709999999999999E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5438,18 +5496,18 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46297</v>
+        <v>46304</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00375#0003</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5474,18 +5532,18 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>46664</v>
+        <v>46671</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00378#0003</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5510,18 +5568,18 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47028</v>
+        <v>47035</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_003a3#0003</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5529,7 +5587,7 @@
       </c>
       <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>2.6790000000000001E-2</v>
+        <v>2.6009999999999998E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5546,18 +5604,18 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47393</v>
+        <v>47400</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00399#0003</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5582,18 +5640,18 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>47758</v>
+        <v>47765</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00386#0003</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5618,18 +5676,18 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48123</v>
+        <v>48130</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0039f#0003</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5654,18 +5712,18 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48491</v>
+        <v>48498</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0036a#0003</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5690,18 +5748,18 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>48855</v>
+        <v>48862</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00396#0003</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5709,7 +5767,7 @@
       </c>
       <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>2.793E-2</v>
+        <v>2.7210000000000002E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5726,18 +5784,18 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49219</v>
+        <v>49226</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00397#0003</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5762,18 +5820,18 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49584</v>
+        <v>49591</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0036f#0003</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5798,18 +5856,18 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49950</v>
+        <v>49957</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_003a4#0003</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5834,18 +5892,18 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50315</v>
+        <v>50322</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00374#0003</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5870,18 +5928,18 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>50682</v>
+        <v>50689</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_0036e#0003</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5889,7 +5947,7 @@
       </c>
       <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>2.8309999999999998E-2</v>
+        <v>2.7630000000000002E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5906,18 +5964,18 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>51046</v>
+        <v>51053</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_00382#0003</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5942,18 +6000,18 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51411</v>
+        <v>51418</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00387#0003</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5978,18 +6036,18 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>51776</v>
+        <v>51783</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0037a#0003</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -6014,18 +6072,18 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52141</v>
+        <v>52148</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00368#0003</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -6050,18 +6108,18 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52506</v>
+        <v>52513</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_003a2#0003</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6069,7 +6127,7 @@
       </c>
       <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>2.8459999999999999E-2</v>
+        <v>2.7820000000000001E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -6086,18 +6144,18 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>52873</v>
+        <v>52880</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0039d#0003</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6122,18 +6180,18 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>54700</v>
+        <v>54707</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_003b3#0003</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6141,7 +6199,7 @@
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.8340000000000001E-2</v>
+        <v>2.7710000000000002E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6158,18 +6216,18 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>56524</v>
+        <v>56531</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00372#0003</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6177,7 +6235,7 @@
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.836E-2</v>
+        <v>2.7710000000000002E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6194,18 +6252,18 @@
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>60177</v>
+        <v>60184</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_00383#0003</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="C98" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6213,7 +6271,7 @@
       </c>
       <c r="D98" s="6">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>2.8490000000000001E-2</v>
+        <v>2.7840000000000004E-2</v>
       </c>
       <c r="E98" s="6">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6230,11 +6288,11 @@
       </c>
       <c r="I98" s="4">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="J98" s="3">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>63829</v>
+        <v>63836</v>
       </c>
       <c r="L98" s="9"/>
     </row>
@@ -6283,10 +6341,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="193"/>
       <c r="D1" s="145" t="s">
         <v>59</v>
       </c>
@@ -6303,9 +6361,9 @@
       <c r="I1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="24" t="e">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.7562690106835309E-3</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6317,7 +6375,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00352</v>
+        <v>obj_0034d</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6325,7 +6383,7 @@
       </c>
       <c r="F2" s="24">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.7562999999999998E-3</v>
+        <v>4.7438000000000003E-3</v>
       </c>
       <c r="G2" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6333,14 +6391,14 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41915</v>
-      </c>
-      <c r="J2" s="24">
-        <v>4.7562690106835309E-3</v>
+        <v>41922</v>
+      </c>
+      <c r="J2" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
@@ -6355,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_00360</v>
+        <v>obj_00361</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6371,14 +6429,14 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41915</v>
+        <v>41922</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41918</v>
-      </c>
-      <c r="J3" s="24">
-        <v>4.8030956834980492E-3</v>
+        <v>41925</v>
+      </c>
+      <c r="J3" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
@@ -6393,7 +6451,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_0034e</v>
+        <v>obj_00354</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6401,7 +6459,7 @@
       </c>
       <c r="F4" s="24">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8187999999999998E-3</v>
+        <v>4.8313000000000002E-3</v>
       </c>
       <c r="G4" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6409,14 +6467,14 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41921</v>
-      </c>
-      <c r="J4" s="24">
-        <v>4.8185773481022763E-3</v>
+        <v>41928</v>
+      </c>
+      <c r="J4" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
@@ -6431,7 +6489,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_00363</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6447,14 +6505,14 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41928</v>
-      </c>
-      <c r="J5" s="24">
-        <v>4.8804973338848964E-3</v>
+        <v>41935</v>
+      </c>
+      <c r="J5" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -6470,7 +6528,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_00358</v>
+        <v>obj_00359</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6478,7 +6536,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0319000000000006E-3</v>
+        <v>5.0506000000000006E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6486,14 +6544,14 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41946</v>
-      </c>
-      <c r="J6" s="24">
-        <v>5.0307904075850805E-3</v>
+        <v>41953</v>
+      </c>
+      <c r="J6" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
@@ -6518,7 +6576,7 @@
       </c>
       <c r="F7" s="24">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.3337999999999997E-3</v>
+        <v>5.2650000000000006E-3</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6526,14 +6584,14 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41975</v>
-      </c>
-      <c r="J7" s="24">
-        <v>5.331424131293741E-3</v>
+        <v>41982</v>
+      </c>
+      <c r="J7" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -6542,7 +6600,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_0034f</v>
+        <v>obj_00356</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6550,7 +6608,7 @@
       </c>
       <c r="F8" s="24">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.6274999999999997E-3</v>
+        <v>5.5988000000000001E-3</v>
       </c>
       <c r="G8" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6558,14 +6616,14 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42006</v>
-      </c>
-      <c r="J8" s="24">
-        <v>5.6235126391804479E-3</v>
+        <v>42013</v>
+      </c>
+      <c r="J8" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -6574,7 +6632,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_0035b</v>
+        <v>obj_0035f</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6590,14 +6648,14 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42037</v>
-      </c>
-      <c r="J9" s="24">
-        <v>6.1213041368618727E-3</v>
+        <v>42044</v>
+      </c>
+      <c r="J9" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -6606,7 +6664,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_00362</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6622,14 +6680,14 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42065</v>
-      </c>
-      <c r="J10" s="24">
-        <v>6.5704072167940657E-3</v>
+        <v>42072</v>
+      </c>
+      <c r="J10" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -6638,7 +6696,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_00350</v>
+        <v>obj_00358</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6646,7 +6704,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.0955999999999997E-3</v>
+        <v>6.9638000000000009E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6654,14 +6712,14 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42096</v>
-      </c>
-      <c r="J11" s="24">
-        <v>7.0830771290294834E-3</v>
+        <v>42103</v>
+      </c>
+      <c r="J11" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
@@ -6670,7 +6728,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_0035b</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6686,14 +6744,14 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42129</v>
-      </c>
-      <c r="J12" s="24">
-        <v>7.6148846901118398E-3</v>
+        <v>42135</v>
+      </c>
+      <c r="J12" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
@@ -6702,7 +6760,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_0035c</v>
+        <v>obj_00360</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6718,14 +6776,14 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42157</v>
-      </c>
-      <c r="J13" s="24">
-        <v>8.2198294438512211E-3</v>
+        <v>42164</v>
+      </c>
+      <c r="J13" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -6738,11 +6796,11 @@
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>stub</v>
-      </c>
-      <c r="F14" s="24">
+        <v>GBP_Stub</v>
+      </c>
+      <c r="F14" s="24" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.5088269200000004E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6750,14 +6808,14 @@
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>42172</v>
       </c>
-      <c r="J14" s="24">
-        <v>8.4833410649101989E-3</v>
+      <c r="J14" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -6766,7 +6824,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_0038f</v>
+        <v>obj_00386</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6774,11 +6832,11 @@
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.7079999999999389E-3</v>
+        <v>9.1099999999998803E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="H15" s="23">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
@@ -6788,8 +6846,8 @@
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42264</v>
       </c>
-      <c r="J15" s="24">
-        <v>8.8021344155551923E-3</v>
+      <c r="J15" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
@@ -6798,7 +6856,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_00388</v>
+        <v>obj_0039e</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6806,11 +6864,11 @@
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.1483000000000021E-2</v>
+        <v>1.0684999999999925E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>0</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="H16" s="23">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
@@ -6820,8 +6878,8 @@
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42354</v>
       </c>
-      <c r="J16" s="24">
-        <v>9.3504446227695645E-3</v>
+      <c r="J16" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="73"/>
@@ -6830,7 +6888,7 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_0039a</v>
+        <v>obj_0036c</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6838,11 +6896,11 @@
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.3352000000000031E-2</v>
+        <v>1.2354000000000072E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>0</v>
+        <v>9.5999999999999989E-5</v>
       </c>
       <c r="H17" s="23">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
@@ -6852,8 +6910,8 @@
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>42445</v>
       </c>
-      <c r="J17" s="24">
-        <v>1.0032410128457958E-2</v>
+      <c r="J17" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
@@ -6862,7 +6920,7 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_0037c</v>
+        <v>obj_00368</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6870,11 +6928,11 @@
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.5116000000000018E-2</v>
+        <v>1.3918000000000007E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>0</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="H18" s="23">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
@@ -6884,8 +6942,8 @@
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>42537</v>
       </c>
-      <c r="J18" s="24">
-        <v>1.0778875146395221E-2</v>
+      <c r="J18" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="73"/>
@@ -6894,7 +6952,7 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_0037e</v>
+        <v>obj_0037a</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6902,11 +6960,11 @@
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.6673999999999967E-2</v>
+        <v>1.5377000000000064E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>0</v>
+        <v>1.73E-4</v>
       </c>
       <c r="H19" s="23">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
@@ -6916,8 +6974,8 @@
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>42628</v>
       </c>
-      <c r="J19" s="24">
-        <v>1.1526900639921173E-2</v>
+      <c r="J19" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M19" s="182"/>
       <c r="N19" s="73"/>
@@ -6926,7 +6984,7 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_0038b</v>
+        <v>obj_0036a</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6934,11 +6992,11 @@
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.8324999999999925E-2</v>
+        <v>1.6926999999999998E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>0</v>
+        <v>2.23E-4</v>
       </c>
       <c r="H20" s="23">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
@@ -6948,8 +7006,8 @@
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>42725</v>
       </c>
-      <c r="J20" s="24">
-        <v>1.2329064012159826E-2</v>
+      <c r="J20" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M20" s="182"/>
       <c r="N20" s="73"/>
@@ -6958,7 +7016,7 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_00398</v>
+        <v>obj_0038f</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6966,7 +7024,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.5070000000000002E-2</v>
+        <v>1.4180000000000002E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6974,14 +7032,14 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43010</v>
-      </c>
-      <c r="J21" s="24">
-        <v>1.5085861757074737E-2</v>
+        <v>43017</v>
+      </c>
+      <c r="J21" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M21" s="182"/>
       <c r="N21" s="73"/>
@@ -6990,7 +7048,7 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_00373</v>
+        <v>obj_00391</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -6998,7 +7056,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.6350000000000003E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7006,14 +7064,14 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43375</v>
-      </c>
-      <c r="J22" s="24">
-        <v>1.745069907014184E-2</v>
+        <v>43382</v>
+      </c>
+      <c r="J22" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -7022,7 +7080,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_0038c</v>
+        <v>obj_00374</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -7030,7 +7088,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.916E-2</v>
+        <v>1.806E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7038,14 +7096,14 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43740</v>
-      </c>
-      <c r="J23" s="24">
-        <v>1.9250181768466178E-2</v>
+        <v>43747</v>
+      </c>
+      <c r="J23" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M23" s="182"/>
       <c r="N23" s="73"/>
@@ -7054,7 +7112,7 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_0037f</v>
+        <v>obj_00380</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -7062,7 +7120,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.0569999999999998E-2</v>
+        <v>1.9480000000000001E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7070,14 +7128,14 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44106</v>
-      </c>
-      <c r="J24" s="24">
-        <v>2.0703402103377774E-2</v>
+        <v>44113</v>
+      </c>
+      <c r="J24" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
@@ -7086,7 +7144,7 @@
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_00371</v>
+        <v>obj_00389</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7094,7 +7152,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.1729999999999999E-2</v>
+        <v>2.068E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7102,14 +7160,14 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44473</v>
-      </c>
-      <c r="J25" s="24">
-        <v>2.190892966438612E-2</v>
+        <v>44480</v>
+      </c>
+      <c r="J25" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
@@ -7118,7 +7176,7 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_00381</v>
+        <v>obj_003a2</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7126,7 +7184,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.2720000000000004E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7134,14 +7192,14 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44837</v>
-      </c>
-      <c r="J26" s="24">
-        <v>2.2947869977657836E-2</v>
+        <v>44844</v>
+      </c>
+      <c r="J26" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
@@ -7150,7 +7208,7 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_003b0</v>
+        <v>obj_0036f</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7158,7 +7216,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.358E-2</v>
+        <v>2.265E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7166,14 +7224,14 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45201</v>
-      </c>
-      <c r="J27" s="24">
-        <v>2.385913989298321E-2</v>
+        <v>45208</v>
+      </c>
+      <c r="J27" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
@@ -7182,7 +7240,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_00366</v>
+        <v>obj_00370</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7190,7 +7248,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.4319999999999998E-2</v>
+        <v>2.3450000000000002E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7198,14 +7256,14 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45567</v>
-      </c>
-      <c r="J28" s="24">
-        <v>2.4649837192040999E-2</v>
+        <v>45574</v>
+      </c>
+      <c r="J28" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -7214,7 +7272,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_0038d</v>
+        <v>obj_00394</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7222,7 +7280,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.5520000000000001E-2</v>
+        <v>2.4709999999999999E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7230,14 +7288,14 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46297</v>
-      </c>
-      <c r="J29" s="24">
-        <v>2.5949505296929843E-2</v>
+        <v>46304</v>
+      </c>
+      <c r="J29" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
@@ -7246,7 +7304,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_003a3</v>
+        <v>obj_0039b</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7254,7 +7312,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.6790000000000001E-2</v>
+        <v>2.6009999999999998E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7262,14 +7320,14 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47393</v>
-      </c>
-      <c r="J30" s="24">
-        <v>2.7350287642957587E-2</v>
+        <v>47400</v>
+      </c>
+      <c r="J30" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
@@ -7278,7 +7336,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_00396</v>
+        <v>obj_0039f</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7286,7 +7344,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.793E-2</v>
+        <v>2.7210000000000002E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7294,14 +7352,14 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49219</v>
-      </c>
-      <c r="J31" s="24">
-        <v>2.8615280660427608E-2</v>
+        <v>49226</v>
+      </c>
+      <c r="J31" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
@@ -7310,7 +7368,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_0036e</v>
+        <v>obj_00393</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7318,7 +7376,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.8309999999999998E-2</v>
+        <v>2.7630000000000002E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7326,14 +7384,14 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>51046</v>
-      </c>
-      <c r="J32" s="24">
-        <v>2.8966046788937903E-2</v>
+        <v>51053</v>
+      </c>
+      <c r="J32" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -7342,7 +7400,7 @@
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_003a2</v>
+        <v>obj_0037d</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7350,7 +7408,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.8459999999999999E-2</v>
+        <v>2.7820000000000001E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7358,14 +7416,14 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>52873</v>
-      </c>
-      <c r="J33" s="24">
-        <v>2.9049082812273495E-2</v>
+        <v>52880</v>
+      </c>
+      <c r="J33" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
@@ -7374,7 +7432,7 @@
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_003b3</v>
+        <v>obj_0039c</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7382,7 +7440,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.8340000000000001E-2</v>
+        <v>2.7710000000000002E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7390,14 +7448,14 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56524</v>
-      </c>
-      <c r="J34" s="24">
-        <v>2.865098699447912E-2</v>
+        <v>56531</v>
+      </c>
+      <c r="J34" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
@@ -7406,7 +7464,7 @@
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00372</v>
+        <v>obj_0038d</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7414,7 +7472,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.836E-2</v>
+        <v>2.7710000000000002E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7422,14 +7480,14 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60177</v>
-      </c>
-      <c r="J35" s="24">
-        <v>2.8586858759194367E-2</v>
+        <v>60184</v>
+      </c>
+      <c r="J35" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
@@ -7438,7 +7496,7 @@
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_00383</v>
+        <v>obj_003aa</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7446,7 +7504,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.8490000000000001E-2</v>
+        <v>2.7840000000000004E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7454,14 +7512,14 @@
       </c>
       <c r="H36" s="23">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="I36" s="22">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>63829</v>
-      </c>
-      <c r="J36" s="24">
-        <v>2.8818055043591528E-2</v>
+        <v>63836</v>
+      </c>
+      <c r="J36" s="24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
@@ -7493,7 +7551,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
@@ -7525,7 +7583,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
@@ -7557,7 +7615,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
@@ -7589,7 +7647,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.2">
@@ -7617,7 +7675,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.2">
@@ -7645,7 +7703,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.2">
@@ -7673,7 +7731,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.2">
@@ -7701,7 +7759,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.2">
@@ -7729,7 +7787,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.2">
@@ -7757,7 +7815,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.2">
@@ -7785,7 +7843,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.2">
@@ -7813,7 +7871,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
@@ -7841,7 +7899,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
@@ -7869,7 +7927,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
@@ -7897,7 +7955,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
@@ -7925,7 +7983,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
@@ -7953,7 +8011,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
@@ -7981,7 +8039,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
@@ -8009,7 +8067,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
@@ -8037,7 +8095,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
@@ -8065,7 +8123,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
@@ -8093,7 +8151,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
@@ -8121,7 +8179,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
@@ -8149,7 +8207,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
@@ -8177,7 +8235,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
@@ -8205,7 +8263,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
@@ -8233,7 +8291,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
@@ -8261,7 +8319,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
@@ -8289,7 +8347,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
@@ -8317,7 +8375,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
@@ -8345,7 +8403,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
@@ -8373,7 +8431,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
@@ -8401,7 +8459,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
@@ -8429,7 +8487,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
@@ -8457,7 +8515,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
@@ -8485,7 +8543,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
@@ -8513,7 +8571,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
@@ -8541,7 +8599,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
@@ -8569,7 +8627,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
@@ -8597,7 +8655,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
@@ -8625,7 +8683,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
@@ -8653,7 +8711,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
@@ -8681,7 +8739,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
@@ -8709,7 +8767,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
@@ -8737,7 +8795,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
@@ -8765,7 +8823,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
@@ -8793,7 +8851,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
@@ -8821,7 +8879,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
@@ -8849,7 +8907,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
@@ -8877,7 +8935,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
@@ -8905,7 +8963,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
@@ -8933,7 +8991,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
@@ -8961,7 +9019,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
@@ -8989,7 +9047,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
@@ -9017,7 +9075,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
@@ -9045,7 +9103,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
@@ -9073,7 +9131,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
@@ -9101,7 +9159,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
@@ -9129,7 +9187,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
@@ -9157,7 +9215,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
@@ -9185,7 +9243,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
@@ -9213,7 +9271,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
@@ -9241,7 +9299,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
@@ -9269,7 +9327,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
@@ -9297,7 +9355,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
@@ -9325,7 +9383,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
@@ -9353,7 +9411,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
@@ -9381,7 +9439,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
@@ -9409,7 +9467,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
@@ -9437,7 +9495,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
@@ -9465,7 +9523,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
@@ -9493,7 +9551,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
@@ -9521,7 +9579,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
@@ -9549,7 +9607,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
@@ -9577,7 +9635,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
@@ -9605,7 +9663,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
@@ -9633,7 +9691,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
@@ -9661,7 +9719,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
@@ -9689,7 +9747,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
@@ -9717,7 +9775,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
@@ -9745,7 +9803,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
@@ -9773,7 +9831,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
@@ -9801,7 +9859,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
@@ -9829,7 +9887,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
@@ -9857,7 +9915,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
@@ -9885,7 +9943,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
@@ -9913,7 +9971,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
@@ -9941,7 +9999,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
@@ -9969,7 +10027,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -9997,7 +10055,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="24" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -10019,9 +10077,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -10041,10 +10099,12 @@
     <col min="13" max="13" width="9.140625" style="72"/>
     <col min="14" max="14" width="19.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="72"/>
+    <col min="16" max="16" width="19.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -10066,7 +10126,7 @@
       <c r="K1" s="73"/>
       <c r="L1" s="77"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88" t="s">
@@ -10099,8 +10159,32 @@
         <v/>
       </c>
       <c r="L2" s="77"/>
-    </row>
-    <row r="3" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="84" t="s">
         <v>97</v>
@@ -10130,16 +10214,46 @@
       </c>
       <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00352#0003</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
         <v/>
       </c>
       <c r="L3" s="77"/>
-      <c r="N3" s="76"/>
-    </row>
-    <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="200" t="str">
+        <f>Futures!$M$3</f>
+        <v>M5</v>
+      </c>
+      <c r="O3" s="200">
+        <f>_xll.qlIMMdate(N3,,Trigger)</f>
+        <v>42172</v>
+      </c>
+      <c r="P3" s="200">
+        <f>_xll.qlRateHelperLatestDate(J20,Trigger)</f>
+        <v>42172</v>
+      </c>
+      <c r="Q3" s="202" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="201" t="e">
+        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","bid")/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S3" s="201" t="e">
+        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","ask")/100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T3" s="201" t="e">
+        <f>AVERAGE(R3:S3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U3" s="201" t="e">
+        <f>_xll.qlSimpleQuoteSetValue(I20,T3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="81" t="s">
         <v>134</v>
@@ -10162,7 +10276,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0003</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10170,7 +10284,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0003</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10179,7 +10293,7 @@
       <c r="L4" s="77"/>
       <c r="N4" s="76"/>
     </row>
-    <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="84" t="s">
         <v>95</v>
@@ -10210,7 +10324,7 @@
       </c>
       <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_0034e#0003</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10219,7 +10333,7 @@
       <c r="L5" s="77"/>
       <c r="N5" s="76"/>
     </row>
-    <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="84" t="s">
         <v>132</v>
@@ -10242,7 +10356,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0003</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10250,7 +10364,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0003</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10259,7 +10373,7 @@
       <c r="L6" s="77"/>
       <c r="N6" s="76"/>
     </row>
-    <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="81" t="s">
         <v>133</v>
@@ -10282,7 +10396,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0003</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10290,7 +10404,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0003</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10299,7 +10413,7 @@
       <c r="L7" s="77"/>
       <c r="N7" s="76"/>
     </row>
-    <row r="8" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="81" t="s">
         <v>94</v>
@@ -10330,7 +10444,7 @@
       </c>
       <c r="J8" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_00358#0003</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10339,7 +10453,7 @@
       <c r="L8" s="77"/>
       <c r="N8" s="76"/>
     </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="84" t="s">
         <v>93</v>
@@ -10370,7 +10484,7 @@
       </c>
       <c r="J9" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_00349#0003</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10379,7 +10493,7 @@
       <c r="L9" s="77"/>
       <c r="N9" s="76"/>
     </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
       <c r="B10" s="81" t="s">
         <v>92</v>
@@ -10410,7 +10524,7 @@
       </c>
       <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_0034f#0003</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10419,7 +10533,7 @@
       <c r="L10" s="77"/>
       <c r="N10" s="76"/>
     </row>
-    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="81" t="s">
         <v>135</v>
@@ -10442,7 +10556,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0003</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10450,7 +10564,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0003</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10459,7 +10573,7 @@
       <c r="L11" s="77"/>
       <c r="N11" s="76"/>
     </row>
-    <row r="12" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="84" t="s">
         <v>136</v>
@@ -10482,7 +10596,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0003</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10490,7 +10604,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0003</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10499,7 +10613,7 @@
       <c r="L12" s="77"/>
       <c r="N12" s="76"/>
     </row>
-    <row r="13" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="81" t="s">
         <v>91</v>
@@ -10530,7 +10644,7 @@
       </c>
       <c r="J13" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_00350#0003</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10539,7 +10653,7 @@
       <c r="L13" s="77"/>
       <c r="N13" s="76"/>
     </row>
-    <row r="14" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="81" t="s">
         <v>137</v>
@@ -10562,7 +10676,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0003</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10570,7 +10684,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0003</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10579,7 +10693,7 @@
       <c r="L14" s="77"/>
       <c r="N14" s="76"/>
     </row>
-    <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="84" t="s">
         <v>138</v>
@@ -10602,7 +10716,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0003</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10610,7 +10724,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0003</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10619,7 +10733,7 @@
       <c r="L15" s="77"/>
       <c r="N15" s="76"/>
     </row>
-    <row r="16" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
       <c r="B16" s="81" t="s">
         <v>139</v>
@@ -10642,7 +10756,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0003</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10650,7 +10764,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0003</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10682,7 +10796,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0003</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10690,7 +10804,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0003</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10722,7 +10836,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0003</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10730,7 +10844,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0003</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10770,7 +10884,7 @@
       </c>
       <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_00355#0003</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10782,8 +10896,8 @@
     <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
       <c r="B20" s="81">
-        <f>_xll.qlCalendarBusinessDaysBetween(D20,_xll.qlSettingsEvaluationDate(Trigger),G25)-1</f>
-        <v>177</v>
+        <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C20&amp;"D",,,Trigger),O3,Trigger)-1</f>
+        <v>172</v>
       </c>
       <c r="C20" s="84">
         <v>0</v>
@@ -10803,12 +10917,12 @@
       </c>
       <c r="H20" s="179"/>
       <c r="I20" s="180" t="str">
-        <f>_xll.qlSimpleQuote("stub",,,,Trigger)</f>
-        <v>stub#0003</v>
+        <f>_xll.qlSimpleQuote("GBP_Stub",,,,Trigger)</f>
+        <v>GBP_Stub#0002</v>
       </c>
       <c r="J20" s="181" t="str">
         <f>_xll.qlDepositRateHelper2(,I20,B20&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
-        <v>obj_003b4#0010</v>
+        <v>obj_003b4#0003</v>
       </c>
       <c r="K20" s="78"/>
       <c r="L20" s="77"/>
@@ -10830,44 +10944,7 @@
       <c r="N21" s="76"/>
     </row>
     <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="184" t="e">
-        <f ca="1">qlSimpleQuoteSetValue(I20,J24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="72">
-        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","ask")/100</f>
-        <v>8.4340821600000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="76">
-        <f>_xll.qlIMMNextDate(_xll.qlSettingsEvaluationDate(Trigger),TRUE)</f>
-        <v>41990</v>
-      </c>
-      <c r="J23" s="72">
-        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","bid")/100</f>
-        <v>8.2340821599999996E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="76">
-        <f>_xll.qlIMMNextDate(G23)</f>
-        <v>42081</v>
-      </c>
-      <c r="J24" s="72">
-        <f>AVERAGE(J22:J23)</f>
-        <v>8.334082159999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="76">
-        <f>_xll.qlIMMNextDate(G24)</f>
-        <v>42172</v>
-      </c>
-      <c r="H25" s="188">
-        <f>_xll.qlRateHelperLatestDate(J20)</f>
-        <v>42172</v>
-      </c>
+      <c r="I22" s="184"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -10890,7 +10967,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10905,10 +10982,12 @@
     <col min="8" max="8" width="27.140625" style="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" style="72" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="6.28515625" style="72"/>
+    <col min="11" max="13" width="6.28515625" style="72"/>
+    <col min="14" max="15" width="10.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="6.28515625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -10928,7 +11007,7 @@
       <c r="I1" s="126"/>
       <c r="J1" s="77"/>
     </row>
-    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="91"/>
       <c r="B2" s="127" t="s">
         <v>131</v>
@@ -10957,8 +11036,14 @@
         <v/>
       </c>
       <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
       <c r="B3" s="131">
         <v>1</v>
@@ -10978,13 +11063,13 @@
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
         <v>GBPFUT3MV4_Quote</v>
       </c>
-      <c r="G3" s="134" t="str">
-        <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MV4ConvAdj_Quote</v>
+      <c r="G3" s="199">
+        <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
+        <v>0</v>
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0003</v>
+        <v>obj_00387#0004</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -10992,8 +11077,20 @@
       </c>
       <c r="J3" s="77"/>
       <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="72" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlSettingsEvaluationDate(Trigger),TRUE,Trigger)</f>
+        <v>Z4</v>
+      </c>
+      <c r="M3" s="194" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(L4,,Trigger),TRUE,Trigger)</f>
+        <v>M5</v>
+      </c>
+      <c r="N3" s="195">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O3" s="198"/>
+    </row>
+    <row r="4" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
       <c r="B4" s="137">
         <v>2</v>
@@ -11012,13 +11109,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MX4_Quote</v>
       </c>
-      <c r="G4" s="134" t="str">
-        <f t="shared" si="2"/>
-        <v>GBPFUT3MX4ConvAdj_Quote</v>
+      <c r="G4" s="199">
+        <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
+        <v>0</v>
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0003</v>
+        <v>obj_0039d#0004</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11026,8 +11123,20 @@
       </c>
       <c r="J4" s="77"/>
       <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="72" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(L3,,Trigger),TRUE,Trigger)</f>
+        <v>H5</v>
+      </c>
+      <c r="M4" s="194" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M3,,Trigger),TRUE,Trigger)</f>
+        <v>U5</v>
+      </c>
+      <c r="N4" s="195">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="O4" s="198"/>
+    </row>
+    <row r="5" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
       <c r="B5" s="137">
         <v>3</v>
@@ -11046,13 +11155,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ4_Quote</v>
       </c>
-      <c r="G5" s="134" t="str">
+      <c r="G5" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ4ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0003</v>
+        <v>obj_0037e#0004</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11060,8 +11169,16 @@
       </c>
       <c r="J5" s="77"/>
       <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="194" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M4,,Trigger),TRUE,Trigger)</f>
+        <v>Z5</v>
+      </c>
+      <c r="N5" s="195">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="O5" s="198"/>
+    </row>
+    <row r="6" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
       <c r="B6" s="137">
         <v>4</v>
@@ -11080,13 +11197,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MF5_Quote</v>
       </c>
-      <c r="G6" s="134" t="str">
+      <c r="G6" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MF5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0003</v>
+        <v>obj_0038e#0004</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11094,8 +11211,16 @@
       </c>
       <c r="J6" s="77"/>
       <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="194" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M5,,Trigger),TRUE,Trigger)</f>
+        <v>H6</v>
+      </c>
+      <c r="N6" s="195">
+        <v>1.32E-2</v>
+      </c>
+      <c r="O6" s="198"/>
+    </row>
+    <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
       <c r="B7" s="137">
         <v>5</v>
@@ -11114,13 +11239,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MG5_Quote</v>
       </c>
-      <c r="G7" s="134" t="str">
+      <c r="G7" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MG5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00395#0003</v>
+        <v>obj_0039a#0004</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11128,8 +11253,16 @@
       </c>
       <c r="J7" s="77"/>
       <c r="K7" s="76"/>
-    </row>
-    <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="194" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M6,,Trigger),TRUE,Trigger)</f>
+        <v>M6</v>
+      </c>
+      <c r="N7" s="195">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="O7" s="198"/>
+    </row>
+    <row r="8" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130"/>
       <c r="B8" s="137">
         <v>6</v>
@@ -11148,13 +11281,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH5_Quote</v>
       </c>
-      <c r="G8" s="134" t="str">
+      <c r="G8" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0003</v>
+        <v>obj_00396#0004</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11162,8 +11295,16 @@
       </c>
       <c r="J8" s="77"/>
       <c r="K8" s="76"/>
-    </row>
-    <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="196" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M7,,Trigger),TRUE,Trigger)</f>
+        <v>U6</v>
+      </c>
+      <c r="N8" s="197">
+        <v>2.23E-2</v>
+      </c>
+      <c r="O8" s="198"/>
+    </row>
+    <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="130"/>
       <c r="B9" s="137">
         <v>7</v>
@@ -11182,13 +11323,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MJ5_Quote</v>
       </c>
-      <c r="G9" s="134" t="str">
+      <c r="G9" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MJ5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ac#0003</v>
+        <v>obj_00388#0004</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11197,7 +11338,7 @@
       <c r="J9" s="77"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="130"/>
       <c r="B10" s="137">
         <v>8</v>
@@ -11216,13 +11357,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MK5_Quote</v>
       </c>
-      <c r="G10" s="134" t="str">
+      <c r="G10" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MK5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b1#0003</v>
+        <v>obj_00377#0004</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11231,7 +11372,7 @@
       <c r="J10" s="77"/>
       <c r="K10" s="76"/>
     </row>
-    <row r="11" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="130"/>
       <c r="B11" s="137">
         <v>9</v>
@@ -11250,13 +11391,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM5_Quote</v>
       </c>
-      <c r="G11" s="134" t="str">
+      <c r="G11" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM5ConvAdj_Quote</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038f#0003</v>
+        <v>obj_00386#0004</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11265,7 +11406,7 @@
       <c r="J11" s="77"/>
       <c r="K11" s="76"/>
     </row>
-    <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="130"/>
       <c r="B12" s="137">
         <v>10</v>
@@ -11284,13 +11425,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MN5_Quote</v>
       </c>
-      <c r="G12" s="134" t="str">
+      <c r="G12" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MN5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0003</v>
+        <v>obj_003b1#0004</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11299,7 +11440,7 @@
       <c r="J12" s="77"/>
       <c r="K12" s="76"/>
     </row>
-    <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="130"/>
       <c r="B13" s="137">
         <v>11</v>
@@ -11318,13 +11459,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MQ5_Quote</v>
       </c>
-      <c r="G13" s="134" t="str">
+      <c r="G13" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MQ5ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0003</v>
+        <v>obj_00384#0004</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11333,7 +11474,7 @@
       <c r="J13" s="77"/>
       <c r="K13" s="76"/>
     </row>
-    <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="130"/>
       <c r="B14" s="137">
         <v>12</v>
@@ -11352,13 +11493,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU5_Quote</v>
       </c>
-      <c r="G14" s="134" t="str">
+      <c r="G14" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU5ConvAdj_Quote</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00388#0003</v>
+        <v>obj_0039e#0004</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11367,7 +11508,7 @@
       <c r="J14" s="77"/>
       <c r="K14" s="76"/>
     </row>
-    <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="130"/>
       <c r="B15" s="137">
         <v>13</v>
@@ -11386,13 +11527,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ5_Quote</v>
       </c>
-      <c r="G15" s="134" t="str">
+      <c r="G15" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ5ConvAdj_Quote</v>
+        <v>9.5999999999999989E-5</v>
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0003</v>
+        <v>obj_0036c#0004</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11401,7 +11542,7 @@
       <c r="J15" s="77"/>
       <c r="K15" s="76"/>
     </row>
-    <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="130"/>
       <c r="B16" s="137">
         <v>14</v>
@@ -11420,13 +11561,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH6_Quote</v>
       </c>
-      <c r="G16" s="134" t="str">
+      <c r="G16" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH6ConvAdj_Quote</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0003</v>
+        <v>obj_00368#0004</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11454,13 +11595,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM6_Quote</v>
       </c>
-      <c r="G17" s="134" t="str">
+      <c r="G17" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM6ConvAdj_Quote</v>
+        <v>1.73E-4</v>
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037e#0003</v>
+        <v>obj_0037a#0004</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11488,13 +11629,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU6_Quote</v>
       </c>
-      <c r="G18" s="134" t="str">
+      <c r="G18" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU6ConvAdj_Quote</v>
+        <v>2.23E-4</v>
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038b#0003</v>
+        <v>obj_0036a#0004</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11522,13 +11663,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ6_Quote</v>
       </c>
-      <c r="G19" s="134" t="str">
+      <c r="G19" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ6ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0003</v>
+        <v>obj_003b2#0004</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11556,13 +11697,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH7_Quote</v>
       </c>
-      <c r="G20" s="134" t="str">
+      <c r="G20" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH7ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0003</v>
+        <v>obj_00366#0004</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11590,13 +11731,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM7_Quote</v>
       </c>
-      <c r="G21" s="134" t="str">
+      <c r="G21" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM7ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0003</v>
+        <v>obj_0038a#0004</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11624,13 +11765,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU7_Quote</v>
       </c>
-      <c r="G22" s="134" t="str">
+      <c r="G22" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU7ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00385#0003</v>
+        <v>obj_00373#0004</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11658,13 +11799,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ7_Quote</v>
       </c>
-      <c r="G23" s="134" t="str">
+      <c r="G23" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ7ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0003</v>
+        <v>obj_00379#0004</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11692,13 +11833,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH8_Quote</v>
       </c>
-      <c r="G24" s="134" t="str">
+      <c r="G24" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH8ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00384#0003</v>
+        <v>obj_00369#0004</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11726,13 +11867,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM8_Quote</v>
       </c>
-      <c r="G25" s="134" t="str">
+      <c r="G25" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM8ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0003</v>
+        <v>obj_0036e#0004</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11760,13 +11901,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU8_Quote</v>
       </c>
-      <c r="G26" s="134" t="str">
+      <c r="G26" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU8ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0003</v>
+        <v>obj_003a4#0004</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11794,13 +11935,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ8_Quote</v>
       </c>
-      <c r="G27" s="134" t="str">
+      <c r="G27" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ8ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037d#0003</v>
+        <v>obj_00372#0004</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11828,13 +11969,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH9_Quote</v>
       </c>
-      <c r="G28" s="134" t="str">
+      <c r="G28" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH9ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0003</v>
+        <v>obj_003a7#0004</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11862,13 +12003,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM9_Quote</v>
       </c>
-      <c r="G29" s="134" t="str">
+      <c r="G29" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM9ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a0#0003</v>
+        <v>obj_003b0#0004</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11896,13 +12037,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU9_Quote</v>
       </c>
-      <c r="G30" s="134" t="str">
+      <c r="G30" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU9ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a7#0003</v>
+        <v>obj_003b3#0004</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11930,13 +12071,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ9_Quote</v>
       </c>
-      <c r="G31" s="134" t="str">
+      <c r="G31" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ9ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0003</v>
+        <v>obj_00390#0004</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -11964,13 +12105,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH0_Quote</v>
       </c>
-      <c r="G32" s="134" t="str">
+      <c r="G32" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH0ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0003</v>
+        <v>obj_0036d#0004</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -11998,13 +12139,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM0_Quote</v>
       </c>
-      <c r="G33" s="134" t="str">
+      <c r="G33" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM0ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0003</v>
+        <v>obj_00378#0004</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12032,13 +12173,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU0_Quote</v>
       </c>
-      <c r="G34" s="134" t="str">
+      <c r="G34" s="199">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU0ConvAdj_Quote</v>
+        <v>0</v>
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0003</v>
+        <v>obj_00376#0004</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12066,13 +12207,13 @@
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
         <v>GBPFUT3MZ0_Quote</v>
       </c>
-      <c r="G35" s="134" t="str">
-        <f t="shared" ref="G35:G44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ0ConvAdj_Quote</v>
+      <c r="G35" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0003</v>
+        <v>obj_00392#0004</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12100,13 +12241,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MH1_Quote</v>
       </c>
-      <c r="G36" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MH1ConvAdj_Quote</v>
+      <c r="G36" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0003</v>
+        <v>obj_003a9#0004</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12134,13 +12275,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MM1_Quote</v>
       </c>
-      <c r="G37" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MM1ConvAdj_Quote</v>
+      <c r="G37" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0003</v>
+        <v>obj_003a5#0004</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12168,13 +12309,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MU1_Quote</v>
       </c>
-      <c r="G38" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MU1ConvAdj_Quote</v>
+      <c r="G38" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0003</v>
+        <v>obj_0037c#0004</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12202,13 +12343,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MZ1_Quote</v>
       </c>
-      <c r="G39" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MZ1ConvAdj_Quote</v>
+      <c r="G39" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0003</v>
+        <v>obj_0038b#0004</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12236,13 +12377,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MH2_Quote</v>
       </c>
-      <c r="G40" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MH2ConvAdj_Quote</v>
+      <c r="G40" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a6#0003</v>
+        <v>obj_003a8#0004</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12270,13 +12411,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MM2_Quote</v>
       </c>
-      <c r="G41" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MM2ConvAdj_Quote</v>
+      <c r="G41" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0003</v>
+        <v>obj_00365#0004</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12305,13 +12446,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MU2_Quote</v>
       </c>
-      <c r="G42" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MU2ConvAdj_Quote</v>
+      <c r="G42" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0003</v>
+        <v>obj_0038c#0004</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12339,13 +12480,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MZ2_Quote</v>
       </c>
-      <c r="G43" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MZ2ConvAdj_Quote</v>
+      <c r="G43" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0003</v>
+        <v>obj_00383#0004</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12373,13 +12514,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MH3_Quote</v>
       </c>
-      <c r="G44" s="134" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MH3ConvAdj_Quote</v>
+      <c r="G44" s="199">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00379#0003</v>
+        <v>obj_003ad#0004</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12519,7 +12660,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="159" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00364#0003</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="L4" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12578,7 +12719,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00380#0003</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12625,7 +12766,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00393#0003</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12676,7 +12817,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038e#0003</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12727,7 +12868,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039c#0003</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12774,7 +12915,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0003</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12825,7 +12966,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00398#0003</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12867,7 +13008,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00373#0003</v>
+        <v>obj_00391#0001</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12909,7 +13050,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038c#0003</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -12951,7 +13092,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037f#0003</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -12993,7 +13134,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00371#0003</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13035,7 +13176,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0003</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13077,7 +13218,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b0#0003</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13119,7 +13260,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0003</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13161,7 +13302,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00377#0003</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13203,7 +13344,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038d#0003</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13245,7 +13386,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0003</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13287,7 +13428,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00378#0003</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13329,7 +13470,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a3#0003</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13371,7 +13512,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00399#0003</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13413,7 +13554,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00386#0003</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13455,7 +13596,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0003</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13497,7 +13638,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0003</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13539,7 +13680,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00396#0003</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13581,7 +13722,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00397#0003</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13623,7 +13764,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0003</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13665,7 +13806,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a4#0003</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13707,7 +13848,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0003</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13749,7 +13890,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036e#0003</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13791,7 +13932,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00382#0003</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13833,7 +13974,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00387#0003</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13875,7 +14016,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037a#0003</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13917,7 +14058,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00368#0003</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -13959,7 +14100,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a2#0003</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -14001,7 +14142,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039d#0003</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -14043,7 +14184,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b3#0003</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14085,7 +14226,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00372#0003</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -14127,7 +14268,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00383#0003</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="-15" windowWidth="19260" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15180" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="153">
   <si>
     <t>60Y</t>
   </si>
@@ -677,24 +677,6 @@
   </si>
   <si>
     <t>Stub End Date</t>
-  </si>
-  <si>
-    <t>Stub Name</t>
-  </si>
-  <si>
-    <t>BID</t>
-  </si>
-  <si>
-    <t>ASK</t>
-  </si>
-  <si>
-    <t>MID</t>
-  </si>
-  <si>
-    <t>Set Quote</t>
-  </si>
-  <si>
-    <t>GBP_STD_#20150617D</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1339,7 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1756,22 +1738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,11 +1757,21 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1819,27 +1795,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp>_x0012_GBP_STD_#20150617D_x0003_ask_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="S3" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp>_x0012_GBP_STD_#20150617D_x0003_bid_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="R3" s="7"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2156,23 +2111,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="111" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct  1 2014 18:48:11</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
-      <c r="K2" s="188" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+      <c r="K2" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="191"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="198"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
@@ -2309,12 +2264,12 @@
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="40"/>
-      <c r="K9" s="188" t="s">
+      <c r="K9" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="191"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="198"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
@@ -2389,7 +2344,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0010</v>
+        <v>_GBPYCSTD#0003</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2514,11 +2469,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41921</v>
-      </c>
-      <c r="D23" s="120" t="e">
+        <v>41922</v>
+      </c>
+      <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#NUM!</v>
+        <v>2.8237341484246427E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2527,11 +2482,11 @@
       <c r="B24" s="43"/>
       <c r="C24" s="45">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63836</v>
-      </c>
-      <c r="D24" s="121" t="e">
+        <v>63837</v>
+      </c>
+      <c r="D24" s="121">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>#NUM!</v>
+        <v>4.7437075217081001E-3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2542,8 +2497,8 @@
         <v>52</v>
       </c>
       <c r="D25" s="122" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!J1)</f>
-        <v>qlPiecewiseYieldCurveData - 13th instrument (maturity: June 17th, 2015) has an invalid quote</v>
+        <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
+        <v/>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="40"/>
@@ -2675,7 +2630,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2697,11 +2652,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2714,7 +2669,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2722,7 +2677,7 @@
       </c>
       <c r="D3" s="6">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>4.8187999999999998E-3</v>
+        <v>4.8313000000000002E-3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="74" t="b">
@@ -2736,11 +2691,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2753,7 +2708,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2775,17 +2730,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41928</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2793,7 +2748,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.88095417E-3</v>
+        <v>4.8952624999999998E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2807,17 +2762,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41935</v>
+        <v>41936</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2825,7 +2780,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9431083300000003E-3</v>
+        <v>4.9683625000000002E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2839,17 +2794,17 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41942</v>
+        <v>41943</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2857,7 +2812,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0506000000000006E-3</v>
+        <v>5.0505999999999997E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2871,7 +2826,7 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
@@ -2889,7 +2844,7 @@
       </c>
       <c r="D8" s="6">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>5.2650000000000006E-3</v>
+        <v>5.2649999999999997E-3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="74" t="b">
@@ -2903,17 +2858,17 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41982</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2935,17 +2890,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42013</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2953,7 +2908,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.1276219800000002E-3</v>
+        <v>6.0992999999999993E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2967,17 +2922,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42044</v>
+        <v>42045</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2985,7 +2940,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.5793450499999993E-3</v>
+        <v>6.5239666699999999E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2999,11 +2954,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -3016,7 +2971,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -3024,7 +2979,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>6.9638000000000009E-3</v>
+        <v>6.9638E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -3038,11 +2993,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -3055,7 +3010,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -3063,7 +3018,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.63198846E-3</v>
+        <v>7.4849967200000004E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -3077,7 +3032,7 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
@@ -3094,7 +3049,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3102,7 +3057,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.2423615399999997E-3</v>
+        <v>8.0409398899999995E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3116,11 +3071,11 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42164</v>
+        <v>42165</v>
       </c>
       <c r="K14" s="1">
         <v>60</v>
@@ -3133,7 +3088,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3141,7 +3096,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.76025385E-3</v>
+        <v>8.5447633899999997E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3155,17 +3110,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42194</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3173,7 +3128,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.3336346199999996E-3</v>
+        <v>9.0833333300000003E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3187,7 +3142,7 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
@@ -3197,7 +3152,7 @@
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3205,7 +3160,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>9.925511540000001E-3</v>
+        <v>9.62190328E-3</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3219,17 +3174,17 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00353#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3251,11 +3206,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42286</v>
+        <v>42289</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3272,11 +3227,11 @@
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
-        <v>GBP_Stub</v>
-      </c>
-      <c r="D19" s="6" t="e">
+        <v>GBP_STUB_Quote</v>
+      </c>
+      <c r="D19" s="6">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>#NUM!</v>
+        <v>8.0756863400000007E-3</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="74" t="b">
@@ -3290,7 +3245,7 @@
       </c>
       <c r="I19" s="4">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J19" s="3">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
@@ -3303,7 +3258,7 @@
       </c>
       <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00387#0004</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3342,7 +3297,7 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_0039d#0004</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3381,7 +3336,7 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_0037e#0004</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3389,7 +3344,7 @@
       </c>
       <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>99.384999999999991</v>
+        <v>99.39500000000001</v>
       </c>
       <c r="E22" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
@@ -3420,7 +3375,7 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_0038e#0004</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
@@ -3459,7 +3414,7 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_0039a#0004</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3498,7 +3453,7 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_00396#0004</v>
+        <v>obj_00392#0001</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
@@ -3506,7 +3461,7 @@
       </c>
       <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.245000000000005</v>
+        <v>99.265000000000001</v>
       </c>
       <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3537,7 +3492,7 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_00388#0004</v>
+        <v>obj_00386#0001</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
@@ -3576,7 +3531,7 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_00377#0004</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
@@ -3615,7 +3570,7 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_00386#0004</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
@@ -3623,7 +3578,7 @@
       </c>
       <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.085000000000008</v>
+        <v>99.125</v>
       </c>
       <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
@@ -3655,7 +3610,7 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_003b1#0004</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
@@ -3695,7 +3650,7 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_00384#0004</v>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
@@ -3735,7 +3690,7 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_0039e#0004</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
@@ -3743,7 +3698,7 @@
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.925000000000011</v>
+        <v>98.965000000000003</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3775,7 +3730,7 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_0036c#0004</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
@@ -3783,7 +3738,7 @@
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.754999999999995</v>
+        <v>98.805000000000007</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3816,7 +3771,7 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_00368#0004</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
@@ -3824,7 +3779,7 @@
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.594999999999999</v>
+        <v>98.64500000000001</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3857,7 +3812,7 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_0037a#0004</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
@@ -3865,7 +3820,7 @@
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>98.444999999999993</v>
+        <v>98.495000000000005</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
@@ -3898,7 +3853,7 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_0036a#0004</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
@@ -3906,7 +3861,7 @@
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>98.284999999999997</v>
+        <v>98.35499999999999</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3939,7 +3894,7 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_003b2#0004</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
@@ -3947,7 +3902,7 @@
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>98.155000000000001</v>
+        <v>98.215000000000003</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3980,7 +3935,7 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_00366#0004</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
@@ -3988,7 +3943,7 @@
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>98.045000000000002</v>
+        <v>98.115000000000009</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -4021,7 +3976,7 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_0038a#0004</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
@@ -4029,7 +3984,7 @@
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>97.944999999999993</v>
+        <v>98.015000000000001</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -4062,7 +4017,7 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_00373#0004</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
@@ -4070,7 +4025,7 @@
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.865000000000009</v>
+        <v>97.935000000000002</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4103,7 +4058,7 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_00379#0004</v>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
@@ -4111,7 +4066,7 @@
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.789999999999992</v>
+        <v>97.85499999999999</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4144,7 +4099,7 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00369#0004</v>
+        <v>obj_00379#0001</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
@@ -4152,7 +4107,7 @@
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.72</v>
+        <v>97.789999999999992</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4185,7 +4140,7 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_0036e#0004</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
@@ -4193,7 +4148,7 @@
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.65</v>
+        <v>97.72</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4226,7 +4181,7 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_003a4#0004</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
@@ -4234,7 +4189,7 @@
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.585000000000008</v>
+        <v>97.65</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4267,7 +4222,7 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_00372#0004</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
@@ -4275,7 +4230,7 @@
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.53</v>
+        <v>97.594999999999999</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4308,7 +4263,7 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_003a7#0004</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
@@ -4316,7 +4271,7 @@
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.485000000000014</v>
+        <v>97.55</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4349,15 +4304,15 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_003b0#0004</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
         <v>GBPFUT3MM9_Quote</v>
       </c>
-      <c r="D46" s="16" t="e">
+      <c r="D46" s="16">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>#NUM!</v>
+        <v>97.509999999999991</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
@@ -4390,15 +4345,15 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_003b3#0004</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
         <v>GBPFUT3MU9_Quote</v>
       </c>
-      <c r="D47" s="16" t="e">
+      <c r="D47" s="16">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>#NUM!</v>
+        <v>97.47</v>
       </c>
       <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
@@ -4431,15 +4386,15 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_00390#0004</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
         <v>GBPFUT3MZ9_Quote</v>
       </c>
-      <c r="D48" s="16" t="e">
+      <c r="D48" s="16">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>#NUM!</v>
+        <v>97.435000000000002</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
@@ -4470,15 +4425,15 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_0036d#0004</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
         <v>GBPFUT3MH0_Quote</v>
       </c>
-      <c r="D49" s="16" t="e">
+      <c r="D49" s="16">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>#NUM!</v>
+        <v>97.414999999999992</v>
       </c>
       <c r="E49" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
@@ -4509,7 +4464,7 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00378#0004</v>
+        <v>obj_00384#0001</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
@@ -4548,7 +4503,7 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_00376#0004</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
@@ -4587,7 +4542,7 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_00392#0004</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
@@ -4626,7 +4581,7 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_003a9#0004</v>
+        <v>obj_003b3#0001</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
@@ -4665,7 +4620,7 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_003a5#0004</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4704,7 +4659,7 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_0037c#0004</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4743,7 +4698,7 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_0038b#0004</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4782,7 +4737,7 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_003a8#0004</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4821,7 +4776,7 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_00365#0004</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4860,7 +4815,7 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_0038c#0004</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4899,7 +4854,7 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_00383#0004</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4938,7 +4893,7 @@
       </c>
       <c r="B61" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_003ad#0004</v>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4976,7 +4931,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -5001,17 +4956,17 @@
       </c>
       <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42286</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -5036,7 +4991,7 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
@@ -5046,7 +5001,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -5054,7 +5009,7 @@
       </c>
       <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>9.8700000000000003E-3</v>
+        <v>9.6200000000000001E-3</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -5071,7 +5026,7 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
@@ -5081,7 +5036,7 @@
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00388#0001</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -5106,7 +5061,7 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
@@ -5116,7 +5071,7 @@
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00375#0001</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5124,7 +5079,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.14E-2</v>
+        <v>1.107E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5141,7 +5096,7 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
@@ -5151,7 +5106,7 @@
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5159,7 +5114,7 @@
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.4180000000000002E-2</v>
+        <v>1.376E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5176,11 +5131,11 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43017</v>
+        <v>43018</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5194,7 +5149,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.6350000000000003E-2</v>
+        <v>1.5870000000000002E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5211,17 +5166,17 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43382</v>
+        <v>43383</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5229,7 +5184,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.806E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5246,17 +5201,17 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>43747</v>
+        <v>43748</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00380#0001</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5264,7 +5219,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>1.9480000000000001E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5281,17 +5236,17 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44113</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00389#0001</v>
+        <v>obj_00390#0001</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5299,7 +5254,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.068E-2</v>
+        <v>2.017E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5316,7 +5271,7 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
@@ -5327,7 +5282,7 @@
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5335,7 +5290,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.1729999999999999E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5352,7 +5307,7 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
@@ -5363,7 +5318,7 @@
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5371,7 +5326,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.265E-2</v>
+        <v>2.213E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5388,18 +5343,18 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5407,7 +5362,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.3450000000000002E-2</v>
+        <v>2.2930000000000002E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5424,18 +5379,18 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00398#0001</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5443,7 +5398,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.4130000000000002E-2</v>
+        <v>2.3620000000000002E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5460,18 +5415,18 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00394#0001</v>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5479,7 +5434,7 @@
       </c>
       <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>2.4709999999999999E-2</v>
+        <v>2.4219999999999998E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5496,18 +5451,18 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46304</v>
+        <v>46307</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00383#0001</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5532,7 +5487,7 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
@@ -5543,7 +5498,7 @@
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5568,18 +5523,18 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47035</v>
+        <v>47036</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5587,7 +5542,7 @@
       </c>
       <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>2.6009999999999998E-2</v>
+        <v>2.5549999999999996E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5604,18 +5559,18 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47400</v>
+        <v>47401</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5640,18 +5595,18 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>47765</v>
+        <v>47766</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5676,18 +5631,18 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48130</v>
+        <v>48131</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5712,7 +5667,7 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
@@ -5723,7 +5678,7 @@
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5748,7 +5703,7 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
@@ -5759,7 +5714,7 @@
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5767,7 +5722,7 @@
       </c>
       <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>2.7210000000000002E-2</v>
+        <v>2.683E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5784,18 +5739,18 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49226</v>
+        <v>49227</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5820,18 +5775,18 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49591</v>
+        <v>49592</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5856,18 +5811,18 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49957</v>
+        <v>49958</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5892,18 +5847,18 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50322</v>
+        <v>50325</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5928,7 +5883,7 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
@@ -5939,7 +5894,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5947,7 +5902,7 @@
       </c>
       <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>2.7630000000000002E-2</v>
+        <v>2.7309999999999997E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5964,7 +5919,7 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
@@ -5975,7 +5930,7 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -6000,18 +5955,18 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51418</v>
+        <v>51419</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00399#0001</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -6036,18 +5991,18 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>51783</v>
+        <v>51784</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -6072,18 +6027,18 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52148</v>
+        <v>52149</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00397#0001</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -6108,18 +6063,18 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52513</v>
+        <v>52516</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6127,7 +6082,7 @@
       </c>
       <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>2.7820000000000001E-2</v>
+        <v>2.7549999999999998E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -6144,7 +6099,7 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
@@ -6155,7 +6110,7 @@
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6180,7 +6135,7 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
@@ -6191,7 +6146,7 @@
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6199,7 +6154,7 @@
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.7710000000000002E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6216,18 +6171,18 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>56531</v>
+        <v>56534</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6235,7 +6190,7 @@
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.7710000000000002E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6252,18 +6207,18 @@
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>60184</v>
+        <v>60185</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="C98" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6271,7 +6226,7 @@
       </c>
       <c r="D98" s="6">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>2.7840000000000004E-2</v>
+        <v>2.7570000000000001E-2</v>
       </c>
       <c r="E98" s="6">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6288,11 +6243,11 @@
       </c>
       <c r="I98" s="4">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="J98" s="3">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>63836</v>
+        <v>63837</v>
       </c>
       <c r="L98" s="9"/>
     </row>
@@ -6320,7 +6275,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -6341,10 +6296,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="200"/>
       <c r="D1" s="145" t="s">
         <v>59</v>
       </c>
@@ -6361,9 +6316,9 @@
       <c r="I1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="24" t="e">
+      <c r="J1" s="24">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>4.7437075217081001E-3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6375,7 +6330,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0034d</v>
+        <v>obj_00352</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6391,14 +6346,14 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41922</v>
-      </c>
-      <c r="J2" s="24" t="e">
-        <v>#NUM!</v>
+        <v>41925</v>
+      </c>
+      <c r="J2" s="24">
+        <v>4.7437075217081001E-3</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
@@ -6413,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_00361</v>
+        <v>obj_0035b</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6421,7 +6376,7 @@
       </c>
       <c r="F3" s="24">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8187999999999998E-3</v>
+        <v>4.8313000000000002E-3</v>
       </c>
       <c r="G3" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6429,14 +6384,14 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41925</v>
-      </c>
-      <c r="J3" s="24" t="e">
-        <v>#NUM!</v>
+        <v>41926</v>
+      </c>
+      <c r="J3" s="24">
+        <v>4.7655976476932557E-3</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
@@ -6451,7 +6406,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_00354</v>
+        <v>obj_00351</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6467,14 +6422,14 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41928</v>
-      </c>
-      <c r="J4" s="24" t="e">
-        <v>#NUM!</v>
+        <v>41929</v>
+      </c>
+      <c r="J4" s="24">
+        <v>4.8310761916065988E-3</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
@@ -6489,7 +6444,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_00363</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6497,7 +6452,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.88095417E-3</v>
+        <v>4.8952624999999998E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6505,14 +6460,14 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41935</v>
-      </c>
-      <c r="J5" s="24" t="e">
-        <v>#NUM!</v>
+        <v>41936</v>
+      </c>
+      <c r="J5" s="24">
+        <v>4.8948029817231968E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -6528,7 +6483,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_00359</v>
+        <v>obj_0034b</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6536,7 +6491,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0506000000000006E-3</v>
+        <v>5.0505999999999997E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6544,14 +6499,14 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41953</v>
       </c>
-      <c r="J6" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J6" s="24">
+        <v>5.0495170694408375E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
@@ -6561,7 +6516,7 @@
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0010</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -6576,7 +6531,7 @@
       </c>
       <c r="F7" s="24">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.2650000000000006E-3</v>
+        <v>5.2649999999999997E-3</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6584,14 +6539,14 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41982</v>
-      </c>
-      <c r="J7" s="24" t="e">
-        <v>#NUM!</v>
+        <v>41983</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5.2626850103116218E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -6600,7 +6555,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_00356</v>
+        <v>obj_00355</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6616,14 +6571,14 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42013</v>
-      </c>
-      <c r="J8" s="24" t="e">
-        <v>#NUM!</v>
+        <v>42016</v>
+      </c>
+      <c r="J8" s="24">
+        <v>5.5947674692837773E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -6632,7 +6587,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_0035f</v>
+        <v>obj_00362</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6640,7 +6595,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1276219800000002E-3</v>
+        <v>6.0992999999999993E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6648,14 +6603,14 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42044</v>
-      </c>
-      <c r="J9" s="24" t="e">
-        <v>#NUM!</v>
+        <v>42045</v>
+      </c>
+      <c r="J9" s="24">
+        <v>6.0930403845047016E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -6664,7 +6619,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6672,7 +6627,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.5793450499999993E-3</v>
+        <v>6.5239666699999999E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6680,14 +6635,14 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42072</v>
-      </c>
-      <c r="J10" s="24" t="e">
-        <v>#NUM!</v>
+        <v>42073</v>
+      </c>
+      <c r="J10" s="24">
+        <v>6.5151785292494394E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -6696,7 +6651,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_00358</v>
+        <v>obj_00359</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6704,7 +6659,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>6.9638000000000009E-3</v>
+        <v>6.9638E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6712,14 +6667,14 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42103</v>
-      </c>
-      <c r="J11" s="24" t="e">
-        <v>#NUM!</v>
+        <v>42104</v>
+      </c>
+      <c r="J11" s="24">
+        <v>6.9517375033014825E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
@@ -6728,7 +6683,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_0035b</v>
+        <v>obj_00360</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6736,7 +6691,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.63198846E-3</v>
+        <v>7.4849967200000004E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6744,14 +6699,14 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>42135</v>
       </c>
-      <c r="J12" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J12" s="24">
+        <v>7.4686970949316362E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
@@ -6760,7 +6715,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_00360</v>
+        <v>obj_0035a</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6768,7 +6723,7 @@
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.2423615399999997E-3</v>
+        <v>8.0409398899999995E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6776,14 +6731,14 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42164</v>
-      </c>
-      <c r="J13" s="24" t="e">
-        <v>#NUM!</v>
+        <v>42165</v>
+      </c>
+      <c r="J13" s="24">
+        <v>8.0194936798865125E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -6796,11 +6751,11 @@
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>GBP_Stub</v>
-      </c>
-      <c r="F14" s="24" t="e">
+        <v>GBP_STUB_Quote</v>
+      </c>
+      <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>#NUM!</v>
+        <v>8.0756863400000007E-3</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6808,14 +6763,14 @@
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>42172</v>
       </c>
-      <c r="J14" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J14" s="24">
+        <v>8.0534338692183592E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -6824,7 +6779,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_00386</v>
+        <v>obj_00372</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -6832,7 +6787,7 @@
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.1099999999998803E-3</v>
+        <v>8.7100000000000354E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -6846,8 +6801,8 @@
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42264</v>
       </c>
-      <c r="J15" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J15" s="24">
+        <v>8.2274858032596963E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
@@ -6856,7 +6811,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_0039e</v>
+        <v>obj_00393</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -6864,7 +6819,7 @@
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.0684999999999925E-2</v>
+        <v>1.028499999999997E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -6878,8 +6833,8 @@
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42354</v>
       </c>
-      <c r="J16" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J16" s="24">
+        <v>8.6566310513285158E-3</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="73"/>
@@ -6888,7 +6843,7 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_0036c</v>
+        <v>obj_00395</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -6896,7 +6851,7 @@
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.2354000000000072E-2</v>
+        <v>1.1853999999999905E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -6910,8 +6865,8 @@
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>42445</v>
       </c>
-      <c r="J17" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J17" s="24">
+        <v>9.209919201532064E-3</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
@@ -6920,7 +6875,7 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_00368</v>
+        <v>obj_0036e</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -6928,7 +6883,7 @@
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.3918000000000007E-2</v>
+        <v>1.3417999999999951E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -6942,8 +6897,8 @@
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>42537</v>
       </c>
-      <c r="J18" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J18" s="24">
+        <v>9.8360340294847276E-3</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="73"/>
@@ -6952,7 +6907,7 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_0037a</v>
+        <v>obj_003ab</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -6960,7 +6915,7 @@
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.5377000000000064E-2</v>
+        <v>1.4877000000000008E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -6974,8 +6929,8 @@
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>42628</v>
       </c>
-      <c r="J19" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J19" s="24">
+        <v>1.0483385972415851E-2</v>
       </c>
       <c r="M19" s="182"/>
       <c r="N19" s="73"/>
@@ -6984,7 +6939,7 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_0036a</v>
+        <v>obj_00382</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -6992,7 +6947,7 @@
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.6926999999999998E-2</v>
+        <v>1.6227000000000075E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -7006,8 +6961,8 @@
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>42725</v>
       </c>
-      <c r="J20" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J20" s="24">
+        <v>1.1168126600908587E-2</v>
       </c>
       <c r="M20" s="182"/>
       <c r="N20" s="73"/>
@@ -7016,7 +6971,7 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_0038f</v>
+        <v>obj_0037d</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -7024,7 +6979,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.4180000000000002E-2</v>
+        <v>1.376E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -7032,14 +6987,14 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43017</v>
-      </c>
-      <c r="J21" s="24" t="e">
-        <v>#NUM!</v>
+        <v>43018</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1.3771805428938268E-2</v>
       </c>
       <c r="M21" s="182"/>
       <c r="N21" s="73"/>
@@ -7056,7 +7011,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.6350000000000003E-2</v>
+        <v>1.5870000000000002E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7064,14 +7019,14 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43382</v>
-      </c>
-      <c r="J22" s="24" t="e">
-        <v>#NUM!</v>
+        <v>43383</v>
+      </c>
+      <c r="J22" s="24">
+        <v>1.591051723401914E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -7080,7 +7035,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_00374</v>
+        <v>obj_0039a</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -7088,7 +7043,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.806E-2</v>
+        <v>1.755E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7096,14 +7051,14 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43747</v>
-      </c>
-      <c r="J23" s="24" t="e">
-        <v>#NUM!</v>
+        <v>43748</v>
+      </c>
+      <c r="J23" s="24">
+        <v>1.7626111143867567E-2</v>
       </c>
       <c r="M23" s="182"/>
       <c r="N23" s="73"/>
@@ -7112,7 +7067,7 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_00380</v>
+        <v>obj_00385</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -7120,7 +7075,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.9480000000000001E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7128,14 +7083,14 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44113</v>
-      </c>
-      <c r="J24" s="24" t="e">
-        <v>#NUM!</v>
+        <v>44116</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1.9088433490059741E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
@@ -7144,7 +7099,7 @@
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_00389</v>
+        <v>obj_00390</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7152,7 +7107,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.068E-2</v>
+        <v>2.017E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7160,14 +7115,14 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>44480</v>
       </c>
-      <c r="J25" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J25" s="24">
+        <v>2.0335635057223248E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
@@ -7176,7 +7131,7 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_003a2</v>
+        <v>obj_0036b</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7184,7 +7139,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.1729999999999999E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7192,14 +7147,14 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>44844</v>
       </c>
-      <c r="J26" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J26" s="24">
+        <v>2.1437581930970229E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
@@ -7208,7 +7163,7 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_0036f</v>
+        <v>obj_00366</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7216,7 +7171,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.265E-2</v>
+        <v>2.213E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7224,14 +7179,14 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45208</v>
-      </c>
-      <c r="J27" s="24" t="e">
-        <v>#NUM!</v>
+        <v>45209</v>
+      </c>
+      <c r="J27" s="24">
+        <v>2.2401365922016282E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
@@ -7240,7 +7195,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_00370</v>
+        <v>obj_0036f</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7248,7 +7203,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.3450000000000002E-2</v>
+        <v>2.2930000000000002E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7256,14 +7211,14 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45574</v>
-      </c>
-      <c r="J28" s="24" t="e">
-        <v>#NUM!</v>
+        <v>45575</v>
+      </c>
+      <c r="J28" s="24">
+        <v>2.3256768620420774E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -7272,7 +7227,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_00394</v>
+        <v>obj_0037e</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7280,7 +7235,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4709999999999999E-2</v>
+        <v>2.4219999999999998E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7288,14 +7243,14 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46304</v>
-      </c>
-      <c r="J29" s="24" t="e">
-        <v>#NUM!</v>
+        <v>46307</v>
+      </c>
+      <c r="J29" s="24">
+        <v>2.4653956993317936E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
@@ -7304,7 +7259,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_0039b</v>
+        <v>obj_00375</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7312,7 +7267,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.6009999999999998E-2</v>
+        <v>2.5549999999999996E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7320,14 +7275,14 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47400</v>
-      </c>
-      <c r="J30" s="24" t="e">
-        <v>#NUM!</v>
+        <v>47401</v>
+      </c>
+      <c r="J30" s="24">
+        <v>2.6118323473934623E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
@@ -7336,7 +7291,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_0039f</v>
+        <v>obj_003a3</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7344,7 +7299,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.7210000000000002E-2</v>
+        <v>2.683E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7352,14 +7307,14 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49226</v>
-      </c>
-      <c r="J31" s="24" t="e">
-        <v>#NUM!</v>
+        <v>49227</v>
+      </c>
+      <c r="J31" s="24">
+        <v>2.7550724035049858E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
@@ -7368,7 +7323,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_00393</v>
+        <v>obj_00374</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7376,7 +7331,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.7630000000000002E-2</v>
+        <v>2.7309999999999997E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7384,14 +7339,14 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>51053</v>
       </c>
-      <c r="J32" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J32" s="24">
+        <v>2.803043907759047E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -7400,7 +7355,7 @@
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_0037d</v>
+        <v>obj_00367</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7408,7 +7363,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.7820000000000001E-2</v>
+        <v>2.7549999999999998E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7416,14 +7371,14 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
         <v>52880</v>
       </c>
-      <c r="J33" s="24" t="e">
-        <v>#NUM!</v>
+      <c r="J33" s="24">
+        <v>2.8237341484246427E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
@@ -7432,7 +7387,7 @@
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_0039c</v>
+        <v>obj_0037f</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7440,7 +7395,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.7710000000000002E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7448,14 +7403,14 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56531</v>
-      </c>
-      <c r="J34" s="24" t="e">
-        <v>#NUM!</v>
+        <v>56534</v>
+      </c>
+      <c r="J34" s="24">
+        <v>2.7836128428323455E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
@@ -7464,7 +7419,7 @@
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_0038d</v>
+        <v>obj_00369</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7472,7 +7427,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.7710000000000002E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7480,14 +7435,14 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60184</v>
-      </c>
-      <c r="J35" s="24" t="e">
-        <v>#NUM!</v>
+        <v>60185</v>
+      </c>
+      <c r="J35" s="24">
+        <v>2.7718575045670765E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
@@ -7496,7 +7451,7 @@
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_003aa</v>
+        <v>obj_0036c</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7504,7 +7459,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.7840000000000004E-2</v>
+        <v>2.7570000000000001E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7512,14 +7467,14 @@
       </c>
       <c r="H36" s="23">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="I36" s="22">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>63836</v>
-      </c>
-      <c r="J36" s="24" t="e">
-        <v>#NUM!</v>
+        <v>63837</v>
+      </c>
+      <c r="J36" s="24">
+        <v>2.7935169414655847E-2</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
@@ -7551,7 +7506,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
@@ -7583,7 +7538,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
@@ -7615,7 +7570,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
@@ -7647,7 +7602,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.2">
@@ -7675,7 +7630,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.2">
@@ -7703,7 +7658,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.2">
@@ -7731,7 +7686,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.2">
@@ -7759,7 +7714,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.2">
@@ -7787,7 +7742,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.2">
@@ -7815,7 +7770,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.2">
@@ -7843,7 +7798,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.2">
@@ -7871,7 +7826,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
@@ -7899,7 +7854,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.2">
@@ -7927,7 +7882,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.2">
@@ -7955,7 +7910,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.2">
@@ -7983,7 +7938,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.2">
@@ -8011,7 +7966,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.2">
@@ -8039,7 +7994,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.2">
@@ -8067,7 +8022,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.2">
@@ -8095,7 +8050,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.2">
@@ -8123,7 +8078,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.2">
@@ -8151,7 +8106,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.2">
@@ -8179,7 +8134,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
@@ -8207,7 +8162,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
@@ -8235,7 +8190,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
@@ -8263,7 +8218,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.2">
@@ -8291,7 +8246,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.2">
@@ -8319,7 +8274,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.2">
@@ -8347,7 +8302,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.2">
@@ -8375,7 +8330,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.2">
@@ -8403,7 +8358,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.2">
@@ -8431,7 +8386,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.2">
@@ -8459,7 +8414,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.2">
@@ -8487,7 +8442,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
@@ -8515,7 +8470,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.2">
@@ -8543,7 +8498,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.2">
@@ -8571,7 +8526,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.2">
@@ -8599,7 +8554,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.2">
@@ -8627,7 +8582,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.2">
@@ -8655,7 +8610,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.2">
@@ -8683,7 +8638,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.2">
@@ -8711,7 +8666,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.2">
@@ -8739,7 +8694,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.2">
@@ -8767,7 +8722,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.2">
@@ -8795,7 +8750,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.2">
@@ -8823,7 +8778,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.2">
@@ -8851,7 +8806,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.2">
@@ -8879,7 +8834,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.2">
@@ -8907,7 +8862,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.2">
@@ -8935,7 +8890,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.2">
@@ -8963,7 +8918,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.2">
@@ -8991,7 +8946,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.2">
@@ -9019,7 +8974,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.2">
@@ -9047,7 +9002,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.2">
@@ -9075,7 +9030,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.2">
@@ -9103,7 +9058,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.2">
@@ -9131,7 +9086,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.2">
@@ -9159,7 +9114,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.2">
@@ -9187,7 +9142,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.2">
@@ -9215,7 +9170,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.2">
@@ -9243,7 +9198,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.2">
@@ -9271,7 +9226,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.2">
@@ -9299,7 +9254,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.2">
@@ -9327,7 +9282,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.2">
@@ -9355,7 +9310,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.2">
@@ -9383,7 +9338,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.2">
@@ -9411,7 +9366,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.2">
@@ -9439,7 +9394,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.2">
@@ -9467,7 +9422,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.2">
@@ -9495,7 +9450,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.2">
@@ -9523,7 +9478,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.2">
@@ -9551,7 +9506,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.2">
@@ -9579,7 +9534,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.2">
@@ -9607,7 +9562,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.2">
@@ -9635,7 +9590,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.2">
@@ -9663,7 +9618,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.2">
@@ -9691,7 +9646,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.2">
@@ -9719,7 +9674,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.2">
@@ -9747,7 +9702,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.2">
@@ -9775,7 +9730,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.2">
@@ -9803,7 +9758,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.2">
@@ -9831,7 +9786,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.2">
@@ -9859,7 +9814,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.2">
@@ -9887,7 +9842,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.2">
@@ -9915,7 +9870,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.2">
@@ -9943,7 +9898,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.2">
@@ -9971,7 +9926,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.2">
@@ -9999,7 +9954,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.2">
@@ -10027,7 +9982,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -10055,7 +10010,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="24" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -10077,11 +10032,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10104,7 +10057,7 @@
     <col min="18" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -10126,7 +10079,7 @@
       <c r="K1" s="73"/>
       <c r="L1" s="77"/>
     </row>
-    <row r="2" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88" t="s">
@@ -10159,32 +10112,8 @@
         <v/>
       </c>
       <c r="L2" s="77"/>
-      <c r="N2" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="84" t="s">
         <v>97</v>
@@ -10214,46 +10143,15 @@
       </c>
       <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
         <v/>
       </c>
       <c r="L3" s="77"/>
-      <c r="N3" s="200" t="str">
-        <f>Futures!$M$3</f>
-        <v>M5</v>
-      </c>
-      <c r="O3" s="200">
-        <f>_xll.qlIMMdate(N3,,Trigger)</f>
-        <v>42172</v>
-      </c>
-      <c r="P3" s="200">
-        <f>_xll.qlRateHelperLatestDate(J20,Trigger)</f>
-        <v>42172</v>
-      </c>
-      <c r="Q3" s="202" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" s="201" t="e">
-        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","bid")/100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S3" s="201" t="e">
-        <f>_xll.RtGet("DTSIMI1","GBP_STD_#20150617D","ask")/100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T3" s="201" t="e">
-        <f>AVERAGE(R3:S3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U3" s="201" t="e">
-        <f>_xll.qlSimpleQuoteSetValue(I20,T3)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="81" t="s">
         <v>134</v>
@@ -10276,7 +10174,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10284,7 +10182,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10293,7 +10191,7 @@
       <c r="L4" s="77"/>
       <c r="N4" s="76"/>
     </row>
-    <row r="5" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="84" t="s">
         <v>95</v>
@@ -10324,7 +10222,7 @@
       </c>
       <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10333,7 +10231,7 @@
       <c r="L5" s="77"/>
       <c r="N5" s="76"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="84" t="s">
         <v>132</v>
@@ -10356,7 +10254,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10364,7 +10262,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10373,7 +10271,7 @@
       <c r="L6" s="77"/>
       <c r="N6" s="76"/>
     </row>
-    <row r="7" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="81" t="s">
         <v>133</v>
@@ -10396,7 +10294,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10404,7 +10302,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10413,7 +10311,7 @@
       <c r="L7" s="77"/>
       <c r="N7" s="76"/>
     </row>
-    <row r="8" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="81" t="s">
         <v>94</v>
@@ -10444,7 +10342,7 @@
       </c>
       <c r="J8" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10453,7 +10351,7 @@
       <c r="L8" s="77"/>
       <c r="N8" s="76"/>
     </row>
-    <row r="9" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="84" t="s">
         <v>93</v>
@@ -10493,7 +10391,7 @@
       <c r="L9" s="77"/>
       <c r="N9" s="76"/>
     </row>
-    <row r="10" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
       <c r="B10" s="81" t="s">
         <v>92</v>
@@ -10524,7 +10422,7 @@
       </c>
       <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10533,7 +10431,7 @@
       <c r="L10" s="77"/>
       <c r="N10" s="76"/>
     </row>
-    <row r="11" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="81" t="s">
         <v>135</v>
@@ -10556,7 +10454,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10564,7 +10462,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10573,7 +10471,7 @@
       <c r="L11" s="77"/>
       <c r="N11" s="76"/>
     </row>
-    <row r="12" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="84" t="s">
         <v>136</v>
@@ -10596,7 +10494,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10604,7 +10502,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10613,7 +10511,7 @@
       <c r="L12" s="77"/>
       <c r="N12" s="76"/>
     </row>
-    <row r="13" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="81" t="s">
         <v>91</v>
@@ -10644,7 +10542,7 @@
       </c>
       <c r="J13" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10653,7 +10551,7 @@
       <c r="L13" s="77"/>
       <c r="N13" s="76"/>
     </row>
-    <row r="14" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="81" t="s">
         <v>137</v>
@@ -10676,7 +10574,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10684,7 +10582,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10693,7 +10591,7 @@
       <c r="L14" s="77"/>
       <c r="N14" s="76"/>
     </row>
-    <row r="15" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="84" t="s">
         <v>138</v>
@@ -10716,7 +10614,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10724,7 +10622,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10733,7 +10631,7 @@
       <c r="L15" s="77"/>
       <c r="N15" s="76"/>
     </row>
-    <row r="16" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
       <c r="B16" s="81" t="s">
         <v>139</v>
@@ -10756,7 +10654,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10764,7 +10662,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10796,7 +10694,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10804,7 +10702,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10844,7 +10742,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10884,7 +10782,7 @@
       </c>
       <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10896,8 +10794,8 @@
     <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
       <c r="B20" s="81">
-        <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C20&amp;"D",,,Trigger),O3,Trigger)-1</f>
-        <v>172</v>
+        <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C20&amp;"D",,,Trigger),D24,Trigger)-1</f>
+        <v>171</v>
       </c>
       <c r="C20" s="84">
         <v>0</v>
@@ -10917,14 +10815,17 @@
       </c>
       <c r="H20" s="179"/>
       <c r="I20" s="180" t="str">
-        <f>_xll.qlSimpleQuote("GBP_Stub",,,,Trigger)</f>
-        <v>GBP_Stub#0002</v>
+        <f>Currency&amp;"_STUB"&amp;QuoteSuffix</f>
+        <v>GBP_STUB_Quote</v>
       </c>
       <c r="J20" s="181" t="str">
         <f>_xll.qlDepositRateHelper2(,I20,B20&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
         <v>obj_003b4#0003</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="78" t="str">
+        <f>_xll.ohRangeRetrieveError(J20)</f>
+        <v/>
+      </c>
       <c r="L20" s="77"/>
       <c r="N20" s="76"/>
     </row>
@@ -10945,6 +10846,31 @@
     </row>
     <row r="22" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="184"/>
+    </row>
+    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="194" t="str">
+        <f>Futures!$M$3</f>
+        <v>M5</v>
+      </c>
+      <c r="D24" s="194">
+        <f>_xll.qlIMMdate(C24,,Trigger)</f>
+        <v>42172</v>
+      </c>
+      <c r="E24" s="194">
+        <f>_xll.qlRateHelperLatestDate(J20,Trigger)</f>
+        <v>42172</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -11063,13 +10989,13 @@
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
         <v>GBPFUT3MV4_Quote</v>
       </c>
-      <c r="G3" s="199">
+      <c r="G3" s="193">
         <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0004</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11081,14 +11007,14 @@
         <f>_xll.qlIMMNextCode(_xll.qlSettingsEvaluationDate(Trigger),TRUE,Trigger)</f>
         <v>Z4</v>
       </c>
-      <c r="M3" s="194" t="str">
+      <c r="M3" s="188" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(L4,,Trigger),TRUE,Trigger)</f>
         <v>M5</v>
       </c>
-      <c r="N3" s="195">
+      <c r="N3" s="189">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O3" s="198"/>
+      <c r="O3" s="192"/>
     </row>
     <row r="4" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
@@ -11109,13 +11035,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MX4_Quote</v>
       </c>
-      <c r="G4" s="199">
+      <c r="G4" s="193">
         <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039d#0004</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11127,14 +11053,14 @@
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(L3,,Trigger),TRUE,Trigger)</f>
         <v>H5</v>
       </c>
-      <c r="M4" s="194" t="str">
+      <c r="M4" s="188" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M3,,Trigger),TRUE,Trigger)</f>
         <v>U5</v>
       </c>
-      <c r="N4" s="195">
+      <c r="N4" s="189">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O4" s="198"/>
+      <c r="O4" s="192"/>
     </row>
     <row r="5" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
@@ -11155,13 +11081,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ4_Quote</v>
       </c>
-      <c r="G5" s="199">
+      <c r="G5" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037e#0004</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11169,14 +11095,14 @@
       </c>
       <c r="J5" s="77"/>
       <c r="K5" s="76"/>
-      <c r="M5" s="194" t="str">
+      <c r="M5" s="188" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M4,,Trigger),TRUE,Trigger)</f>
         <v>Z5</v>
       </c>
-      <c r="N5" s="195">
+      <c r="N5" s="189">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="O5" s="198"/>
+      <c r="O5" s="192"/>
     </row>
     <row r="6" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
@@ -11197,13 +11123,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MF5_Quote</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038e#0004</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11211,14 +11137,14 @@
       </c>
       <c r="J6" s="77"/>
       <c r="K6" s="76"/>
-      <c r="M6" s="194" t="str">
+      <c r="M6" s="188" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M5,,Trigger),TRUE,Trigger)</f>
         <v>H6</v>
       </c>
-      <c r="N6" s="195">
+      <c r="N6" s="189">
         <v>1.32E-2</v>
       </c>
-      <c r="O6" s="198"/>
+      <c r="O6" s="192"/>
     </row>
     <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
@@ -11239,13 +11165,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MG5_Quote</v>
       </c>
-      <c r="G7" s="199">
+      <c r="G7" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0004</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11253,14 +11179,14 @@
       </c>
       <c r="J7" s="77"/>
       <c r="K7" s="76"/>
-      <c r="M7" s="194" t="str">
+      <c r="M7" s="188" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M6,,Trigger),TRUE,Trigger)</f>
         <v>M6</v>
       </c>
-      <c r="N7" s="195">
+      <c r="N7" s="189">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="O7" s="198"/>
+      <c r="O7" s="192"/>
     </row>
     <row r="8" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130"/>
@@ -11281,13 +11207,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH5_Quote</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00396#0004</v>
+        <v>obj_00392#0001</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11295,14 +11221,14 @@
       </c>
       <c r="J8" s="77"/>
       <c r="K8" s="76"/>
-      <c r="M8" s="196" t="str">
+      <c r="M8" s="190" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(M7,,Trigger),TRUE,Trigger)</f>
         <v>U6</v>
       </c>
-      <c r="N8" s="197">
+      <c r="N8" s="191">
         <v>2.23E-2</v>
       </c>
-      <c r="O8" s="198"/>
+      <c r="O8" s="192"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="130"/>
@@ -11323,13 +11249,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MJ5_Quote</v>
       </c>
-      <c r="G9" s="199">
+      <c r="G9" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00388#0004</v>
+        <v>obj_00386#0001</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11357,13 +11283,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MK5_Quote</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0004</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11391,13 +11317,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM5_Quote</v>
       </c>
-      <c r="G11" s="199">
+      <c r="G11" s="193">
         <f t="shared" si="2"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0004</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11425,13 +11351,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MN5_Quote</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b1#0004</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11459,13 +11385,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MQ5_Quote</v>
       </c>
-      <c r="G13" s="199">
+      <c r="G13" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00384#0004</v>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11493,13 +11419,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU5_Quote</v>
       </c>
-      <c r="G14" s="199">
+      <c r="G14" s="193">
         <f t="shared" si="2"/>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0004</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11527,13 +11453,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ5_Quote</v>
       </c>
-      <c r="G15" s="199">
+      <c r="G15" s="193">
         <f t="shared" si="2"/>
         <v>9.5999999999999989E-5</v>
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0004</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11561,13 +11487,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH6_Quote</v>
       </c>
-      <c r="G16" s="199">
+      <c r="G16" s="193">
         <f t="shared" si="2"/>
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0004</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11595,13 +11521,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM6_Quote</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="193">
         <f t="shared" si="2"/>
         <v>1.73E-4</v>
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037a#0004</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11629,13 +11555,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU6_Quote</v>
       </c>
-      <c r="G18" s="199">
+      <c r="G18" s="193">
         <f t="shared" si="2"/>
         <v>2.23E-4</v>
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0004</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11663,13 +11589,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ6_Quote</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0004</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11697,13 +11623,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH7_Quote</v>
       </c>
-      <c r="G20" s="199">
+      <c r="G20" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0004</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11731,13 +11657,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM7_Quote</v>
       </c>
-      <c r="G21" s="199">
+      <c r="G21" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0004</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11765,13 +11691,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU7_Quote</v>
       </c>
-      <c r="G22" s="199">
+      <c r="G22" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0004</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11799,13 +11725,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ7_Quote</v>
       </c>
-      <c r="G23" s="199">
+      <c r="G23" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00379#0004</v>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11833,13 +11759,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH8_Quote</v>
       </c>
-      <c r="G24" s="199">
+      <c r="G24" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0004</v>
+        <v>obj_00379#0001</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11867,13 +11793,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM8_Quote</v>
       </c>
-      <c r="G25" s="199">
+      <c r="G25" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0004</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11901,13 +11827,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU8_Quote</v>
       </c>
-      <c r="G26" s="199">
+      <c r="G26" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a4#0004</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11935,13 +11861,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ8_Quote</v>
       </c>
-      <c r="G27" s="199">
+      <c r="G27" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0004</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11969,13 +11895,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH9_Quote</v>
       </c>
-      <c r="G28" s="199">
+      <c r="G28" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a7#0004</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -12003,13 +11929,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM9_Quote</v>
       </c>
-      <c r="G29" s="199">
+      <c r="G29" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b0#0004</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -12037,13 +11963,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU9_Quote</v>
       </c>
-      <c r="G30" s="199">
+      <c r="G30" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b3#0004</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -12071,13 +11997,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MZ9_Quote</v>
       </c>
-      <c r="G31" s="199">
+      <c r="G31" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0004</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -12105,13 +12031,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MH0_Quote</v>
       </c>
-      <c r="G32" s="199">
+      <c r="G32" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0004</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -12139,13 +12065,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MM0_Quote</v>
       </c>
-      <c r="G33" s="199">
+      <c r="G33" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0004</v>
+        <v>obj_00384#0001</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12173,13 +12099,13 @@
         <f t="shared" si="1"/>
         <v>GBPFUT3MU0_Quote</v>
       </c>
-      <c r="G34" s="199">
+      <c r="G34" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0004</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12207,13 +12133,13 @@
         <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
         <v>GBPFUT3MZ0_Quote</v>
       </c>
-      <c r="G35" s="199">
+      <c r="G35" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0004</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12241,13 +12167,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MH1_Quote</v>
       </c>
-      <c r="G36" s="199">
+      <c r="G36" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0004</v>
+        <v>obj_003b3#0001</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12275,13 +12201,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MM1_Quote</v>
       </c>
-      <c r="G37" s="199">
+      <c r="G37" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0004</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12309,13 +12235,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MU1_Quote</v>
       </c>
-      <c r="G38" s="199">
+      <c r="G38" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0004</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12343,13 +12269,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MZ1_Quote</v>
       </c>
-      <c r="G39" s="199">
+      <c r="G39" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038b#0004</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12377,13 +12303,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MH2_Quote</v>
       </c>
-      <c r="G40" s="199">
+      <c r="G40" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0004</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12411,13 +12337,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MM2_Quote</v>
       </c>
-      <c r="G41" s="199">
+      <c r="G41" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0004</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12446,13 +12372,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MU2_Quote</v>
       </c>
-      <c r="G42" s="199">
+      <c r="G42" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038c#0004</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12480,13 +12406,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MZ2_Quote</v>
       </c>
-      <c r="G43" s="199">
+      <c r="G43" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0004</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12514,13 +12440,13 @@
         <f t="shared" si="4"/>
         <v>GBPFUT3MH3_Quote</v>
       </c>
-      <c r="G44" s="199">
+      <c r="G44" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0004</v>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12719,7 +12645,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12766,7 +12692,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12817,7 +12743,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12868,7 +12794,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00388#0001</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12915,7 +12841,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12966,7 +12892,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -13050,7 +12976,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -13092,7 +13018,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -13134,7 +13060,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_00390#0001</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13176,7 +13102,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13218,7 +13144,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13260,7 +13186,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13302,7 +13228,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13344,7 +13270,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13386,7 +13312,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00383#0001</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13428,7 +13354,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13470,7 +13396,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13512,7 +13438,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13554,7 +13480,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13596,7 +13522,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13638,7 +13564,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13680,7 +13606,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13722,7 +13648,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13764,7 +13690,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13806,7 +13732,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13848,7 +13774,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13890,7 +13816,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13932,7 +13858,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13974,7 +13900,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00399#0001</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -14016,7 +13942,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -14058,7 +13984,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -14100,7 +14026,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -14142,7 +14068,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -14184,7 +14110,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14226,7 +14152,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -14268,7 +14194,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15180" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="8415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0003</v>
+        <v>_GBPYCSTD#0005</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2469,11 +2469,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.8237341484246427E-2</v>
+        <v>2.795998665109669E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2482,11 +2482,11 @@
       <c r="B24" s="43"/>
       <c r="C24" s="45">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63837</v>
+        <v>63842</v>
       </c>
       <c r="D24" s="121">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.7437075217081001E-3</v>
+        <v>4.7437691733986558E-3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2630,7 +2630,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00352#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2669,7 +2669,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D3" s="6">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>4.8313000000000002E-3</v>
+        <v>4.8063000000000003E-3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="74" t="b">
@@ -2691,11 +2691,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2708,7 +2708,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D4" s="6">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>4.8313000000000002E-3</v>
+        <v>4.8063000000000003E-3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="74" t="b">
@@ -2730,17 +2730,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41929</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.8952624999999998E-3</v>
+        <v>4.8704038499999998E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41936</v>
+        <v>41939</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9683625000000002E-3</v>
+        <v>4.9345076900000001E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41943</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0505999999999997E-3</v>
+        <v>5.0444000000000001E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2826,17 +2826,17 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D8" s="6">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>5.2649999999999997E-3</v>
+        <v>5.2963000000000003E-3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="74" t="b">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41983</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2890,17 +2890,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42016</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.0992999999999993E-3</v>
+        <v>6.0985688900000003E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2922,17 +2922,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42045</v>
+        <v>42048</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.5239666699999999E-3</v>
+        <v>6.5358666700000003E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2954,11 +2954,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42073</v>
+        <v>42076</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>6.9638E-3</v>
+        <v>7.0043999999999992E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -3010,7 +3010,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.4849967200000004E-3</v>
+        <v>7.5338098399999999E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -3032,11 +3032,11 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -3049,7 +3049,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.0409398899999995E-3</v>
+        <v>8.080866669999999E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42165</v>
+        <v>42170</v>
       </c>
       <c r="K14" s="1">
         <v>60</v>
@@ -3088,7 +3088,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.5447633899999997E-3</v>
+        <v>8.6102764999999998E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42195</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.0833333300000003E-3</v>
+        <v>9.1926273200000005E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42226</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>9.62190328E-3</v>
+        <v>9.7043901599999996E-3</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3174,17 +3174,17 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42257</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D18" s="6">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>1.01431E-2</v>
+        <v>1.0233799999999999E-2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="74" t="b">
@@ -3206,11 +3206,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42289</v>
+        <v>42290</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3223,7 +3223,7 @@
     <row r="19" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="149" t="str">
         <f>Deposits!J20</f>
-        <v>obj_003b4#0003</v>
+        <v>obj_003b4#0001</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D19" s="6">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>8.0756863400000007E-3</v>
+        <v>8.1161606599999998E-3</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="74" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="I19" s="4">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J19" s="3">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
@@ -3258,15 +3258,15 @@
       </c>
       <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00367#0002</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
-        <v>GBPFUT3MV4_Quote</v>
-      </c>
-      <c r="D20" s="147" t="e">
+        <v>GBPFUT3MV4_HST_CLOSE_Quote</v>
+      </c>
+      <c r="D20" s="147">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.47</v>
       </c>
       <c r="E20" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B20,Trigger)</f>
@@ -3297,15 +3297,15 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003a3#0004</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>GBPFUT3MX4_Quote</v>
-      </c>
-      <c r="D21" s="16" t="e">
+        <v>GBPFUT3MX4_HST_CLOSE_Quote</v>
+      </c>
+      <c r="D21" s="16">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.42</v>
       </c>
       <c r="E21" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
@@ -3336,15 +3336,15 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0039e#0004</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>GBPFUT3MZ4_Quote</v>
+        <v>GBPFUT3MZ4_HST_CLOSE_Quote</v>
       </c>
       <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>99.39500000000001</v>
+        <v>99.39</v>
       </c>
       <c r="E22" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00390#0004</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>GBPFUT3MF5_Quote</v>
+        <v>GBPFUT3MF5_HST_CLOSE_Quote</v>
       </c>
       <c r="D23" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
@@ -3414,11 +3414,11 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_003a2#0004</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>GBPFUT3MG5_Quote</v>
+        <v>GBPFUT3MG5_HST_CLOSE_Quote</v>
       </c>
       <c r="D24" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
@@ -3453,15 +3453,15 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00392#0004</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>GBPFUT3MH5_Quote</v>
+        <v>GBPFUT3MH5_HST_CLOSE_Quote</v>
       </c>
       <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.265000000000001</v>
+        <v>99.25</v>
       </c>
       <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_00386#0001</v>
+        <v>obj_00398#0004</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>GBPFUT3MJ5_Quote</v>
+        <v>GBPFUT3MJ5_HST_CLOSE_Quote</v>
       </c>
       <c r="D26" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
@@ -3531,11 +3531,11 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_003a8#0004</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>GBPFUT3MK5_Quote</v>
+        <v>GBPFUT3MK5_HST_CLOSE_Quote</v>
       </c>
       <c r="D27" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_00372#0001</v>
+        <v>obj_0038b#0004</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>GBPFUT3MM5_Quote</v>
+        <v>GBPFUT3MM5_HST_CLOSE_Quote</v>
       </c>
       <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.125</v>
+        <v>99.094999999999999</v>
       </c>
       <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_003a5#0004</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>GBPFUT3MN5_Quote</v>
+        <v>GBPFUT3MN5_HST_CLOSE_Quote</v>
       </c>
       <c r="D29" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
@@ -3650,11 +3650,11 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_00386#0004</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>GBPFUT3MQ5_Quote</v>
+        <v>GBPFUT3MQ5_HST_CLOSE_Quote</v>
       </c>
       <c r="D30" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
@@ -3690,15 +3690,15 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_00393#0001</v>
+        <v>obj_003ae#0004</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>GBPFUT3MU5_Quote</v>
+        <v>GBPFUT3MU5_HST_CLOSE_Quote</v>
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.965000000000003</v>
+        <v>98.93</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3730,15 +3730,15 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00375#0004</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MZ5_HST_CLOSE_Quote</v>
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.805000000000007</v>
+        <v>98.765000000000001</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3771,15 +3771,15 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00370#0004</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MH6_HST_CLOSE_Quote</v>
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.64500000000001</v>
+        <v>98.61</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3812,15 +3812,15 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_0036d#0004</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MM6_HST_CLOSE_Quote</v>
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>98.495000000000005</v>
+        <v>98.454999999999998</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
@@ -3853,15 +3853,15 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00391#0004</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
-        <v>GBPFUT3MU6_Quote</v>
+        <v>GBPFUT3MU6_HST_CLOSE_Quote</v>
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>98.35499999999999</v>
+        <v>98.31</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3894,15 +3894,15 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00365#0004</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
-        <v>GBPFUT3MZ6_Quote</v>
+        <v>GBPFUT3MZ6_HST_CLOSE_Quote</v>
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>98.215000000000003</v>
+        <v>98.174999999999997</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_003b0#0004</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
-        <v>GBPFUT3MH7_Quote</v>
+        <v>GBPFUT3MH7_HST_CLOSE_Quote</v>
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>98.115000000000009</v>
+        <v>98.07</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3976,15 +3976,15 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_003b3#0004</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
-        <v>GBPFUT3MM7_Quote</v>
+        <v>GBPFUT3MM7_HST_CLOSE_Quote</v>
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>98.015000000000001</v>
+        <v>97.97</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -4017,15 +4017,15 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_00396#0001</v>
+        <v>obj_0037f#0004</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
-        <v>GBPFUT3MU7_Quote</v>
+        <v>GBPFUT3MU7_HST_CLOSE_Quote</v>
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.935000000000002</v>
+        <v>97.89</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4058,15 +4058,15 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_0037e#0004</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
-        <v>GBPFUT3MZ7_Quote</v>
+        <v>GBPFUT3MZ7_HST_CLOSE_Quote</v>
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.85499999999999</v>
+        <v>97.814999999999998</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4099,15 +4099,15 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00379#0001</v>
+        <v>obj_00388#0004</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
-        <v>GBPFUT3MH8_Quote</v>
+        <v>GBPFUT3MH8_HST_CLOSE_Quote</v>
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.789999999999992</v>
+        <v>97.745000000000005</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4140,15 +4140,15 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_00380#0004</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
-        <v>GBPFUT3MM8_Quote</v>
+        <v>GBPFUT3MM8_HST_CLOSE_Quote</v>
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.72</v>
+        <v>97.68</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4181,15 +4181,15 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_00380#0001</v>
+        <v>obj_0039f#0004</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
-        <v>GBPFUT3MU8_Quote</v>
+        <v>GBPFUT3MU8_HST_CLOSE_Quote</v>
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.65</v>
+        <v>97.62</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4222,15 +4222,15 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00374#0004</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
-        <v>GBPFUT3MZ8_Quote</v>
+        <v>GBPFUT3MZ8_HST_CLOSE_Quote</v>
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.594999999999999</v>
+        <v>97.56</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4263,15 +4263,15 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_00399#0001</v>
+        <v>obj_003aa#0004</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
-        <v>GBPFUT3MH9_Quote</v>
+        <v>GBPFUT3MH9_HST_CLOSE_Quote</v>
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.55</v>
+        <v>97.51</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4304,15 +4304,15 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003a1#0004</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
-        <v>GBPFUT3MM9_Quote</v>
+        <v>GBPFUT3MM9_HST_CLOSE_Quote</v>
       </c>
       <c r="D46" s="16">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.509999999999991</v>
+        <v>97.46</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
@@ -4345,15 +4345,15 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00383#0004</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
-        <v>GBPFUT3MU9_Quote</v>
+        <v>GBPFUT3MU9_HST_CLOSE_Quote</v>
       </c>
       <c r="D47" s="16">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.47</v>
+        <v>97.415000000000006</v>
       </c>
       <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
@@ -4386,15 +4386,15 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00384#0004</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
-        <v>GBPFUT3MZ9_Quote</v>
+        <v>GBPFUT3MZ9_HST_CLOSE_Quote</v>
       </c>
       <c r="D48" s="16">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.435000000000002</v>
+        <v>97.38</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
@@ -4425,15 +4425,15 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_00377#0004</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
-        <v>GBPFUT3MH0_Quote</v>
+        <v>GBPFUT3MH0_HST_CLOSE_Quote</v>
       </c>
       <c r="D49" s="16">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>97.414999999999992</v>
+        <v>97.344999999999999</v>
       </c>
       <c r="E49" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
@@ -4464,15 +4464,15 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00368#0004</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
-        <v>GBPFUT3MM0_Quote</v>
-      </c>
-      <c r="D50" s="16" t="e">
+        <v>GBPFUT3MM0_HST_CLOSE_Quote</v>
+      </c>
+      <c r="D50" s="16">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
-        <v>#NUM!</v>
+        <v>97.35</v>
       </c>
       <c r="E50" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B50,Trigger)</f>
@@ -4503,15 +4503,15 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0039a#0004</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
-        <v>GBPFUT3MU0_Quote</v>
-      </c>
-      <c r="D51" s="16" t="e">
+        <v>GBPFUT3MU0_HST_CLOSE_Quote</v>
+      </c>
+      <c r="D51" s="16">
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
-        <v>#NUM!</v>
+        <v>97.35</v>
       </c>
       <c r="E51" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B51,Trigger)</f>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_0036e#0004</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
-        <v>GBPFUT3MZ0_Quote</v>
+        <v>GBPFUT3MZ0_HST_CLOSE_Quote</v>
       </c>
       <c r="D52" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
@@ -4581,11 +4581,11 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_00379#0004</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
-        <v>GBPFUT3MH1_Quote</v>
+        <v>GBPFUT3MH1_HST_CLOSE_Quote</v>
       </c>
       <c r="D53" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_003a9#0004</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
-        <v>GBPFUT3MM1_Quote</v>
+        <v>GBPFUT3MM1_HST_CLOSE_Quote</v>
       </c>
       <c r="D54" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_0038e#0004</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
-        <v>GBPFUT3MU1_Quote</v>
+        <v>GBPFUT3MU1_HST_CLOSE_Quote</v>
       </c>
       <c r="D55" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_0036b#0004</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
-        <v>GBPFUT3MZ1_Quote</v>
+        <v>GBPFUT3MZ1_HST_CLOSE_Quote</v>
       </c>
       <c r="D56" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
@@ -4737,11 +4737,11 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003a6#0004</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
-        <v>GBPFUT3MH2_Quote</v>
+        <v>GBPFUT3MH2_HST_CLOSE_Quote</v>
       </c>
       <c r="D57" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
@@ -4776,11 +4776,11 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_00381#0004</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
-        <v>GBPFUT3MM2_Quote</v>
+        <v>GBPFUT3MM2_HST_CLOSE_Quote</v>
       </c>
       <c r="D58" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
@@ -4815,11 +4815,11 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_003ab#0004</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
-        <v>GBPFUT3MU2_Quote</v>
+        <v>GBPFUT3MU2_HST_CLOSE_Quote</v>
       </c>
       <c r="D59" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
@@ -4854,11 +4854,11 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_00399#0004</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
-        <v>GBPFUT3MZ2_Quote</v>
+        <v>GBPFUT3MZ2_HST_CLOSE_Quote</v>
       </c>
       <c r="D60" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="B61" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_003b2#0004</v>
       </c>
       <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
-        <v>GBPFUT3MH3_Quote</v>
+        <v>GBPFUT3MH3_HST_CLOSE_Quote</v>
       </c>
       <c r="D61" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
@@ -4931,7 +4931,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4956,17 +4956,17 @@
       </c>
       <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42289</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4991,17 +4991,17 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42380</v>
+        <v>42382</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
         <f>Swaps!K8</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>9.6200000000000001E-3</v>
+        <v>9.6399999999999993E-3</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -5026,17 +5026,17 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42471</v>
+        <v>42473</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00388#0001</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -5061,17 +5061,17 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42562</v>
+        <v>42564</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.107E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5096,17 +5096,17 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42653</v>
+        <v>42656</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5131,17 +5131,17 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43018</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00391#0001</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.5870000000000002E-2</v>
+        <v>1.5819999999999997E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5166,17 +5166,17 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43383</v>
+        <v>43388</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.755E-2</v>
+        <v>1.746E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5201,17 +5201,17 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>43748</v>
+        <v>43752</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>1.8970000000000001E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5236,17 +5236,17 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44116</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00390#0001</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.017E-2</v>
+        <v>2.0049999999999998E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5271,18 +5271,18 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1090000000000001E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5307,18 +5307,18 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>44844</v>
+        <v>44847</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00366#0001</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.213E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5343,18 +5343,18 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.2930000000000002E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5379,18 +5379,18 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45575</v>
+        <v>45579</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.3620000000000002E-2</v>
+        <v>2.3479999999999997E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5415,18 +5415,18 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>2.4219999999999998E-2</v>
+        <v>2.4080000000000004E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5451,18 +5451,18 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46307</v>
+        <v>46308</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5487,18 +5487,18 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>46671</v>
+        <v>46673</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5523,18 +5523,18 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47036</v>
+        <v>47039</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>2.5549999999999996E-2</v>
+        <v>2.5390000000000003E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5559,18 +5559,18 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47401</v>
+        <v>47406</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00377#0001</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5595,18 +5595,18 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>47766</v>
+        <v>47770</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5631,18 +5631,18 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48131</v>
+        <v>48134</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5667,18 +5667,18 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48498</v>
+        <v>48500</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5703,18 +5703,18 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>48862</v>
+        <v>48865</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>2.683E-2</v>
+        <v>2.665E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5739,18 +5739,18 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49227</v>
+        <v>49230</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5775,18 +5775,18 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49592</v>
+        <v>49597</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5811,18 +5811,18 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49958</v>
+        <v>49961</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5847,18 +5847,18 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50325</v>
+        <v>50326</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00365#0001</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5883,18 +5883,18 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>50689</v>
+        <v>50691</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00374#0001</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>2.7309999999999997E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5919,18 +5919,18 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>51053</v>
+        <v>51056</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5955,18 +5955,18 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51419</v>
+        <v>51424</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5991,18 +5991,18 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>51784</v>
+        <v>51788</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00394#0001</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -6027,18 +6027,18 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52149</v>
+        <v>52152</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00398#0001</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -6063,18 +6063,18 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52516</v>
+        <v>52517</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>2.7549999999999998E-2</v>
+        <v>2.7309999999999997E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -6099,18 +6099,18 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>52880</v>
+        <v>52883</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6135,18 +6135,18 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>54707</v>
+        <v>54709</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.7439999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6171,18 +6171,18 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>56534</v>
+        <v>56535</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.7439999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6207,18 +6207,18 @@
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>60185</v>
+        <v>60188</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="C98" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D98" s="6">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>2.7570000000000001E-2</v>
+        <v>2.733E-2</v>
       </c>
       <c r="E98" s="6">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6243,11 +6243,11 @@
       </c>
       <c r="I98" s="4">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="J98" s="3">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>63837</v>
+        <v>63842</v>
       </c>
       <c r="L98" s="9"/>
     </row>
@@ -6285,7 +6285,7 @@
     <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="J1" s="24">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.7437075217081001E-3</v>
+        <v>4.7437691733986558E-3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00352</v>
+        <v>obj_0034a</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6346,14 +6346,14 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J2" s="24">
-        <v>4.7437075217081001E-3</v>
+        <v>4.7437691733986558E-3</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_0035b</v>
+        <v>obj_0035a</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="F3" s="24">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8313000000000002E-3</v>
+        <v>4.8063000000000003E-3</v>
       </c>
       <c r="G3" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6384,14 +6384,14 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="J3" s="24">
-        <v>4.7655976476932557E-3</v>
+        <v>4.7750187645798194E-3</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
@@ -6406,7 +6406,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_00351</v>
+        <v>obj_00358</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="F4" s="24">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8313000000000002E-3</v>
+        <v>4.8063000000000003E-3</v>
       </c>
       <c r="G4" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6422,14 +6422,14 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41929</v>
+        <v>41932</v>
       </c>
       <c r="J4" s="24">
-        <v>4.8310761916065988E-3</v>
+        <v>4.8060785017727259E-3</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
@@ -6444,7 +6444,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_00363</v>
+        <v>obj_0035f</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.8952624999999998E-3</v>
+        <v>4.8704038499999998E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6460,14 +6460,14 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41936</v>
+        <v>41939</v>
       </c>
       <c r="J5" s="24">
-        <v>4.8948029817231968E-3</v>
+        <v>4.8699489865515096E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0505999999999997E-3</v>
+        <v>5.0444000000000001E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6499,14 +6499,14 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="J6" s="24">
-        <v>5.0495170694408375E-3</v>
+        <v>5.0433197262215205E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
@@ -6516,14 +6516,14 @@
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0003</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0005</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="25" t="str">
-        <v>obj_00349</v>
+        <v>obj_00357</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="F7" s="24">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.2649999999999997E-3</v>
+        <v>5.2963000000000003E-3</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6539,14 +6539,14 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41983</v>
+        <v>41988</v>
       </c>
       <c r="J7" s="24">
-        <v>5.2626850103116218E-3</v>
+        <v>5.2938806524068429E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_00355</v>
+        <v>obj_00350</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6571,14 +6571,14 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42016</v>
+        <v>42017</v>
       </c>
       <c r="J8" s="24">
-        <v>5.5947674692837773E-3</v>
+        <v>5.5948531871852E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.0992999999999993E-3</v>
+        <v>6.0985688900000003E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6603,14 +6603,14 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42045</v>
+        <v>42048</v>
       </c>
       <c r="J9" s="24">
-        <v>6.0930403845047016E-3</v>
+        <v>6.0923107740422948E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_0035e</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.5239666699999999E-3</v>
+        <v>6.5358666700000003E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6635,14 +6635,14 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42073</v>
+        <v>42076</v>
       </c>
       <c r="J10" s="24">
-        <v>6.5151785292494394E-3</v>
+        <v>6.5270464689880184E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>6.9638E-3</v>
+        <v>7.0043999999999992E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6667,14 +6667,14 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="J11" s="24">
-        <v>6.9517375033014825E-3</v>
+        <v>6.992196605178711E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_00360</v>
+        <v>obj_00363</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.4849967200000004E-3</v>
+        <v>7.5338098399999999E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6699,14 +6699,14 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="J12" s="24">
-        <v>7.4686970949316362E-3</v>
+        <v>7.5173745380108757E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_0035a</v>
+        <v>obj_00361</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.0409398899999995E-3</v>
+        <v>8.080866669999999E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6731,14 +6731,14 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42165</v>
+        <v>42170</v>
       </c>
       <c r="J13" s="24">
-        <v>8.0194936798865125E-3</v>
+        <v>8.059029709216162E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.0756863400000007E-3</v>
+        <v>8.1161606599999998E-3</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6763,14 +6763,14 @@
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>42172</v>
       </c>
       <c r="J14" s="24">
-        <v>8.0534338692183592E-3</v>
+        <v>8.0939537157482984E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -6779,15 +6779,15 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_00372</v>
+        <v>obj_0038b</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>GBPFUT3MM5_Quote</v>
+        <v>GBPFUT3MM5_HST_CLOSE_Quote</v>
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>8.7100000000000354E-3</v>
+        <v>9.0100000000000024E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -6802,7 +6802,7 @@
         <v>42264</v>
       </c>
       <c r="J15" s="24">
-        <v>8.2274858032596963E-3</v>
+        <v>8.3397839118799222E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
@@ -6811,15 +6811,15 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_00393</v>
+        <v>obj_003ae</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>GBPFUT3MU5_Quote</v>
+        <v>GBPFUT3MU5_HST_CLOSE_Quote</v>
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.028499999999997E-2</v>
+        <v>1.0634999999999931E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -6834,7 +6834,7 @@
         <v>42354</v>
       </c>
       <c r="J16" s="24">
-        <v>8.6566310513285158E-3</v>
+        <v>8.8215572085989999E-3</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="73"/>
@@ -6843,15 +6843,15 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_00395</v>
+        <v>obj_00375</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MZ5_HST_CLOSE_Quote</v>
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.1853999999999905E-2</v>
+        <v>1.2253999999999972E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -6866,7 +6866,7 @@
         <v>42445</v>
       </c>
       <c r="J17" s="24">
-        <v>9.209919201532064E-3</v>
+        <v>9.4189655916399728E-3</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
@@ -6875,15 +6875,15 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_0036e</v>
+        <v>obj_00370</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MH6_HST_CLOSE_Quote</v>
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.3417999999999951E-2</v>
+        <v>1.3768000000000023E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -6898,7 +6898,7 @@
         <v>42537</v>
       </c>
       <c r="J18" s="24">
-        <v>9.8360340294847276E-3</v>
+        <v>1.0069159063892717E-2</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="73"/>
@@ -6907,15 +6907,15 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_003ab</v>
+        <v>obj_0036d</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MM6_HST_CLOSE_Quote</v>
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.4877000000000008E-2</v>
+        <v>1.5276999999999964E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -6930,7 +6930,7 @@
         <v>42628</v>
       </c>
       <c r="J19" s="24">
-        <v>1.0483385972415851E-2</v>
+        <v>1.0740715468917861E-2</v>
       </c>
       <c r="M19" s="182"/>
       <c r="N19" s="73"/>
@@ -6939,15 +6939,15 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_00382</v>
+        <v>obj_00391</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>GBPFUT3MU6_Quote</v>
+        <v>GBPFUT3MU6_HST_CLOSE_Quote</v>
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.6227000000000075E-2</v>
+        <v>1.6677000000000025E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -6962,7 +6962,7 @@
         <v>42725</v>
       </c>
       <c r="J20" s="24">
-        <v>1.1168126600908587E-2</v>
+        <v>1.1450970925656452E-2</v>
       </c>
       <c r="M20" s="182"/>
       <c r="N20" s="73"/>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_0037d</v>
+        <v>obj_00372</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6987,14 +6987,14 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43018</v>
+        <v>43021</v>
       </c>
       <c r="J21" s="24">
-        <v>1.3771805428938268E-2</v>
+        <v>1.3768142894347073E-2</v>
       </c>
       <c r="M21" s="182"/>
       <c r="N21" s="73"/>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_00391</v>
+        <v>obj_003a4</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.5870000000000002E-2</v>
+        <v>1.5819999999999997E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7019,14 +7019,14 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43383</v>
+        <v>43388</v>
       </c>
       <c r="J22" s="24">
-        <v>1.591051723401914E-2</v>
+        <v>1.585598711548427E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_0039a</v>
+        <v>obj_00396</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.755E-2</v>
+        <v>1.746E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7051,14 +7051,14 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43748</v>
+        <v>43752</v>
       </c>
       <c r="J23" s="24">
-        <v>1.7626111143867567E-2</v>
+        <v>1.7530765286243154E-2</v>
       </c>
       <c r="M23" s="182"/>
       <c r="N23" s="73"/>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_00385</v>
+        <v>obj_00373</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.8970000000000001E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7083,14 +7083,14 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="J24" s="24">
-        <v>1.9088433490059741E-2</v>
+        <v>1.8972807795900316E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_00390</v>
+        <v>obj_003a0</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.017E-2</v>
+        <v>2.0049999999999998E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7115,14 +7115,14 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="J25" s="24">
-        <v>2.0335635057223248E-2</v>
+        <v>2.0209359354211084E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_0036b</v>
+        <v>obj_003a7</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1090000000000001E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7147,14 +7147,14 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44844</v>
+        <v>44847</v>
       </c>
       <c r="J26" s="24">
-        <v>2.1437581930970229E-2</v>
+        <v>2.1300469833425605E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_00366</v>
+        <v>obj_003ac</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.213E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7179,14 +7179,14 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J27" s="24">
-        <v>2.2401365922016282E-2</v>
+        <v>2.2264414797843718E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_0036f</v>
+        <v>obj_0037b</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.2930000000000002E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7211,14 +7211,14 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45575</v>
+        <v>45579</v>
       </c>
       <c r="J28" s="24">
-        <v>2.3256768620420774E-2</v>
+        <v>2.3119771037523034E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_0037e</v>
+        <v>obj_0037d</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4219999999999998E-2</v>
+        <v>2.4080000000000004E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7243,14 +7243,14 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46307</v>
+        <v>46308</v>
       </c>
       <c r="J29" s="24">
-        <v>2.4653956993317936E-2</v>
+        <v>2.4506030132746694E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_00375</v>
+        <v>obj_00366</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.5549999999999996E-2</v>
+        <v>2.5390000000000003E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7275,14 +7275,14 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47401</v>
+        <v>47406</v>
       </c>
       <c r="J30" s="24">
-        <v>2.6118323473934623E-2</v>
+        <v>2.5945965184275315E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_003a3</v>
+        <v>obj_0036c</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.683E-2</v>
+        <v>2.665E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7307,14 +7307,14 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49227</v>
+        <v>49230</v>
       </c>
       <c r="J31" s="24">
-        <v>2.7550724035049858E-2</v>
+        <v>2.7354101537435081E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_00374</v>
+        <v>obj_003b1</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.7309999999999997E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7339,14 +7339,14 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>51053</v>
+        <v>51056</v>
       </c>
       <c r="J32" s="24">
-        <v>2.803043907759047E-2</v>
+        <v>2.7794512069043518E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_00367</v>
+        <v>obj_0036f</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.7549999999999998E-2</v>
+        <v>2.7309999999999997E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7371,14 +7371,14 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>52880</v>
+        <v>52883</v>
       </c>
       <c r="J33" s="24">
-        <v>2.8237341484246427E-2</v>
+        <v>2.795998665109669E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_0037f</v>
+        <v>obj_0039b</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.7439999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7403,14 +7403,14 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56534</v>
+        <v>56535</v>
       </c>
       <c r="J34" s="24">
-        <v>2.7836128428323455E-2</v>
+        <v>2.7570241720796279E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00369</v>
+        <v>obj_00382</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.7439999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7435,14 +7435,14 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60185</v>
+        <v>60188</v>
       </c>
       <c r="J35" s="24">
-        <v>2.7718575045670765E-2</v>
+        <v>2.7458485495838431E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_0036c</v>
+        <v>obj_00394</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.7570000000000001E-2</v>
+        <v>2.733E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7467,14 +7467,14 @@
       </c>
       <c r="H36" s="23">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="I36" s="22">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>63837</v>
+        <v>63842</v>
       </c>
       <c r="J36" s="24">
-        <v>2.7935169414655847E-2</v>
+        <v>2.7676292114762923E-2</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="J9" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10795,7 +10795,7 @@
       <c r="A20" s="82"/>
       <c r="B20" s="81">
         <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C20&amp;"D",,,Trigger),D24,Trigger)-1</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="84">
         <v>0</v>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="J20" s="181" t="str">
         <f>_xll.qlDepositRateHelper2(,I20,B20&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
-        <v>obj_003b4#0003</v>
+        <v>obj_003b4#0001</v>
       </c>
       <c r="K20" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -10892,9 +10892,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10903,7 +10901,7 @@
     <col min="3" max="3" width="6" style="72" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" style="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" style="72" customWidth="1"/>
@@ -10986,8 +10984,8 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F3" s="134" t="str">
-        <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>GBPFUT3MV4_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MV4_HST_CLOSE_Quote</v>
       </c>
       <c r="G3" s="193">
         <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
@@ -10995,7 +10993,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00367#0002</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11032,16 +11030,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F4" s="134" t="str">
-        <f t="shared" si="1"/>
-        <v>GBPFUT3MX4_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D4&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MX4_HST_CLOSE_Quote</v>
       </c>
       <c r="G4" s="193">
-        <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
+        <f t="shared" ref="G4:G44" si="1">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003a3#0004</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11078,16 +11076,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F5" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D5&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ4_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G5" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ4_Quote</v>
-      </c>
-      <c r="G5" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0039e#0004</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11120,16 +11118,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F6" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D6&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MF5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G6" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MF5_Quote</v>
-      </c>
-      <c r="G6" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00390#0004</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11162,16 +11160,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F7" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D7&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MG5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G7" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MG5_Quote</v>
-      </c>
-      <c r="G7" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_003a2#0004</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11204,16 +11202,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F8" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D8&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G8" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH5_Quote</v>
-      </c>
-      <c r="G8" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00392#0004</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11246,16 +11244,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F9" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D9&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MJ5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G9" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MJ5_Quote</v>
-      </c>
-      <c r="G9" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_00398#0004</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11280,16 +11278,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F10" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D10&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MK5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G10" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MK5_Quote</v>
-      </c>
-      <c r="G10" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_003a8#0004</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11314,16 +11312,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F11" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D11&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G11" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM5_Quote</v>
-      </c>
-      <c r="G11" s="193">
-        <f t="shared" si="2"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_0038b#0004</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11348,16 +11346,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F12" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D12&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MN5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G12" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MN5_Quote</v>
-      </c>
-      <c r="G12" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_003a5#0004</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11382,16 +11380,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F13" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D13&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MQ5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G13" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MQ5_Quote</v>
-      </c>
-      <c r="G13" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_00386#0004</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11416,16 +11414,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F14" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D14&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G14" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU5_Quote</v>
-      </c>
-      <c r="G14" s="193">
-        <f t="shared" si="2"/>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_003ae#0004</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11450,16 +11448,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F15" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D15&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ5_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G15" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ5_Quote</v>
-      </c>
-      <c r="G15" s="193">
-        <f t="shared" si="2"/>
         <v>9.5999999999999989E-5</v>
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00375#0004</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11484,16 +11482,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F16" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D16&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH6_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G16" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH6_Quote</v>
-      </c>
-      <c r="G16" s="193">
-        <f t="shared" si="2"/>
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00370#0004</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11518,16 +11516,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F17" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D17&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM6_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G17" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM6_Quote</v>
-      </c>
-      <c r="G17" s="193">
-        <f t="shared" si="2"/>
         <v>1.73E-4</v>
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_0036d#0004</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11552,16 +11550,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F18" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D18&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU6_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G18" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU6_Quote</v>
-      </c>
-      <c r="G18" s="193">
-        <f t="shared" si="2"/>
         <v>2.23E-4</v>
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00391#0004</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11586,16 +11584,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F19" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D19&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ6_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G19" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ6_Quote</v>
-      </c>
-      <c r="G19" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00365#0004</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11620,16 +11618,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F20" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D20&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH7_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G20" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH7_Quote</v>
-      </c>
-      <c r="G20" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_003b0#0004</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11654,16 +11652,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F21" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D21&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM7_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G21" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM7_Quote</v>
-      </c>
-      <c r="G21" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_003b3#0004</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11688,16 +11686,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F22" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D22&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU7_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G22" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU7_Quote</v>
-      </c>
-      <c r="G22" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00396#0001</v>
+        <v>obj_0037f#0004</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11722,16 +11720,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F23" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D23&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ7_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G23" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ7_Quote</v>
-      </c>
-      <c r="G23" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_0037e#0004</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11756,16 +11754,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F24" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D24&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH8_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G24" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH8_Quote</v>
-      </c>
-      <c r="G24" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_00388#0004</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11790,16 +11788,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F25" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D25&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM8_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G25" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM8_Quote</v>
-      </c>
-      <c r="G25" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_00380#0004</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11824,16 +11822,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F26" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D26&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU8_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G26" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU8_Quote</v>
-      </c>
-      <c r="G26" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_0039f#0004</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11858,16 +11856,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F27" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D27&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ8_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G27" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ8_Quote</v>
-      </c>
-      <c r="G27" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00374#0004</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11892,16 +11890,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F28" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D28&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH9_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G28" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH9_Quote</v>
-      </c>
-      <c r="G28" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00399#0001</v>
+        <v>obj_003aa#0004</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11926,16 +11924,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F29" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D29&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM9_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G29" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM9_Quote</v>
-      </c>
-      <c r="G29" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003a1#0004</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11960,16 +11958,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F30" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D30&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU9_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G30" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU9_Quote</v>
-      </c>
-      <c r="G30" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00383#0004</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11994,16 +11992,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F31" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D31&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ9_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G31" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ9_Quote</v>
-      </c>
-      <c r="G31" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00384#0004</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -12028,16 +12026,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F32" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D32&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH0_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G32" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH0_Quote</v>
-      </c>
-      <c r="G32" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_00377#0004</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -12062,16 +12060,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F33" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D33&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM0_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G33" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM0_Quote</v>
-      </c>
-      <c r="G33" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00368#0004</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12096,16 +12094,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F34" s="134" t="str">
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D34&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU0_HST_CLOSE_Quote</v>
+      </c>
+      <c r="G34" s="193">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU0_Quote</v>
-      </c>
-      <c r="G34" s="193">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0039a#0004</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12126,20 +12124,20 @@
         <v>Z0</v>
       </c>
       <c r="E35" s="132" t="str">
-        <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <f t="shared" ref="E35:E44" si="2">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>GbpLibor3M</v>
       </c>
       <c r="F35" s="134" t="str">
-        <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ0_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ0_HST_CLOSE_Quote</v>
       </c>
       <c r="G35" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_0036e#0004</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12160,20 +12158,20 @@
         <v>H1</v>
       </c>
       <c r="E36" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F36" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MH1_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D36&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH1_HST_CLOSE_Quote</v>
       </c>
       <c r="G36" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_00379#0004</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12194,20 +12192,20 @@
         <v>M1</v>
       </c>
       <c r="E37" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F37" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MM1_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D37&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM1_HST_CLOSE_Quote</v>
       </c>
       <c r="G37" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_003a9#0004</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12228,20 +12226,20 @@
         <v>U1</v>
       </c>
       <c r="E38" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F38" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MU1_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D38&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU1_HST_CLOSE_Quote</v>
       </c>
       <c r="G38" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_0038e#0004</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12262,20 +12260,20 @@
         <v>Z1</v>
       </c>
       <c r="E39" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F39" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MZ1_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D39&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ1_HST_CLOSE_Quote</v>
       </c>
       <c r="G39" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_0036b#0004</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12296,20 +12294,20 @@
         <v>H2</v>
       </c>
       <c r="E40" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F40" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MH2_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D40&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH2_HST_CLOSE_Quote</v>
       </c>
       <c r="G40" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003a6#0004</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12330,20 +12328,20 @@
         <v>M2</v>
       </c>
       <c r="E41" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F41" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MM2_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D41&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MM2_HST_CLOSE_Quote</v>
       </c>
       <c r="G41" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_00381#0004</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12365,20 +12363,20 @@
         <v>U2</v>
       </c>
       <c r="E42" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F42" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MU2_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D42&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MU2_HST_CLOSE_Quote</v>
       </c>
       <c r="G42" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_003ab#0004</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12399,20 +12397,20 @@
         <v>Z2</v>
       </c>
       <c r="E43" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F43" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MZ2_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D43&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MZ2_HST_CLOSE_Quote</v>
       </c>
       <c r="G43" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_00399#0004</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12433,20 +12431,20 @@
         <v>H3</v>
       </c>
       <c r="E44" s="132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="F44" s="134" t="str">
-        <f t="shared" si="4"/>
-        <v>GBPFUT3MH3_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D44&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH3_HST_CLOSE_Quote</v>
       </c>
       <c r="G44" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_003b2#0004</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12645,7 +12643,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12692,7 +12690,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12743,7 +12741,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12794,7 +12792,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12841,7 +12839,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12892,7 +12890,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12934,7 +12932,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00391#0001</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12976,7 +12974,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -13018,7 +13016,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -13060,7 +13058,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00390#0001</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13102,7 +13100,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13144,7 +13142,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13186,7 +13184,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13228,7 +13226,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13270,7 +13268,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13312,7 +13310,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13354,7 +13352,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13396,7 +13394,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13438,7 +13436,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13480,7 +13478,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13522,7 +13520,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13564,7 +13562,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13606,7 +13604,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13648,7 +13646,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13690,7 +13688,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13732,7 +13730,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13774,7 +13772,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13816,7 +13814,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13858,7 +13856,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13900,7 +13898,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13942,7 +13940,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13984,7 +13982,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -14026,7 +14024,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -14068,7 +14066,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -14110,7 +14108,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14152,7 +14150,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -14194,7 +14192,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="8415" activeTab="2"/>
+    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2111,7 +2111,7 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="111" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct  1 2014 18:48:11</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0005</v>
+        <v>_GBPYCSTD#0001</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2469,11 +2469,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.795998665109669E-2</v>
+        <v>2.730723634639955E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2630,7 +2630,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2691,11 +2691,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2708,7 +2708,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00358#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41932</v>
+        <v>41933</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.8704038499999998E-3</v>
+        <v>4.8747040000000005E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41939</v>
+        <v>41940</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9345076900000001E-3</v>
+        <v>4.9431079999999999E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2794,17 +2794,17 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41946</v>
+        <v>41947</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0444000000000001E-3</v>
+        <v>5.0505999999999997E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2826,17 +2826,17 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41956</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00357#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D8" s="6">
         <f>_xll.qlRateHelperQuoteValue($B8,Trigger)</f>
-        <v>5.2963000000000003E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="74" t="b">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
@@ -2868,7 +2868,7 @@
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D9" s="6">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>5.5988000000000001E-3</v>
+        <v>5.5962999999999994E-3</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="74" t="b">
@@ -2890,17 +2890,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.0985688900000003E-3</v>
+        <v>6.08258667E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2922,17 +2922,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42048</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.5358666700000003E-3</v>
+        <v>6.52181333E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2954,11 +2954,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42076</v>
+        <v>42079</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -2971,7 +2971,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00359#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>7.0043999999999992E-3</v>
+        <v>7.0081000000000006E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -3010,7 +3010,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.5338098399999999E-3</v>
+        <v>7.5726989099999999E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -3032,11 +3032,11 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42137</v>
+        <v>42138</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -3049,7 +3049,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.080866669999999E-3</v>
+        <v>8.0843666700000007E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.6102764999999998E-3</v>
+        <v>8.6136781399999991E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.1926273200000005E-3</v>
+        <v>9.1782770499999992E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3142,17 +3142,17 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42229</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>9.7043901599999996E-3</v>
+        <v>9.7075885199999993E-3</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
@@ -3184,7 +3184,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D18" s="6">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>1.0233799999999999E-2</v>
+        <v>1.02369E-2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="74" t="b">
@@ -3206,11 +3206,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D19" s="6">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>8.1161606599999998E-3</v>
+        <v>8.10201038E-3</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="74" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="I19" s="4">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J19" s="3">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
@@ -3258,15 +3258,15 @@
       </c>
       <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00367#0002</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
-        <v>GBPFUT3MV4_HST_CLOSE_Quote</v>
-      </c>
-      <c r="D20" s="147">
+        <v>GBPFUT3MV4_Quote</v>
+      </c>
+      <c r="D20" s="147" t="e">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
-        <v>99.47</v>
+        <v>#NUM!</v>
       </c>
       <c r="E20" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B20,Trigger)</f>
@@ -3297,15 +3297,15 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_003a3#0004</v>
+        <v>obj_00386#0001</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>GBPFUT3MX4_HST_CLOSE_Quote</v>
-      </c>
-      <c r="D21" s="16">
+        <v>GBPFUT3MX4_Quote</v>
+      </c>
+      <c r="D21" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>99.42</v>
+        <v>#NUM!</v>
       </c>
       <c r="E21" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
@@ -3336,15 +3336,15 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_0039e#0004</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>GBPFUT3MZ4_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ4_Quote</v>
       </c>
       <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
-        <v>99.39</v>
+        <v>99.414999999999992</v>
       </c>
       <c r="E22" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_00390#0004</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>GBPFUT3MF5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="D23" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
@@ -3414,11 +3414,11 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_003a2#0004</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>GBPFUT3MG5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MG5_Quote</v>
       </c>
       <c r="D24" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
@@ -3453,15 +3453,15 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_00392#0004</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>GBPFUT3MH5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH5_Quote</v>
       </c>
       <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.25</v>
+        <v>99.335000000000008</v>
       </c>
       <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_00398#0004</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>GBPFUT3MJ5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MJ5_Quote</v>
       </c>
       <c r="D26" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
@@ -3531,11 +3531,11 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_003a8#0004</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>GBPFUT3MK5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MK5_Quote</v>
       </c>
       <c r="D27" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_0038b#0004</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>GBPFUT3MM5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM5_Quote</v>
       </c>
       <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
-        <v>99.094999999999999</v>
+        <v>99.224999999999994</v>
       </c>
       <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_003a5#0004</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>GBPFUT3MN5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MN5_Quote</v>
       </c>
       <c r="D29" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
@@ -3650,11 +3650,11 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_00386#0004</v>
+        <v>obj_00388#0001</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>GBPFUT3MQ5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MQ5_Quote</v>
       </c>
       <c r="D30" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
@@ -3690,15 +3690,15 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_003ae#0004</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>GBPFUT3MU5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>98.93</v>
+        <v>99.094999999999999</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3730,15 +3730,15 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_00375#0004</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
-        <v>GBPFUT3MZ5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.765000000000001</v>
+        <v>98.954999999999998</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3771,15 +3771,15 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_00370#0004</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
-        <v>GBPFUT3MH6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.61</v>
+        <v>98.814999999999998</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3812,15 +3812,15 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_0036d#0004</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
-        <v>GBPFUT3MM6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>98.454999999999998</v>
+        <v>98.685000000000002</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
@@ -3853,15 +3853,15 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_00391#0004</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
-        <v>GBPFUT3MU6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>98.31</v>
+        <v>98.534999999999997</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3894,15 +3894,15 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_00365#0004</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
-        <v>GBPFUT3MZ6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>98.174999999999997</v>
+        <v>98.414999999999992</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_003b0#0004</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
-        <v>GBPFUT3MH7_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>98.07</v>
+        <v>98.305000000000007</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3976,15 +3976,15 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_003b3#0004</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
-        <v>GBPFUT3MM7_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>97.97</v>
+        <v>98.194999999999993</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -4017,15 +4017,15 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_0037f#0004</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
-        <v>GBPFUT3MU7_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>97.89</v>
+        <v>98.1</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4058,15 +4058,15 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_0037e#0004</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
-        <v>GBPFUT3MZ7_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>97.814999999999998</v>
+        <v>98.015000000000001</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4099,15 +4099,15 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00388#0004</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
-        <v>GBPFUT3MH8_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.745000000000005</v>
+        <v>97.935000000000002</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4140,15 +4140,15 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_00380#0004</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
-        <v>GBPFUT3MM8_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.68</v>
+        <v>97.86</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4181,15 +4181,15 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_0039f#0004</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
-        <v>GBPFUT3MU8_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.62</v>
+        <v>97.795000000000002</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4222,15 +4222,15 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_00374#0004</v>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
-        <v>GBPFUT3MZ8_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.56</v>
+        <v>97.740000000000009</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4263,15 +4263,15 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_003aa#0004</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
-        <v>GBPFUT3MH9_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.51</v>
+        <v>97.694999999999993</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4304,15 +4304,15 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_003a1#0004</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
-        <v>GBPFUT3MM9_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM9_Quote</v>
       </c>
       <c r="D46" s="16">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.46</v>
+        <v>97.65</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
@@ -4345,15 +4345,15 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_00383#0004</v>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
-        <v>GBPFUT3MU9_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU9_Quote</v>
       </c>
       <c r="D47" s="16">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.415000000000006</v>
+        <v>97.61</v>
       </c>
       <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
@@ -4386,15 +4386,15 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_00384#0004</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
-        <v>GBPFUT3MZ9_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ9_Quote</v>
       </c>
       <c r="D48" s="16">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.38</v>
+        <v>97.575000000000003</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
@@ -4425,15 +4425,15 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_00377#0004</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
-        <v>GBPFUT3MH0_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH0_Quote</v>
       </c>
       <c r="D49" s="16">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>97.344999999999999</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="E49" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
@@ -4464,15 +4464,15 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00368#0004</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
-        <v>GBPFUT3MM0_HST_CLOSE_Quote</v>
-      </c>
-      <c r="D50" s="16">
+        <v>GBPFUT3MM0_Quote</v>
+      </c>
+      <c r="D50" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B50,Trigger)</f>
-        <v>97.35</v>
+        <v>#NUM!</v>
       </c>
       <c r="E50" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B50,Trigger)</f>
@@ -4503,15 +4503,15 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_0039a#0004</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
-        <v>GBPFUT3MU0_HST_CLOSE_Quote</v>
-      </c>
-      <c r="D51" s="16">
+        <v>GBPFUT3MU0_Quote</v>
+      </c>
+      <c r="D51" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B51,Trigger)</f>
-        <v>97.35</v>
+        <v>#NUM!</v>
       </c>
       <c r="E51" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B51,Trigger)</f>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_0036e#0004</v>
+        <v>obj_00390#0001</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
-        <v>GBPFUT3MZ0_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ0_Quote</v>
       </c>
       <c r="D52" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B52,Trigger)</f>
@@ -4581,11 +4581,11 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_00379#0004</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
-        <v>GBPFUT3MH1_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH1_Quote</v>
       </c>
       <c r="D53" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B53,Trigger)</f>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_003a9#0004</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
-        <v>GBPFUT3MM1_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM1_Quote</v>
       </c>
       <c r="D54" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B54,Trigger)</f>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_0038e#0004</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
-        <v>GBPFUT3MU1_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU1_Quote</v>
       </c>
       <c r="D55" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B55,Trigger)</f>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_0036b#0004</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
-        <v>GBPFUT3MZ1_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ1_Quote</v>
       </c>
       <c r="D56" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B56,Trigger)</f>
@@ -4737,11 +4737,11 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_003a6#0004</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
-        <v>GBPFUT3MH2_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH2_Quote</v>
       </c>
       <c r="D57" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B57,Trigger)</f>
@@ -4776,11 +4776,11 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_00381#0004</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
-        <v>GBPFUT3MM2_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM2_Quote</v>
       </c>
       <c r="D58" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B58,Trigger)</f>
@@ -4815,11 +4815,11 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_003ab#0004</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
-        <v>GBPFUT3MU2_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU2_Quote</v>
       </c>
       <c r="D59" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B59,Trigger)</f>
@@ -4854,11 +4854,11 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_00399#0004</v>
+        <v>obj_00383#0001</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
-        <v>GBPFUT3MZ2_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ2_Quote</v>
       </c>
       <c r="D60" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B60,Trigger)</f>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="B61" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_003b2#0004</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
-        <v>GBPFUT3MH3_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH3_Quote</v>
       </c>
       <c r="D61" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B61,Trigger)</f>
@@ -4931,7 +4931,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4956,17 +4956,17 @@
       </c>
       <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4991,11 +4991,11 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42382</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>9.6399999999999993E-3</v>
+        <v>8.8500000000000002E-3</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -5026,17 +5026,17 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42473</v>
+        <v>42474</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00389#0001</v>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -5061,17 +5061,17 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42564</v>
+        <v>42565</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00397#0001</v>
+        <v>obj_00384#0001</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.111E-2</v>
+        <v>1.0049999999999998E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5096,17 +5096,17 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42656</v>
+        <v>42657</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.376E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5131,17 +5131,17 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43021</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
         <f>Swaps!K12</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.5819999999999997E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
@@ -5176,7 +5176,7 @@
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00396#0001</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.746E-2</v>
+        <v>1.6209999999999999E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
@@ -5211,7 +5211,7 @@
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>1.8860000000000002E-2</v>
+        <v>1.7650000000000002E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5236,17 +5236,17 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>2.0049999999999998E-2</v>
+        <v>1.8919999999999999E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5271,18 +5271,18 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.1090000000000001E-2</v>
+        <v>2.0030000000000003E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5307,18 +5307,18 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.2000000000000002E-2</v>
+        <v>2.1019999999999997E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5343,18 +5343,18 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.2800000000000001E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
@@ -5390,7 +5390,7 @@
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.3479999999999997E-2</v>
+        <v>2.2610000000000002E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5415,18 +5415,18 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>2.4080000000000004E-2</v>
+        <v>2.3220000000000001E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5451,18 +5451,18 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46308</v>
+        <v>46309</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00395#0001</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5487,18 +5487,18 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>46673</v>
+        <v>46674</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_00392#0001</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5523,18 +5523,18 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47039</v>
+        <v>47042</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00366#0001</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>2.5390000000000003E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
@@ -5570,7 +5570,7 @@
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
@@ -5606,7 +5606,7 @@
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5631,18 +5631,18 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48134</v>
+        <v>48135</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5667,18 +5667,18 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48500</v>
+        <v>48501</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5703,18 +5703,18 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>48865</v>
+        <v>48866</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>2.665E-2</v>
+        <v>2.589E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5739,18 +5739,18 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49230</v>
+        <v>49233</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00393#0001</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
@@ -5786,7 +5786,7 @@
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5811,18 +5811,18 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49961</v>
+        <v>49962</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00376#0001</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5847,18 +5847,18 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50326</v>
+        <v>50327</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5883,18 +5883,18 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>50691</v>
+        <v>50692</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.6380000000000001E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5919,18 +5919,18 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>51056</v>
+        <v>51057</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_00378#0001</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
@@ -5966,7 +5966,7 @@
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_00379#0001</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
@@ -6002,7 +6002,7 @@
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -6027,18 +6027,18 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52152</v>
+        <v>52153</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -6063,18 +6063,18 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52517</v>
+        <v>52518</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>2.7309999999999997E-2</v>
+        <v>2.6619999999999998E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -6099,18 +6099,18 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>52883</v>
+        <v>52884</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6135,18 +6135,18 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>54709</v>
+        <v>54710</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_003b3#0001</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.7199999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6171,18 +6171,18 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>56535</v>
+        <v>56536</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.7199999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6207,18 +6207,18 @@
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>60188</v>
+        <v>60189</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00391#0001</v>
       </c>
       <c r="C98" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D98" s="6">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>2.733E-2</v>
+        <v>2.665E-2</v>
       </c>
       <c r="E98" s="6">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="I98" s="4">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="J98" s="3">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0034a</v>
+        <v>obj_00351</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6346,11 +6346,11 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="J2" s="24">
         <v>4.7437691733986558E-3</v>
@@ -6384,11 +6384,11 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
       <c r="J3" s="24">
         <v>4.7750187645798194E-3</v>
@@ -6406,7 +6406,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_00358</v>
+        <v>obj_0034f</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6422,11 +6422,11 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41932</v>
+        <v>41933</v>
       </c>
       <c r="J4" s="24">
         <v>4.8060785017727259E-3</v>
@@ -6444,7 +6444,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_0035f</v>
+        <v>obj_00361</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.8704038499999998E-3</v>
+        <v>4.8747040000000005E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6460,14 +6460,14 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41939</v>
+        <v>41940</v>
       </c>
       <c r="J5" s="24">
-        <v>4.8699489865515096E-3</v>
+        <v>4.8742483330410889E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_0034b</v>
+        <v>obj_00352</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0444000000000001E-3</v>
+        <v>5.0505999999999997E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6499,14 +6499,14 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="J6" s="24">
-        <v>5.0433197262215205E-3</v>
+        <v>5.0495170694494799E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
@@ -6516,14 +6516,14 @@
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0005</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="25" t="str">
-        <v>obj_00357</v>
+        <v>obj_0034a</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="F7" s="24">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.2963000000000003E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="G7" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6539,14 +6539,14 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>41988</v>
       </c>
       <c r="J7" s="24">
-        <v>5.2938806524068429E-3</v>
+        <v>5.2876246910424632E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="25" t="str">
-        <v>obj_00350</v>
+        <v>obj_00359</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="F8" s="24">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.5988000000000001E-3</v>
+        <v>5.5962999999999994E-3</v>
       </c>
       <c r="G8" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6571,14 +6571,14 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="J8" s="24">
-        <v>5.5948531871852E-3</v>
+        <v>5.5923567094394991E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_00362</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.0985688900000003E-3</v>
+        <v>6.08258667E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6603,14 +6603,14 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42048</v>
+        <v>42051</v>
       </c>
       <c r="J9" s="24">
-        <v>6.0923107740422948E-3</v>
+        <v>6.0762602040534009E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_0035e</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.5358666700000003E-3</v>
+        <v>6.52181333E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6635,14 +6635,14 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42076</v>
+        <v>42079</v>
       </c>
       <c r="J10" s="24">
-        <v>6.5270464689880184E-3</v>
+        <v>6.5129148734843576E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_00359</v>
+        <v>obj_00357</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.0043999999999992E-3</v>
+        <v>7.0081000000000006E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6667,14 +6667,14 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="J11" s="24">
-        <v>6.992196605178711E-3</v>
+        <v>6.9958837241277608E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_00363</v>
+        <v>obj_0035b</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.5338098399999999E-3</v>
+        <v>7.5726989099999999E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6699,14 +6699,14 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42137</v>
+        <v>42138</v>
       </c>
       <c r="J12" s="24">
-        <v>7.5173745380108757E-3</v>
+        <v>7.5560937431545109E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_00361</v>
+        <v>obj_00363</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.080866669999999E-3</v>
+        <v>8.0843666700000007E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6731,14 +6731,14 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>42170</v>
       </c>
       <c r="J13" s="24">
-        <v>8.059029709216162E-3</v>
+        <v>8.0625997106404633E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.1161606599999998E-3</v>
+        <v>8.10201038E-3</v>
       </c>
       <c r="G14" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6763,14 +6763,14 @@
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>42172</v>
       </c>
       <c r="J14" s="24">
-        <v>8.0939537157482984E-3</v>
+        <v>8.0799699310445984E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -6779,15 +6779,15 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_0038b</v>
+        <v>obj_0036c</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>GBPFUT3MM5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM5_Quote</v>
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.0100000000000024E-3</v>
+        <v>7.7100000000000345E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -6802,7 +6802,7 @@
         <v>42264</v>
       </c>
       <c r="J15" s="24">
-        <v>8.3397839118799222E-3</v>
+        <v>7.9772315646206814E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
@@ -6811,15 +6811,15 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_003ae</v>
+        <v>obj_00397</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>GBPFUT3MU5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.0634999999999931E-2</v>
+        <v>8.9850000000000017E-3</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -6834,7 +6834,7 @@
         <v>42354</v>
       </c>
       <c r="J16" s="24">
-        <v>8.8215572085989999E-3</v>
+        <v>8.1902428675789569E-3</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="73"/>
@@ -6843,15 +6843,15 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_00375</v>
+        <v>obj_0037c</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>GBPFUT3MZ5_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.2253999999999972E-2</v>
+        <v>1.035400000000007E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -6866,7 +6866,7 @@
         <v>42445</v>
       </c>
       <c r="J17" s="24">
-        <v>9.4189655916399728E-3</v>
+        <v>8.5672907836454818E-3</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
@@ -6875,15 +6875,15 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_00370</v>
+        <v>obj_003af</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>GBPFUT3MH6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.3768000000000023E-2</v>
+        <v>1.1718000000000027E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -6898,7 +6898,7 @@
         <v>42537</v>
       </c>
       <c r="J18" s="24">
-        <v>1.0069159063892717E-2</v>
+        <v>9.0391014456049738E-3</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="73"/>
@@ -6907,15 +6907,15 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_0036d</v>
+        <v>obj_00372</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>GBPFUT3MM6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.5276999999999964E-2</v>
+        <v>1.2976999999999995E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -6930,7 +6930,7 @@
         <v>42628</v>
       </c>
       <c r="J19" s="24">
-        <v>1.0740715468917861E-2</v>
+        <v>9.5479476819382882E-3</v>
       </c>
       <c r="M19" s="182"/>
       <c r="N19" s="73"/>
@@ -6939,15 +6939,15 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_00391</v>
+        <v>obj_003a8</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>GBPFUT3MU6_HST_CLOSE_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.6677000000000025E-2</v>
+        <v>1.4427000000000053E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -6962,7 +6962,7 @@
         <v>42725</v>
       </c>
       <c r="J20" s="24">
-        <v>1.1450970925656452E-2</v>
+        <v>1.0132739396864264E-2</v>
       </c>
       <c r="M20" s="182"/>
       <c r="N20" s="73"/>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_00372</v>
+        <v>obj_00381</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.376E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6987,14 +6987,14 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43021</v>
+        <v>43024</v>
       </c>
       <c r="J21" s="24">
-        <v>1.3768142894347073E-2</v>
+        <v>1.2507034795452119E-2</v>
       </c>
       <c r="M21" s="182"/>
       <c r="N21" s="73"/>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_003a4</v>
+        <v>obj_0039b</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.5819999999999997E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7019,14 +7019,14 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>43388</v>
       </c>
       <c r="J22" s="24">
-        <v>1.585598711548427E-2</v>
+        <v>1.4584012900354996E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_00396</v>
+        <v>obj_00378</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.746E-2</v>
+        <v>1.6209999999999999E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7051,14 +7051,14 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
         <v>43752</v>
       </c>
       <c r="J23" s="24">
-        <v>1.7530765286243154E-2</v>
+        <v>1.6277992114738023E-2</v>
       </c>
       <c r="M23" s="182"/>
       <c r="N23" s="73"/>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_00373</v>
+        <v>obj_0038d</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.8860000000000002E-2</v>
+        <v>1.7650000000000002E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7083,14 +7083,14 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="J24" s="24">
-        <v>1.8972807795900316E-2</v>
+        <v>1.7759974966811431E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_003a0</v>
+        <v>obj_0038f</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.0049999999999998E-2</v>
+        <v>1.8919999999999999E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7115,14 +7115,14 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="J25" s="24">
-        <v>2.0209359354211084E-2</v>
+        <v>1.9079547173377193E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_003a7</v>
+        <v>obj_0038c</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.1090000000000001E-2</v>
+        <v>2.0030000000000003E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7147,14 +7147,14 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="J26" s="24">
-        <v>2.1300469833425605E-2</v>
+        <v>2.0243881544333851E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_003ac</v>
+        <v>obj_003a7</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.2000000000000002E-2</v>
+        <v>2.1019999999999997E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7179,14 +7179,14 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="J27" s="24">
-        <v>2.2264414797843718E-2</v>
+        <v>2.1292817302007144E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_0037b</v>
+        <v>obj_003b0</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.2800000000000001E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7211,14 +7211,14 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>45579</v>
       </c>
       <c r="J28" s="24">
-        <v>2.3119771037523034E-2</v>
+        <v>2.2235287192528264E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_0037d</v>
+        <v>obj_003ab</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.4080000000000004E-2</v>
+        <v>2.3220000000000001E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7243,14 +7243,14 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46308</v>
+        <v>46309</v>
       </c>
       <c r="J29" s="24">
-        <v>2.4506030132746694E-2</v>
+        <v>2.3661276417649386E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_00366</v>
+        <v>obj_0037d</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.5390000000000003E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7275,14 +7275,14 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>47406</v>
       </c>
       <c r="J30" s="24">
-        <v>2.5945965184275315E-2</v>
+        <v>2.515331714543596E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_0036c</v>
+        <v>obj_0039a</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.665E-2</v>
+        <v>2.589E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7307,14 +7307,14 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49230</v>
+        <v>49233</v>
       </c>
       <c r="J31" s="24">
-        <v>2.7354101537435081E-2</v>
+        <v>2.6613989110438743E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_003b1</v>
+        <v>obj_00373</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.6380000000000001E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7339,14 +7339,14 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>51056</v>
+        <v>51057</v>
       </c>
       <c r="J32" s="24">
-        <v>2.7794512069043518E-2</v>
+        <v>2.7103164054534262E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_0036f</v>
+        <v>obj_00366</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.7309999999999997E-2</v>
+        <v>2.6619999999999998E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7371,14 +7371,14 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>52883</v>
+        <v>52884</v>
       </c>
       <c r="J33" s="24">
-        <v>2.795998665109669E-2</v>
+        <v>2.730723634639955E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_0039b</v>
+        <v>obj_003b3</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.7199999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7403,14 +7403,14 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56535</v>
+        <v>56536</v>
       </c>
       <c r="J34" s="24">
-        <v>2.7570241720796279E-2</v>
+        <v>2.6928367906774012E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00382</v>
+        <v>obj_00395</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.7199999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7435,14 +7435,14 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60188</v>
+        <v>60189</v>
       </c>
       <c r="J35" s="24">
-        <v>2.7458485495838431E-2</v>
+        <v>2.6810763694943215E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D36" s="25" t="str">
-        <v>obj_00394</v>
+        <v>obj_00391</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="F36" s="24">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.733E-2</v>
+        <v>2.665E-2</v>
       </c>
       <c r="G36" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -7467,14 +7467,14 @@
       </c>
       <c r="H36" s="23">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="I36" s="22">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
         <v>63842</v>
       </c>
       <c r="J36" s="24">
-        <v>2.7676292114762923E-2</v>
+        <v>2.7018896546611763E-2</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="J8" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="J9" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="J13" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10742,7 +10742,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10795,7 +10795,7 @@
       <c r="A20" s="82"/>
       <c r="B20" s="81">
         <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C20&amp;"D",,,Trigger),D24,Trigger)-1</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="84">
         <v>0</v>
@@ -10892,7 +10892,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10901,7 +10903,7 @@
     <col min="3" max="3" width="6" style="72" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="72" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" style="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" style="72" customWidth="1"/>
@@ -10984,8 +10986,8 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F3" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MV4_HST_CLOSE_Quote</v>
+        <f t="shared" ref="F3:F44" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
+        <v>GBPFUT3MV4_Quote</v>
       </c>
       <c r="G3" s="193">
         <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
@@ -10993,7 +10995,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0002</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11030,16 +11032,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F4" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D4&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MX4_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MX4_Quote</v>
       </c>
       <c r="G4" s="193">
-        <f t="shared" ref="G4:G44" si="1">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
+        <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a3#0004</v>
+        <v>obj_00386#0001</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11076,16 +11078,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F5" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D5&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ4_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ4_Quote</v>
       </c>
       <c r="G5" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0004</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11118,16 +11120,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F6" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D6&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="G6" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0004</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11160,16 +11162,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F7" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D7&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MG5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MG5_Quote</v>
       </c>
       <c r="G7" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0004</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11202,16 +11204,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F8" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D8&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH5_Quote</v>
       </c>
       <c r="G8" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0004</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11244,16 +11246,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F9" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D9&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MJ5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MJ5_Quote</v>
       </c>
       <c r="G9" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0004</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11278,16 +11280,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F10" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D10&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MK5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MK5_Quote</v>
       </c>
       <c r="G10" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0004</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11312,16 +11314,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F11" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D11&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM5_Quote</v>
       </c>
       <c r="G11" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038b#0004</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11346,16 +11348,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F12" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D12&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MN5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MN5_Quote</v>
       </c>
       <c r="G12" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0004</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11380,16 +11382,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F13" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D13&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MQ5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MQ5_Quote</v>
       </c>
       <c r="G13" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0004</v>
+        <v>obj_00388#0001</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11414,16 +11416,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F14" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D14&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="G14" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0004</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11448,16 +11450,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F15" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D15&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ5_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="G15" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5999999999999989E-5</v>
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00375#0004</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11482,16 +11484,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F16" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D16&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH6_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="G16" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0004</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11516,16 +11518,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F17" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D17&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM6_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="G17" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.73E-4</v>
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0004</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11550,16 +11552,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F18" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D18&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU6_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="G18" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.23E-4</v>
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0004</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11584,16 +11586,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F19" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D19&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ6_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="G19" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0004</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11618,16 +11620,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F20" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D20&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH7_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="G20" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b0#0004</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11652,16 +11654,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F21" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D21&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM7_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="G21" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b3#0004</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11686,16 +11688,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F22" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D22&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU7_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="G22" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037f#0004</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11720,16 +11722,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F23" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D23&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ7_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="G23" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037e#0004</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11754,16 +11756,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F24" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D24&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH8_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="G24" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00388#0004</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11788,16 +11790,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F25" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D25&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM8_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="G25" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00380#0004</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11822,16 +11824,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F26" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D26&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU8_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="G26" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039f#0004</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11856,16 +11858,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F27" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D27&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ8_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="G27" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0004</v>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11890,16 +11892,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F28" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D28&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH9_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="G28" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0004</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11924,16 +11926,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F29" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D29&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM9_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM9_Quote</v>
       </c>
       <c r="G29" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0004</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11958,16 +11960,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F30" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D30&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU9_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU9_Quote</v>
       </c>
       <c r="G30" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0004</v>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -11992,16 +11994,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F31" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D31&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ9_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ9_Quote</v>
       </c>
       <c r="G31" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00384#0004</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -12026,16 +12028,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F32" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D32&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH0_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH0_Quote</v>
       </c>
       <c r="G32" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0004</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -12060,16 +12062,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F33" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D33&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM0_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM0_Quote</v>
       </c>
       <c r="G33" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0004</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12094,16 +12096,16 @@
         <v>GbpLibor3M</v>
       </c>
       <c r="F34" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D34&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU0_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU0_Quote</v>
       </c>
       <c r="G34" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0004</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12124,20 +12126,20 @@
         <v>Z0</v>
       </c>
       <c r="E35" s="132" t="str">
-        <f t="shared" ref="E35:E44" si="2">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>GbpLibor3M</v>
       </c>
       <c r="F35" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ0_HST_CLOSE_Quote</v>
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ0_Quote</v>
       </c>
       <c r="G35" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0004</v>
+        <v>obj_00390#0001</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12158,20 +12160,20 @@
         <v>H1</v>
       </c>
       <c r="E36" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F36" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH1_Quote</v>
+      </c>
+      <c r="G36" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F36" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D36&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH1_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G36" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00379#0004</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12192,20 +12194,20 @@
         <v>M1</v>
       </c>
       <c r="E37" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F37" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM1_Quote</v>
+      </c>
+      <c r="G37" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F37" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D37&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM1_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G37" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0004</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12226,20 +12228,20 @@
         <v>U1</v>
       </c>
       <c r="E38" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F38" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU1_Quote</v>
+      </c>
+      <c r="G38" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F38" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D38&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU1_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G38" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038e#0004</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12260,20 +12262,20 @@
         <v>Z1</v>
       </c>
       <c r="E39" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F39" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ1_Quote</v>
+      </c>
+      <c r="G39" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F39" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D39&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ1_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G39" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0004</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12294,20 +12296,20 @@
         <v>H2</v>
       </c>
       <c r="E40" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F40" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH2_Quote</v>
+      </c>
+      <c r="G40" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F40" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D40&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH2_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G40" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a6#0004</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12328,20 +12330,20 @@
         <v>M2</v>
       </c>
       <c r="E41" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F41" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MM2_Quote</v>
+      </c>
+      <c r="G41" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F41" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D41&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MM2_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G41" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00381#0004</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12363,20 +12365,20 @@
         <v>U2</v>
       </c>
       <c r="E42" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F42" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MU2_Quote</v>
+      </c>
+      <c r="G42" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F42" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D42&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU2_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G42" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0004</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12397,20 +12399,20 @@
         <v>Z2</v>
       </c>
       <c r="E43" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F43" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MZ2_Quote</v>
+      </c>
+      <c r="G43" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F43" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D43&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MZ2_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G43" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00399#0004</v>
+        <v>obj_00383#0001</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12431,20 +12433,20 @@
         <v>H3</v>
       </c>
       <c r="E44" s="132" t="str">
+        <f t="shared" si="3"/>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="F44" s="134" t="str">
+        <f t="shared" si="1"/>
+        <v>GBPFUT3MH3_Quote</v>
+      </c>
+      <c r="G44" s="193">
         <f t="shared" si="2"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F44" s="134" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D44&amp;"_HST_CLOSE"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MH3_HST_CLOSE_Quote</v>
-      </c>
-      <c r="G44" s="193">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0004</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12643,7 +12645,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12690,7 +12692,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12792,7 +12794,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12839,7 +12841,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_00384#0001</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12890,7 +12892,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12932,7 +12934,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12974,7 +12976,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00396#0001</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -13016,7 +13018,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -13058,7 +13060,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13100,7 +13102,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13142,7 +13144,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13184,7 +13186,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13226,7 +13228,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13268,7 +13270,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13310,7 +13312,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13352,7 +13354,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_00392#0001</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13394,7 +13396,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13436,7 +13438,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13478,7 +13480,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13520,7 +13522,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13562,7 +13564,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13604,7 +13606,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13646,7 +13648,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13688,7 +13690,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13730,7 +13732,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13772,7 +13774,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13814,7 +13816,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13856,7 +13858,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13898,7 +13900,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_00379#0001</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13940,7 +13942,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13982,7 +13984,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -14024,7 +14026,7 @@
       </c>
       <c r="K38" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$4,$I38,B38,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -14066,7 +14068,7 @@
       </c>
       <c r="K39" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$4,$I39,B39,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -14108,7 +14110,7 @@
       </c>
       <c r="K40" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$4,$I40,B40,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_003b3#0001</v>
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -14150,7 +14152,7 @@
       </c>
       <c r="K41" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$4,$I41,B41,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -14192,7 +14194,7 @@
       </c>
       <c r="K42" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$4,$I42,B42,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00391#0001</v>
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="-15" windowWidth="15270" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="15225" yWindow="45" windowWidth="15270" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Futures" sheetId="9" r:id="rId5"/>
     <sheet name="Swaps" sheetId="11" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
@@ -218,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="152">
   <si>
     <t>60Y</t>
   </si>
@@ -599,9 +602,6 @@
   </si>
   <si>
     <t>BondBasisDayCounter</t>
-  </si>
-  <si>
-    <t>GBPSTD</t>
   </si>
   <si>
     <t>Extrapolation</t>
@@ -1797,6 +1797,79 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Libor"/>
+      <sheetName val="LiborSwapIsda"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapxM12M"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures1M"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="ImmFra6M "/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="OIS"/>
+      <sheetName val="Swaps1M"/>
+      <sheetName val="SwapsIMMDated"/>
+      <sheetName val="Swap3MSemiAnnual"/>
+      <sheetName val="Swap3MAnnual"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="1M (2)"/>
+      <sheetName val="3M (2)"/>
+      <sheetName val="6M (2)"/>
+      <sheetName val="IBOR"/>
+      <sheetName val="IB365"/>
+      <sheetName val="SFIX2"/>
+      <sheetName val="SFIX3"/>
+      <sheetName val="MPCOIS"/>
+      <sheetName val="FwdOIS"/>
+      <sheetName val="MxQuotes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>GBPSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2100,7 +2173,7 @@
     <col min="6" max="7" width="2.7109375" style="111" customWidth="1"/>
     <col min="8" max="8" width="4" style="111" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" style="111" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.28515625" style="111" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="111" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="111" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="111" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.7109375" style="111" bestFit="1" customWidth="1"/>
@@ -2344,7 +2417,7 @@
       </c>
       <c r="D14" s="59" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYCSTD#0001</v>
+        <v>_GBPYCSTD#0002</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
@@ -2469,11 +2542,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="46">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="D23" s="120">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.730723634639955E-2</v>
+        <v>2.8084589030393136E-2</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
@@ -2482,11 +2555,11 @@
       <c r="B24" s="43"/>
       <c r="C24" s="45">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>63842</v>
+        <v>63858</v>
       </c>
       <c r="D24" s="121">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>4.7437691733986558E-3</v>
+        <v>4.6937094608443461E-3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
@@ -2505,8 +2578,9 @@
     </row>
     <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
-      <c r="C26" s="119" t="s">
-        <v>127</v>
+      <c r="C26" s="119" t="str">
+        <f>[1]Libor!$D$14</f>
+        <v>GBPSTD#0000</v>
       </c>
       <c r="D26" s="121" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -2518,7 +2592,7 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
       <c r="C27" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="110" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
@@ -2603,7 +2677,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>50</v>
@@ -2630,7 +2704,7 @@
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00358#0002</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2638,7 +2712,7 @@
       </c>
       <c r="D2" s="6">
         <f>_xll.qlRateHelperQuoteValue($B2,Trigger)</f>
-        <v>4.7438000000000003E-3</v>
+        <v>4.6938000000000006E-3</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="b">
@@ -2652,11 +2726,11 @@
       </c>
       <c r="I2" s="4">
         <f>_xll.qlRateHelperEarliestDate($B2,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J2" s="3">
         <f>_xll.qlRateHelperLatestDate($B2,Trigger)</f>
-        <v>41927</v>
+        <v>41946</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -2669,7 +2743,7 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="149" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035d#0002</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2677,7 +2751,7 @@
       </c>
       <c r="D3" s="6">
         <f>_xll.qlRateHelperQuoteValue($B3,Trigger)</f>
-        <v>4.8063000000000003E-3</v>
+        <v>4.7938E-3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="74" t="b">
@@ -2691,11 +2765,11 @@
       </c>
       <c r="I3" s="4">
         <f>_xll.qlRateHelperEarliestDate($B3,Trigger)</f>
-        <v>41927</v>
+        <v>41946</v>
       </c>
       <c r="J3" s="3">
         <f>_xll.qlRateHelperLatestDate($B3,Trigger)</f>
-        <v>41928</v>
+        <v>41947</v>
       </c>
       <c r="K3" s="1">
         <v>20</v>
@@ -2708,7 +2782,7 @@
     <row r="4" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="149" t="str">
         <f>Deposits!J5</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00352#0002</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2716,7 +2790,7 @@
       </c>
       <c r="D4" s="6">
         <f>_xll.qlRateHelperQuoteValue($B4,Trigger)</f>
-        <v>4.8063000000000003E-3</v>
+        <v>4.7938E-3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="74" t="b">
@@ -2730,17 +2804,17 @@
       </c>
       <c r="I4" s="4">
         <f>_xll.qlRateHelperEarliestDate($B4,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J4" s="3">
         <f>_xll.qlRateHelperLatestDate($B4,Trigger)</f>
-        <v>41933</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="str">
         <f>Deposits!J6</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035e#0002</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -2748,7 +2822,7 @@
       </c>
       <c r="D5" s="6">
         <f>_xll.qlRateHelperQuoteValue($B5,Trigger)</f>
-        <v>4.8747040000000005E-3</v>
+        <v>4.8776782600000006E-3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="74" t="b">
@@ -2762,17 +2836,17 @@
       </c>
       <c r="I5" s="4">
         <f>_xll.qlRateHelperEarliestDate($B5,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J5" s="3">
         <f>_xll.qlRateHelperLatestDate($B5,Trigger)</f>
-        <v>41940</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_0035b#0002</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -2780,7 +2854,7 @@
       </c>
       <c r="D6" s="6">
         <f>_xll.qlRateHelperQuoteValue($B6,Trigger)</f>
-        <v>4.9431079999999999E-3</v>
+        <v>4.9615565200000003E-3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="74" t="b">
@@ -2794,17 +2868,17 @@
       </c>
       <c r="I6" s="4">
         <f>_xll.qlRateHelperEarliestDate($B6,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J6" s="3">
         <f>_xll.qlRateHelperLatestDate($B6,Trigger)</f>
-        <v>41947</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="149" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00352#0001</v>
+        <v>obj_0034a#0002</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -2812,7 +2886,7 @@
       </c>
       <c r="D7" s="6">
         <f>_xll.qlRateHelperQuoteValue($B7,Trigger)</f>
-        <v>5.0505999999999997E-3</v>
+        <v>5.0693999999999991E-3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="74" t="b">
@@ -2826,17 +2900,17 @@
       </c>
       <c r="I7" s="4">
         <f>_xll.qlRateHelperEarliestDate($B7,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J7" s="3">
         <f>_xll.qlRateHelperLatestDate($B7,Trigger)</f>
-        <v>41957</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="149" t="str">
         <f>Deposits!J9</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00357#0002</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -2858,17 +2932,17 @@
       </c>
       <c r="I8" s="4">
         <f>_xll.qlRateHelperEarliestDate($B8,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J8" s="3">
         <f>_xll.qlRateHelperLatestDate($B8,Trigger)</f>
-        <v>41988</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="149" t="str">
         <f>Deposits!J10</f>
-        <v>obj_00359#0001</v>
+        <v>obj_00359#0002</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -2876,7 +2950,7 @@
       </c>
       <c r="D9" s="6">
         <f>_xll.qlRateHelperQuoteValue($B9,Trigger)</f>
-        <v>5.5962999999999994E-3</v>
+        <v>5.5462999999999997E-3</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="74" t="b">
@@ -2890,17 +2964,17 @@
       </c>
       <c r="I9" s="4">
         <f>_xll.qlRateHelperEarliestDate($B9,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J9" s="3">
         <f>_xll.qlRateHelperLatestDate($B9,Trigger)</f>
-        <v>42018</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="149" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00360#0002</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -2908,7 +2982,7 @@
       </c>
       <c r="D10" s="6">
         <f>_xll.qlRateHelperQuoteValue($B10,Trigger)</f>
-        <v>6.08258667E-3</v>
+        <v>5.9697844399999997E-3</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="74" t="b">
@@ -2922,17 +2996,17 @@
       </c>
       <c r="I10" s="4">
         <f>_xll.qlRateHelperEarliestDate($B10,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J10" s="3">
         <f>_xll.qlRateHelperLatestDate($B10,Trigger)</f>
-        <v>42051</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="149" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00363#0002</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -2940,7 +3014,7 @@
       </c>
       <c r="D11" s="6">
         <f>_xll.qlRateHelperQuoteValue($B11,Trigger)</f>
-        <v>6.52181333E-3</v>
+        <v>6.4840155600000005E-3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="74" t="b">
@@ -2954,11 +3028,11 @@
       </c>
       <c r="I11" s="4">
         <f>_xll.qlRateHelperEarliestDate($B11,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J11" s="3">
         <f>_xll.qlRateHelperLatestDate($B11,Trigger)</f>
-        <v>42079</v>
+        <v>42094</v>
       </c>
       <c r="K11" s="1">
         <v>30</v>
@@ -2971,7 +3045,7 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="149" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00353#0002</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -2979,7 +3053,7 @@
       </c>
       <c r="D12" s="6">
         <f>_xll.qlRateHelperQuoteValue($B12,Trigger)</f>
-        <v>7.0081000000000006E-3</v>
+        <v>6.9074999999999996E-3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="74" t="b">
@@ -2993,11 +3067,11 @@
       </c>
       <c r="I12" s="4">
         <f>_xll.qlRateHelperEarliestDate($B12,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J12" s="3">
         <f>_xll.qlRateHelperLatestDate($B12,Trigger)</f>
-        <v>42108</v>
+        <v>42124</v>
       </c>
       <c r="K12" s="1">
         <v>40</v>
@@ -3010,7 +3084,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="149" t="str">
         <f>Deposits!J14</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035f#0002</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -3018,7 +3092,7 @@
       </c>
       <c r="D13" s="6">
         <f>_xll.qlRateHelperQuoteValue($B13,Trigger)</f>
-        <v>7.5726989099999999E-3</v>
+        <v>7.42461475E-3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="74" t="b">
@@ -3032,11 +3106,11 @@
       </c>
       <c r="I13" s="4">
         <f>_xll.qlRateHelperEarliestDate($B13,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J13" s="3">
         <f>_xll.qlRateHelperLatestDate($B13,Trigger)</f>
-        <v>42138</v>
+        <v>42153</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -3049,7 +3123,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="149" t="str">
         <f>Deposits!J15</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00362#0002</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3057,7 +3131,7 @@
       </c>
       <c r="D14" s="6">
         <f>_xll.qlRateHelperQuoteValue($B14,Trigger)</f>
-        <v>8.0843666700000007E-3</v>
+        <v>7.9762038300000004E-3</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="74" t="b">
@@ -3071,11 +3145,11 @@
       </c>
       <c r="I14" s="4">
         <f>_xll.qlRateHelperEarliestDate($B14,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J14" s="3">
         <f>_xll.qlRateHelperLatestDate($B14,Trigger)</f>
-        <v>42170</v>
+        <v>42185</v>
       </c>
       <c r="K14" s="1">
         <v>60</v>
@@ -3088,7 +3162,7 @@
     <row r="15" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="149" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0035c#0002</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3096,7 +3170,7 @@
       </c>
       <c r="D15" s="6">
         <f>_xll.qlRateHelperQuoteValue($B15,Trigger)</f>
-        <v>8.6136781399999991E-3</v>
+        <v>8.4760814199999999E-3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="74" t="b">
@@ -3110,17 +3184,17 @@
       </c>
       <c r="I15" s="4">
         <f>_xll.qlRateHelperEarliestDate($B15,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J15" s="3">
         <f>_xll.qlRateHelperLatestDate($B15,Trigger)</f>
-        <v>42199</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="149" t="str">
         <f>Deposits!J17</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00361#0002</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3128,7 +3202,7 @@
       </c>
       <c r="D16" s="6">
         <f>_xll.qlRateHelperQuoteValue($B16,Trigger)</f>
-        <v>9.1782770499999992E-3</v>
+        <v>9.0104333299999995E-3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="74" t="b">
@@ -3142,17 +3216,17 @@
       </c>
       <c r="I16" s="4">
         <f>_xll.qlRateHelperEarliestDate($B16,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J16" s="3">
         <f>_xll.qlRateHelperLatestDate($B16,Trigger)</f>
-        <v>42230</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="149" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035a#0002</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3160,7 +3234,7 @@
       </c>
       <c r="D17" s="6">
         <f>_xll.qlRateHelperQuoteValue($B17,Trigger)</f>
-        <v>9.7075885199999993E-3</v>
+        <v>9.5447852499999999E-3</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="74" t="b">
@@ -3174,17 +3248,17 @@
       </c>
       <c r="I17" s="4">
         <f>_xll.qlRateHelperEarliestDate($B17,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J17" s="3">
         <f>_xll.qlRateHelperLatestDate($B17,Trigger)</f>
-        <v>42261</v>
+        <v>42277</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="149" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00355#0001</v>
+        <v>obj_0034f#0002</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3192,7 +3266,7 @@
       </c>
       <c r="D18" s="6">
         <f>_xll.qlRateHelperQuoteValue($B18,Trigger)</f>
-        <v>1.02369E-2</v>
+        <v>1.0061899999999999E-2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="74" t="b">
@@ -3206,11 +3280,11 @@
       </c>
       <c r="I18" s="4">
         <f>_xll.qlRateHelperEarliestDate($B18,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J18" s="3">
         <f>_xll.qlRateHelperLatestDate($B18,Trigger)</f>
-        <v>42291</v>
+        <v>42307</v>
       </c>
       <c r="K18" s="1">
         <v>70</v>
@@ -3223,7 +3297,7 @@
     <row r="19" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="149" t="str">
         <f>Deposits!J20</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_003b4#0002</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3231,7 +3305,7 @@
       </c>
       <c r="D19" s="6">
         <f>_xll.qlRateHelperQuoteValue($B19,Trigger)</f>
-        <v>8.10201038E-3</v>
+        <v>7.6486978100000005E-3</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="74" t="b">
@@ -3245,7 +3319,7 @@
       </c>
       <c r="I19" s="4">
         <f>_xll.qlRateHelperEarliestDate($B19,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J19" s="3">
         <f>_xll.qlRateHelperLatestDate($B19,Trigger)</f>
@@ -3258,11 +3332,11 @@
       </c>
       <c r="B20" s="150" t="str">
         <f>Futures!H3</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00370#0002</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
-        <v>GBPFUT3MV4_Quote</v>
+        <v>GBPFUT3MX4_Quote</v>
       </c>
       <c r="D20" s="147" t="e">
         <f>_xll.qlRateHelperQuoteValue($B20,Trigger)</f>
@@ -3283,11 +3357,11 @@
       </c>
       <c r="I20" s="11">
         <f>_xll.qlRateHelperEarliestDate($B20,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="J20" s="10">
         <f>_xll.qlRateHelperLatestDate($B20,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
       <c r="M20" s="185"/>
     </row>
@@ -3297,15 +3371,15 @@
       </c>
       <c r="B21" s="149" t="str">
         <f>Futures!H4</f>
-        <v>obj_00386#0001</v>
+        <v>obj_003a3#0002</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
-        <v>GBPFUT3MX4_Quote</v>
-      </c>
-      <c r="D21" s="16" t="e">
+        <v>GBPFUT3MZ4_Quote</v>
+      </c>
+      <c r="D21" s="16">
         <f>_xll.qlRateHelperQuoteValue($B21,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.425000000000011</v>
       </c>
       <c r="E21" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B21,Trigger)</f>
@@ -3322,11 +3396,11 @@
       </c>
       <c r="I21" s="4">
         <f>_xll.qlRateHelperEarliestDate($B21,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="J21" s="3">
         <f>_xll.qlRateHelperLatestDate($B21,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
       <c r="M21" s="185"/>
     </row>
@@ -3336,11 +3410,11 @@
       </c>
       <c r="B22" s="149" t="str">
         <f>Futures!H5</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_00368#0002</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
-        <v>GBPFUT3MZ4_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="D22" s="16">
         <f>_xll.qlRateHelperQuoteValue($B22,Trigger)</f>
@@ -3361,11 +3435,11 @@
       </c>
       <c r="I22" s="4">
         <f>_xll.qlRateHelperEarliestDate($B22,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="J22" s="3">
         <f>_xll.qlRateHelperLatestDate($B22,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
       <c r="M22" s="185"/>
     </row>
@@ -3375,11 +3449,11 @@
       </c>
       <c r="B23" s="149" t="str">
         <f>Futures!H6</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003a5#0002</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
-        <v>GBPFUT3MF5_Quote</v>
+        <v>GBPFUT3MG5_Quote</v>
       </c>
       <c r="D23" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B23,Trigger)</f>
@@ -3400,11 +3474,11 @@
       </c>
       <c r="I23" s="4">
         <f>_xll.qlRateHelperEarliestDate($B23,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="J23" s="3">
         <f>_xll.qlRateHelperLatestDate($B23,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="M23" s="185"/>
     </row>
@@ -3414,15 +3488,15 @@
       </c>
       <c r="B24" s="149" t="str">
         <f>Futures!H7</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003b3#0002</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
-        <v>GBPFUT3MG5_Quote</v>
-      </c>
-      <c r="D24" s="16" t="e">
+        <v>GBPFUT3MH5_Quote</v>
+      </c>
+      <c r="D24" s="16">
         <f>_xll.qlRateHelperQuoteValue($B24,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.335000000000008</v>
       </c>
       <c r="E24" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
@@ -3439,11 +3513,11 @@
       </c>
       <c r="I24" s="4">
         <f>_xll.qlRateHelperEarliestDate($B24,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="J24" s="3">
         <f>_xll.qlRateHelperLatestDate($B24,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
       <c r="M24" s="185"/>
     </row>
@@ -3453,15 +3527,15 @@
       </c>
       <c r="B25" s="149" t="str">
         <f>Futures!H8</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00391#0002</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B25)</f>
-        <v>GBPFUT3MH5_Quote</v>
+        <v>GBPFUT3MJ5_Quote</v>
       </c>
       <c r="D25" s="16">
         <f>_xll.qlRateHelperQuoteValue($B25,Trigger)</f>
-        <v>99.335000000000008</v>
+        <v>99.344999999999999</v>
       </c>
       <c r="E25" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3478,11 +3552,11 @@
       </c>
       <c r="I25" s="4">
         <f>_xll.qlRateHelperEarliestDate($B25,Trigger)</f>
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="J25" s="3">
         <f>_xll.qlRateHelperLatestDate($B25,Trigger)</f>
-        <v>42173</v>
+        <v>42200</v>
       </c>
       <c r="M25" s="185"/>
     </row>
@@ -3492,11 +3566,11 @@
       </c>
       <c r="B26" s="149" t="str">
         <f>Futures!H9</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_00386#0002</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B26)</f>
-        <v>GBPFUT3MJ5_Quote</v>
+        <v>GBPFUT3MK5_Quote</v>
       </c>
       <c r="D26" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B26,Trigger)</f>
@@ -3517,11 +3591,11 @@
       </c>
       <c r="I26" s="4">
         <f>_xll.qlRateHelperEarliestDate($B26,Trigger)</f>
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="J26" s="3">
         <f>_xll.qlRateHelperLatestDate($B26,Trigger)</f>
-        <v>42200</v>
+        <v>42236</v>
       </c>
       <c r="M26" s="185"/>
     </row>
@@ -3531,19 +3605,19 @@
       </c>
       <c r="B27" s="149" t="str">
         <f>Futures!H10</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_003a6#0002</v>
       </c>
       <c r="C27" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B27)</f>
-        <v>GBPFUT3MK5_Quote</v>
-      </c>
-      <c r="D27" s="16" t="e">
+        <v>GBPFUT3MM5_Quote</v>
+      </c>
+      <c r="D27" s="16">
         <f>_xll.qlRateHelperQuoteValue($B27,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.215000000000003</v>
       </c>
       <c r="E27" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F27" s="74" t="b">
         <v>1</v>
@@ -3556,11 +3630,11 @@
       </c>
       <c r="I27" s="4">
         <f>_xll.qlRateHelperEarliestDate($B27,Trigger)</f>
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="J27" s="3">
         <f>_xll.qlRateHelperLatestDate($B27,Trigger)</f>
-        <v>42236</v>
+        <v>42264</v>
       </c>
       <c r="M27" s="185"/>
     </row>
@@ -3570,11 +3644,11 @@
       </c>
       <c r="B28" s="149" t="str">
         <f>Futures!H11</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_003aa#0002</v>
       </c>
       <c r="C28" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B28)</f>
-        <v>GBPFUT3MM5_Quote</v>
+        <v>GBPFUT3MN5_Quote</v>
       </c>
       <c r="D28" s="16">
         <f>_xll.qlRateHelperQuoteValue($B28,Trigger)</f>
@@ -3582,7 +3656,7 @@
       </c>
       <c r="E28" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="74" t="b">
         <v>1</v>
@@ -3595,11 +3669,11 @@
       </c>
       <c r="I28" s="4">
         <f>_xll.qlRateHelperEarliestDate($B28,Trigger)</f>
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="J28" s="3">
         <f>_xll.qlRateHelperLatestDate($B28,Trigger)</f>
-        <v>42264</v>
+        <v>42292</v>
       </c>
       <c r="L28" s="73"/>
       <c r="M28" s="185"/>
@@ -3610,11 +3684,11 @@
       </c>
       <c r="B29" s="149" t="str">
         <f>Futures!H12</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0038a#0002</v>
       </c>
       <c r="C29" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B29)</f>
-        <v>GBPFUT3MN5_Quote</v>
+        <v>GBPFUT3MQ5_Quote</v>
       </c>
       <c r="D29" s="16" t="e">
         <f>_xll.qlRateHelperQuoteValue($B29,Trigger)</f>
@@ -3635,11 +3709,11 @@
       </c>
       <c r="I29" s="4">
         <f>_xll.qlRateHelperEarliestDate($B29,Trigger)</f>
-        <v>42200</v>
+        <v>42235</v>
       </c>
       <c r="J29" s="3">
         <f>_xll.qlRateHelperLatestDate($B29,Trigger)</f>
-        <v>42292</v>
+        <v>42327</v>
       </c>
       <c r="L29" s="73"/>
       <c r="M29" s="185"/>
@@ -3650,19 +3724,19 @@
       </c>
       <c r="B30" s="149" t="str">
         <f>Futures!H13</f>
-        <v>obj_00388#0001</v>
+        <v>obj_00383#0002</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B30)</f>
-        <v>GBPFUT3MQ5_Quote</v>
-      </c>
-      <c r="D30" s="16" t="e">
+        <v>GBPFUT3MU5_Quote</v>
+      </c>
+      <c r="D30" s="16">
         <f>_xll.qlRateHelperQuoteValue($B30,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.045000000000002</v>
       </c>
       <c r="E30" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
-        <v>0</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="F30" s="74" t="b">
         <v>1</v>
@@ -3675,11 +3749,11 @@
       </c>
       <c r="I30" s="4">
         <f>_xll.qlRateHelperEarliestDate($B30,Trigger)</f>
-        <v>42235</v>
+        <v>42263</v>
       </c>
       <c r="J30" s="3">
         <f>_xll.qlRateHelperLatestDate($B30,Trigger)</f>
-        <v>42327</v>
+        <v>42354</v>
       </c>
       <c r="L30" s="73"/>
       <c r="M30" s="185"/>
@@ -3690,19 +3764,19 @@
       </c>
       <c r="B31" s="149" t="str">
         <f>Futures!H14</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0036b#0002</v>
       </c>
       <c r="C31" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B31)</f>
-        <v>GBPFUT3MU5_Quote</v>
+        <v>GBPFUT3MV5_Quote</v>
       </c>
       <c r="D31" s="16">
         <f>_xll.qlRateHelperQuoteValue($B31,Trigger)</f>
-        <v>99.094999999999999</v>
+        <v>99.10499999999999</v>
       </c>
       <c r="E31" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
-        <v>6.4999999999999994E-5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="74" t="b">
         <v>1</v>
@@ -3715,11 +3789,11 @@
       </c>
       <c r="I31" s="4">
         <f>_xll.qlRateHelperEarliestDate($B31,Trigger)</f>
-        <v>42263</v>
+        <v>42298</v>
       </c>
       <c r="J31" s="3">
         <f>_xll.qlRateHelperLatestDate($B31,Trigger)</f>
-        <v>42354</v>
+        <v>42390</v>
       </c>
       <c r="L31" s="73"/>
       <c r="M31" s="185"/>
@@ -3730,7 +3804,7 @@
       </c>
       <c r="B32" s="149" t="str">
         <f>Futures!H15</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_003ab#0002</v>
       </c>
       <c r="C32" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B32)</f>
@@ -3738,7 +3812,7 @@
       </c>
       <c r="D32" s="16">
         <f>_xll.qlRateHelperQuoteValue($B32,Trigger)</f>
-        <v>98.954999999999998</v>
+        <v>98.875</v>
       </c>
       <c r="E32" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3771,7 +3845,7 @@
       </c>
       <c r="B33" s="149" t="str">
         <f>Futures!H16</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0036e#0002</v>
       </c>
       <c r="C33" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B33)</f>
@@ -3779,7 +3853,7 @@
       </c>
       <c r="D33" s="16">
         <f>_xll.qlRateHelperQuoteValue($B33,Trigger)</f>
-        <v>98.814999999999998</v>
+        <v>98.704999999999998</v>
       </c>
       <c r="E33" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3812,7 +3886,7 @@
       </c>
       <c r="B34" s="149" t="str">
         <f>Futures!H17</f>
-        <v>obj_00372#0001</v>
+        <v>obj_0036f#0002</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B34)</f>
@@ -3820,7 +3894,7 @@
       </c>
       <c r="D34" s="16">
         <f>_xll.qlRateHelperQuoteValue($B34,Trigger)</f>
-        <v>98.685000000000002</v>
+        <v>98.545000000000002</v>
       </c>
       <c r="E34" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B34,Trigger)</f>
@@ -3853,7 +3927,7 @@
       </c>
       <c r="B35" s="149" t="str">
         <f>Futures!H18</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_00387#0002</v>
       </c>
       <c r="C35" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B35)</f>
@@ -3861,7 +3935,7 @@
       </c>
       <c r="D35" s="16">
         <f>_xll.qlRateHelperQuoteValue($B35,Trigger)</f>
-        <v>98.534999999999997</v>
+        <v>98.39500000000001</v>
       </c>
       <c r="E35" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B35,Trigger)</f>
@@ -3894,7 +3968,7 @@
       </c>
       <c r="B36" s="149" t="str">
         <f>Futures!H19</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0037f#0002</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B36)</f>
@@ -3902,7 +3976,7 @@
       </c>
       <c r="D36" s="16">
         <f>_xll.qlRateHelperQuoteValue($B36,Trigger)</f>
-        <v>98.414999999999992</v>
+        <v>98.245000000000005</v>
       </c>
       <c r="E36" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3935,7 +4009,7 @@
       </c>
       <c r="B37" s="149" t="str">
         <f>Futures!H20</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003b0#0002</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B37)</f>
@@ -3943,7 +4017,7 @@
       </c>
       <c r="D37" s="16">
         <f>_xll.qlRateHelperQuoteValue($B37,Trigger)</f>
-        <v>98.305000000000007</v>
+        <v>98.125</v>
       </c>
       <c r="E37" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3976,7 +4050,7 @@
       </c>
       <c r="B38" s="149" t="str">
         <f>Futures!H21</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_00390#0002</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B38)</f>
@@ -3984,7 +4058,7 @@
       </c>
       <c r="D38" s="16">
         <f>_xll.qlRateHelperQuoteValue($B38,Trigger)</f>
-        <v>98.194999999999993</v>
+        <v>98.004999999999995</v>
       </c>
       <c r="E38" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -4017,7 +4091,7 @@
       </c>
       <c r="B39" s="149" t="str">
         <f>Futures!H22</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_0038f#0002</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B39)</f>
@@ -4025,7 +4099,7 @@
       </c>
       <c r="D39" s="16">
         <f>_xll.qlRateHelperQuoteValue($B39,Trigger)</f>
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="E39" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4058,7 +4132,7 @@
       </c>
       <c r="B40" s="149" t="str">
         <f>Futures!H23</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00395#0002</v>
       </c>
       <c r="C40" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B40)</f>
@@ -4066,7 +4140,7 @@
       </c>
       <c r="D40" s="16">
         <f>_xll.qlRateHelperQuoteValue($B40,Trigger)</f>
-        <v>98.015000000000001</v>
+        <v>97.814999999999998</v>
       </c>
       <c r="E40" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4099,7 +4173,7 @@
       </c>
       <c r="B41" s="149" t="str">
         <f>Futures!H24</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00365#0002</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B41)</f>
@@ -4107,7 +4181,7 @@
       </c>
       <c r="D41" s="16">
         <f>_xll.qlRateHelperQuoteValue($B41,Trigger)</f>
-        <v>97.935000000000002</v>
+        <v>97.740000000000009</v>
       </c>
       <c r="E41" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4140,7 +4214,7 @@
       </c>
       <c r="B42" s="149" t="str">
         <f>Futures!H25</f>
-        <v>obj_00398#0001</v>
+        <v>obj_00385#0002</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B42)</f>
@@ -4148,7 +4222,7 @@
       </c>
       <c r="D42" s="16">
         <f>_xll.qlRateHelperQuoteValue($B42,Trigger)</f>
-        <v>97.86</v>
+        <v>97.67</v>
       </c>
       <c r="E42" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4181,7 +4255,7 @@
       </c>
       <c r="B43" s="149" t="str">
         <f>Futures!H26</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_0037e#0002</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B43)</f>
@@ -4189,7 +4263,7 @@
       </c>
       <c r="D43" s="16">
         <f>_xll.qlRateHelperQuoteValue($B43,Trigger)</f>
-        <v>97.795000000000002</v>
+        <v>97.60499999999999</v>
       </c>
       <c r="E43" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4222,7 +4296,7 @@
       </c>
       <c r="B44" s="149" t="str">
         <f>Futures!H27</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_003b2#0002</v>
       </c>
       <c r="C44" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B44)</f>
@@ -4230,7 +4304,7 @@
       </c>
       <c r="D44" s="16">
         <f>_xll.qlRateHelperQuoteValue($B44,Trigger)</f>
-        <v>97.740000000000009</v>
+        <v>97.545000000000002</v>
       </c>
       <c r="E44" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B44,Trigger)</f>
@@ -4263,7 +4337,7 @@
       </c>
       <c r="B45" s="149" t="str">
         <f>Futures!H28</f>
-        <v>obj_00376#0001</v>
+        <v>obj_003b1#0002</v>
       </c>
       <c r="C45" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B45)</f>
@@ -4271,7 +4345,7 @@
       </c>
       <c r="D45" s="16">
         <f>_xll.qlRateHelperQuoteValue($B45,Trigger)</f>
-        <v>97.694999999999993</v>
+        <v>97.484999999999999</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B45,Trigger)</f>
@@ -4304,7 +4378,7 @@
       </c>
       <c r="B46" s="149" t="str">
         <f>Futures!H29</f>
-        <v>obj_00396#0001</v>
+        <v>obj_0037d#0002</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B46)</f>
@@ -4312,7 +4386,7 @@
       </c>
       <c r="D46" s="16">
         <f>_xll.qlRateHelperQuoteValue($B46,Trigger)</f>
-        <v>97.65</v>
+        <v>97.425000000000011</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B46,Trigger)</f>
@@ -4345,7 +4419,7 @@
       </c>
       <c r="B47" s="149" t="str">
         <f>Futures!H30</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_00374#0002</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B47)</f>
@@ -4353,7 +4427,7 @@
       </c>
       <c r="D47" s="16">
         <f>_xll.qlRateHelperQuoteValue($B47,Trigger)</f>
-        <v>97.61</v>
+        <v>97.38</v>
       </c>
       <c r="E47" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B47,Trigger)</f>
@@ -4386,7 +4460,7 @@
       </c>
       <c r="B48" s="149" t="str">
         <f>Futures!H31</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00366#0002</v>
       </c>
       <c r="C48" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B48)</f>
@@ -4394,7 +4468,7 @@
       </c>
       <c r="D48" s="16">
         <f>_xll.qlRateHelperQuoteValue($B48,Trigger)</f>
-        <v>97.575000000000003</v>
+        <v>97.335000000000008</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B48,Trigger)</f>
@@ -4425,7 +4499,7 @@
       </c>
       <c r="B49" s="149" t="str">
         <f>Futures!H32</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0039b#0002</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B49)</f>
@@ -4433,7 +4507,7 @@
       </c>
       <c r="D49" s="16">
         <f>_xll.qlRateHelperQuoteValue($B49,Trigger)</f>
-        <v>97.555000000000007</v>
+        <v>97.3</v>
       </c>
       <c r="E49" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($B49,Trigger)</f>
@@ -4464,7 +4538,7 @@
       </c>
       <c r="B50" s="149" t="str">
         <f>Futures!H33</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00376#0002</v>
       </c>
       <c r="C50" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B50)</f>
@@ -4503,7 +4577,7 @@
       </c>
       <c r="B51" s="149" t="str">
         <f>Futures!H34</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_00372#0002</v>
       </c>
       <c r="C51" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B51)</f>
@@ -4542,7 +4616,7 @@
       </c>
       <c r="B52" s="149" t="str">
         <f>Futures!H35</f>
-        <v>obj_00390#0001</v>
+        <v>obj_00384#0002</v>
       </c>
       <c r="C52" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B52)</f>
@@ -4581,7 +4655,7 @@
       </c>
       <c r="B53" s="149" t="str">
         <f>Futures!H36</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0039f#0002</v>
       </c>
       <c r="C53" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B53)</f>
@@ -4620,7 +4694,7 @@
       </c>
       <c r="B54" s="149" t="str">
         <f>Futures!H37</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00389#0002</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B54)</f>
@@ -4659,7 +4733,7 @@
       </c>
       <c r="B55" s="149" t="str">
         <f>Futures!H38</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00396#0002</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B55)</f>
@@ -4698,7 +4772,7 @@
       </c>
       <c r="B56" s="149" t="str">
         <f>Futures!H39</f>
-        <v>obj_00393#0001</v>
+        <v>obj_003a8#0002</v>
       </c>
       <c r="C56" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B56)</f>
@@ -4737,7 +4811,7 @@
       </c>
       <c r="B57" s="149" t="str">
         <f>Futures!H40</f>
-        <v>obj_00399#0001</v>
+        <v>obj_0038e#0002</v>
       </c>
       <c r="C57" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B57)</f>
@@ -4776,7 +4850,7 @@
       </c>
       <c r="B58" s="149" t="str">
         <f>Futures!H41</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00367#0002</v>
       </c>
       <c r="C58" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B58)</f>
@@ -4815,7 +4889,7 @@
       </c>
       <c r="B59" s="149" t="str">
         <f>Futures!H42</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_0037a#0002</v>
       </c>
       <c r="C59" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B59)</f>
@@ -4854,7 +4928,7 @@
       </c>
       <c r="B60" s="149" t="str">
         <f>Futures!H43</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00398#0002</v>
       </c>
       <c r="C60" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B60)</f>
@@ -4893,7 +4967,7 @@
       </c>
       <c r="B61" s="149" t="str">
         <f>Futures!H44</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00392#0002</v>
       </c>
       <c r="C61" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B61)</f>
@@ -4931,7 +5005,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" s="150" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00380#0001</v>
+        <v>obj_00382#0002</v>
       </c>
       <c r="C62" s="14" t="str">
         <f>_xll.qlRateHelperQuoteName(B62)</f>
@@ -4956,17 +5030,17 @@
       </c>
       <c r="I62" s="11">
         <f>_xll.qlRateHelperEarliestDate($B62,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J62" s="10">
         <f>_xll.qlRateHelperLatestDate($B62,Trigger)</f>
-        <v>42291</v>
+        <v>42307</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" s="149" t="str">
         <f>Swaps!K7</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_003a4#0002</v>
       </c>
       <c r="C63" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B63)</f>
@@ -4991,17 +5065,17 @@
       </c>
       <c r="I63" s="4">
         <f>_xll.qlRateHelperEarliestDate($B63,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J63" s="3">
         <f>_xll.qlRateHelperLatestDate($B63,Trigger)</f>
-        <v>42383</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" s="149" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00385#0001</v>
+        <v>obj_003a0#0002</v>
       </c>
       <c r="C64" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B64)</f>
@@ -5009,7 +5083,7 @@
       </c>
       <c r="D64" s="6">
         <f>_xll.qlRateHelperQuoteValue($B64,Trigger)</f>
-        <v>8.8500000000000002E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E64" s="6">
         <f>_xll.qlSwapRateHelperSpread($B64,Trigger)</f>
@@ -5026,17 +5100,17 @@
       </c>
       <c r="I64" s="4">
         <f>_xll.qlRateHelperEarliestDate($B64,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J64" s="3">
         <f>_xll.qlRateHelperLatestDate($B64,Trigger)</f>
-        <v>42474</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="149" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_0037c#0002</v>
       </c>
       <c r="C65" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B65)</f>
@@ -5061,17 +5135,17 @@
       </c>
       <c r="I65" s="4">
         <f>_xll.qlRateHelperEarliestDate($B65,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J65" s="3">
         <f>_xll.qlRateHelperLatestDate($B65,Trigger)</f>
-        <v>42565</v>
+        <v>42580</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="149" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00384#0001</v>
+        <v>obj_0039c#0002</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B66)</f>
@@ -5079,7 +5153,7 @@
       </c>
       <c r="D66" s="6">
         <f>_xll.qlRateHelperQuoteValue($B66,Trigger)</f>
-        <v>1.0049999999999998E-2</v>
+        <v>1.081E-2</v>
       </c>
       <c r="E66" s="6">
         <f>_xll.qlSwapRateHelperSpread($B66,Trigger)</f>
@@ -5096,17 +5170,17 @@
       </c>
       <c r="I66" s="4">
         <f>_xll.qlRateHelperEarliestDate($B66,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J66" s="3">
         <f>_xll.qlRateHelperLatestDate($B66,Trigger)</f>
-        <v>42657</v>
+        <v>42674</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="149" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0038c#0002</v>
       </c>
       <c r="C67" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B67)</f>
@@ -5114,7 +5188,7 @@
       </c>
       <c r="D67" s="6">
         <f>_xll.qlRateHelperQuoteValue($B67,Trigger)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.3610000000000001E-2</v>
       </c>
       <c r="E67" s="6">
         <f>_xll.qlSwapRateHelperSpread($B67,Trigger)</f>
@@ -5131,17 +5205,17 @@
       </c>
       <c r="I67" s="4">
         <f>_xll.qlRateHelperEarliestDate($B67,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J67" s="3">
         <f>_xll.qlRateHelperLatestDate($B67,Trigger)</f>
-        <v>43024</v>
+        <v>43039</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="149" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_00399#0002</v>
       </c>
       <c r="C68" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B68)</f>
@@ -5149,7 +5223,7 @@
       </c>
       <c r="D68" s="6">
         <f>_xll.qlRateHelperQuoteValue($B68,Trigger)</f>
-        <v>1.455E-2</v>
+        <v>1.584E-2</v>
       </c>
       <c r="E68" s="6">
         <f>_xll.qlSwapRateHelperSpread($B68,Trigger)</f>
@@ -5166,17 +5240,17 @@
       </c>
       <c r="I68" s="4">
         <f>_xll.qlRateHelperEarliestDate($B68,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J68" s="3">
         <f>_xll.qlRateHelperLatestDate($B68,Trigger)</f>
-        <v>43388</v>
+        <v>43404</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="149" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00381#0002</v>
       </c>
       <c r="C69" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B69)</f>
@@ -5184,7 +5258,7 @@
       </c>
       <c r="D69" s="6">
         <f>_xll.qlRateHelperQuoteValue($B69,Trigger)</f>
-        <v>1.6209999999999999E-2</v>
+        <v>1.762E-2</v>
       </c>
       <c r="E69" s="6">
         <f>_xll.qlSwapRateHelperSpread($B69,Trigger)</f>
@@ -5201,17 +5275,17 @@
       </c>
       <c r="I69" s="4">
         <f>_xll.qlRateHelperEarliestDate($B69,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J69" s="3">
         <f>_xll.qlRateHelperLatestDate($B69,Trigger)</f>
-        <v>43752</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="149" t="str">
         <f>Swaps!K14</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_003af#0002</v>
       </c>
       <c r="C70" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B70)</f>
@@ -5219,7 +5293,7 @@
       </c>
       <c r="D70" s="6">
         <f>_xll.qlRateHelperQuoteValue($B70,Trigger)</f>
-        <v>1.7650000000000002E-2</v>
+        <v>1.9049999999999997E-2</v>
       </c>
       <c r="E70" s="6">
         <f>_xll.qlSwapRateHelperSpread($B70,Trigger)</f>
@@ -5236,17 +5310,17 @@
       </c>
       <c r="I70" s="4">
         <f>_xll.qlRateHelperEarliestDate($B70,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J70" s="3">
         <f>_xll.qlRateHelperLatestDate($B70,Trigger)</f>
-        <v>44118</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="149" t="str">
         <f>Swaps!K15</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0036a#0002</v>
       </c>
       <c r="C71" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B71)</f>
@@ -5254,7 +5328,7 @@
       </c>
       <c r="D71" s="6">
         <f>_xll.qlRateHelperQuoteValue($B71,Trigger)</f>
-        <v>1.8919999999999999E-2</v>
+        <v>2.0259999999999997E-2</v>
       </c>
       <c r="E71" s="6">
         <f>_xll.qlSwapRateHelperSpread($B71,Trigger)</f>
@@ -5271,18 +5345,18 @@
       </c>
       <c r="I71" s="4">
         <f>_xll.qlRateHelperEarliestDate($B71,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J71" s="3">
         <f>_xll.qlRateHelperLatestDate($B71,Trigger)</f>
-        <v>44483</v>
+        <v>44498</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="149" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_003ac#0002</v>
       </c>
       <c r="C72" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B72)</f>
@@ -5290,7 +5364,7 @@
       </c>
       <c r="D72" s="6">
         <f>_xll.qlRateHelperQuoteValue($B72,Trigger)</f>
-        <v>2.0030000000000003E-2</v>
+        <v>2.1310000000000003E-2</v>
       </c>
       <c r="E72" s="6">
         <f>_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5307,18 +5381,18 @@
       </c>
       <c r="I72" s="4">
         <f>_xll.qlRateHelperEarliestDate($B72,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J72" s="3">
         <f>_xll.qlRateHelperLatestDate($B72,Trigger)</f>
-        <v>44848</v>
+        <v>44865</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="149" t="str">
         <f>Swaps!K17</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_0036d#0002</v>
       </c>
       <c r="C73" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B73)</f>
@@ -5326,7 +5400,7 @@
       </c>
       <c r="D73" s="6">
         <f>_xll.qlRateHelperQuoteValue($B73,Trigger)</f>
-        <v>2.1019999999999997E-2</v>
+        <v>2.2240000000000003E-2</v>
       </c>
       <c r="E73" s="6">
         <f>_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5343,18 +5417,18 @@
       </c>
       <c r="I73" s="4">
         <f>_xll.qlRateHelperEarliestDate($B73,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J73" s="3">
         <f>_xll.qlRateHelperLatestDate($B73,Trigger)</f>
-        <v>45215</v>
+        <v>45230</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="149" t="str">
         <f>Swaps!K18</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_00388#0002</v>
       </c>
       <c r="C74" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B74)</f>
@@ -5362,7 +5436,7 @@
       </c>
       <c r="D74" s="6">
         <f>_xll.qlRateHelperQuoteValue($B74,Trigger)</f>
-        <v>2.1899999999999999E-2</v>
+        <v>2.3040000000000001E-2</v>
       </c>
       <c r="E74" s="6">
         <f>_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5379,18 +5453,18 @@
       </c>
       <c r="I74" s="4">
         <f>_xll.qlRateHelperEarliestDate($B74,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J74" s="3">
         <f>_xll.qlRateHelperLatestDate($B74,Trigger)</f>
-        <v>45579</v>
+        <v>45596</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="149" t="str">
         <f>Swaps!K19</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003ad#0002</v>
       </c>
       <c r="C75" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B75)</f>
@@ -5398,7 +5472,7 @@
       </c>
       <c r="D75" s="6">
         <f>_xll.qlRateHelperQuoteValue($B75,Trigger)</f>
-        <v>2.2610000000000002E-2</v>
+        <v>2.3760000000000003E-2</v>
       </c>
       <c r="E75" s="6">
         <f>_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5415,18 +5489,18 @@
       </c>
       <c r="I75" s="4">
         <f>_xll.qlRateHelperEarliestDate($B75,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J75" s="3">
         <f>_xll.qlRateHelperLatestDate($B75,Trigger)</f>
-        <v>45944</v>
+        <v>45961</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="149" t="str">
         <f>Swaps!K20</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_0039a#0002</v>
       </c>
       <c r="C76" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B76)</f>
@@ -5434,7 +5508,7 @@
       </c>
       <c r="D76" s="6">
         <f>_xll.qlRateHelperQuoteValue($B76,Trigger)</f>
-        <v>2.3220000000000001E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="E76" s="6">
         <f>_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5451,18 +5525,18 @@
       </c>
       <c r="I76" s="4">
         <f>_xll.qlRateHelperEarliestDate($B76,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J76" s="3">
         <f>_xll.qlRateHelperLatestDate($B76,Trigger)</f>
-        <v>46309</v>
+        <v>46325</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="149" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_003a1#0002</v>
       </c>
       <c r="C77" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B77)</f>
@@ -5487,18 +5561,18 @@
       </c>
       <c r="I77" s="4">
         <f>_xll.qlRateHelperEarliestDate($B77,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J77" s="3">
         <f>_xll.qlRateHelperLatestDate($B77,Trigger)</f>
-        <v>46674</v>
+        <v>46689</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="149" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00394#0002</v>
       </c>
       <c r="C78" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B78)</f>
@@ -5523,18 +5597,18 @@
       </c>
       <c r="I78" s="4">
         <f>_xll.qlRateHelperEarliestDate($B78,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J78" s="3">
         <f>_xll.qlRateHelperLatestDate($B78,Trigger)</f>
-        <v>47042</v>
+        <v>47057</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="149" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00378#0002</v>
       </c>
       <c r="C79" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B79)</f>
@@ -5542,7 +5616,7 @@
       </c>
       <c r="D79" s="6">
         <f>_xll.qlRateHelperQuoteValue($B79,Trigger)</f>
-        <v>2.4580000000000001E-2</v>
+        <v>2.5700000000000004E-2</v>
       </c>
       <c r="E79" s="6">
         <f>_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5559,18 +5633,18 @@
       </c>
       <c r="I79" s="4">
         <f>_xll.qlRateHelperEarliestDate($B79,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J79" s="3">
         <f>_xll.qlRateHelperLatestDate($B79,Trigger)</f>
-        <v>47406</v>
+        <v>47422</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="149" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00377#0002</v>
       </c>
       <c r="C80" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B80)</f>
@@ -5595,18 +5669,18 @@
       </c>
       <c r="I80" s="4">
         <f>_xll.qlRateHelperEarliestDate($B80,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J80" s="3">
         <f>_xll.qlRateHelperLatestDate($B80,Trigger)</f>
-        <v>47770</v>
+        <v>47787</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="149" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00380#0002</v>
       </c>
       <c r="C81" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B81)</f>
@@ -5631,18 +5705,18 @@
       </c>
       <c r="I81" s="4">
         <f>_xll.qlRateHelperEarliestDate($B81,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J81" s="3">
         <f>_xll.qlRateHelperLatestDate($B81,Trigger)</f>
-        <v>48135</v>
+        <v>48152</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="149" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_0036c#0002</v>
       </c>
       <c r="C82" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B82)</f>
@@ -5667,18 +5741,18 @@
       </c>
       <c r="I82" s="4">
         <f>_xll.qlRateHelperEarliestDate($B82,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J82" s="3">
         <f>_xll.qlRateHelperLatestDate($B82,Trigger)</f>
-        <v>48501</v>
+        <v>48516</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="149" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_003a2#0002</v>
       </c>
       <c r="C83" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B83)</f>
@@ -5703,18 +5777,18 @@
       </c>
       <c r="I83" s="4">
         <f>_xll.qlRateHelperEarliestDate($B83,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J83" s="3">
         <f>_xll.qlRateHelperLatestDate($B83,Trigger)</f>
-        <v>48866</v>
+        <v>48883</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="149" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_00371#0002</v>
       </c>
       <c r="C84" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B84)</f>
@@ -5722,7 +5796,7 @@
       </c>
       <c r="D84" s="6">
         <f>_xll.qlRateHelperQuoteValue($B84,Trigger)</f>
-        <v>2.589E-2</v>
+        <v>2.6920000000000003E-2</v>
       </c>
       <c r="E84" s="6">
         <f>_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5739,18 +5813,18 @@
       </c>
       <c r="I84" s="4">
         <f>_xll.qlRateHelperEarliestDate($B84,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J84" s="3">
         <f>_xll.qlRateHelperLatestDate($B84,Trigger)</f>
-        <v>49233</v>
+        <v>49248</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="149" t="str">
         <f>Swaps!K29</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0039d#0002</v>
       </c>
       <c r="C85" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B85)</f>
@@ -5775,18 +5849,18 @@
       </c>
       <c r="I85" s="4">
         <f>_xll.qlRateHelperEarliestDate($B85,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J85" s="3">
         <f>_xll.qlRateHelperLatestDate($B85,Trigger)</f>
-        <v>49597</v>
+        <v>49613</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="149" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00375#0001</v>
+        <v>obj_003ae#0002</v>
       </c>
       <c r="C86" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B86)</f>
@@ -5811,18 +5885,18 @@
       </c>
       <c r="I86" s="4">
         <f>_xll.qlRateHelperEarliestDate($B86,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J86" s="3">
         <f>_xll.qlRateHelperLatestDate($B86,Trigger)</f>
-        <v>49962</v>
+        <v>49979</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="149" t="str">
         <f>Swaps!K31</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_0039e#0002</v>
       </c>
       <c r="C87" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B87)</f>
@@ -5847,18 +5921,18 @@
       </c>
       <c r="I87" s="4">
         <f>_xll.qlRateHelperEarliestDate($B87,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J87" s="3">
         <f>_xll.qlRateHelperLatestDate($B87,Trigger)</f>
-        <v>50327</v>
+        <v>50343</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="149" t="str">
         <f>Swaps!K32</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003a7#0002</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B88)</f>
@@ -5883,18 +5957,18 @@
       </c>
       <c r="I88" s="4">
         <f>_xll.qlRateHelperEarliestDate($B88,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J88" s="3">
         <f>_xll.qlRateHelperLatestDate($B88,Trigger)</f>
-        <v>50692</v>
+        <v>50707</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="149" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00373#0002</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B89)</f>
@@ -5902,7 +5976,7 @@
       </c>
       <c r="D89" s="6">
         <f>_xll.qlRateHelperQuoteValue($B89,Trigger)</f>
-        <v>2.6380000000000001E-2</v>
+        <v>2.7320000000000001E-2</v>
       </c>
       <c r="E89" s="6">
         <f>_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5919,18 +5993,18 @@
       </c>
       <c r="I89" s="4">
         <f>_xll.qlRateHelperEarliestDate($B89,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J89" s="3">
         <f>_xll.qlRateHelperLatestDate($B89,Trigger)</f>
-        <v>51057</v>
+        <v>51074</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="149" t="str">
         <f>Swaps!K34</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00375#0002</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B90)</f>
@@ -5955,18 +6029,18 @@
       </c>
       <c r="I90" s="4">
         <f>_xll.qlRateHelperEarliestDate($B90,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J90" s="3">
         <f>_xll.qlRateHelperLatestDate($B90,Trigger)</f>
-        <v>51424</v>
+        <v>51440</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="149" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00379#0001</v>
+        <v>obj_0038b#0002</v>
       </c>
       <c r="C91" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B91)</f>
@@ -5991,18 +6065,18 @@
       </c>
       <c r="I91" s="4">
         <f>_xll.qlRateHelperEarliestDate($B91,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J91" s="3">
         <f>_xll.qlRateHelperLatestDate($B91,Trigger)</f>
-        <v>51788</v>
+        <v>51805</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="149" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_00397#0002</v>
       </c>
       <c r="C92" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B92)</f>
@@ -6027,18 +6101,18 @@
       </c>
       <c r="I92" s="4">
         <f>_xll.qlRateHelperEarliestDate($B92,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J92" s="3">
         <f>_xll.qlRateHelperLatestDate($B92,Trigger)</f>
-        <v>52153</v>
+        <v>52170</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="149" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00369#0002</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B93)</f>
@@ -6063,18 +6137,18 @@
       </c>
       <c r="I93" s="4">
         <f>_xll.qlRateHelperEarliestDate($B93,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J93" s="3">
         <f>_xll.qlRateHelperLatestDate($B93,Trigger)</f>
-        <v>52518</v>
+        <v>52534</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="149" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00366#0001</v>
+        <v>obj_0037b#0002</v>
       </c>
       <c r="C94" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B94)</f>
@@ -6082,7 +6156,7 @@
       </c>
       <c r="D94" s="6">
         <f>_xll.qlRateHelperQuoteValue($B94,Trigger)</f>
-        <v>2.6619999999999998E-2</v>
+        <v>2.7469999999999998E-2</v>
       </c>
       <c r="E94" s="6">
         <f>_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -6099,18 +6173,18 @@
       </c>
       <c r="I94" s="4">
         <f>_xll.qlRateHelperEarliestDate($B94,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J94" s="3">
         <f>_xll.qlRateHelperLatestDate($B94,Trigger)</f>
-        <v>52884</v>
+        <v>52901</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="149" t="str">
         <f>Swaps!K39</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_00393#0002</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B95)</f>
@@ -6135,18 +6209,18 @@
       </c>
       <c r="I95" s="4">
         <f>_xll.qlRateHelperEarliestDate($B95,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J95" s="3">
         <f>_xll.qlRateHelperLatestDate($B95,Trigger)</f>
-        <v>54710</v>
+        <v>54725</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="149" t="str">
         <f>Swaps!K40</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_003a9#0002</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B96)</f>
@@ -6154,7 +6228,7 @@
       </c>
       <c r="D96" s="6">
         <f>_xll.qlRateHelperQuoteValue($B96,Trigger)</f>
-        <v>2.6520000000000002E-2</v>
+        <v>2.7389999999999998E-2</v>
       </c>
       <c r="E96" s="6">
         <f>_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6171,18 +6245,18 @@
       </c>
       <c r="I96" s="4">
         <f>_xll.qlRateHelperEarliestDate($B96,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J96" s="3">
         <f>_xll.qlRateHelperLatestDate($B96,Trigger)</f>
-        <v>56536</v>
+        <v>56552</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="149" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00379#0002</v>
       </c>
       <c r="C97" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B97)</f>
@@ -6190,7 +6264,7 @@
       </c>
       <c r="D97" s="6">
         <f>_xll.qlRateHelperQuoteValue($B97,Trigger)</f>
-        <v>2.6520000000000002E-2</v>
+        <v>2.7389999999999998E-2</v>
       </c>
       <c r="E97" s="6">
         <f>_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6207,18 +6281,18 @@
       </c>
       <c r="I97" s="4">
         <f>_xll.qlRateHelperEarliestDate($B97,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J97" s="3">
         <f>_xll.qlRateHelperLatestDate($B97,Trigger)</f>
-        <v>60189</v>
+        <v>60206</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="151" t="str">
         <f>Swaps!K42</f>
-        <v>obj_00391#0001</v>
+        <v>obj_0038d#0002</v>
       </c>
       <c r="C98" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(B98)</f>
@@ -6226,7 +6300,7 @@
       </c>
       <c r="D98" s="6">
         <f>_xll.qlRateHelperQuoteValue($B98,Trigger)</f>
-        <v>2.665E-2</v>
+        <v>2.7519999999999999E-2</v>
       </c>
       <c r="E98" s="6">
         <f>_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6243,11 +6317,11 @@
       </c>
       <c r="I98" s="4">
         <f>_xll.qlRateHelperEarliestDate($B98,Trigger)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="J98" s="3">
         <f>_xll.qlRateHelperLatestDate($B98,Trigger)</f>
-        <v>63842</v>
+        <v>63858</v>
       </c>
       <c r="L98" s="9"/>
     </row>
@@ -6304,7 +6378,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>58</v>
@@ -6318,7 +6392,7 @@
       </c>
       <c r="J1" s="24">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>4.7437691733986558E-3</v>
+        <v>4.6937094608443461E-3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6330,7 +6404,7 @@
       </c>
       <c r="D2" s="25" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00351</v>
+        <v>obj_00358</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -6338,7 +6412,7 @@
       </c>
       <c r="F2" s="24">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.7438000000000003E-3</v>
+        <v>4.6938000000000006E-3</v>
       </c>
       <c r="G2" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6346,14 +6420,14 @@
       </c>
       <c r="H2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I2" s="22">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41927</v>
+        <v>41946</v>
       </c>
       <c r="J2" s="24">
-        <v>4.7437691733986558E-3</v>
+        <v>4.6937094608443461E-3</v>
       </c>
       <c r="M2" s="73"/>
       <c r="N2" s="73"/>
@@ -6368,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="str">
-        <v>obj_0035a</v>
+        <v>obj_0035d</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -6376,7 +6450,7 @@
       </c>
       <c r="F3" s="24">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8063000000000003E-3</v>
+        <v>4.7938E-3</v>
       </c>
       <c r="G3" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6384,14 +6458,14 @@
       </c>
       <c r="H3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41927</v>
+        <v>41946</v>
       </c>
       <c r="I3" s="22">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41928</v>
+        <v>41947</v>
       </c>
       <c r="J3" s="24">
-        <v>4.7750187645798194E-3</v>
+        <v>4.7187242256691549E-3</v>
       </c>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
@@ -6406,7 +6480,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="str">
-        <v>obj_0034f</v>
+        <v>obj_00352</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -6414,7 +6488,7 @@
       </c>
       <c r="F4" s="24">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8063000000000003E-3</v>
+        <v>4.7938E-3</v>
       </c>
       <c r="G4" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6422,14 +6496,14 @@
       </c>
       <c r="H4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I4" s="22">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41933</v>
+        <v>41950</v>
       </c>
       <c r="J4" s="24">
-        <v>4.8060785017727259E-3</v>
+        <v>4.7935796523649156E-3</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
@@ -6444,7 +6518,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="25" t="str">
-        <v>obj_00361</v>
+        <v>obj_0035e</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -6452,7 +6526,7 @@
       </c>
       <c r="F5" s="24">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.8747040000000005E-3</v>
+        <v>4.8776782600000006E-3</v>
       </c>
       <c r="G5" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6460,14 +6534,14 @@
       </c>
       <c r="H5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I5" s="22">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41940</v>
+        <v>41957</v>
       </c>
       <c r="J5" s="24">
-        <v>4.8742483330410889E-3</v>
+        <v>4.877222036854807E-3</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
@@ -6483,7 +6557,7 @@
         <v/>
       </c>
       <c r="D6" s="25" t="str">
-        <v>obj_00352</v>
+        <v>obj_0034a</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -6491,7 +6565,7 @@
       </c>
       <c r="F6" s="24">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.0505999999999997E-3</v>
+        <v>5.0693999999999991E-3</v>
       </c>
       <c r="G6" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6499,14 +6573,14 @@
       </c>
       <c r="H6" s="23">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I6" s="22">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41957</v>
+        <v>41971</v>
       </c>
       <c r="J6" s="24">
-        <v>5.0495170694494799E-3</v>
+        <v>5.0684145474954858E-3</v>
       </c>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
@@ -6516,14 +6590,14 @@
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YCSTDRH_RateHelpersSelected#0001</v>
+        <v>GBP_YCSTDRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="25" t="str">
-        <v>obj_0034a</v>
+        <v>obj_00357</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -6539,14 +6613,14 @@
       </c>
       <c r="H7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I7" s="22">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41988</v>
+        <v>42004</v>
       </c>
       <c r="J7" s="24">
-        <v>5.2876246910424632E-3</v>
+        <v>5.2876629799139072E-3</v>
       </c>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -6563,7 +6637,7 @@
       </c>
       <c r="F8" s="24">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.5962999999999994E-3</v>
+        <v>5.5462999999999997E-3</v>
       </c>
       <c r="G8" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6571,14 +6645,14 @@
       </c>
       <c r="H8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I8" s="22">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42018</v>
+        <v>42034</v>
       </c>
       <c r="J8" s="24">
-        <v>5.5923567094394991E-3</v>
+        <v>5.5424688855885262E-3</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73"/>
@@ -6587,7 +6661,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="25" t="str">
-        <v>obj_00362</v>
+        <v>obj_00360</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -6595,7 +6669,7 @@
       </c>
       <c r="F9" s="24">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.08258667E-3</v>
+        <v>5.9697844399999997E-3</v>
       </c>
       <c r="G9" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6603,14 +6677,14 @@
       </c>
       <c r="H9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I9" s="22">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42051</v>
+        <v>42062</v>
       </c>
       <c r="J9" s="24">
-        <v>6.0762602040534009E-3</v>
+        <v>5.9639824317534338E-3</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -6619,7 +6693,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="25" t="str">
-        <v>obj_0035d</v>
+        <v>obj_00363</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -6627,7 +6701,7 @@
       </c>
       <c r="F10" s="24">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>6.52181333E-3</v>
+        <v>6.4840155600000005E-3</v>
       </c>
       <c r="G10" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6635,14 +6709,14 @@
       </c>
       <c r="H10" s="23">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I10" s="22">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42079</v>
+        <v>42094</v>
       </c>
       <c r="J10" s="24">
-        <v>6.5129148734843576E-3</v>
+        <v>6.4753346269257675E-3</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -6651,7 +6725,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="25" t="str">
-        <v>obj_00357</v>
+        <v>obj_00353</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -6659,7 +6733,7 @@
       </c>
       <c r="F11" s="24">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.0081000000000006E-3</v>
+        <v>6.9074999999999996E-3</v>
       </c>
       <c r="G11" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6667,14 +6741,14 @@
       </c>
       <c r="H11" s="23">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I11" s="22">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42108</v>
+        <v>42124</v>
       </c>
       <c r="J11" s="24">
-        <v>6.9958837241277608E-3</v>
+        <v>6.8956965987673931E-3</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
@@ -6683,7 +6757,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12" s="25" t="str">
-        <v>obj_0035b</v>
+        <v>obj_0035f</v>
       </c>
       <c r="E12" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -6691,7 +6765,7 @@
       </c>
       <c r="F12" s="24">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.5726989099999999E-3</v>
+        <v>7.42461475E-3</v>
       </c>
       <c r="G12" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6699,14 +6773,14 @@
       </c>
       <c r="H12" s="23">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I12" s="22">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42138</v>
+        <v>42153</v>
       </c>
       <c r="J12" s="24">
-        <v>7.5560937431545109E-3</v>
+        <v>7.4088019166011695E-3</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73"/>
@@ -6715,15 +6789,15 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="25" t="str">
-        <v>obj_00363</v>
+        <v>obj_003b4</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>GBP8MD_Mx_Quote</v>
+        <v>GBP_STUB_Quote</v>
       </c>
       <c r="F13" s="24">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>8.0843666700000007E-3</v>
+        <v>7.6486978100000005E-3</v>
       </c>
       <c r="G13" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6731,14 +6805,14 @@
       </c>
       <c r="H13" s="23">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I13" s="22">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="J13" s="24">
-        <v>8.0625997106404633E-3</v>
+        <v>7.6304041328098642E-3</v>
       </c>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -6747,30 +6821,30 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14" s="25" t="str">
-        <v>obj_003b4</v>
+        <v>obj_003a6</v>
       </c>
       <c r="E14" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>GBP_STUB_Quote</v>
+        <v>GBPFUT3MM5_Quote</v>
       </c>
       <c r="F14" s="24">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>8.10201038E-3</v>
-      </c>
-      <c r="G14" s="24" t="str">
+        <v>7.8099999999999125E-3</v>
+      </c>
+      <c r="G14" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>--</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="H14" s="23">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41926</v>
+        <v>42172</v>
       </c>
       <c r="I14" s="22">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42172</v>
+        <v>42264</v>
       </c>
       <c r="J14" s="24">
-        <v>8.0799699310445984E-3</v>
+        <v>7.6796767995406115E-3</v>
       </c>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -6779,30 +6853,30 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="25" t="str">
-        <v>obj_0036c</v>
+        <v>obj_00383</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>GBPFUT3MM5_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="F15" s="24">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>7.7100000000000345E-3</v>
+        <v>9.4849999999999466E-3</v>
       </c>
       <c r="G15" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>4.0000000000000003E-5</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="H15" s="23">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="I15" s="22">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="J15" s="24">
-        <v>7.9772315646206814E-3</v>
+        <v>8.0764993868448712E-3</v>
       </c>
       <c r="M15" s="73"/>
       <c r="N15" s="73"/>
@@ -6811,30 +6885,30 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="25" t="str">
-        <v>obj_00397</v>
+        <v>obj_003ab</v>
       </c>
       <c r="E16" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>GBPFUT3MU5_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="F16" s="24">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>8.9850000000000017E-3</v>
+        <v>1.1153999999999982E-2</v>
       </c>
       <c r="G16" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>6.4999999999999994E-5</v>
+        <v>9.5999999999999989E-5</v>
       </c>
       <c r="H16" s="23">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="I16" s="22">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="J16" s="24">
-        <v>8.1902428675789569E-3</v>
+        <v>8.6315668386841102E-3</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="73"/>
@@ -6843,30 +6917,30 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="25" t="str">
-        <v>obj_0037c</v>
+        <v>obj_0036e</v>
       </c>
       <c r="E17" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="F17" s="24">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.035400000000007E-2</v>
+        <v>1.2818000000000017E-2</v>
       </c>
       <c r="G17" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>9.5999999999999989E-5</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="H17" s="23">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I17" s="22">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="J17" s="24">
-        <v>8.5672907836454818E-3</v>
+        <v>9.2767704603279183E-3</v>
       </c>
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
@@ -6875,30 +6949,30 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="25" t="str">
-        <v>obj_003af</v>
+        <v>obj_0036f</v>
       </c>
       <c r="E18" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="F18" s="24">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.1718000000000027E-2</v>
+        <v>1.4376999999999952E-2</v>
       </c>
       <c r="G18" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>1.3200000000000001E-4</v>
+        <v>1.73E-4</v>
       </c>
       <c r="H18" s="23">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="I18" s="22">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="J18" s="24">
-        <v>9.0391014456049738E-3</v>
+        <v>9.9522034061515306E-3</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="73"/>
@@ -6907,30 +6981,30 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="25" t="str">
-        <v>obj_00372</v>
+        <v>obj_00387</v>
       </c>
       <c r="E19" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="F19" s="24">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.2976999999999995E-2</v>
+        <v>1.5826999999999897E-2</v>
       </c>
       <c r="G19" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>1.73E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="H19" s="23">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="I19" s="22">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="J19" s="24">
-        <v>9.5479476819382882E-3</v>
+        <v>1.0671536269477167E-2</v>
       </c>
       <c r="M19" s="182"/>
       <c r="N19" s="73"/>
@@ -6939,30 +7013,30 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="25" t="str">
-        <v>obj_003a8</v>
+        <v>obj_0038c</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>GBPFUT3MU6_Quote</v>
+        <v>GBPSB6L3Y_Quote</v>
       </c>
       <c r="F20" s="24">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.4427000000000053E-2</v>
+        <v>1.3610000000000001E-2</v>
       </c>
       <c r="G20" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>2.23E-4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="23">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42634</v>
+        <v>41943</v>
       </c>
       <c r="I20" s="22">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42725</v>
+        <v>43039</v>
       </c>
       <c r="J20" s="24">
-        <v>1.0132739396864264E-2</v>
+        <v>1.3625188668197088E-2</v>
       </c>
       <c r="M20" s="182"/>
       <c r="N20" s="73"/>
@@ -6971,15 +7045,15 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="25" t="str">
-        <v>obj_00381</v>
+        <v>obj_00399</v>
       </c>
       <c r="E21" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>GBPSB6L3Y_Quote</v>
+        <v>GBPSB6L4Y_Quote</v>
       </c>
       <c r="F21" s="24">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.584E-2</v>
       </c>
       <c r="G21" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6987,14 +7061,14 @@
       </c>
       <c r="H21" s="23">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I21" s="22">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>43024</v>
+        <v>43404</v>
       </c>
       <c r="J21" s="24">
-        <v>1.2507034795452119E-2</v>
+        <v>1.5886165483704424E-2</v>
       </c>
       <c r="M21" s="182"/>
       <c r="N21" s="73"/>
@@ -7003,15 +7077,15 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="25" t="str">
-        <v>obj_0039b</v>
+        <v>obj_00381</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>GBPSB6L4Y_Quote</v>
+        <v>GBPSB6L5Y_Quote</v>
       </c>
       <c r="F22" s="24">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.455E-2</v>
+        <v>1.762E-2</v>
       </c>
       <c r="G22" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7019,14 +7093,14 @@
       </c>
       <c r="H22" s="23">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I22" s="22">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43388</v>
+        <v>43769</v>
       </c>
       <c r="J22" s="24">
-        <v>1.4584012900354996E-2</v>
+        <v>1.7704819225438692E-2</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -7035,15 +7109,15 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="25" t="str">
-        <v>obj_00378</v>
+        <v>obj_003af</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>GBPSB6L5Y_Quote</v>
+        <v>GBPSB6L6Y_Quote</v>
       </c>
       <c r="F23" s="24">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.6209999999999999E-2</v>
+        <v>1.9049999999999997E-2</v>
       </c>
       <c r="G23" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7051,14 +7125,14 @@
       </c>
       <c r="H23" s="23">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I23" s="22">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43752</v>
+        <v>44134</v>
       </c>
       <c r="J23" s="24">
-        <v>1.6277992114738023E-2</v>
+        <v>1.9177322368806263E-2</v>
       </c>
       <c r="M23" s="182"/>
       <c r="N23" s="73"/>
@@ -7067,15 +7141,15 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="25" t="str">
-        <v>obj_0038d</v>
+        <v>obj_0036a</v>
       </c>
       <c r="E24" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>GBPSB6L6Y_Quote</v>
+        <v>GBPSB6L7Y_Quote</v>
       </c>
       <c r="F24" s="24">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.7650000000000002E-2</v>
+        <v>2.0259999999999997E-2</v>
       </c>
       <c r="G24" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7083,14 +7157,14 @@
       </c>
       <c r="H24" s="23">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I24" s="22">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>44118</v>
+        <v>44498</v>
       </c>
       <c r="J24" s="24">
-        <v>1.7759974966811431E-2</v>
+        <v>2.043449384239206E-2</v>
       </c>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
@@ -7099,15 +7173,15 @@
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="25" t="str">
-        <v>obj_0038f</v>
+        <v>obj_003ac</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>GBPSB6L7Y_Quote</v>
+        <v>GBPSB6L8Y_Quote</v>
       </c>
       <c r="F25" s="24">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.8919999999999999E-2</v>
+        <v>2.1310000000000003E-2</v>
       </c>
       <c r="G25" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7115,14 +7189,14 @@
       </c>
       <c r="H25" s="23">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I25" s="22">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44483</v>
+        <v>44865</v>
       </c>
       <c r="J25" s="24">
-        <v>1.9079547173377193E-2</v>
+        <v>2.1535445145458118E-2</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
@@ -7131,15 +7205,15 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="25" t="str">
-        <v>obj_0038c</v>
+        <v>obj_0036d</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>GBPSB6L8Y_Quote</v>
+        <v>GBPSB6L9Y_Quote</v>
       </c>
       <c r="F26" s="24">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.0030000000000003E-2</v>
+        <v>2.2240000000000003E-2</v>
       </c>
       <c r="G26" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7147,14 +7221,14 @@
       </c>
       <c r="H26" s="23">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I26" s="22">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44848</v>
+        <v>45230</v>
       </c>
       <c r="J26" s="24">
-        <v>2.0243881544333851E-2</v>
+        <v>2.2521000238543452E-2</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
@@ -7163,15 +7237,15 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="25" t="str">
-        <v>obj_003a7</v>
+        <v>obj_00388</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>GBPSB6L9Y_Quote</v>
+        <v>GBPSB6L10Y_Quote</v>
       </c>
       <c r="F27" s="24">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.1019999999999997E-2</v>
+        <v>2.3040000000000001E-2</v>
       </c>
       <c r="G27" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7179,14 +7253,14 @@
       </c>
       <c r="H27" s="23">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I27" s="22">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>45215</v>
+        <v>45596</v>
       </c>
       <c r="J27" s="24">
-        <v>2.1292817302007144E-2</v>
+        <v>2.3376091652364407E-2</v>
       </c>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
@@ -7195,15 +7269,15 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="25" t="str">
-        <v>obj_003b0</v>
+        <v>obj_0039a</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>GBPSB6L10Y_Quote</v>
+        <v>GBPSB6L12Y_Quote</v>
       </c>
       <c r="F28" s="24">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.1899999999999999E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="G28" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7211,14 +7285,14 @@
       </c>
       <c r="H28" s="23">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I28" s="22">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45579</v>
+        <v>46325</v>
       </c>
       <c r="J28" s="24">
-        <v>2.2235287192528264E-2</v>
+        <v>2.4796256188971109E-2</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -7227,15 +7301,15 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="25" t="str">
-        <v>obj_003ab</v>
+        <v>obj_00378</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>GBPSB6L12Y_Quote</v>
+        <v>GBPSB6L15Y_Quote</v>
       </c>
       <c r="F29" s="24">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.3220000000000001E-2</v>
+        <v>2.5700000000000004E-2</v>
       </c>
       <c r="G29" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7243,14 +7317,14 @@
       </c>
       <c r="H29" s="23">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I29" s="22">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>46309</v>
+        <v>47422</v>
       </c>
       <c r="J29" s="24">
-        <v>2.3661276417649386E-2</v>
+        <v>2.6283195026574151E-2</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
@@ -7259,15 +7333,15 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="25" t="str">
-        <v>obj_0037d</v>
+        <v>obj_00371</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>GBPSB6L15Y_Quote</v>
+        <v>GBPSB6L20Y_Quote</v>
       </c>
       <c r="F30" s="24">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.4580000000000001E-2</v>
+        <v>2.6920000000000003E-2</v>
       </c>
       <c r="G30" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7275,14 +7349,14 @@
       </c>
       <c r="H30" s="23">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I30" s="22">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>47406</v>
+        <v>49248</v>
       </c>
       <c r="J30" s="24">
-        <v>2.515331714543596E-2</v>
+        <v>2.7637339729593511E-2</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
@@ -7291,15 +7365,15 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="str">
-        <v>obj_0039a</v>
+        <v>obj_00373</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>GBPSB6L20Y_Quote</v>
+        <v>GBPSB6L25Y_Quote</v>
       </c>
       <c r="F31" s="24">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.589E-2</v>
+        <v>2.7320000000000001E-2</v>
       </c>
       <c r="G31" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7307,14 +7381,14 @@
       </c>
       <c r="H31" s="23">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I31" s="22">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>49233</v>
+        <v>51074</v>
       </c>
       <c r="J31" s="24">
-        <v>2.6613989110438743E-2</v>
+        <v>2.8007253488778028E-2</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
@@ -7323,15 +7397,15 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="25" t="str">
-        <v>obj_00373</v>
+        <v>obj_0037b</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
-        <v>GBPSB6L25Y_Quote</v>
+        <v>GBPSB6L30Y_Quote</v>
       </c>
       <c r="F32" s="24">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.6380000000000001E-2</v>
+        <v>2.7469999999999998E-2</v>
       </c>
       <c r="G32" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7339,14 +7413,14 @@
       </c>
       <c r="H32" s="23">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I32" s="22">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>51057</v>
+        <v>52901</v>
       </c>
       <c r="J32" s="24">
-        <v>2.7103164054534262E-2</v>
+        <v>2.8084589030393136E-2</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -7355,15 +7429,15 @@
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D33" s="25" t="str">
-        <v>obj_00366</v>
+        <v>obj_003a9</v>
       </c>
       <c r="E33" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
-        <v>GBPSB6L30Y_Quote</v>
+        <v>GBPSB6L40Y_Quote</v>
       </c>
       <c r="F33" s="24">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.6619999999999998E-2</v>
+        <v>2.7389999999999998E-2</v>
       </c>
       <c r="G33" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7371,14 +7445,14 @@
       </c>
       <c r="H33" s="23">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I33" s="22">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>52884</v>
+        <v>56552</v>
       </c>
       <c r="J33" s="24">
-        <v>2.730723634639955E-2</v>
+        <v>2.7751749225601467E-2</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
@@ -7387,15 +7461,15 @@
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D34" s="25" t="str">
-        <v>obj_003b3</v>
+        <v>obj_00379</v>
       </c>
       <c r="E34" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
-        <v>GBPSB6L40Y_Quote</v>
+        <v>GBPSB6L50Y_Quote</v>
       </c>
       <c r="F34" s="24">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.6520000000000002E-2</v>
+        <v>2.7389999999999998E-2</v>
       </c>
       <c r="G34" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7403,14 +7477,14 @@
       </c>
       <c r="H34" s="23">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I34" s="22">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>56536</v>
+        <v>60206</v>
       </c>
       <c r="J34" s="24">
-        <v>2.6928367906774012E-2</v>
+        <v>2.7641143532422422E-2</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
@@ -7419,15 +7493,15 @@
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D35" s="25" t="str">
-        <v>obj_00395</v>
+        <v>obj_0038d</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
-        <v>GBPSB6L50Y_Quote</v>
+        <v>GBPSB6L60Y_Quote</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.6520000000000002E-2</v>
+        <v>2.7519999999999999E-2</v>
       </c>
       <c r="G35" s="24">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7435,14 +7509,14 @@
       </c>
       <c r="H35" s="23">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41926</v>
+        <v>41943</v>
       </c>
       <c r="I35" s="22">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>60189</v>
+        <v>63858</v>
       </c>
       <c r="J35" s="24">
-        <v>2.6810763694943215E-2</v>
+        <v>2.7861477173914798E-2</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
@@ -7450,31 +7524,31 @@
       <c r="P35" s="183"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="25" t="str">
-        <v>obj_00391</v>
-      </c>
-      <c r="E36" s="25" t="str">
+      <c r="D36" s="25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="25" t="e">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
-        <v>GBPSB6L60Y_Quote</v>
-      </c>
-      <c r="F36" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="24" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.665E-2</v>
-      </c>
-      <c r="G36" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="24" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+        <v>--</v>
+      </c>
+      <c r="H36" s="23" t="e">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41926</v>
-      </c>
-      <c r="I36" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="22" t="e">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>63842</v>
-      </c>
-      <c r="J36" s="24">
-        <v>2.7018896546611763E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J36" s="24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
@@ -10083,19 +10157,19 @@
       <c r="A2" s="82"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="E2" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>144</v>
-      </c>
       <c r="F2" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="88" t="s">
         <v>146</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>147</v>
       </c>
       <c r="H2" s="88" t="s">
         <v>99</v>
@@ -10126,7 +10200,7 @@
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="84" t="b">
         <v>0</v>
@@ -10143,7 +10217,7 @@
       </c>
       <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger)</f>
-        <v>obj_00351#0001</v>
+        <v>obj_00358#0002</v>
       </c>
       <c r="K3" s="83" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10154,7 +10228,7 @@
     <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="84">
         <v>1</v>
@@ -10164,7 +10238,7 @@
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="84" t="b">
         <v>0</v>
@@ -10174,7 +10248,7 @@
       </c>
       <c r="H4" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034c#0001</v>
+        <v>obj_0034b#0002</v>
       </c>
       <c r="I4" s="80" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10182,7 +10256,7 @@
       </c>
       <c r="J4" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I4,"1D",C4,D4,E4,F4,G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0001</v>
+        <v>obj_0035d#0002</v>
       </c>
       <c r="K4" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10204,7 +10278,7 @@
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="84" t="b">
         <v>0</v>
@@ -10222,7 +10296,7 @@
       </c>
       <c r="J5" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger)</f>
-        <v>obj_0034f#0001</v>
+        <v>obj_00352#0002</v>
       </c>
       <c r="K5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10234,7 +10308,7 @@
     <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="84">
         <v>0</v>
@@ -10244,7 +10318,7 @@
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="84" t="b">
         <v>0</v>
@@ -10254,7 +10328,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00355#0002</v>
       </c>
       <c r="I6" s="80" t="str">
         <f>Currency&amp;$B6&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10262,7 +10336,7 @@
       </c>
       <c r="J6" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I6,B6,C6,D6,E6,F6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0035e#0002</v>
       </c>
       <c r="K6" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10274,7 +10348,7 @@
     <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="84">
         <v>0</v>
@@ -10284,7 +10358,7 @@
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="84" t="b">
         <v>0</v>
@@ -10294,7 +10368,7 @@
       </c>
       <c r="H7" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034e#0001</v>
+        <v>obj_00350#0002</v>
       </c>
       <c r="I7" s="80" t="str">
         <f>Currency&amp;$B7&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10302,7 +10376,7 @@
       </c>
       <c r="J7" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I7,B7,C7,D7,E7,F7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_0035b#0002</v>
       </c>
       <c r="K7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10342,7 +10416,7 @@
       </c>
       <c r="J8" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger)</f>
-        <v>obj_00352#0001</v>
+        <v>obj_0034a#0002</v>
       </c>
       <c r="K8" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10382,7 +10456,7 @@
       </c>
       <c r="J9" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger)</f>
-        <v>obj_0034a#0001</v>
+        <v>obj_00357#0002</v>
       </c>
       <c r="K9" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10422,7 +10496,7 @@
       </c>
       <c r="J10" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger)</f>
-        <v>obj_00359#0001</v>
+        <v>obj_00359#0002</v>
       </c>
       <c r="K10" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10434,7 +10508,7 @@
     <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="84">
         <v>0</v>
@@ -10454,7 +10528,7 @@
       </c>
       <c r="H11" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_00349#0002</v>
       </c>
       <c r="I11" s="80" t="str">
         <f>Currency&amp;$B11&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10462,7 +10536,7 @@
       </c>
       <c r="J11" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I11,B11,C11,D11,E11,F11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00360#0002</v>
       </c>
       <c r="K11" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10474,7 +10548,7 @@
     <row r="12" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="84">
         <v>0</v>
@@ -10494,7 +10568,7 @@
       </c>
       <c r="H12" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0001</v>
+        <v>obj_0034c#0002</v>
       </c>
       <c r="I12" s="80" t="str">
         <f>Currency&amp;$B12&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10502,7 +10576,7 @@
       </c>
       <c r="J12" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I12,B12,C12,D12,E12,F12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_00363#0002</v>
       </c>
       <c r="K12" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10542,7 +10616,7 @@
       </c>
       <c r="J13" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger)</f>
-        <v>obj_00357#0001</v>
+        <v>obj_00353#0002</v>
       </c>
       <c r="K13" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10554,7 +10628,7 @@
     <row r="14" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="84">
         <v>0</v>
@@ -10574,7 +10648,7 @@
       </c>
       <c r="H14" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0001</v>
+        <v>obj_00356#0002</v>
       </c>
       <c r="I14" s="80" t="str">
         <f>Currency&amp;$B14&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10582,7 +10656,7 @@
       </c>
       <c r="J14" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I14,B14,C14,D14,E14,F14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0001</v>
+        <v>obj_0035f#0002</v>
       </c>
       <c r="K14" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10594,7 +10668,7 @@
     <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="84">
         <v>0</v>
@@ -10614,7 +10688,7 @@
       </c>
       <c r="H15" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0001</v>
+        <v>obj_0034d#0002</v>
       </c>
       <c r="I15" s="80" t="str">
         <f>Currency&amp;$B15&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10622,7 +10696,7 @@
       </c>
       <c r="J15" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I15,B15,C15,D15,E15,F15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00362#0002</v>
       </c>
       <c r="K15" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10634,7 +10708,7 @@
     <row r="16" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
       <c r="B16" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="84">
         <v>0</v>
@@ -10654,7 +10728,7 @@
       </c>
       <c r="H16" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00351#0002</v>
       </c>
       <c r="I16" s="80" t="str">
         <f>Currency&amp;$B16&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10662,7 +10736,7 @@
       </c>
       <c r="J16" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I16,B16,C16,D16,E16,F16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0035c#0002</v>
       </c>
       <c r="K16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10674,7 +10748,7 @@
     <row r="17" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="84">
         <v>0</v>
@@ -10694,7 +10768,7 @@
       </c>
       <c r="H17" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0034d#0001</v>
+        <v>obj_0034e#0002</v>
       </c>
       <c r="I17" s="80" t="str">
         <f>Currency&amp;$B17&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10702,7 +10776,7 @@
       </c>
       <c r="J17" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I17,B17,C17,D17,E17,F17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_00361#0002</v>
       </c>
       <c r="K17" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10714,7 +10788,7 @@
     <row r="18" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
       <c r="B18" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="84">
         <v>0</v>
@@ -10734,7 +10808,7 @@
       </c>
       <c r="H18" s="84" t="str">
         <f>_xll.qlLibor(,Currency,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00349#0001</v>
+        <v>obj_00354#0002</v>
       </c>
       <c r="I18" s="80" t="str">
         <f>Currency&amp;$B18&amp;"D"&amp;"_Mx"&amp;QuoteSuffix</f>
@@ -10742,7 +10816,7 @@
       </c>
       <c r="J18" s="79" t="str">
         <f>_xll.qlDepositRateHelper2(,I18,B18,C18,D18,E18,F18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_0035a#0002</v>
       </c>
       <c r="K18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10782,7 +10856,7 @@
       </c>
       <c r="J19" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_0034f#0002</v>
       </c>
       <c r="K19" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10795,7 +10869,7 @@
       <c r="A20" s="82"/>
       <c r="B20" s="81">
         <f>_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C20&amp;"D",,,Trigger),D24,Trigger)-1</f>
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C20" s="84">
         <v>0</v>
@@ -10805,7 +10879,7 @@
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="84" t="b">
         <v>0</v>
@@ -10820,7 +10894,7 @@
       </c>
       <c r="J20" s="181" t="str">
         <f>_xll.qlDepositRateHelper2(,I20,B20&amp;"D",C20,Deposits!D20,E20,F20,G20)</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_003b4#0002</v>
       </c>
       <c r="K20" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -10849,13 +10923,13 @@
     </row>
     <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C23" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -10936,7 +11010,7 @@
     <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="91"/>
       <c r="B2" s="127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="88" t="s">
         <v>112</v>
@@ -10963,10 +11037,10 @@
       </c>
       <c r="J2" s="77"/>
       <c r="M2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10979,7 +11053,7 @@
       </c>
       <c r="D3" s="133" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,C3:C44)</f>
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E3" s="132" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -10987,7 +11061,7 @@
       </c>
       <c r="F3" s="134" t="str">
         <f t="shared" ref="F3:F44" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>GBPFUT3MV4_Quote</v>
+        <v>GBPFUT3MX4_Quote</v>
       </c>
       <c r="G3" s="193">
         <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
@@ -10995,7 +11069,7 @@
       </c>
       <c r="H3" s="135" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_00370#0002</v>
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11025,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="139" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E4" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11033,7 +11107,7 @@
       </c>
       <c r="F4" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MX4_Quote</v>
+        <v>GBPFUT3MZ4_Quote</v>
       </c>
       <c r="G4" s="193">
         <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
@@ -11041,7 +11115,7 @@
       </c>
       <c r="H4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_003a3#0002</v>
       </c>
       <c r="I4" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11071,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="139" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E5" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11079,7 +11153,7 @@
       </c>
       <c r="F5" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ4_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="G5" s="193">
         <f t="shared" si="2"/>
@@ -11087,7 +11161,7 @@
       </c>
       <c r="H5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_00368#0002</v>
       </c>
       <c r="I5" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11113,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="139" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E6" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11121,7 +11195,7 @@
       </c>
       <c r="F6" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MF5_Quote</v>
+        <v>GBPFUT3MG5_Quote</v>
       </c>
       <c r="G6" s="193">
         <f t="shared" si="2"/>
@@ -11129,7 +11203,7 @@
       </c>
       <c r="H6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003a5#0002</v>
       </c>
       <c r="I6" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11155,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="139" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E7" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11163,7 +11237,7 @@
       </c>
       <c r="F7" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MG5_Quote</v>
+        <v>GBPFUT3MH5_Quote</v>
       </c>
       <c r="G7" s="193">
         <f t="shared" si="2"/>
@@ -11171,7 +11245,7 @@
       </c>
       <c r="H7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003b3#0002</v>
       </c>
       <c r="I7" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11197,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="139" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E8" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11205,7 +11279,7 @@
       </c>
       <c r="F8" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH5_Quote</v>
+        <v>GBPFUT3MJ5_Quote</v>
       </c>
       <c r="G8" s="193">
         <f t="shared" si="2"/>
@@ -11213,7 +11287,7 @@
       </c>
       <c r="H8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_00391#0002</v>
       </c>
       <c r="I8" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11239,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="139" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E9" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11247,7 +11321,7 @@
       </c>
       <c r="F9" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MJ5_Quote</v>
+        <v>GBPFUT3MK5_Quote</v>
       </c>
       <c r="G9" s="193">
         <f t="shared" si="2"/>
@@ -11255,7 +11329,7 @@
       </c>
       <c r="H9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_00386#0002</v>
       </c>
       <c r="I9" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11273,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="139" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E10" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11281,15 +11355,15 @@
       </c>
       <c r="F10" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MK5_Quote</v>
+        <v>GBPFUT3MM5_Quote</v>
       </c>
       <c r="G10" s="193">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_003a6#0002</v>
       </c>
       <c r="I10" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11307,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="139" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E11" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11315,15 +11389,15 @@
       </c>
       <c r="F11" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM5_Quote</v>
+        <v>GBPFUT3MN5_Quote</v>
       </c>
       <c r="G11" s="193">
         <f t="shared" si="2"/>
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_003aa#0002</v>
       </c>
       <c r="I11" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11341,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="139" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E12" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11349,7 +11423,7 @@
       </c>
       <c r="F12" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MN5_Quote</v>
+        <v>GBPFUT3MQ5_Quote</v>
       </c>
       <c r="G12" s="193">
         <f t="shared" si="2"/>
@@ -11357,7 +11431,7 @@
       </c>
       <c r="H12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_0038a#0002</v>
       </c>
       <c r="I12" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11375,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="139" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E13" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11383,15 +11457,15 @@
       </c>
       <c r="F13" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MQ5_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="G13" s="193">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="H13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_00383#0002</v>
       </c>
       <c r="I13" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11409,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="139" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="E14" s="132" t="str">
         <f t="shared" si="0"/>
@@ -11417,15 +11491,15 @@
       </c>
       <c r="F14" s="134" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU5_Quote</v>
+        <v>GBPFUT3MV5_Quote</v>
       </c>
       <c r="G14" s="193">
         <f t="shared" si="2"/>
-        <v>6.4999999999999994E-5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0036b#0002</v>
       </c>
       <c r="I14" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11459,7 +11533,7 @@
       </c>
       <c r="H15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_003ab#0002</v>
       </c>
       <c r="I15" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11493,7 +11567,7 @@
       </c>
       <c r="H16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_0036e#0002</v>
       </c>
       <c r="I16" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11527,7 +11601,7 @@
       </c>
       <c r="H17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_0036f#0002</v>
       </c>
       <c r="I17" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11561,7 +11635,7 @@
       </c>
       <c r="H18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_00387#0002</v>
       </c>
       <c r="I18" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11595,7 +11669,7 @@
       </c>
       <c r="H19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0037f#0002</v>
       </c>
       <c r="I19" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11629,7 +11703,7 @@
       </c>
       <c r="H20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003b0#0002</v>
       </c>
       <c r="I20" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11663,7 +11737,7 @@
       </c>
       <c r="H21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_00390#0002</v>
       </c>
       <c r="I21" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -11697,7 +11771,7 @@
       </c>
       <c r="H22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_0038f#0002</v>
       </c>
       <c r="I22" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -11731,7 +11805,7 @@
       </c>
       <c r="H23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00395#0002</v>
       </c>
       <c r="I23" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -11765,7 +11839,7 @@
       </c>
       <c r="H24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_00365#0002</v>
       </c>
       <c r="I24" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -11799,7 +11873,7 @@
       </c>
       <c r="H25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_00385#0002</v>
       </c>
       <c r="I25" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -11833,7 +11907,7 @@
       </c>
       <c r="H26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_0037e#0002</v>
       </c>
       <c r="I26" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -11867,7 +11941,7 @@
       </c>
       <c r="H27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_003b2#0002</v>
       </c>
       <c r="I27" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -11901,7 +11975,7 @@
       </c>
       <c r="H28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_003b1#0002</v>
       </c>
       <c r="I28" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -11935,7 +12009,7 @@
       </c>
       <c r="H29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00396#0001</v>
+        <v>obj_0037d#0002</v>
       </c>
       <c r="I29" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -11969,7 +12043,7 @@
       </c>
       <c r="H30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_00374#0002</v>
       </c>
       <c r="I30" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -12003,7 +12077,7 @@
       </c>
       <c r="H31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00366#0002</v>
       </c>
       <c r="I31" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -12037,7 +12111,7 @@
       </c>
       <c r="H32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_0039b#0002</v>
       </c>
       <c r="I32" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -12071,7 +12145,7 @@
       </c>
       <c r="H33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_00376#0002</v>
       </c>
       <c r="I33" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -12105,7 +12179,7 @@
       </c>
       <c r="H34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_00372#0002</v>
       </c>
       <c r="I34" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -12139,7 +12213,7 @@
       </c>
       <c r="H35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00390#0001</v>
+        <v>obj_00384#0002</v>
       </c>
       <c r="I35" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -12173,7 +12247,7 @@
       </c>
       <c r="H36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_0039f#0002</v>
       </c>
       <c r="I36" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -12207,7 +12281,7 @@
       </c>
       <c r="H37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00389#0002</v>
       </c>
       <c r="I37" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -12241,7 +12315,7 @@
       </c>
       <c r="H38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00396#0002</v>
       </c>
       <c r="I38" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -12275,7 +12349,7 @@
       </c>
       <c r="H39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_003a8#0002</v>
       </c>
       <c r="I39" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -12309,7 +12383,7 @@
       </c>
       <c r="H40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00399#0001</v>
+        <v>obj_0038e#0002</v>
       </c>
       <c r="I40" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -12343,7 +12417,7 @@
       </c>
       <c r="H41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00367#0002</v>
       </c>
       <c r="I41" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -12378,7 +12452,7 @@
       </c>
       <c r="H42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_0037a#0002</v>
       </c>
       <c r="I42" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -12412,7 +12486,7 @@
       </c>
       <c r="H43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00383#0001</v>
+        <v>obj_00398#0002</v>
       </c>
       <c r="I43" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -12446,7 +12520,7 @@
       </c>
       <c r="H44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00392#0002</v>
       </c>
       <c r="I44" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -12586,7 +12660,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="159" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00364#0001</v>
+        <v>obj_00364#0002</v>
       </c>
       <c r="L4" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -12645,7 +12719,7 @@
       </c>
       <c r="K6" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_00382#0002</v>
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -12692,7 +12766,7 @@
       </c>
       <c r="K7" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_003a4#0002</v>
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -12743,7 +12817,7 @@
       </c>
       <c r="K8" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_003a0#0002</v>
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -12794,7 +12868,7 @@
       </c>
       <c r="K9" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_0037c#0002</v>
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -12841,7 +12915,7 @@
       </c>
       <c r="K10" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_0039c#0002</v>
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -12892,7 +12966,7 @@
       </c>
       <c r="K11" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00381#0001</v>
+        <v>obj_0038c#0002</v>
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -12934,7 +13008,7 @@
       </c>
       <c r="K12" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_00399#0002</v>
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -12976,7 +13050,7 @@
       </c>
       <c r="K13" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00381#0002</v>
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -13018,7 +13092,7 @@
       </c>
       <c r="K14" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_003af#0002</v>
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -13060,7 +13134,7 @@
       </c>
       <c r="K15" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_0036a#0002</v>
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -13102,7 +13176,7 @@
       </c>
       <c r="K16" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_003ac#0002</v>
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -13144,7 +13218,7 @@
       </c>
       <c r="K17" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_0036d#0002</v>
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -13186,7 +13260,7 @@
       </c>
       <c r="K18" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_00388#0002</v>
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -13228,7 +13302,7 @@
       </c>
       <c r="K19" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003ad#0002</v>
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -13270,7 +13344,7 @@
       </c>
       <c r="K20" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_0039a#0002</v>
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -13312,7 +13386,7 @@
       </c>
       <c r="K21" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_003a1#0002</v>
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -13354,7 +13428,7 @@
       </c>
       <c r="K22" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00394#0002</v>
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -13396,7 +13470,7 @@
       </c>
       <c r="K23" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_00378#0002</v>
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -13438,7 +13512,7 @@
       </c>
       <c r="K24" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00377#0002</v>
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -13480,7 +13554,7 @@
       </c>
       <c r="K25" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_00380#0002</v>
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -13522,7 +13596,7 @@
       </c>
       <c r="K26" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_0036c#0002</v>
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -13564,7 +13638,7 @@
       </c>
       <c r="K27" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_003a2#0002</v>
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -13606,7 +13680,7 @@
       </c>
       <c r="K28" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_00371#0002</v>
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -13648,7 +13722,7 @@
       </c>
       <c r="K29" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$4,$I29,B29,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0039d#0002</v>
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -13690,7 +13764,7 @@
       </c>
       <c r="K30" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$4,$I30,B30,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_003ae#0002</v>
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -13732,7 +13806,7 @@
       </c>
       <c r="K31" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$4,$I31,B31,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_0039e#0002</v>
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -13774,7 +13848,7 @@
       </c>
       <c r="K32" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$4,$I32,B32,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003a7#0002</v>
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -13816,7 +13890,7 @@
       </c>
       <c r="K33" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$4,$I33,B33,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00373#0002</v>
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -13858,7 +13932,7 @@
       </c>
       <c r="K34" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$4,$I34,B34,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00375#0002</v>
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -13900,7 +13974,7 @@
       </c>
       <c r="K35" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$4,$I35,B35,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_0038b#0002</v>
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -13942,7 +14016,7 @@
       </c>
       <c r="K36" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$4,$I36,B36,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_00397#0002</v>
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -13984,7 +14058,7 @@
       </c>
       <c r="K37" s="164" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$4,$I37,B37,,Permanent,,ObjectOverwrite)</f>
-        <v>ob